--- a/results/srlpi-ARM.xlsx
+++ b/results/srlpi-ARM.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aktemur/Dropbox/Matrix/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aktemur/git/thundercat/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26140" yWindow="7240" windowWidth="22660" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="6060" yWindow="440" windowWidth="22660" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GPCE matrices" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -110,13 +110,13 @@
     <t>CSRbyNZ-a6d1617 speedup</t>
   </si>
   <si>
-    <t>stencil-1947ae</t>
-  </si>
-  <si>
-    <t>stencil-1947ae speedup</t>
-  </si>
-  <si>
     <t>NumStencils</t>
+  </si>
+  <si>
+    <t>stencil-4b82ec</t>
+  </si>
+  <si>
+    <t>stencil-4b82ec speedup</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,13 +478,13 @@
         <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -498,15 +498,15 @@
         <v>46191.9</v>
       </c>
       <c r="D2" s="1">
-        <f>B2/C2</f>
+        <f t="shared" ref="D2:D24" si="0">B2/C2</f>
         <v>0.9964192856323294</v>
       </c>
       <c r="E2">
-        <v>88439.6</v>
+        <v>71825.5</v>
       </c>
       <c r="F2" s="1">
-        <f>B2/E2</f>
-        <v>0.52042863151800778</v>
+        <f t="shared" ref="F2:F24" si="1">B2/E2</f>
+        <v>0.6408100187259399</v>
       </c>
       <c r="G2">
         <v>161683</v>
@@ -523,15 +523,15 @@
         <v>34159.300000000003</v>
       </c>
       <c r="D3" s="1">
-        <f>B3/C3</f>
+        <f t="shared" si="0"/>
         <v>0.80287066772445559</v>
       </c>
       <c r="E3">
-        <v>45898.8</v>
+        <v>41537</v>
       </c>
       <c r="F3" s="1">
-        <f>B3/E3</f>
-        <v>0.59752106808892602</v>
+        <f t="shared" si="1"/>
+        <v>0.66026675012639335</v>
       </c>
       <c r="G3">
         <v>31814</v>
@@ -548,15 +548,15 @@
         <v>41187.1</v>
       </c>
       <c r="D4" s="1">
-        <f>B4/C4</f>
+        <f t="shared" si="0"/>
         <v>0.84506799459053938</v>
       </c>
       <c r="E4">
-        <v>52270</v>
+        <v>48000.5</v>
       </c>
       <c r="F4" s="1">
-        <f>B4/E4</f>
-        <v>0.66588674191696962</v>
+        <f t="shared" si="1"/>
+        <v>0.72511536338163152</v>
       </c>
       <c r="G4">
         <v>49442</v>
@@ -573,15 +573,15 @@
         <v>44649.4</v>
       </c>
       <c r="D5" s="1">
-        <f>B5/C5</f>
+        <f t="shared" si="0"/>
         <v>0.9125251403154353</v>
       </c>
       <c r="E5">
-        <v>56528.5</v>
+        <v>51993.8</v>
       </c>
       <c r="F5" s="1">
-        <f>B5/E5</f>
-        <v>0.72076386247644986</v>
+        <f t="shared" si="1"/>
+        <v>0.78362612465332393</v>
       </c>
       <c r="G5">
         <v>40649</v>
@@ -598,15 +598,15 @@
         <v>98243</v>
       </c>
       <c r="D6" s="1">
-        <f>B6/C6</f>
+        <f t="shared" si="0"/>
         <v>0.89551621998513886</v>
       </c>
       <c r="E6">
-        <v>136781</v>
+        <v>119228</v>
       </c>
       <c r="F6" s="1">
-        <f>B6/E6</f>
-        <v>0.6432048310803401</v>
+        <f t="shared" si="1"/>
+        <v>0.7378988157144295</v>
       </c>
       <c r="G6">
         <v>126894</v>
@@ -623,15 +623,15 @@
         <v>241085</v>
       </c>
       <c r="D7" s="1">
-        <f>B7/C7</f>
+        <f t="shared" si="0"/>
         <v>0.89787419374909261</v>
       </c>
       <c r="E7">
-        <v>411277</v>
+        <v>343055</v>
       </c>
       <c r="F7" s="1">
-        <f>B7/E7</f>
-        <v>0.52632167614527436</v>
+        <f t="shared" si="1"/>
+        <v>0.63098919998251013</v>
       </c>
       <c r="G7">
         <v>504865</v>
@@ -648,15 +648,15 @@
         <v>24711</v>
       </c>
       <c r="D8" s="1">
-        <f>B8/C8</f>
+        <f t="shared" si="0"/>
         <v>0.89929586014325602</v>
       </c>
       <c r="E8">
-        <v>18265.5</v>
+        <v>18202.3</v>
       </c>
       <c r="F8" s="3">
-        <f>B8/E8</f>
-        <v>1.2166379239549971</v>
+        <f t="shared" si="1"/>
+        <v>1.2208621987331272</v>
       </c>
       <c r="G8">
         <v>601</v>
@@ -673,15 +673,15 @@
         <v>27295.3</v>
       </c>
       <c r="D9" s="1">
-        <f>B9/C9</f>
+        <f t="shared" si="0"/>
         <v>0.91588661784263237</v>
       </c>
       <c r="E9">
-        <v>20394.3</v>
+        <v>20364.3</v>
       </c>
       <c r="F9" s="3">
-        <f>B9/E9</f>
-        <v>1.2258032881736565</v>
+        <f t="shared" si="1"/>
+        <v>1.227609100239144</v>
       </c>
       <c r="G9">
         <v>4682</v>
@@ -698,15 +698,15 @@
         <v>32477.599999999999</v>
       </c>
       <c r="D10" s="1">
-        <f>B10/C10</f>
+        <f t="shared" si="0"/>
         <v>0.90736076557381096</v>
       </c>
       <c r="E10">
-        <v>40844.9</v>
+        <v>40897.699999999997</v>
       </c>
       <c r="F10" s="1">
-        <f>B10/E10</f>
-        <v>0.72148297584276133</v>
+        <f t="shared" si="1"/>
+        <v>0.72055152245725318</v>
       </c>
       <c r="G10">
         <v>8391</v>
@@ -723,15 +723,15 @@
         <v>56574.400000000001</v>
       </c>
       <c r="D11" s="1">
-        <f>B11/C11</f>
+        <f t="shared" si="0"/>
         <v>1.0524336095477813</v>
       </c>
       <c r="E11">
-        <v>119324</v>
+        <v>95015.8</v>
       </c>
       <c r="F11" s="1">
-        <f>B11/E11</f>
-        <v>0.49898427809996315</v>
+        <f t="shared" si="1"/>
+        <v>0.62664104285813516</v>
       </c>
       <c r="G11">
         <v>200200</v>
@@ -748,15 +748,15 @@
         <v>48898.3</v>
       </c>
       <c r="D12" s="1">
-        <f>B12/C12</f>
+        <f t="shared" si="0"/>
         <v>0.99702034631060787</v>
       </c>
       <c r="E12">
-        <v>30310</v>
+        <v>30332</v>
       </c>
       <c r="F12" s="3">
-        <f>B12/E12</f>
-        <v>1.6084658528538436</v>
+        <f t="shared" si="1"/>
+        <v>1.6072992219438216</v>
       </c>
       <c r="G12">
         <v>3148</v>
@@ -773,15 +773,15 @@
         <v>45886</v>
       </c>
       <c r="D13" s="1">
-        <f>B13/C13</f>
+        <f t="shared" si="0"/>
         <v>0.92067951009022364</v>
       </c>
       <c r="E13">
-        <v>39978.400000000001</v>
+        <v>39338.699999999997</v>
       </c>
       <c r="F13" s="3">
-        <f>B13/E13</f>
-        <v>1.0567281331919236</v>
+        <f t="shared" si="1"/>
+        <v>1.0739119493018328</v>
       </c>
       <c r="G13">
         <v>7432</v>
@@ -798,15 +798,15 @@
         <v>82337.899999999994</v>
       </c>
       <c r="D14" s="1">
-        <f>B14/C14</f>
+        <f t="shared" si="0"/>
         <v>0.86739642376111137</v>
       </c>
       <c r="E14">
-        <v>74524.7</v>
+        <v>71267.899999999994</v>
       </c>
       <c r="F14" s="1">
-        <f>B14/E14</f>
-        <v>0.95833461926046004</v>
+        <f t="shared" si="1"/>
+        <v>1.0021285880459507</v>
       </c>
       <c r="G14">
         <v>46535</v>
@@ -823,15 +823,15 @@
         <v>172417</v>
       </c>
       <c r="D15" s="1">
-        <f>B15/C15</f>
+        <f t="shared" si="0"/>
         <v>0.83438408045610357</v>
       </c>
       <c r="E15">
-        <v>220282</v>
+        <v>202234</v>
       </c>
       <c r="F15" s="1">
-        <f>B15/E15</f>
-        <v>0.6530810506532535</v>
+        <f t="shared" si="1"/>
+        <v>0.71136406341169145</v>
       </c>
       <c r="G15">
         <v>172130</v>
@@ -848,15 +848,15 @@
         <v>100535</v>
       </c>
       <c r="D16" s="1">
-        <f>B16/C16</f>
+        <f t="shared" si="0"/>
         <v>0.78791067787337754</v>
       </c>
       <c r="E16">
-        <v>74155.7</v>
+        <v>71218.399999999994</v>
       </c>
       <c r="F16" s="3">
-        <f>B16/E16</f>
-        <v>1.0681930047184507</v>
+        <f t="shared" si="1"/>
+        <v>1.1122490816979884</v>
       </c>
       <c r="G16">
         <v>935</v>
@@ -873,15 +873,15 @@
         <v>80730.3</v>
       </c>
       <c r="D17" s="1">
-        <f>B17/C17</f>
+        <f t="shared" si="0"/>
         <v>0.98087582976899612</v>
       </c>
       <c r="E17">
-        <v>80104.399999999994</v>
+        <v>79437.5</v>
       </c>
       <c r="F17" s="1">
-        <f>B17/E17</f>
-        <v>0.98853995535825745</v>
+        <f t="shared" si="1"/>
+        <v>0.99683902439024386</v>
       </c>
       <c r="G17">
         <v>648</v>
@@ -898,15 +898,15 @@
         <v>139688</v>
       </c>
       <c r="D18" s="1">
-        <f>B18/C18</f>
+        <f t="shared" si="0"/>
         <v>0.60674360002290817</v>
       </c>
       <c r="E18">
-        <v>135333</v>
+        <v>127481</v>
       </c>
       <c r="F18" s="1">
-        <f>B18/E18</f>
-        <v>0.62626853760723555</v>
+        <f t="shared" si="1"/>
+        <v>0.66484260399588957</v>
       </c>
       <c r="G18">
         <v>105098</v>
@@ -923,15 +923,15 @@
         <v>114087</v>
       </c>
       <c r="D19" s="1">
-        <f>B19/C19</f>
+        <f t="shared" si="0"/>
         <v>0.88269478555838965</v>
       </c>
       <c r="E19">
-        <v>177607</v>
+        <v>163021</v>
       </c>
       <c r="F19" s="1">
-        <f>B19/E19</f>
-        <v>0.56700467886963912</v>
+        <f t="shared" si="1"/>
+        <v>0.61773636525355624</v>
       </c>
       <c r="G19">
         <v>130228</v>
@@ -948,15 +948,15 @@
         <v>166339</v>
       </c>
       <c r="D20" s="1">
-        <f>B20/C20</f>
+        <f t="shared" si="0"/>
         <v>1.0257726690673865</v>
       </c>
       <c r="E20">
-        <v>411609</v>
+        <v>295181</v>
       </c>
       <c r="F20" s="1">
-        <f>B20/E20</f>
-        <v>0.41453418171128426</v>
+        <f t="shared" si="1"/>
+        <v>0.57803855939237281</v>
       </c>
       <c r="G20">
         <v>786432</v>
@@ -973,15 +973,15 @@
         <v>116743</v>
       </c>
       <c r="D21" s="1">
-        <f>B21/C21</f>
+        <f t="shared" si="0"/>
         <v>1.0544529436454435</v>
       </c>
       <c r="E21">
-        <v>90685.5</v>
+        <v>91989.4</v>
       </c>
       <c r="F21" s="3">
-        <f>B21/E21</f>
-        <v>1.3574386202865949</v>
+        <f t="shared" si="1"/>
+        <v>1.3381976619045239</v>
       </c>
       <c r="G21">
         <v>2298</v>
@@ -998,15 +998,15 @@
         <v>117564</v>
       </c>
       <c r="D22" s="1">
-        <f>B22/C22</f>
+        <f t="shared" si="0"/>
         <v>0.79444472797795251</v>
       </c>
       <c r="E22">
-        <v>88099.6</v>
+        <v>88541.2</v>
       </c>
       <c r="F22" s="3">
-        <f>B22/E22</f>
-        <v>1.0601421572856176</v>
+        <f t="shared" si="1"/>
+        <v>1.0548546891164792</v>
       </c>
       <c r="G22">
         <v>1131</v>
@@ -1023,15 +1023,15 @@
         <v>168671</v>
       </c>
       <c r="D23" s="1">
-        <f>B23/C23</f>
+        <f t="shared" si="0"/>
         <v>0.68940718914336196</v>
       </c>
       <c r="E23">
-        <v>164928</v>
+        <v>157507</v>
       </c>
       <c r="F23" s="1">
-        <f>B23/E23</f>
-        <v>0.70505311408614668</v>
+        <f t="shared" si="1"/>
+        <v>0.73827194981810329</v>
       </c>
       <c r="G23">
         <v>84195</v>
@@ -1048,15 +1048,15 @@
         <v>203340</v>
       </c>
       <c r="D24" s="1">
-        <f>B24/C24</f>
+        <f t="shared" si="0"/>
         <v>0.96756171928789225</v>
       </c>
       <c r="E24">
-        <v>315913</v>
+        <v>293535</v>
       </c>
       <c r="F24" s="1">
-        <f>B24/E24</f>
-        <v>0.62277905625915997</v>
+        <f t="shared" si="1"/>
+        <v>0.6702573798695215</v>
       </c>
       <c r="G24">
         <v>204290</v>

--- a/results/srlpi-ARM.xlsx
+++ b/results/srlpi-ARM.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="440" windowWidth="22660" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="6060" yWindow="440" windowWidth="22660" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GPCE matrices" sheetId="1" r:id="rId1"/>
+    <sheet name="Small matrices" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="107">
   <si>
     <t>email-EuAll</t>
   </si>
@@ -117,6 +118,237 @@
   </si>
   <si>
     <t>stencil-4b82ec speedup</t>
+  </si>
+  <si>
+    <t>add20</t>
+  </si>
+  <si>
+    <t>add32</t>
+  </si>
+  <si>
+    <t>adder_trans_02</t>
+  </si>
+  <si>
+    <t>as-735</t>
+  </si>
+  <si>
+    <t>bayer09</t>
+  </si>
+  <si>
+    <t>bcspwr06</t>
+  </si>
+  <si>
+    <t>bcspwr08</t>
+  </si>
+  <si>
+    <t>bcsstk06</t>
+  </si>
+  <si>
+    <t>bcsstk14</t>
+  </si>
+  <si>
+    <t>bcsstk19</t>
+  </si>
+  <si>
+    <t>bcsstk26</t>
+  </si>
+  <si>
+    <t>bfw398a</t>
+  </si>
+  <si>
+    <t>blckhole</t>
+  </si>
+  <si>
+    <t>bp__1600</t>
+  </si>
+  <si>
+    <t>c-18</t>
+  </si>
+  <si>
+    <t>ca-GrQc</t>
+  </si>
+  <si>
+    <t>can_1072</t>
+  </si>
+  <si>
+    <t>can__634</t>
+  </si>
+  <si>
+    <t>cavity05</t>
+  </si>
+  <si>
+    <t>cdde3</t>
+  </si>
+  <si>
+    <t>ck656</t>
+  </si>
+  <si>
+    <t>coater1</t>
+  </si>
+  <si>
+    <t>cry10000</t>
+  </si>
+  <si>
+    <t>dw2048</t>
+  </si>
+  <si>
+    <t>dwt_1242</t>
+  </si>
+  <si>
+    <t>dwt_2680</t>
+  </si>
+  <si>
+    <t>dwt__419</t>
+  </si>
+  <si>
+    <t>e05r0000</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>EVA</t>
+  </si>
+  <si>
+    <t>fidap002</t>
+  </si>
+  <si>
+    <t>fpga_dcop_51</t>
+  </si>
+  <si>
+    <t>fs_760_1</t>
+  </si>
+  <si>
+    <t>G33</t>
+  </si>
+  <si>
+    <t>GD06_Java</t>
+  </si>
+  <si>
+    <t>gr_30_30</t>
+  </si>
+  <si>
+    <t>gre_1107</t>
+  </si>
+  <si>
+    <t>hor__131</t>
+  </si>
+  <si>
+    <t>jpwh_991</t>
+  </si>
+  <si>
+    <t>lnsp3937</t>
+  </si>
+  <si>
+    <t>lshp3466</t>
+  </si>
+  <si>
+    <t>M80PI_n1</t>
+  </si>
+  <si>
+    <t>mahindas</t>
+  </si>
+  <si>
+    <t>mbeaflw</t>
+  </si>
+  <si>
+    <t>mbeause</t>
+  </si>
+  <si>
+    <t>mcfe</t>
+  </si>
+  <si>
+    <t>minnesota</t>
+  </si>
+  <si>
+    <t>nos3</t>
+  </si>
+  <si>
+    <t>olm5000</t>
+  </si>
+  <si>
+    <t>Oregon-1</t>
+  </si>
+  <si>
+    <t>orsreg_1</t>
+  </si>
+  <si>
+    <t>p2p-Gnutella04</t>
+  </si>
+  <si>
+    <t>pde900</t>
+  </si>
+  <si>
+    <t>Pd</t>
+  </si>
+  <si>
+    <t>plat1919</t>
+  </si>
+  <si>
+    <t>pores_2</t>
+  </si>
+  <si>
+    <t>rdb1250</t>
+  </si>
+  <si>
+    <t>rw5151</t>
+  </si>
+  <si>
+    <t>saylr4</t>
+  </si>
+  <si>
+    <t>sherman5</t>
+  </si>
+  <si>
+    <t>spiral</t>
+  </si>
+  <si>
+    <t>steam2</t>
+  </si>
+  <si>
+    <t>str__600</t>
+  </si>
+  <si>
+    <t>tols4000</t>
+  </si>
+  <si>
+    <t>tub1000</t>
+  </si>
+  <si>
+    <t>wang2</t>
+  </si>
+  <si>
+    <t>watt__1</t>
+  </si>
+  <si>
+    <t>watt__2</t>
+  </si>
+  <si>
+    <t>west0989</t>
+  </si>
+  <si>
+    <t>west2021</t>
+  </si>
+  <si>
+    <t>CSRbyNZ-edf3ba</t>
+  </si>
+  <si>
+    <t>CSRbyNZ speedup</t>
+  </si>
+  <si>
+    <t>stencil-edf3ba</t>
+  </si>
+  <si>
+    <t>stencil speedup</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>NumRowLengths</t>
   </si>
 </sst>
 </file>
@@ -183,7 +415,58 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -456,613 +739,3274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
+        <v>265214</v>
+      </c>
+      <c r="C2">
+        <v>420045</v>
+      </c>
+      <c r="D2" s="1">
         <v>46026.5</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>46191.9</v>
       </c>
-      <c r="D2" s="1">
-        <f t="shared" ref="D2:D24" si="0">B2/C2</f>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F24" si="0">D2/E2</f>
         <v>0.9964192856323294</v>
       </c>
-      <c r="E2">
+      <c r="G2">
+        <v>311</v>
+      </c>
+      <c r="H2">
         <v>71825.5</v>
       </c>
-      <c r="F2" s="1">
-        <f t="shared" ref="F2:F24" si="1">B2/E2</f>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I24" si="1">D2/H2</f>
         <v>0.6408100187259399</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>161683</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
+        <v>34546</v>
+      </c>
+      <c r="C3">
+        <v>421578</v>
+      </c>
+      <c r="D3" s="1">
         <v>27425.5</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>34159.300000000003</v>
       </c>
-      <c r="D3" s="1">
+      <c r="F3" s="1">
         <f t="shared" si="0"/>
         <v>0.80287066772445559</v>
       </c>
-      <c r="E3">
+      <c r="G3">
+        <v>162</v>
+      </c>
+      <c r="H3">
         <v>41537</v>
       </c>
-      <c r="F3" s="1">
+      <c r="I3" s="1">
         <f t="shared" si="1"/>
         <v>0.66026675012639335</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>31814</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
+        <v>75888</v>
+      </c>
+      <c r="C4">
+        <v>508837</v>
+      </c>
+      <c r="D4" s="1">
         <v>34805.9</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>41187.1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F4" s="1">
         <f t="shared" si="0"/>
         <v>0.84506799459053938</v>
       </c>
-      <c r="E4">
+      <c r="G4">
+        <v>326</v>
+      </c>
+      <c r="H4">
         <v>48000.5</v>
       </c>
-      <c r="F4" s="1">
+      <c r="I4" s="1">
         <f t="shared" si="1"/>
         <v>0.72511536338163152</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>49442</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
+        <v>77357</v>
+      </c>
+      <c r="C5">
+        <v>516575</v>
+      </c>
+      <c r="D5" s="1">
         <v>40743.699999999997</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>44649.4</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>0.9125251403154353</v>
       </c>
-      <c r="E5">
+      <c r="G5">
+        <v>279</v>
+      </c>
+      <c r="H5">
         <v>51993.8</v>
       </c>
-      <c r="F5" s="1">
+      <c r="I5" s="1">
         <f t="shared" si="1"/>
         <v>0.78362612465332393</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>40649</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
+        <v>325729</v>
+      </c>
+      <c r="C6">
+        <v>1497134</v>
+      </c>
+      <c r="D6" s="1">
         <v>87978.2</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>98243</v>
       </c>
-      <c r="D6" s="1">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>0.89551621998513886</v>
       </c>
-      <c r="E6">
+      <c r="G6">
+        <v>312</v>
+      </c>
+      <c r="H6">
         <v>119228</v>
       </c>
-      <c r="F6" s="1">
+      <c r="I6" s="1">
         <f t="shared" si="1"/>
         <v>0.7378988157144295</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>126894</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
+        <v>1000005</v>
+      </c>
+      <c r="C7">
+        <v>3105536</v>
+      </c>
+      <c r="D7" s="1">
         <v>216464</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>241085</v>
       </c>
-      <c r="D7" s="1">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>0.89787419374909261</v>
       </c>
-      <c r="E7">
+      <c r="G7">
+        <v>370</v>
+      </c>
+      <c r="H7">
         <v>343055</v>
       </c>
-      <c r="F7" s="1">
+      <c r="I7" s="1">
         <f t="shared" si="1"/>
         <v>0.63098919998251013</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>504865</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
+        <v>17281</v>
+      </c>
+      <c r="C8">
+        <v>553562</v>
+      </c>
+      <c r="D8" s="1">
         <v>22222.5</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>24711</v>
       </c>
-      <c r="D8" s="1">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>0.89929586014325602</v>
       </c>
-      <c r="E8">
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8">
         <v>18202.3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <f t="shared" si="1"/>
         <v>1.2208621987331272</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
+        <v>22294</v>
+      </c>
+      <c r="C9">
+        <v>617874</v>
+      </c>
+      <c r="D9" s="1">
         <v>24999.4</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>27295.3</v>
       </c>
-      <c r="D9" s="1">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>0.91588661784263237</v>
       </c>
-      <c r="E9">
+      <c r="G9">
+        <v>22</v>
+      </c>
+      <c r="H9">
         <v>20364.3</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <f t="shared" si="1"/>
         <v>1.227609100239144</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>4682</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
+        <v>9152</v>
+      </c>
+      <c r="C10">
+        <v>765944</v>
+      </c>
+      <c r="D10" s="1">
         <v>29468.9</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>32477.599999999999</v>
       </c>
-      <c r="D10" s="1">
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>0.90736076557381096</v>
       </c>
-      <c r="E10">
+      <c r="G10">
+        <v>70</v>
+      </c>
+      <c r="H10">
         <v>40897.699999999997</v>
       </c>
-      <c r="F10" s="1">
+      <c r="I10" s="1">
         <f t="shared" si="1"/>
         <v>0.72055152245725318</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>8391</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
+        <v>200200</v>
+      </c>
+      <c r="C11">
+        <v>800800</v>
+      </c>
+      <c r="D11" s="1">
         <v>59540.800000000003</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>56574.400000000001</v>
       </c>
-      <c r="D11" s="1">
+      <c r="F11" s="1">
         <f t="shared" si="0"/>
         <v>1.0524336095477813</v>
       </c>
-      <c r="E11">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>95015.8</v>
       </c>
-      <c r="F11" s="1">
+      <c r="I11" s="1">
         <f t="shared" si="1"/>
         <v>0.62664104285813516</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>200200</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
+        <v>115967</v>
+      </c>
+      <c r="C12">
+        <v>1033473</v>
+      </c>
+      <c r="D12" s="1">
         <v>48752.6</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>48898.3</v>
       </c>
-      <c r="D12" s="1">
+      <c r="F12" s="1">
         <f t="shared" si="0"/>
         <v>0.99702034631060787</v>
       </c>
-      <c r="E12">
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
         <v>30332</v>
       </c>
-      <c r="F12" s="3">
+      <c r="I12" s="3">
         <f t="shared" si="1"/>
         <v>1.6072992219438216</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>3148</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
+        <v>16614</v>
+      </c>
+      <c r="C13">
+        <v>1091362</v>
+      </c>
+      <c r="D13" s="1">
         <v>42246.3</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>45886</v>
       </c>
-      <c r="D13" s="1">
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>0.92067951009022364</v>
       </c>
-      <c r="E13">
+      <c r="G13">
+        <v>71</v>
+      </c>
+      <c r="H13">
         <v>39338.699999999997</v>
       </c>
-      <c r="F13" s="3">
+      <c r="I13" s="3">
         <f t="shared" si="1"/>
         <v>1.0739119493018328</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>7432</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
+        <v>123440</v>
+      </c>
+      <c r="C14">
+        <v>1604423</v>
+      </c>
+      <c r="D14" s="1">
         <v>71419.600000000006</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>82337.899999999994</v>
       </c>
-      <c r="D14" s="1">
+      <c r="F14" s="1">
         <f t="shared" si="0"/>
         <v>0.86739642376111137</v>
       </c>
-      <c r="E14">
+      <c r="G14">
+        <v>27</v>
+      </c>
+      <c r="H14">
         <v>71267.899999999994</v>
       </c>
-      <c r="F14" s="1">
+      <c r="I14" s="1">
         <f t="shared" si="1"/>
         <v>1.0021285880459507</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>46535</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
+        <v>214765</v>
+      </c>
+      <c r="C15">
+        <v>1679018</v>
+      </c>
+      <c r="D15" s="1">
         <v>143862</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>172417</v>
       </c>
-      <c r="D15" s="1">
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
         <v>0.83438408045610357</v>
       </c>
-      <c r="E15">
+      <c r="G15">
+        <v>22</v>
+      </c>
+      <c r="H15">
         <v>202234</v>
       </c>
-      <c r="F15" s="1">
+      <c r="I15" s="1">
         <f t="shared" si="1"/>
         <v>0.71136406341169145</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>172130</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
+        <v>90449</v>
+      </c>
+      <c r="C16">
+        <v>1888336</v>
+      </c>
+      <c r="D16" s="1">
         <v>79212.600000000006</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>100535</v>
       </c>
-      <c r="D16" s="1">
+      <c r="F16" s="1">
         <f t="shared" si="0"/>
         <v>0.78791067787337754</v>
       </c>
-      <c r="E16">
+      <c r="G16">
+        <v>23</v>
+      </c>
+      <c r="H16">
         <v>71218.399999999994</v>
       </c>
-      <c r="F16" s="3">
+      <c r="I16" s="3">
         <f t="shared" si="1"/>
         <v>1.1122490816979884</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>935</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
+        <v>49152</v>
+      </c>
+      <c r="C17">
+        <v>1916928</v>
+      </c>
+      <c r="D17" s="1">
         <v>79186.399999999994</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>80730.3</v>
       </c>
-      <c r="D17" s="1">
+      <c r="F17" s="1">
         <f t="shared" si="0"/>
         <v>0.98087582976899612</v>
       </c>
-      <c r="E17">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>79437.5</v>
       </c>
-      <c r="F17" s="1">
+      <c r="I17" s="1">
         <f t="shared" si="1"/>
         <v>0.99683902439024386</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>648</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
+        <v>121728</v>
+      </c>
+      <c r="C18">
+        <v>1949382</v>
+      </c>
+      <c r="D18" s="1">
         <v>84754.8</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>139688</v>
       </c>
-      <c r="D18" s="1">
+      <c r="F18" s="1">
         <f t="shared" si="0"/>
         <v>0.60674360002290817</v>
       </c>
-      <c r="E18">
+      <c r="G18">
+        <v>60</v>
+      </c>
+      <c r="H18">
         <v>127481</v>
       </c>
-      <c r="F18" s="1">
+      <c r="I18" s="1">
         <f t="shared" si="1"/>
         <v>0.66484260399588957</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>105098</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
+        <v>130228</v>
+      </c>
+      <c r="C19">
+        <v>2032536</v>
+      </c>
+      <c r="D19" s="1">
         <v>100704</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>114087</v>
       </c>
-      <c r="D19" s="1">
+      <c r="F19" s="1">
         <f t="shared" si="0"/>
         <v>0.88269478555838965</v>
       </c>
-      <c r="E19">
+      <c r="G19">
+        <v>28</v>
+      </c>
+      <c r="H19">
         <v>163021</v>
       </c>
-      <c r="F19" s="1">
+      <c r="I19" s="1">
         <f t="shared" si="1"/>
         <v>0.61773636525355624</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>130228</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
+        <v>1048576</v>
+      </c>
+      <c r="C20">
+        <v>2097149</v>
+      </c>
+      <c r="D20" s="1">
         <v>170626</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>166339</v>
       </c>
-      <c r="D20" s="1">
+      <c r="F20" s="1">
         <f t="shared" si="0"/>
         <v>1.0257726690673865</v>
       </c>
-      <c r="E20">
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
         <v>295181</v>
       </c>
-      <c r="F20" s="1">
+      <c r="I20" s="1">
         <f t="shared" si="1"/>
         <v>0.57803855939237281</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>786432</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
+        <v>525825</v>
+      </c>
+      <c r="C21">
+        <v>2100225</v>
+      </c>
+      <c r="D21" s="1">
         <v>123100</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>116743</v>
       </c>
-      <c r="D21" s="1">
+      <c r="F21" s="1">
         <f t="shared" si="0"/>
         <v>1.0544529436454435</v>
       </c>
-      <c r="E21">
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
         <v>91989.4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <f t="shared" si="1"/>
         <v>1.3381976619045239</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>2298</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
+        <v>90449</v>
+      </c>
+      <c r="C22">
+        <v>2259087</v>
+      </c>
+      <c r="D22" s="1">
         <v>93398.1</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>117564</v>
       </c>
-      <c r="D22" s="1">
+      <c r="F22" s="1">
         <f t="shared" si="0"/>
         <v>0.79444472797795251</v>
       </c>
-      <c r="E22">
+      <c r="G22">
+        <v>29</v>
+      </c>
+      <c r="H22">
         <v>88541.2</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <f t="shared" si="1"/>
         <v>1.0548546891164792</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>1131</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
+        <v>143571</v>
+      </c>
+      <c r="C23">
+        <v>2424822</v>
+      </c>
+      <c r="D23" s="1">
         <v>116283</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>168671</v>
       </c>
-      <c r="D23" s="1">
+      <c r="F23" s="1">
         <f t="shared" si="0"/>
         <v>0.68940718914336196</v>
       </c>
-      <c r="E23">
+      <c r="G23">
+        <v>147</v>
+      </c>
+      <c r="H23">
         <v>157507</v>
       </c>
-      <c r="F23" s="1">
+      <c r="I23" s="1">
         <f t="shared" si="1"/>
         <v>0.73827194981810329</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <v>84195</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
+        <v>204316</v>
+      </c>
+      <c r="C24">
+        <v>2846228</v>
+      </c>
+      <c r="D24" s="1">
         <v>196744</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>203340</v>
       </c>
-      <c r="D24" s="1">
+      <c r="F24" s="1">
         <f t="shared" si="0"/>
         <v>0.96756171928789225</v>
       </c>
-      <c r="E24">
+      <c r="G24">
+        <v>9</v>
+      </c>
+      <c r="H24">
         <v>293535</v>
       </c>
-      <c r="F24" s="1">
+      <c r="I24" s="1">
         <f t="shared" si="1"/>
         <v>0.6702573798695215</v>
       </c>
-      <c r="G24">
+      <c r="J24">
         <v>204290</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>2395</v>
+      </c>
+      <c r="C2">
+        <v>13151</v>
+      </c>
+      <c r="D2">
+        <v>262.42099999999999</v>
+      </c>
+      <c r="E2">
+        <v>254.62899999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <f>D2/E2</f>
+        <v>1.0306013847597877</v>
+      </c>
+      <c r="G2">
+        <v>48</v>
+      </c>
+      <c r="H2">
+        <v>267.83999999999997</v>
+      </c>
+      <c r="I2" s="1">
+        <f>D2/H2</f>
+        <v>0.97976777180406216</v>
+      </c>
+      <c r="J2">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>4960</v>
+      </c>
+      <c r="C3">
+        <v>19848</v>
+      </c>
+      <c r="D3">
+        <v>446.416</v>
+      </c>
+      <c r="E3">
+        <v>433.303</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F66" si="0">D3/E3</f>
+        <v>1.0302628876329036</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>1106.0999999999999</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I66" si="1">D3/H3</f>
+        <v>0.40359461169876143</v>
+      </c>
+      <c r="J3">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>1814</v>
+      </c>
+      <c r="C4">
+        <v>14579</v>
+      </c>
+      <c r="D4">
+        <v>272.60500000000002</v>
+      </c>
+      <c r="E4">
+        <v>275.05099999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9911071037734821</v>
+      </c>
+      <c r="G4">
+        <v>31</v>
+      </c>
+      <c r="H4">
+        <v>309.73500000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.88012333123476527</v>
+      </c>
+      <c r="J4">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>7716</v>
+      </c>
+      <c r="C5">
+        <v>13895</v>
+      </c>
+      <c r="D5">
+        <v>484.63200000000001</v>
+      </c>
+      <c r="E5">
+        <v>380.33</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2742407908921201</v>
+      </c>
+      <c r="G5">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <v>1199.97</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.40387009675241881</v>
+      </c>
+      <c r="J5">
+        <v>5470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>3083</v>
+      </c>
+      <c r="C6">
+        <v>11767</v>
+      </c>
+      <c r="D6">
+        <v>260.88200000000001</v>
+      </c>
+      <c r="E6">
+        <v>242.511</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0757532648003596</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>273.34899999999999</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.95439163852803566</v>
+      </c>
+      <c r="J6">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>1454</v>
+      </c>
+      <c r="C7">
+        <v>3377</v>
+      </c>
+      <c r="D7">
+        <v>95.5535</v>
+      </c>
+      <c r="E7">
+        <v>78.307500000000005</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2202343325990486</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>76.342699999999994</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2516389910233723</v>
+      </c>
+      <c r="J7">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>1624</v>
+      </c>
+      <c r="C8">
+        <v>3837</v>
+      </c>
+      <c r="D8">
+        <v>108.357</v>
+      </c>
+      <c r="E8">
+        <v>90.114800000000002</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2024328967050917</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>87.807599999999994</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2340275784784005</v>
+      </c>
+      <c r="J8">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>420</v>
+      </c>
+      <c r="C9">
+        <v>4140</v>
+      </c>
+      <c r="D9">
+        <v>68.049599999999998</v>
+      </c>
+      <c r="E9">
+        <v>65.748199999999997</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0350032396324158</v>
+      </c>
+      <c r="G9">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>61.669899999999998</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1034491705029521</v>
+      </c>
+      <c r="J9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>1806</v>
+      </c>
+      <c r="C10">
+        <v>32630</v>
+      </c>
+      <c r="D10">
+        <v>505.75200000000001</v>
+      </c>
+      <c r="E10">
+        <v>604.327</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.83688466674499074</v>
+      </c>
+      <c r="G10">
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <v>1411</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3584351523742027</v>
+      </c>
+      <c r="J10">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>817</v>
+      </c>
+      <c r="C11">
+        <v>3835</v>
+      </c>
+      <c r="D11">
+        <v>76.725899999999996</v>
+      </c>
+      <c r="E11">
+        <v>70.005899999999997</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.095991909253363</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>66.108800000000002</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1606004041821965</v>
+      </c>
+      <c r="J11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>1922</v>
+      </c>
+      <c r="C12">
+        <v>16129</v>
+      </c>
+      <c r="D12">
+        <v>287.47899999999998</v>
+      </c>
+      <c r="E12">
+        <v>292.988</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98119718213715235</v>
+      </c>
+      <c r="G12">
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <v>268.50200000000001</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0706773133905891</v>
+      </c>
+      <c r="J12">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>398</v>
+      </c>
+      <c r="C13">
+        <v>3678</v>
+      </c>
+      <c r="D13">
+        <v>59.801400000000001</v>
+      </c>
+      <c r="E13">
+        <v>58.389800000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0241754553021247</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>53.9923</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1075912676437196</v>
+      </c>
+      <c r="J13">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>2132</v>
+      </c>
+      <c r="C14">
+        <v>8502</v>
+      </c>
+      <c r="D14">
+        <v>182.61</v>
+      </c>
+      <c r="E14">
+        <v>162.95599999999999</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1206092442131621</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>162.33199999999999</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1249168370992781</v>
+      </c>
+      <c r="J14">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>822</v>
+      </c>
+      <c r="C15">
+        <v>4841</v>
+      </c>
+      <c r="D15">
+        <v>93.410300000000007</v>
+      </c>
+      <c r="E15">
+        <v>86.513099999999994</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0797243423250353</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <v>80.967500000000001</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1536764751289099</v>
+      </c>
+      <c r="J15">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>2169</v>
+      </c>
+      <c r="C16">
+        <v>8657</v>
+      </c>
+      <c r="D16">
+        <v>187.89699999999999</v>
+      </c>
+      <c r="E16">
+        <v>173.18100000000001</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0849746796704025</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>169.74299999999999</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1069499184060609</v>
+      </c>
+      <c r="J16">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>5242</v>
+      </c>
+      <c r="C17">
+        <v>14496</v>
+      </c>
+      <c r="D17">
+        <v>426.18299999999999</v>
+      </c>
+      <c r="E17">
+        <v>374.19</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1389481279563858</v>
+      </c>
+      <c r="G17">
+        <v>48</v>
+      </c>
+      <c r="H17">
+        <v>813.42200000000003</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52393837393136644</v>
+      </c>
+      <c r="J17">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>1072</v>
+      </c>
+      <c r="C18">
+        <v>6758</v>
+      </c>
+      <c r="D18">
+        <v>127.92700000000001</v>
+      </c>
+      <c r="E18">
+        <v>121.85599999999999</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0498211003151261</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>111.512</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1472038883707583</v>
+      </c>
+      <c r="J18">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>634</v>
+      </c>
+      <c r="C19">
+        <v>3931</v>
+      </c>
+      <c r="D19">
+        <v>71.954800000000006</v>
+      </c>
+      <c r="E19">
+        <v>67.491600000000005</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0661297109566228</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>63.034500000000001</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1415145674194291</v>
+      </c>
+      <c r="J19">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>1182</v>
+      </c>
+      <c r="C20">
+        <v>32632</v>
+      </c>
+      <c r="D20">
+        <v>487.334</v>
+      </c>
+      <c r="E20">
+        <v>596.42600000000004</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.81709046889303949</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <v>501.55500000000001</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97164618037902128</v>
+      </c>
+      <c r="J20">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>961</v>
+      </c>
+      <c r="C21">
+        <v>4681</v>
+      </c>
+      <c r="D21">
+        <v>90.608199999999997</v>
+      </c>
+      <c r="E21">
+        <v>86.278499999999994</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0501828381346454</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>81.163899999999998</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1163608451540648</v>
+      </c>
+      <c r="J21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>656</v>
+      </c>
+      <c r="C22">
+        <v>3884</v>
+      </c>
+      <c r="D22">
+        <v>70.848699999999994</v>
+      </c>
+      <c r="E22">
+        <v>67.081000000000003</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0561664256644949</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>65.343900000000005</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0842435177575871</v>
+      </c>
+      <c r="J22">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <v>1348</v>
+      </c>
+      <c r="C23">
+        <v>19457</v>
+      </c>
+      <c r="D23">
+        <v>310.84100000000001</v>
+      </c>
+      <c r="E23">
+        <v>327.54500000000002</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94900242714741478</v>
+      </c>
+      <c r="G23">
+        <v>39</v>
+      </c>
+      <c r="H23">
+        <v>402.42399999999998</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.77242162495278621</v>
+      </c>
+      <c r="J23">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24">
+        <v>10000</v>
+      </c>
+      <c r="C24">
+        <v>49699</v>
+      </c>
+      <c r="D24">
+        <v>1978.06</v>
+      </c>
+      <c r="E24">
+        <v>2054.04</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96300948374909934</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>1240.6300000000001</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5943996195481327</v>
+      </c>
+      <c r="J24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>2048</v>
+      </c>
+      <c r="C25">
+        <v>10114</v>
+      </c>
+      <c r="D25">
+        <v>200.803</v>
+      </c>
+      <c r="E25">
+        <v>192.429</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0435173492560892</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>180.667</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1114536689046699</v>
+      </c>
+      <c r="J25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26">
+        <v>1242</v>
+      </c>
+      <c r="C26">
+        <v>5834</v>
+      </c>
+      <c r="D26">
+        <v>117.55500000000001</v>
+      </c>
+      <c r="E26">
+        <v>110.437</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0644530365728877</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>104.258</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1275393734773351</v>
+      </c>
+      <c r="J26">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>2680</v>
+      </c>
+      <c r="C27">
+        <v>13853</v>
+      </c>
+      <c r="D27">
+        <v>278.48700000000002</v>
+      </c>
+      <c r="E27">
+        <v>273.21899999999999</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0192812359316155</v>
+      </c>
+      <c r="G27">
+        <v>14</v>
+      </c>
+      <c r="H27">
+        <v>265.51900000000001</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0488401959935072</v>
+      </c>
+      <c r="J27">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <v>419</v>
+      </c>
+      <c r="C28">
+        <v>1991</v>
+      </c>
+      <c r="D28">
+        <v>37.204599999999999</v>
+      </c>
+      <c r="E28">
+        <v>31.46</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1826001271455817</v>
+      </c>
+      <c r="G28">
+        <v>12</v>
+      </c>
+      <c r="H28">
+        <v>32.128599999999999</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.157990077376543</v>
+      </c>
+      <c r="J28">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>236</v>
+      </c>
+      <c r="C29">
+        <v>5846</v>
+      </c>
+      <c r="D29">
+        <v>83.347700000000003</v>
+      </c>
+      <c r="E29">
+        <v>87.099800000000002</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.95692182990087238</v>
+      </c>
+      <c r="G29">
+        <v>19</v>
+      </c>
+      <c r="H29">
+        <v>80.433999999999997</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="1"/>
+        <v>1.036224730835219</v>
+      </c>
+      <c r="J29">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>1133</v>
+      </c>
+      <c r="C30">
+        <v>5451</v>
+      </c>
+      <c r="D30">
+        <v>113.194</v>
+      </c>
+      <c r="E30">
+        <v>104.669</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0814472288834327</v>
+      </c>
+      <c r="G30">
+        <v>25</v>
+      </c>
+      <c r="H30">
+        <v>95.805499999999995</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1814979307033522</v>
+      </c>
+      <c r="J30">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31">
+        <v>8497</v>
+      </c>
+      <c r="C31">
+        <v>6726</v>
+      </c>
+      <c r="D31">
+        <v>320.86</v>
+      </c>
+      <c r="E31">
+        <v>155.54499999999999</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0628114050596293</v>
+      </c>
+      <c r="G31">
+        <v>57</v>
+      </c>
+      <c r="H31">
+        <v>153.97200000000001</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0838853817577223</v>
+      </c>
+      <c r="J31">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>441</v>
+      </c>
+      <c r="C32">
+        <v>26831</v>
+      </c>
+      <c r="D32">
+        <v>379.47800000000001</v>
+      </c>
+      <c r="E32">
+        <v>414.81700000000001</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91480821663528733</v>
+      </c>
+      <c r="G32">
+        <v>22</v>
+      </c>
+      <c r="H32">
+        <v>757.58100000000002</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.50090749372014343</v>
+      </c>
+      <c r="J32">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33">
+        <v>1220</v>
+      </c>
+      <c r="C33">
+        <v>5892</v>
+      </c>
+      <c r="D33">
+        <v>119.764</v>
+      </c>
+      <c r="E33">
+        <v>111.85299999999999</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0707267574405694</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+      <c r="H33">
+        <v>106.753</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1218794787968487</v>
+      </c>
+      <c r="J33">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34">
+        <v>760</v>
+      </c>
+      <c r="C34">
+        <v>5739</v>
+      </c>
+      <c r="D34">
+        <v>100.608</v>
+      </c>
+      <c r="E34">
+        <v>98.322699999999998</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0232428523626793</v>
+      </c>
+      <c r="G34">
+        <v>19</v>
+      </c>
+      <c r="H34">
+        <v>94.192999999999998</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0681048485556253</v>
+      </c>
+      <c r="J34">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35">
+        <v>2000</v>
+      </c>
+      <c r="C35">
+        <v>4000</v>
+      </c>
+      <c r="D35">
+        <v>116.212</v>
+      </c>
+      <c r="E35">
+        <v>90.891099999999994</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2785850319778285</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>96.704400000000007</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2017240166941732</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36">
+        <v>1538</v>
+      </c>
+      <c r="C36">
+        <v>8032</v>
+      </c>
+      <c r="D36">
+        <v>164.00800000000001</v>
+      </c>
+      <c r="E36">
+        <v>152.87299999999999</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0728382382762163</v>
+      </c>
+      <c r="G36">
+        <v>39</v>
+      </c>
+      <c r="H36">
+        <v>143.38200000000001</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1438534823060078</v>
+      </c>
+      <c r="J36">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37">
+        <v>900</v>
+      </c>
+      <c r="C37">
+        <v>4322</v>
+      </c>
+      <c r="D37">
+        <v>84.011399999999995</v>
+      </c>
+      <c r="E37">
+        <v>79.964699999999993</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0506060799327703</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>73.820999999999998</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1380420205632542</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38">
+        <v>1107</v>
+      </c>
+      <c r="C38">
+        <v>5664</v>
+      </c>
+      <c r="D38">
+        <v>112.96599999999999</v>
+      </c>
+      <c r="E38">
+        <v>105.47799999999999</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0709911071503062</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>98.072800000000001</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1518586193113687</v>
+      </c>
+      <c r="J38">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39">
+        <v>434</v>
+      </c>
+      <c r="C39">
+        <v>4182</v>
+      </c>
+      <c r="D39">
+        <v>68.322299999999998</v>
+      </c>
+      <c r="E39">
+        <v>66.517899999999997</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0271265328580728</v>
+      </c>
+      <c r="G39">
+        <v>24</v>
+      </c>
+      <c r="H39">
+        <v>60.830399999999997</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1231604592440623</v>
+      </c>
+      <c r="J39">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40">
+        <v>991</v>
+      </c>
+      <c r="C40">
+        <v>6027</v>
+      </c>
+      <c r="D40">
+        <v>115.136</v>
+      </c>
+      <c r="E40">
+        <v>108.81100000000001</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0581283142329359</v>
+      </c>
+      <c r="G40">
+        <v>13</v>
+      </c>
+      <c r="H40">
+        <v>97.985200000000006</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="1"/>
+        <v>1.175034597061597</v>
+      </c>
+      <c r="J40">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41">
+        <v>3937</v>
+      </c>
+      <c r="C41">
+        <v>25407</v>
+      </c>
+      <c r="D41">
+        <v>487.03399999999999</v>
+      </c>
+      <c r="E41">
+        <v>484.57</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0050849206512991</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41">
+        <v>476.52</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0220641316209182</v>
+      </c>
+      <c r="J41">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42">
+        <v>3466</v>
+      </c>
+      <c r="C42">
+        <v>13681</v>
+      </c>
+      <c r="D42">
+        <v>296.57</v>
+      </c>
+      <c r="E42">
+        <v>272.04300000000001</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0901585411129857</v>
+      </c>
+      <c r="G42">
+        <v>7</v>
+      </c>
+      <c r="H42">
+        <v>281.07499999999999</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="1"/>
+        <v>1.055127634972872</v>
+      </c>
+      <c r="J42">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43">
+        <v>4028</v>
+      </c>
+      <c r="C43">
+        <v>9927</v>
+      </c>
+      <c r="D43">
+        <v>260.19900000000001</v>
+      </c>
+      <c r="E43">
+        <v>228.99700000000001</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1362550601099577</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+      <c r="H43">
+        <v>231.89400000000001</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1220600791741053</v>
+      </c>
+      <c r="J43">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44">
+        <v>1258</v>
+      </c>
+      <c r="C44">
+        <v>7682</v>
+      </c>
+      <c r="D44">
+        <v>143.821</v>
+      </c>
+      <c r="E44">
+        <v>137.67500000000001</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0446413655347737</v>
+      </c>
+      <c r="G44">
+        <v>34</v>
+      </c>
+      <c r="H44">
+        <v>129.46799999999999</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1108613711496278</v>
+      </c>
+      <c r="J44">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45">
+        <v>496</v>
+      </c>
+      <c r="C45">
+        <v>49920</v>
+      </c>
+      <c r="D45">
+        <v>1086.1300000000001</v>
+      </c>
+      <c r="E45">
+        <v>3309.8</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32815577980542632</v>
+      </c>
+      <c r="G45">
+        <v>209</v>
+      </c>
+      <c r="H45">
+        <v>2377.56</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4568254849509582</v>
+      </c>
+      <c r="J45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46">
+        <v>496</v>
+      </c>
+      <c r="C46">
+        <v>41063</v>
+      </c>
+      <c r="D46">
+        <v>741.48</v>
+      </c>
+      <c r="E46">
+        <v>2619.04</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28311136905125545</v>
+      </c>
+      <c r="G46">
+        <v>181</v>
+      </c>
+      <c r="H46">
+        <v>1816.7</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="1"/>
+        <v>0.40814663951120161</v>
+      </c>
+      <c r="J46">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47">
+        <v>765</v>
+      </c>
+      <c r="C47">
+        <v>24382</v>
+      </c>
+      <c r="D47">
+        <v>353.25200000000001</v>
+      </c>
+      <c r="E47">
+        <v>390.94900000000001</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90357565820605756</v>
+      </c>
+      <c r="G47">
+        <v>55</v>
+      </c>
+      <c r="H47">
+        <v>400.81700000000001</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="1"/>
+        <v>0.88132988371251719</v>
+      </c>
+      <c r="J47">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48">
+        <v>2642</v>
+      </c>
+      <c r="C48">
+        <v>3303</v>
+      </c>
+      <c r="D48">
+        <v>131.51900000000001</v>
+      </c>
+      <c r="E48">
+        <v>103.497</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2707518092311856</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>115.352</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1401536167556696</v>
+      </c>
+      <c r="J48">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49">
+        <v>960</v>
+      </c>
+      <c r="C49">
+        <v>8402</v>
+      </c>
+      <c r="D49">
+        <v>144.58600000000001</v>
+      </c>
+      <c r="E49">
+        <v>141.358</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0228356371765306</v>
+      </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>133.67400000000001</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="1"/>
+        <v>1.081631431692027</v>
+      </c>
+      <c r="J49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50">
+        <v>5000</v>
+      </c>
+      <c r="C50">
+        <v>19996</v>
+      </c>
+      <c r="D50">
+        <v>426.88299999999998</v>
+      </c>
+      <c r="E50">
+        <v>382.18</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1169684441886021</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>398.11500000000001</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0722605277369603</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51">
+        <v>11492</v>
+      </c>
+      <c r="C51">
+        <v>23409</v>
+      </c>
+      <c r="D51">
+        <v>931.48400000000004</v>
+      </c>
+      <c r="E51">
+        <v>809.01800000000003</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1513761127688136</v>
+      </c>
+      <c r="G51">
+        <v>47</v>
+      </c>
+      <c r="H51">
+        <v>2861.44</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="1"/>
+        <v>0.32552980317602326</v>
+      </c>
+      <c r="J51">
+        <v>9503</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52">
+        <v>2205</v>
+      </c>
+      <c r="C52">
+        <v>14133</v>
+      </c>
+      <c r="D52">
+        <v>264.90199999999999</v>
+      </c>
+      <c r="E52">
+        <v>254.61799999999999</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0403899174449567</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>252.05</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0509898829597302</v>
+      </c>
+      <c r="J52">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53">
+        <v>10879</v>
+      </c>
+      <c r="C53">
+        <v>39994</v>
+      </c>
+      <c r="D53">
+        <v>1930.02</v>
+      </c>
+      <c r="E53">
+        <v>1667.14</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1576832179660976</v>
+      </c>
+      <c r="G53">
+        <v>37</v>
+      </c>
+      <c r="H53">
+        <v>3467.61</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55658508309758015</v>
+      </c>
+      <c r="J53">
+        <v>4903</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54">
+        <v>900</v>
+      </c>
+      <c r="C54">
+        <v>4380</v>
+      </c>
+      <c r="D54">
+        <v>85.232699999999994</v>
+      </c>
+      <c r="E54">
+        <v>80.413899999999998</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0599249632215326</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>74.793000000000006</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1395812442340858</v>
+      </c>
+      <c r="J54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55">
+        <v>8081</v>
+      </c>
+      <c r="C55">
+        <v>13036</v>
+      </c>
+      <c r="D55">
+        <v>448.142</v>
+      </c>
+      <c r="E55">
+        <v>388.548</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1533761594449077</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>432.73099999999999</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="1"/>
+        <v>1.035613348708551</v>
+      </c>
+      <c r="J55">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56">
+        <v>1919</v>
+      </c>
+      <c r="C56">
+        <v>17159</v>
+      </c>
+      <c r="D56">
+        <v>297.17500000000001</v>
+      </c>
+      <c r="E56">
+        <v>297.149</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0000874981911432</v>
+      </c>
+      <c r="G56">
+        <v>15</v>
+      </c>
+      <c r="H56">
+        <v>279.767</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0622232071688227</v>
+      </c>
+      <c r="J56">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57">
+        <v>1224</v>
+      </c>
+      <c r="C57">
+        <v>9613</v>
+      </c>
+      <c r="D57">
+        <v>170.05</v>
+      </c>
+      <c r="E57">
+        <v>166.084</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0238794826714193</v>
+      </c>
+      <c r="G57">
+        <v>11</v>
+      </c>
+      <c r="H57">
+        <v>160.429</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0599704542196238</v>
+      </c>
+      <c r="J57">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58">
+        <v>1250</v>
+      </c>
+      <c r="C58">
+        <v>7300</v>
+      </c>
+      <c r="D58">
+        <v>136.655</v>
+      </c>
+      <c r="E58">
+        <v>126.50700000000001</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0802169049933996</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>125.355</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0901439910653743</v>
+      </c>
+      <c r="J58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59">
+        <v>5151</v>
+      </c>
+      <c r="C59">
+        <v>20199</v>
+      </c>
+      <c r="D59">
+        <v>435.88799999999998</v>
+      </c>
+      <c r="E59">
+        <v>466.375</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9346298579469311</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="H59">
+        <v>379.70400000000001</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1479678907780797</v>
+      </c>
+      <c r="J59">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60">
+        <v>3564</v>
+      </c>
+      <c r="C60">
+        <v>22316</v>
+      </c>
+      <c r="D60">
+        <v>425.91</v>
+      </c>
+      <c r="E60">
+        <v>429.613</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99138061464620486</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+      <c r="H60">
+        <v>421.99900000000002</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0092677944734467</v>
+      </c>
+      <c r="J60">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61">
+        <v>3312</v>
+      </c>
+      <c r="C61">
+        <v>20793</v>
+      </c>
+      <c r="D61">
+        <v>392.17599999999999</v>
+      </c>
+      <c r="E61">
+        <v>397.15100000000001</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98747327842558619</v>
+      </c>
+      <c r="G61">
+        <v>20</v>
+      </c>
+      <c r="H61">
+        <v>380.73899999999998</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0300389505671865</v>
+      </c>
+      <c r="J61">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62">
+        <v>1434</v>
+      </c>
+      <c r="C62">
+        <v>9831</v>
+      </c>
+      <c r="D62">
+        <v>176.90299999999999</v>
+      </c>
+      <c r="E62">
+        <v>167.191</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0580892512156754</v>
+      </c>
+      <c r="G62">
+        <v>48</v>
+      </c>
+      <c r="H62">
+        <v>161.33699999999999</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0964812783180549</v>
+      </c>
+      <c r="J62">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63">
+        <v>600</v>
+      </c>
+      <c r="C63">
+        <v>5660</v>
+      </c>
+      <c r="D63">
+        <v>94.919200000000004</v>
+      </c>
+      <c r="E63">
+        <v>94.285600000000002</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0067200081454644</v>
+      </c>
+      <c r="G63">
+        <v>14</v>
+      </c>
+      <c r="H63">
+        <v>89.724900000000005</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0578913991545267</v>
+      </c>
+      <c r="J63">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64">
+        <v>363</v>
+      </c>
+      <c r="C64">
+        <v>3279</v>
+      </c>
+      <c r="D64">
+        <v>53.0627</v>
+      </c>
+      <c r="E64">
+        <v>51.063299999999998</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0391553229031418</v>
+      </c>
+      <c r="G64">
+        <v>29</v>
+      </c>
+      <c r="H64">
+        <v>47.382300000000001</v>
+      </c>
+      <c r="I64" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1198844294177361</v>
+      </c>
+      <c r="J64">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65">
+        <v>4000</v>
+      </c>
+      <c r="C65">
+        <v>8784</v>
+      </c>
+      <c r="D65">
+        <v>245.66200000000001</v>
+      </c>
+      <c r="E65">
+        <v>196.447</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2505255870540146</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <v>226.26400000000001</v>
+      </c>
+      <c r="I65" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0857317116288936</v>
+      </c>
+      <c r="J65">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66">
+        <v>1000</v>
+      </c>
+      <c r="C66">
+        <v>3996</v>
+      </c>
+      <c r="D66">
+        <v>82.586699999999993</v>
+      </c>
+      <c r="E66">
+        <v>71.239800000000002</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1592775386792213</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>73.787499999999994</v>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1192505505675081</v>
+      </c>
+      <c r="J66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67">
+        <v>2903</v>
+      </c>
+      <c r="C67">
+        <v>19093</v>
+      </c>
+      <c r="D67">
+        <v>356.37799999999999</v>
+      </c>
+      <c r="E67">
+        <v>342.12700000000001</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" ref="F67:F71" si="2">D67/E67</f>
+        <v>1.0416541225919029</v>
+      </c>
+      <c r="G67">
+        <v>4</v>
+      </c>
+      <c r="H67">
+        <v>334.08699999999999</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" ref="I67:I71" si="3">D67/H67</f>
+        <v>1.0667221412386594</v>
+      </c>
+      <c r="J67">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68">
+        <v>1856</v>
+      </c>
+      <c r="C68">
+        <v>11360</v>
+      </c>
+      <c r="D68">
+        <v>212.614</v>
+      </c>
+      <c r="E68">
+        <v>206.51599999999999</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0295279784617173</v>
+      </c>
+      <c r="G68">
+        <v>4</v>
+      </c>
+      <c r="H68">
+        <v>196.024</v>
+      </c>
+      <c r="I68" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0846324939803289</v>
+      </c>
+      <c r="J68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69">
+        <v>1856</v>
+      </c>
+      <c r="C69">
+        <v>11550</v>
+      </c>
+      <c r="D69">
+        <v>216.16399999999999</v>
+      </c>
+      <c r="E69">
+        <v>209.851</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0300832495437238</v>
+      </c>
+      <c r="G69">
+        <v>6</v>
+      </c>
+      <c r="H69">
+        <v>201.67099999999999</v>
+      </c>
+      <c r="I69" s="1">
+        <f t="shared" si="3"/>
+        <v>1.071864571505075</v>
+      </c>
+      <c r="J69">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70">
+        <v>989</v>
+      </c>
+      <c r="C70">
+        <v>3518</v>
+      </c>
+      <c r="D70">
+        <v>79.242699999999999</v>
+      </c>
+      <c r="E70">
+        <v>68.745599999999996</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1526948633803473</v>
+      </c>
+      <c r="G70">
+        <v>11</v>
+      </c>
+      <c r="H70">
+        <v>64.959000000000003</v>
+      </c>
+      <c r="I70" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2198879293092566</v>
+      </c>
+      <c r="J70">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71">
+        <v>2021</v>
+      </c>
+      <c r="C71">
+        <v>7310</v>
+      </c>
+      <c r="D71">
+        <v>167.25899999999999</v>
+      </c>
+      <c r="E71">
+        <v>152.96100000000001</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0934748073038223</v>
+      </c>
+      <c r="G71">
+        <v>11</v>
+      </c>
+      <c r="H71">
+        <v>143.661</v>
+      </c>
+      <c r="I71" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1642616994173782</v>
+      </c>
+      <c r="J71">
+        <v>1657</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I2:I71">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>1.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F71">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>1.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/srlpi-ARM.xlsx
+++ b/results/srlpi-ARM.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
   <si>
     <t>email-EuAll</t>
   </si>
@@ -105,21 +105,9 @@
     <t>PlainCSR</t>
   </si>
   <si>
-    <t>CSRbyNZ-a6d1617</t>
-  </si>
-  <si>
-    <t>CSRbyNZ-a6d1617 speedup</t>
-  </si>
-  <si>
     <t>NumStencils</t>
   </si>
   <si>
-    <t>stencil-4b82ec</t>
-  </si>
-  <si>
-    <t>stencil-4b82ec speedup</t>
-  </si>
-  <si>
     <t>add20</t>
   </si>
   <si>
@@ -330,15 +318,9 @@
     <t>west2021</t>
   </si>
   <si>
-    <t>CSRbyNZ-edf3ba</t>
-  </si>
-  <si>
     <t>CSRbyNZ speedup</t>
   </si>
   <si>
-    <t>stencil-edf3ba</t>
-  </si>
-  <si>
     <t>stencil speedup</t>
   </si>
   <si>
@@ -349,6 +331,12 @@
   </si>
   <si>
     <t>NumRowLengths</t>
+  </si>
+  <si>
+    <t>CSRbyNZ-1e81f3</t>
+  </si>
+  <si>
+    <t>stencil-1e81f3</t>
   </si>
 </sst>
 </file>
@@ -415,37 +403,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -742,7 +700,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G24"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -756,31 +714,31 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -797,21 +755,21 @@
         <v>46026.5</v>
       </c>
       <c r="E2">
-        <v>46191.9</v>
+        <v>45765</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" ref="F2:F24" si="0">D2/E2</f>
-        <v>0.9964192856323294</v>
+        <v>1.0057139735605811</v>
       </c>
       <c r="G2">
         <v>311</v>
       </c>
       <c r="H2">
-        <v>71825.5</v>
+        <v>67986.899999999994</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I24" si="1">D2/H2</f>
-        <v>0.6408100187259399</v>
+        <v>0.6769907143876247</v>
       </c>
       <c r="J2">
         <v>161683</v>
@@ -831,21 +789,21 @@
         <v>27425.5</v>
       </c>
       <c r="E3">
-        <v>34159.300000000003</v>
+        <v>33181.800000000003</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" si="0"/>
-        <v>0.80287066772445559</v>
+        <v>0.82652237069718937</v>
       </c>
       <c r="G3">
         <v>162</v>
       </c>
       <c r="H3">
-        <v>41537</v>
+        <v>37407.1</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="1"/>
-        <v>0.66026675012639335</v>
+        <v>0.73316295569557655</v>
       </c>
       <c r="J3">
         <v>31814</v>
@@ -865,21 +823,21 @@
         <v>34805.9</v>
       </c>
       <c r="E4">
-        <v>41187.1</v>
+        <v>39829.199999999997</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.84506799459053938</v>
+        <v>0.87387896317274771</v>
       </c>
       <c r="G4">
         <v>326</v>
       </c>
       <c r="H4">
-        <v>48000.5</v>
+        <v>42170.8</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>0.72511536338163152</v>
+        <v>0.82535545922771203</v>
       </c>
       <c r="J4">
         <v>49442</v>
@@ -899,21 +857,21 @@
         <v>40743.699999999997</v>
       </c>
       <c r="E5">
-        <v>44649.4</v>
+        <v>43773.7</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.9125251403154353</v>
+        <v>0.93078035441372331</v>
       </c>
       <c r="G5">
         <v>279</v>
       </c>
       <c r="H5">
-        <v>51993.8</v>
+        <v>47138.8</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>0.78362612465332393</v>
+        <v>0.86433468819740844</v>
       </c>
       <c r="J5">
         <v>40649</v>
@@ -933,21 +891,21 @@
         <v>87978.2</v>
       </c>
       <c r="E6">
-        <v>98243</v>
+        <v>94690</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.89551621998513886</v>
+        <v>0.92911817509768713</v>
       </c>
       <c r="G6">
         <v>312</v>
       </c>
       <c r="H6">
-        <v>119228</v>
+        <v>102270</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>0.7378988157144295</v>
+        <v>0.86025422900166226</v>
       </c>
       <c r="J6">
         <v>126894</v>
@@ -967,21 +925,21 @@
         <v>216464</v>
       </c>
       <c r="E7">
-        <v>241085</v>
+        <v>237733</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.89787419374909261</v>
+        <v>0.91053408655929136</v>
       </c>
       <c r="G7">
         <v>370</v>
       </c>
       <c r="H7">
-        <v>343055</v>
+        <v>313305</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>0.63098919998251013</v>
+        <v>0.6909050286462074</v>
       </c>
       <c r="J7">
         <v>504865</v>
@@ -1001,21 +959,21 @@
         <v>22222.5</v>
       </c>
       <c r="E8">
-        <v>24711</v>
+        <v>23887.7</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.89929586014325602</v>
+        <v>0.93029048422409855</v>
       </c>
       <c r="G8">
         <v>25</v>
       </c>
       <c r="H8">
-        <v>18202.3</v>
+        <v>16200.3</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="1"/>
-        <v>1.2208621987331272</v>
+        <v>1.37173385678043</v>
       </c>
       <c r="J8">
         <v>601</v>
@@ -1035,21 +993,21 @@
         <v>24999.4</v>
       </c>
       <c r="E9">
-        <v>27295.3</v>
+        <v>26438.2</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.91588661784263237</v>
+        <v>0.9455787459055458</v>
       </c>
       <c r="G9">
         <v>22</v>
       </c>
       <c r="H9">
-        <v>20364.3</v>
+        <v>17050.7</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="1"/>
-        <v>1.227609100239144</v>
+        <v>1.4661802741236429</v>
       </c>
       <c r="J9">
         <v>4682</v>
@@ -1069,21 +1027,21 @@
         <v>29468.9</v>
       </c>
       <c r="E10">
-        <v>32477.599999999999</v>
+        <v>31065.7</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.90736076557381096</v>
+        <v>0.94859925898981834</v>
       </c>
       <c r="G10">
         <v>70</v>
       </c>
       <c r="H10">
-        <v>40897.699999999997</v>
+        <v>31629.200000000001</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>0.72055152245725318</v>
+        <v>0.9316991893566704</v>
       </c>
       <c r="J10">
         <v>8391</v>
@@ -1103,21 +1061,21 @@
         <v>59540.800000000003</v>
       </c>
       <c r="E11">
-        <v>56574.400000000001</v>
+        <v>56600.4</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>1.0524336095477813</v>
+        <v>1.0519501628963752</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>95015.8</v>
+        <v>85033.1</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>0.62664104285813516</v>
+        <v>0.70020733102756449</v>
       </c>
       <c r="J11">
         <v>200200</v>
@@ -1137,21 +1095,21 @@
         <v>48752.6</v>
       </c>
       <c r="E12">
-        <v>48898.3</v>
+        <v>47079.5</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.99702034631060787</v>
+        <v>1.035537760596438</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12">
-        <v>30332</v>
+        <v>26668.799999999999</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="1"/>
-        <v>1.6072992219438216</v>
+        <v>1.828076253899688</v>
       </c>
       <c r="J12">
         <v>3148</v>
@@ -1171,21 +1129,21 @@
         <v>42246.3</v>
       </c>
       <c r="E13">
-        <v>45886</v>
+        <v>44227</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.92067951009022364</v>
+        <v>0.95521514007280628</v>
       </c>
       <c r="G13">
         <v>71</v>
       </c>
       <c r="H13">
-        <v>39338.699999999997</v>
+        <v>31648.7</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="1"/>
-        <v>1.0739119493018328</v>
+        <v>1.334851036535466</v>
       </c>
       <c r="J13">
         <v>7432</v>
@@ -1205,21 +1163,21 @@
         <v>71419.600000000006</v>
       </c>
       <c r="E14">
-        <v>82337.899999999994</v>
+        <v>79455</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.86739642376111137</v>
+        <v>0.89886854194197985</v>
       </c>
       <c r="G14">
         <v>27</v>
       </c>
       <c r="H14">
-        <v>71267.899999999994</v>
+        <v>60912.4</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>1.0021285880459507</v>
+        <v>1.1724968971834964</v>
       </c>
       <c r="J14">
         <v>46535</v>
@@ -1239,21 +1197,21 @@
         <v>143862</v>
       </c>
       <c r="E15">
-        <v>172417</v>
+        <v>170867</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.83438408045610357</v>
+        <v>0.84195309802360896</v>
       </c>
       <c r="G15">
         <v>22</v>
       </c>
       <c r="H15">
-        <v>202234</v>
+        <v>190718</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>0.71136406341169145</v>
+        <v>0.75431789343428512</v>
       </c>
       <c r="J15">
         <v>172130</v>
@@ -1273,21 +1231,21 @@
         <v>79212.600000000006</v>
       </c>
       <c r="E16">
-        <v>100535</v>
+        <v>96361.9</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.78791067787337754</v>
+        <v>0.82203235926232265</v>
       </c>
       <c r="G16">
         <v>23</v>
       </c>
       <c r="H16">
-        <v>71218.399999999994</v>
+        <v>63968.5</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="1"/>
-        <v>1.1122490816979884</v>
+        <v>1.2383063539085644</v>
       </c>
       <c r="J16">
         <v>935</v>
@@ -1307,21 +1265,21 @@
         <v>79186.399999999994</v>
       </c>
       <c r="E17">
-        <v>80730.3</v>
+        <v>76081.399999999994</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.98087582976899612</v>
+        <v>1.0408115518379</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>79437.5</v>
+        <v>72793.600000000006</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="1"/>
-        <v>0.99683902439024386</v>
+        <v>1.0878209073325127</v>
       </c>
       <c r="J17">
         <v>648</v>
@@ -1341,21 +1299,21 @@
         <v>84754.8</v>
       </c>
       <c r="E18">
-        <v>139688</v>
+        <v>136923</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.60674360002290817</v>
+        <v>0.61899607808768431</v>
       </c>
       <c r="G18">
         <v>60</v>
       </c>
       <c r="H18">
-        <v>127481</v>
+        <v>105784</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="1"/>
-        <v>0.66484260399588957</v>
+        <v>0.8012062315662104</v>
       </c>
       <c r="J18">
         <v>105098</v>
@@ -1375,21 +1333,21 @@
         <v>100704</v>
       </c>
       <c r="E19">
-        <v>114087</v>
+        <v>111023</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.88269478555838965</v>
+        <v>0.90705529484881509</v>
       </c>
       <c r="G19">
         <v>28</v>
       </c>
       <c r="H19">
-        <v>163021</v>
+        <v>138510</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
-        <v>0.61773636525355624</v>
+        <v>0.72705219839722768</v>
       </c>
       <c r="J19">
         <v>130228</v>
@@ -1409,21 +1367,21 @@
         <v>170626</v>
       </c>
       <c r="E20">
-        <v>166339</v>
+        <v>163806</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>1.0257726690673865</v>
+        <v>1.0416346165586121</v>
       </c>
       <c r="G20">
         <v>3</v>
       </c>
       <c r="H20">
-        <v>295181</v>
+        <v>271460</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="1"/>
-        <v>0.57803855939237281</v>
+        <v>0.62854932586753109</v>
       </c>
       <c r="J20">
         <v>786432</v>
@@ -1443,21 +1401,21 @@
         <v>123100</v>
       </c>
       <c r="E21">
-        <v>116743</v>
+        <v>116582</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>1.0544529436454435</v>
+        <v>1.0559091454941587</v>
       </c>
       <c r="G21">
         <v>3</v>
       </c>
       <c r="H21">
-        <v>91989.4</v>
+        <v>81182.600000000006</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="1"/>
-        <v>1.3381976619045239</v>
+        <v>1.5163347810984127</v>
       </c>
       <c r="J21">
         <v>2298</v>
@@ -1477,21 +1435,21 @@
         <v>93398.1</v>
       </c>
       <c r="E22">
-        <v>117564</v>
+        <v>111744</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.79444472797795251</v>
+        <v>0.8358220575601375</v>
       </c>
       <c r="G22">
         <v>29</v>
       </c>
       <c r="H22">
-        <v>88541.2</v>
+        <v>80849.899999999994</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="1"/>
-        <v>1.0548546891164792</v>
+        <v>1.1552036551684048</v>
       </c>
       <c r="J22">
         <v>1131</v>
@@ -1511,21 +1469,21 @@
         <v>116283</v>
       </c>
       <c r="E23">
-        <v>168671</v>
+        <v>166204</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.68940718914336196</v>
+        <v>0.6996402011985271</v>
       </c>
       <c r="G23">
         <v>147</v>
       </c>
       <c r="H23">
-        <v>157507</v>
+        <v>131734</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
-        <v>0.73827194981810329</v>
+        <v>0.88271061381268312</v>
       </c>
       <c r="J23">
         <v>84195</v>
@@ -1545,21 +1503,21 @@
         <v>196744</v>
       </c>
       <c r="E24">
-        <v>203340</v>
+        <v>201405</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.96756171928789225</v>
+        <v>0.97685757553188846</v>
       </c>
       <c r="G24">
         <v>9</v>
       </c>
       <c r="H24">
-        <v>293535</v>
+        <v>267727</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="1"/>
-        <v>0.6702573798695215</v>
+        <v>0.73486798118979413</v>
       </c>
       <c r="J24">
         <v>204290</v>
@@ -1575,7 +1533,7 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1589,36 +1547,36 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>102</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>2395</v>
@@ -1630,21 +1588,21 @@
         <v>262.42099999999999</v>
       </c>
       <c r="E2">
-        <v>254.62899999999999</v>
+        <v>235.709</v>
       </c>
       <c r="F2" s="1">
         <f>D2/E2</f>
-        <v>1.0306013847597877</v>
+        <v>1.1133261776173162</v>
       </c>
       <c r="G2">
         <v>48</v>
       </c>
       <c r="H2">
-        <v>267.83999999999997</v>
+        <v>271.34899999999999</v>
       </c>
       <c r="I2" s="1">
         <f>D2/H2</f>
-        <v>0.97976777180406216</v>
+        <v>0.96709772285875384</v>
       </c>
       <c r="J2">
         <v>2128</v>
@@ -1652,7 +1610,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>4960</v>
@@ -1664,21 +1622,21 @@
         <v>446.416</v>
       </c>
       <c r="E3">
-        <v>433.303</v>
+        <v>404.44900000000001</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F66" si="0">D3/E3</f>
-        <v>1.0302628876329036</v>
+        <v>1.1037633916760827</v>
       </c>
       <c r="G3">
         <v>6</v>
       </c>
       <c r="H3">
-        <v>1106.0999999999999</v>
+        <v>852.16399999999999</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I66" si="1">D3/H3</f>
-        <v>0.40359461169876143</v>
+        <v>0.52386160410437432</v>
       </c>
       <c r="J3">
         <v>3941</v>
@@ -1686,7 +1644,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>1814</v>
@@ -1698,21 +1656,21 @@
         <v>272.60500000000002</v>
       </c>
       <c r="E4">
-        <v>275.05099999999999</v>
+        <v>244.167</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.9911071037734821</v>
+        <v>1.1164694655706955</v>
       </c>
       <c r="G4">
         <v>31</v>
       </c>
       <c r="H4">
-        <v>309.73500000000001</v>
+        <v>234.018</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>0.88012333123476527</v>
+        <v>1.1648890256305071</v>
       </c>
       <c r="J4">
         <v>1812</v>
@@ -1720,7 +1678,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>7716</v>
@@ -1732,21 +1690,21 @@
         <v>484.63200000000001</v>
       </c>
       <c r="E5">
-        <v>380.33</v>
+        <v>380.06700000000001</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>1.2742407908921201</v>
+        <v>1.2751225441829992</v>
       </c>
       <c r="G5">
         <v>35</v>
       </c>
       <c r="H5">
-        <v>1199.97</v>
+        <v>941.149</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>0.40387009675241881</v>
+        <v>0.51493652970996096</v>
       </c>
       <c r="J5">
         <v>5470</v>
@@ -1754,7 +1712,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>3083</v>
@@ -1766,21 +1724,21 @@
         <v>260.88200000000001</v>
       </c>
       <c r="E6">
-        <v>242.511</v>
+        <v>228.107</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>1.0757532648003596</v>
+        <v>1.1436825700219635</v>
       </c>
       <c r="G6">
         <v>17</v>
       </c>
       <c r="H6">
-        <v>273.34899999999999</v>
+        <v>229.34700000000001</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>0.95439163852803566</v>
+        <v>1.1374990734563784</v>
       </c>
       <c r="J6">
         <v>3083</v>
@@ -1788,7 +1746,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>1454</v>
@@ -1800,21 +1758,21 @@
         <v>95.5535</v>
       </c>
       <c r="E7">
-        <v>78.307500000000005</v>
+        <v>76.119900000000001</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>1.2202343325990486</v>
+        <v>1.2553024898876641</v>
       </c>
       <c r="G7">
         <v>10</v>
       </c>
       <c r="H7">
-        <v>76.342699999999994</v>
+        <v>66.131299999999996</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>1.2516389910233723</v>
+        <v>1.4449058161566459</v>
       </c>
       <c r="J7">
         <v>565</v>
@@ -1822,7 +1780,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>1624</v>
@@ -1834,21 +1792,21 @@
         <v>108.357</v>
       </c>
       <c r="E8">
-        <v>90.114800000000002</v>
+        <v>86.8232</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>1.2024328967050917</v>
+        <v>1.2480189626735712</v>
       </c>
       <c r="G8">
         <v>10</v>
       </c>
       <c r="H8">
-        <v>87.807599999999994</v>
+        <v>76.060599999999994</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>1.2340275784784005</v>
+        <v>1.4246140577381721</v>
       </c>
       <c r="J8">
         <v>637</v>
@@ -1856,7 +1814,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>420</v>
@@ -1868,21 +1826,21 @@
         <v>68.049599999999998</v>
       </c>
       <c r="E9">
-        <v>65.748199999999997</v>
+        <v>58.013199999999998</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>1.0350032396324158</v>
+        <v>1.1730020064399136</v>
       </c>
       <c r="G9">
         <v>17</v>
       </c>
       <c r="H9">
-        <v>61.669899999999998</v>
+        <v>48.541499999999999</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>1.1034491705029521</v>
+        <v>1.4018849850128241</v>
       </c>
       <c r="J9">
         <v>75</v>
@@ -1890,7 +1848,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>1806</v>
@@ -1902,21 +1860,21 @@
         <v>505.75200000000001</v>
       </c>
       <c r="E10">
-        <v>604.327</v>
+        <v>595.93600000000004</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.83688466674499074</v>
+        <v>0.84866831337593296</v>
       </c>
       <c r="G10">
         <v>35</v>
       </c>
       <c r="H10">
-        <v>1411</v>
+        <v>941.70299999999997</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>0.3584351523742027</v>
+        <v>0.53706104791000986</v>
       </c>
       <c r="J10">
         <v>1664</v>
@@ -1924,7 +1882,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>817</v>
@@ -1936,21 +1894,21 @@
         <v>76.725899999999996</v>
       </c>
       <c r="E11">
-        <v>70.005899999999997</v>
+        <v>64.263800000000003</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>1.095991909253363</v>
+        <v>1.1939209944012024</v>
       </c>
       <c r="G11">
         <v>9</v>
       </c>
       <c r="H11">
-        <v>66.108800000000002</v>
+        <v>53.8596</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>1.1606004041821965</v>
+        <v>1.4245538399839581</v>
       </c>
       <c r="J11">
         <v>240</v>
@@ -1958,7 +1916,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>1922</v>
@@ -1970,21 +1928,21 @@
         <v>287.47899999999998</v>
       </c>
       <c r="E12">
-        <v>292.988</v>
+        <v>264.57900000000001</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.98119718213715235</v>
+        <v>1.0865525986567339</v>
       </c>
       <c r="G12">
         <v>26</v>
       </c>
       <c r="H12">
-        <v>268.50200000000001</v>
+        <v>215.124</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>1.0706773133905891</v>
+        <v>1.3363409010617131</v>
       </c>
       <c r="J12">
         <v>1297</v>
@@ -1992,7 +1950,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>398</v>
@@ -2004,21 +1962,21 @@
         <v>59.801400000000001</v>
       </c>
       <c r="E13">
-        <v>58.389800000000001</v>
+        <v>51.197899999999997</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>1.0241754553021247</v>
+        <v>1.1680440018047615</v>
       </c>
       <c r="G13">
         <v>12</v>
       </c>
       <c r="H13">
-        <v>53.9923</v>
+        <v>41.588799999999999</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>1.1075912676437196</v>
+        <v>1.4379207863655601</v>
       </c>
       <c r="J13">
         <v>328</v>
@@ -2026,7 +1984,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>2132</v>
@@ -2038,21 +1996,21 @@
         <v>182.61</v>
       </c>
       <c r="E14">
-        <v>162.95599999999999</v>
+        <v>155.54400000000001</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>1.1206092442131621</v>
+        <v>1.1740086406418762</v>
       </c>
       <c r="G14">
         <v>12</v>
       </c>
       <c r="H14">
-        <v>162.33199999999999</v>
+        <v>135.38499999999999</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>1.1249168370992781</v>
+        <v>1.3488200317612735</v>
       </c>
       <c r="J14">
         <v>240</v>
@@ -2060,7 +2018,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>822</v>
@@ -2072,21 +2030,21 @@
         <v>93.410300000000007</v>
       </c>
       <c r="E15">
-        <v>86.513099999999994</v>
+        <v>78.713999999999999</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>1.0797243423250353</v>
+        <v>1.1867050334120997</v>
       </c>
       <c r="G15">
         <v>30</v>
       </c>
       <c r="H15">
-        <v>80.967500000000001</v>
+        <v>65.089200000000005</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>1.1536764751289099</v>
+        <v>1.4351121230557451</v>
       </c>
       <c r="J15">
         <v>808</v>
@@ -2094,7 +2052,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>2169</v>
@@ -2106,21 +2064,21 @@
         <v>187.89699999999999</v>
       </c>
       <c r="E16">
-        <v>173.18100000000001</v>
+        <v>158.63800000000001</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>1.0849746796704025</v>
+        <v>1.1844387851586631</v>
       </c>
       <c r="G16">
         <v>30</v>
       </c>
       <c r="H16">
-        <v>169.74299999999999</v>
+        <v>139.38900000000001</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>1.1069499184060609</v>
+        <v>1.3480045053770382</v>
       </c>
       <c r="J16">
         <v>860</v>
@@ -2128,7 +2086,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>5242</v>
@@ -2140,21 +2098,21 @@
         <v>426.18299999999999</v>
       </c>
       <c r="E17">
-        <v>374.19</v>
+        <v>355.18799999999999</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>1.1389481279563858</v>
+        <v>1.1998800635156592</v>
       </c>
       <c r="G17">
         <v>48</v>
       </c>
       <c r="H17">
-        <v>813.42200000000003</v>
+        <v>526.90099999999995</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="1"/>
-        <v>0.52393837393136644</v>
+        <v>0.80884834152905394</v>
       </c>
       <c r="J17">
         <v>3524</v>
@@ -2162,7 +2120,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>1072</v>
@@ -2174,21 +2132,21 @@
         <v>127.92700000000001</v>
       </c>
       <c r="E18">
-        <v>121.85599999999999</v>
+        <v>110.998</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>1.0498211003151261</v>
+        <v>1.1525162615542623</v>
       </c>
       <c r="G18">
         <v>13</v>
       </c>
       <c r="H18">
-        <v>111.512</v>
+        <v>89.990700000000004</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="1"/>
-        <v>1.1472038883707583</v>
+        <v>1.4215580054383397</v>
       </c>
       <c r="J18">
         <v>952</v>
@@ -2196,7 +2154,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B19">
         <v>634</v>
@@ -2208,21 +2166,21 @@
         <v>71.954800000000006</v>
       </c>
       <c r="E19">
-        <v>67.491600000000005</v>
+        <v>60.886200000000002</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>1.0661297109566228</v>
+        <v>1.1817916046657535</v>
       </c>
       <c r="G19">
         <v>20</v>
       </c>
       <c r="H19">
-        <v>63.034500000000001</v>
+        <v>50.156500000000001</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
-        <v>1.1415145674194291</v>
+        <v>1.4346056842084276</v>
       </c>
       <c r="J19">
         <v>232</v>
@@ -2230,7 +2188,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>1182</v>
@@ -2242,21 +2200,21 @@
         <v>487.334</v>
       </c>
       <c r="E20">
-        <v>596.42600000000004</v>
+        <v>496.32499999999999</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.81709046889303949</v>
+        <v>0.98188485367450762</v>
       </c>
       <c r="G20">
         <v>30</v>
       </c>
       <c r="H20">
-        <v>501.55500000000001</v>
+        <v>393.11599999999999</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="1"/>
-        <v>0.97164618037902128</v>
+        <v>1.2396697158090741</v>
       </c>
       <c r="J20">
         <v>395</v>
@@ -2264,7 +2222,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>961</v>
@@ -2276,21 +2234,21 @@
         <v>90.608199999999997</v>
       </c>
       <c r="E21">
-        <v>86.278499999999994</v>
+        <v>78.007400000000004</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>1.0501828381346454</v>
+        <v>1.1615333929857936</v>
       </c>
       <c r="G21">
         <v>3</v>
       </c>
       <c r="H21">
-        <v>81.163899999999998</v>
+        <v>65.658600000000007</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="1"/>
-        <v>1.1163608451540648</v>
+        <v>1.3799898261613861</v>
       </c>
       <c r="J21">
         <v>9</v>
@@ -2298,7 +2256,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <v>656</v>
@@ -2310,21 +2268,21 @@
         <v>70.848699999999994</v>
       </c>
       <c r="E22">
-        <v>67.081000000000003</v>
+        <v>60.493099999999998</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>1.0561664256644949</v>
+        <v>1.1711864658944573</v>
       </c>
       <c r="G22">
         <v>8</v>
       </c>
       <c r="H22">
-        <v>65.343900000000005</v>
+        <v>51.431800000000003</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="1"/>
-        <v>1.0842435177575871</v>
+        <v>1.3775271330188714</v>
       </c>
       <c r="J22">
         <v>38</v>
@@ -2332,7 +2290,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>1348</v>
@@ -2344,21 +2302,21 @@
         <v>310.84100000000001</v>
       </c>
       <c r="E23">
-        <v>327.54500000000002</v>
+        <v>288.548</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.94900242714741478</v>
+        <v>1.0772592428296159</v>
       </c>
       <c r="G23">
         <v>39</v>
       </c>
       <c r="H23">
-        <v>402.42399999999998</v>
+        <v>357.66399999999999</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
-        <v>0.77242162495278621</v>
+        <v>0.86908662879126786</v>
       </c>
       <c r="J23">
         <v>1015</v>
@@ -2366,7 +2324,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B24">
         <v>10000</v>
@@ -2378,21 +2336,21 @@
         <v>1978.06</v>
       </c>
       <c r="E24">
-        <v>2054.04</v>
+        <v>1863.94</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.96300948374909934</v>
+        <v>1.0612251467321909</v>
       </c>
       <c r="G24">
         <v>3</v>
       </c>
       <c r="H24">
-        <v>1240.6300000000001</v>
+        <v>1016.84</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="1"/>
-        <v>1.5943996195481327</v>
+        <v>1.9453011289878446</v>
       </c>
       <c r="J24">
         <v>12</v>
@@ -2400,7 +2358,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>2048</v>
@@ -2412,21 +2370,21 @@
         <v>200.803</v>
       </c>
       <c r="E25">
-        <v>192.429</v>
+        <v>174.506</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>1.0435173492560892</v>
+        <v>1.1506939589469702</v>
       </c>
       <c r="G25">
         <v>5</v>
       </c>
       <c r="H25">
-        <v>180.667</v>
+        <v>147.78800000000001</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="1"/>
-        <v>1.1114536689046699</v>
+        <v>1.3587233063577555</v>
       </c>
       <c r="J25">
         <v>18</v>
@@ -2434,7 +2392,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>1242</v>
@@ -2446,21 +2404,21 @@
         <v>117.55500000000001</v>
       </c>
       <c r="E26">
-        <v>110.437</v>
+        <v>100.812</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>1.0644530365728877</v>
+        <v>1.166081418878705</v>
       </c>
       <c r="G26">
         <v>9</v>
       </c>
       <c r="H26">
-        <v>104.258</v>
+        <v>85.16</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="1"/>
-        <v>1.1275393734773351</v>
+        <v>1.3804015969938941</v>
       </c>
       <c r="J26">
         <v>355</v>
@@ -2468,7 +2426,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B27">
         <v>2680</v>
@@ -2480,21 +2438,21 @@
         <v>278.48700000000002</v>
       </c>
       <c r="E27">
-        <v>273.21899999999999</v>
+        <v>249.69800000000001</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>1.0192812359316155</v>
+        <v>1.1152952766942468</v>
       </c>
       <c r="G27">
         <v>14</v>
       </c>
       <c r="H27">
-        <v>265.51900000000001</v>
+        <v>214.96600000000001</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="1"/>
-        <v>1.0488401959935072</v>
+        <v>1.2954932407915671</v>
       </c>
       <c r="J27">
         <v>963</v>
@@ -2502,7 +2460,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B28">
         <v>419</v>
@@ -2514,21 +2472,21 @@
         <v>37.204599999999999</v>
       </c>
       <c r="E28">
-        <v>31.46</v>
+        <v>28.7759</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>1.1826001271455817</v>
+        <v>1.2929083017386076</v>
       </c>
       <c r="G28">
         <v>12</v>
       </c>
       <c r="H28">
-        <v>32.128599999999999</v>
+        <v>26.124199999999998</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="1"/>
-        <v>1.157990077376543</v>
+        <v>1.4241431316557063</v>
       </c>
       <c r="J28">
         <v>187</v>
@@ -2536,7 +2494,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>236</v>
@@ -2548,21 +2506,21 @@
         <v>83.347700000000003</v>
       </c>
       <c r="E29">
-        <v>87.099800000000002</v>
+        <v>75.012799999999999</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.95692182990087238</v>
+        <v>1.1111130367084019</v>
       </c>
       <c r="G29">
         <v>19</v>
       </c>
       <c r="H29">
-        <v>80.433999999999997</v>
+        <v>61.524299999999997</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="1"/>
-        <v>1.036224730835219</v>
+        <v>1.3547118780709413</v>
       </c>
       <c r="J29">
         <v>151</v>
@@ -2570,7 +2528,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B30">
         <v>1133</v>
@@ -2582,21 +2540,21 @@
         <v>113.194</v>
       </c>
       <c r="E30">
-        <v>104.669</v>
+        <v>94.689099999999996</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>1.0814472288834327</v>
+        <v>1.1954279848472529</v>
       </c>
       <c r="G30">
         <v>25</v>
       </c>
       <c r="H30">
-        <v>95.805499999999995</v>
+        <v>78.037599999999998</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="1"/>
-        <v>1.1814979307033522</v>
+        <v>1.4505059099716036</v>
       </c>
       <c r="J30">
         <v>1066</v>
@@ -2604,7 +2562,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B31">
         <v>8497</v>
@@ -2616,21 +2574,21 @@
         <v>320.86</v>
       </c>
       <c r="E31">
-        <v>155.54499999999999</v>
+        <v>141.315</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>2.0628114050596293</v>
+        <v>2.2705303754024699</v>
       </c>
       <c r="G31">
         <v>57</v>
       </c>
       <c r="H31">
-        <v>153.97200000000001</v>
+        <v>130.13800000000001</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>2.0838853817577223</v>
+        <v>2.4655365842413439</v>
       </c>
       <c r="J31">
         <v>710</v>
@@ -2638,7 +2596,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B32">
         <v>441</v>
@@ -2650,21 +2608,21 @@
         <v>379.47800000000001</v>
       </c>
       <c r="E32">
-        <v>414.81700000000001</v>
+        <v>369.911</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>0.91480821663528733</v>
+        <v>1.0258629778514292</v>
       </c>
       <c r="G32">
         <v>22</v>
       </c>
       <c r="H32">
-        <v>757.58100000000002</v>
+        <v>492.97399999999999</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="1"/>
-        <v>0.50090749372014343</v>
+        <v>0.76977284806095259</v>
       </c>
       <c r="J32">
         <v>436</v>
@@ -2672,7 +2630,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <v>1220</v>
@@ -2684,21 +2642,21 @@
         <v>119.764</v>
       </c>
       <c r="E33">
-        <v>111.85299999999999</v>
+        <v>102.613</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>1.0707267574405694</v>
+        <v>1.16714256478224</v>
       </c>
       <c r="G33">
         <v>8</v>
       </c>
       <c r="H33">
-        <v>106.753</v>
+        <v>88.157700000000006</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="1"/>
-        <v>1.1218794787968487</v>
+        <v>1.3585200158352588</v>
       </c>
       <c r="J33">
         <v>1138</v>
@@ -2706,7 +2664,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B34">
         <v>760</v>
@@ -2718,21 +2676,21 @@
         <v>100.608</v>
       </c>
       <c r="E34">
-        <v>98.322699999999998</v>
+        <v>87.296999999999997</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>1.0232428523626793</v>
+        <v>1.1524794666483384</v>
       </c>
       <c r="G34">
         <v>19</v>
       </c>
       <c r="H34">
-        <v>94.192999999999998</v>
+        <v>74.2303</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="1"/>
-        <v>1.0681048485556253</v>
+        <v>1.3553495001367366</v>
       </c>
       <c r="J34">
         <v>99</v>
@@ -2740,7 +2698,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B35">
         <v>2000</v>
@@ -2752,21 +2710,21 @@
         <v>116.212</v>
       </c>
       <c r="E35">
-        <v>90.891099999999994</v>
+        <v>92.045900000000003</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>1.2785850319778285</v>
+        <v>1.2625440133672439</v>
       </c>
       <c r="G35">
         <v>4</v>
       </c>
       <c r="H35">
-        <v>96.704400000000007</v>
+        <v>83.339200000000005</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="1"/>
-        <v>1.2017240166941732</v>
+        <v>1.3944458310134966</v>
       </c>
       <c r="J35">
         <v>8</v>
@@ -2774,7 +2732,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B36">
         <v>1538</v>
@@ -2786,21 +2744,21 @@
         <v>164.00800000000001</v>
       </c>
       <c r="E36">
-        <v>152.87299999999999</v>
+        <v>140.678</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>1.0728382382762163</v>
+        <v>1.1658397190747667</v>
       </c>
       <c r="G36">
         <v>39</v>
       </c>
       <c r="H36">
-        <v>143.38200000000001</v>
+        <v>116.029</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="1"/>
-        <v>1.1438534823060078</v>
+        <v>1.4135086917925692</v>
       </c>
       <c r="J36">
         <v>1455</v>
@@ -2808,7 +2766,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B37">
         <v>900</v>
@@ -2820,21 +2778,21 @@
         <v>84.011399999999995</v>
       </c>
       <c r="E37">
-        <v>79.964699999999993</v>
+        <v>71.458399999999997</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>1.0506060799327703</v>
+        <v>1.1756686407756121</v>
       </c>
       <c r="G37">
         <v>5</v>
       </c>
       <c r="H37">
-        <v>73.820999999999998</v>
+        <v>60.3566</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="1"/>
-        <v>1.1380420205632542</v>
+        <v>1.3919173710911481</v>
       </c>
       <c r="J37">
         <v>5</v>
@@ -2842,7 +2800,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B38">
         <v>1107</v>
@@ -2854,21 +2812,21 @@
         <v>112.96599999999999</v>
       </c>
       <c r="E38">
-        <v>105.47799999999999</v>
+        <v>97.056600000000003</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>1.0709911071503062</v>
+        <v>1.1639187855333897</v>
       </c>
       <c r="G38">
         <v>6</v>
       </c>
       <c r="H38">
-        <v>98.072800000000001</v>
+        <v>79.145899999999997</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="1"/>
-        <v>1.1518586193113687</v>
+        <v>1.4273133541977538</v>
       </c>
       <c r="J38">
         <v>905</v>
@@ -2876,7 +2834,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B39">
         <v>434</v>
@@ -2888,21 +2846,21 @@
         <v>68.322299999999998</v>
       </c>
       <c r="E39">
-        <v>66.517899999999997</v>
+        <v>59.298400000000001</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>1.0271265328580728</v>
+        <v>1.1521777990637183</v>
       </c>
       <c r="G39">
         <v>24</v>
       </c>
       <c r="H39">
-        <v>60.830399999999997</v>
+        <v>46.7301</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="1"/>
-        <v>1.1231604592440623</v>
+        <v>1.4620619258251106</v>
       </c>
       <c r="J39">
         <v>409</v>
@@ -2910,7 +2868,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B40">
         <v>991</v>
@@ -2922,21 +2880,21 @@
         <v>115.136</v>
       </c>
       <c r="E40">
-        <v>108.81100000000001</v>
+        <v>98.962800000000001</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>1.0581283142329359</v>
+        <v>1.1634270655236107</v>
       </c>
       <c r="G40">
         <v>13</v>
       </c>
       <c r="H40">
-        <v>97.985200000000006</v>
+        <v>76.220799999999997</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="1"/>
-        <v>1.175034597061597</v>
+        <v>1.5105587975985557</v>
       </c>
       <c r="J40">
         <v>847</v>
@@ -2944,7 +2902,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B41">
         <v>3937</v>
@@ -2956,21 +2914,21 @@
         <v>487.03399999999999</v>
       </c>
       <c r="E41">
-        <v>484.57</v>
+        <v>449.83800000000002</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>1.0050849206512991</v>
+        <v>1.0826875452940836</v>
       </c>
       <c r="G41">
         <v>6</v>
       </c>
       <c r="H41">
-        <v>476.52</v>
+        <v>393.012</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="1"/>
-        <v>1.0220641316209182</v>
+        <v>1.2392344254119467</v>
       </c>
       <c r="J41">
         <v>61</v>
@@ -2978,7 +2936,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B42">
         <v>3466</v>
@@ -2990,21 +2948,21 @@
         <v>296.57</v>
       </c>
       <c r="E42">
-        <v>272.04300000000001</v>
+        <v>259.29399999999998</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>1.0901585411129857</v>
+        <v>1.1437595933573472</v>
       </c>
       <c r="G42">
         <v>7</v>
       </c>
       <c r="H42">
-        <v>281.07499999999999</v>
+        <v>234.321</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="1"/>
-        <v>1.055127634972872</v>
+        <v>1.2656569406924689</v>
       </c>
       <c r="J42">
         <v>380</v>
@@ -3012,7 +2970,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B43">
         <v>4028</v>
@@ -3024,21 +2982,21 @@
         <v>260.19900000000001</v>
       </c>
       <c r="E43">
-        <v>228.99700000000001</v>
+        <v>222.44499999999999</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>1.1362550601099577</v>
+        <v>1.1697228528400279</v>
       </c>
       <c r="G43">
         <v>7</v>
       </c>
       <c r="H43">
-        <v>231.89400000000001</v>
+        <v>198.57499999999999</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="1"/>
-        <v>1.1220600791741053</v>
+        <v>1.3103311091527132</v>
       </c>
       <c r="J43">
         <v>74</v>
@@ -3046,7 +3004,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B44">
         <v>1258</v>
@@ -3058,21 +3016,21 @@
         <v>143.821</v>
       </c>
       <c r="E44">
-        <v>137.67500000000001</v>
+        <v>124.212</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>1.0446413655347737</v>
+        <v>1.157867194795994</v>
       </c>
       <c r="G44">
         <v>34</v>
       </c>
       <c r="H44">
-        <v>129.46799999999999</v>
+        <v>103.078</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="1"/>
-        <v>1.1108613711496278</v>
+        <v>1.3952637808261703</v>
       </c>
       <c r="J44">
         <v>597</v>
@@ -3080,7 +3038,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B45">
         <v>496</v>
@@ -3092,21 +3050,21 @@
         <v>1086.1300000000001</v>
       </c>
       <c r="E45">
-        <v>3309.8</v>
+        <v>2824.69</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>0.32815577980542632</v>
+        <v>0.38451299080607076</v>
       </c>
       <c r="G45">
         <v>209</v>
       </c>
       <c r="H45">
-        <v>2377.56</v>
+        <v>1681.96</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="1"/>
-        <v>0.4568254849509582</v>
+        <v>0.64575257437751199</v>
       </c>
       <c r="J45">
         <v>445</v>
@@ -3114,7 +3072,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B46">
         <v>496</v>
@@ -3126,21 +3084,21 @@
         <v>741.48</v>
       </c>
       <c r="E46">
-        <v>2619.04</v>
+        <v>2197.0700000000002</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>0.28311136905125545</v>
+        <v>0.337485833405399</v>
       </c>
       <c r="G46">
         <v>181</v>
       </c>
       <c r="H46">
-        <v>1816.7</v>
+        <v>1205.71</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="1"/>
-        <v>0.40814663951120161</v>
+        <v>0.61497374990669396</v>
       </c>
       <c r="J46">
         <v>436</v>
@@ -3148,7 +3106,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B47">
         <v>765</v>
@@ -3160,21 +3118,21 @@
         <v>353.25200000000001</v>
       </c>
       <c r="E47">
-        <v>390.94900000000001</v>
+        <v>335.78899999999999</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>0.90357565820605756</v>
+        <v>1.0520058727355572</v>
       </c>
       <c r="G47">
         <v>55</v>
       </c>
       <c r="H47">
-        <v>400.81700000000001</v>
+        <v>266.09199999999998</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="1"/>
-        <v>0.88132988371251719</v>
+        <v>1.3275558829277094</v>
       </c>
       <c r="J47">
         <v>346</v>
@@ -3182,7 +3140,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B48">
         <v>2642</v>
@@ -3194,21 +3152,21 @@
         <v>131.51900000000001</v>
       </c>
       <c r="E48">
-        <v>103.497</v>
+        <v>99.735799999999998</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>1.2707518092311856</v>
+        <v>1.3186739365403397</v>
       </c>
       <c r="G48">
         <v>3</v>
       </c>
       <c r="H48">
-        <v>115.352</v>
+        <v>107.43899999999999</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="1"/>
-        <v>1.1401536167556696</v>
+        <v>1.2241271791435142</v>
       </c>
       <c r="J48">
         <v>551</v>
@@ -3216,7 +3174,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B49">
         <v>960</v>
@@ -3228,21 +3186,21 @@
         <v>144.58600000000001</v>
       </c>
       <c r="E49">
-        <v>141.358</v>
+        <v>125.956</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>1.0228356371765306</v>
+        <v>1.147908793546953</v>
       </c>
       <c r="G49">
         <v>10</v>
       </c>
       <c r="H49">
-        <v>133.67400000000001</v>
+        <v>105.745</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" si="1"/>
-        <v>1.081631431692027</v>
+        <v>1.367308146957303</v>
       </c>
       <c r="J49">
         <v>24</v>
@@ -3250,7 +3208,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B50">
         <v>5000</v>
@@ -3262,21 +3220,21 @@
         <v>426.88299999999998</v>
       </c>
       <c r="E50">
-        <v>382.18</v>
+        <v>370.43799999999999</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>1.1169684441886021</v>
+        <v>1.152373676566659</v>
       </c>
       <c r="G50">
         <v>3</v>
       </c>
       <c r="H50">
-        <v>398.11500000000001</v>
+        <v>330.89699999999999</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="1"/>
-        <v>1.0722605277369603</v>
+        <v>1.2900781814280577</v>
       </c>
       <c r="J50">
         <v>4</v>
@@ -3284,7 +3242,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B51">
         <v>11492</v>
@@ -3296,21 +3254,21 @@
         <v>931.48400000000004</v>
       </c>
       <c r="E51">
-        <v>809.01800000000003</v>
+        <v>829.19200000000001</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>1.1513761127688136</v>
+        <v>1.1233634670860309</v>
       </c>
       <c r="G51">
         <v>47</v>
       </c>
       <c r="H51">
-        <v>2861.44</v>
+        <v>2522.9699999999998</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" si="1"/>
-        <v>0.32552980317602326</v>
+        <v>0.36920137774131284</v>
       </c>
       <c r="J51">
         <v>9503</v>
@@ -3318,7 +3276,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B52">
         <v>2205</v>
@@ -3330,21 +3288,21 @@
         <v>264.90199999999999</v>
       </c>
       <c r="E52">
-        <v>254.61799999999999</v>
+        <v>229.64099999999999</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>1.0403899174449567</v>
+        <v>1.1535483646213003</v>
       </c>
       <c r="G52">
         <v>4</v>
       </c>
       <c r="H52">
-        <v>252.05</v>
+        <v>197.59899999999999</v>
       </c>
       <c r="I52" s="1">
         <f t="shared" si="1"/>
-        <v>1.0509898829597302</v>
+        <v>1.3406039504248504</v>
       </c>
       <c r="J52">
         <v>27</v>
@@ -3352,7 +3310,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B53">
         <v>10879</v>
@@ -3364,21 +3322,21 @@
         <v>1930.02</v>
       </c>
       <c r="E53">
-        <v>1667.14</v>
+        <v>1614.05</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>1.1576832179660976</v>
+        <v>1.1957622130665098</v>
       </c>
       <c r="G53">
         <v>37</v>
       </c>
       <c r="H53">
-        <v>3467.61</v>
+        <v>2955.09</v>
       </c>
       <c r="I53" s="1">
         <f t="shared" si="1"/>
-        <v>0.55658508309758015</v>
+        <v>0.65311716394424535</v>
       </c>
       <c r="J53">
         <v>4903</v>
@@ -3386,7 +3344,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B54">
         <v>900</v>
@@ -3398,21 +3356,21 @@
         <v>85.232699999999994</v>
       </c>
       <c r="E54">
-        <v>80.413899999999998</v>
+        <v>71.766800000000003</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="0"/>
-        <v>1.0599249632215326</v>
+        <v>1.1876341149389409</v>
       </c>
       <c r="G54">
         <v>3</v>
       </c>
       <c r="H54">
-        <v>74.793000000000006</v>
+        <v>61.318300000000001</v>
       </c>
       <c r="I54" s="1">
         <f t="shared" si="1"/>
-        <v>1.1395812442340858</v>
+        <v>1.3900042890947726</v>
       </c>
       <c r="J54">
         <v>9</v>
@@ -3420,7 +3378,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B55">
         <v>8081</v>
@@ -3432,21 +3390,21 @@
         <v>448.142</v>
       </c>
       <c r="E55">
-        <v>388.548</v>
+        <v>381.28899999999999</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="0"/>
-        <v>1.1533761594449077</v>
+        <v>1.1753341953216589</v>
       </c>
       <c r="G55">
         <v>5</v>
       </c>
       <c r="H55">
-        <v>432.73099999999999</v>
+        <v>397.27699999999999</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="1"/>
-        <v>1.035613348708551</v>
+        <v>1.1280340920818472</v>
       </c>
       <c r="J55">
         <v>683</v>
@@ -3454,7 +3412,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B56">
         <v>1919</v>
@@ -3466,21 +3424,21 @@
         <v>297.17500000000001</v>
       </c>
       <c r="E56">
-        <v>297.149</v>
+        <v>266.69</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>1.0000874981911432</v>
+        <v>1.1143087479845515</v>
       </c>
       <c r="G56">
         <v>15</v>
       </c>
       <c r="H56">
-        <v>279.767</v>
+        <v>217.208</v>
       </c>
       <c r="I56" s="1">
         <f t="shared" si="1"/>
-        <v>1.0622232071688227</v>
+        <v>1.368158631357961</v>
       </c>
       <c r="J56">
         <v>407</v>
@@ -3488,7 +3446,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B57">
         <v>1224</v>
@@ -3500,21 +3458,21 @@
         <v>170.05</v>
       </c>
       <c r="E57">
-        <v>166.084</v>
+        <v>148.82599999999999</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>1.0238794826714193</v>
+        <v>1.1426094902772366</v>
       </c>
       <c r="G57">
         <v>11</v>
       </c>
       <c r="H57">
-        <v>160.429</v>
+        <v>126.816</v>
       </c>
       <c r="I57" s="1">
         <f t="shared" si="1"/>
-        <v>1.0599704542196238</v>
+        <v>1.3409191269240475</v>
       </c>
       <c r="J57">
         <v>467</v>
@@ -3522,7 +3480,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B58">
         <v>1250</v>
@@ -3534,21 +3492,21 @@
         <v>136.655</v>
       </c>
       <c r="E58">
-        <v>126.50700000000001</v>
+        <v>115.935</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="0"/>
-        <v>1.0802169049933996</v>
+        <v>1.1787208349506189</v>
       </c>
       <c r="G58">
         <v>3</v>
       </c>
       <c r="H58">
-        <v>125.355</v>
+        <v>101.102</v>
       </c>
       <c r="I58" s="1">
         <f t="shared" si="1"/>
-        <v>1.0901439910653743</v>
+        <v>1.3516547644952621</v>
       </c>
       <c r="J58">
         <v>18</v>
@@ -3556,7 +3514,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B59">
         <v>5151</v>
@@ -3568,21 +3526,21 @@
         <v>435.88799999999998</v>
       </c>
       <c r="E59">
-        <v>466.375</v>
+        <v>377.74799999999999</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="0"/>
-        <v>0.9346298579469311</v>
+        <v>1.1539121318974555</v>
       </c>
       <c r="G59">
         <v>4</v>
       </c>
       <c r="H59">
-        <v>379.70400000000001</v>
+        <v>316.80799999999999</v>
       </c>
       <c r="I59" s="1">
         <f t="shared" si="1"/>
-        <v>1.1479678907780797</v>
+        <v>1.3758743466074088</v>
       </c>
       <c r="J59">
         <v>397</v>
@@ -3590,7 +3548,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B60">
         <v>3564</v>
@@ -3602,21 +3560,21 @@
         <v>425.91</v>
       </c>
       <c r="E60">
-        <v>429.613</v>
+        <v>378.58</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="0"/>
-        <v>0.99138061464620486</v>
+        <v>1.1250198108722067</v>
       </c>
       <c r="G60">
         <v>5</v>
       </c>
       <c r="H60">
-        <v>421.99900000000002</v>
+        <v>334.89699999999999</v>
       </c>
       <c r="I60" s="1">
         <f t="shared" si="1"/>
-        <v>1.0092677944734467</v>
+        <v>1.2717641543519351</v>
       </c>
       <c r="J60">
         <v>34</v>
@@ -3624,7 +3582,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B61">
         <v>3312</v>
@@ -3636,21 +3594,21 @@
         <v>392.17599999999999</v>
       </c>
       <c r="E61">
-        <v>397.15100000000001</v>
+        <v>353.983</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="0"/>
-        <v>0.98747327842558619</v>
+        <v>1.1078950119073514</v>
       </c>
       <c r="G61">
         <v>20</v>
       </c>
       <c r="H61">
-        <v>380.73899999999998</v>
+        <v>306.50900000000001</v>
       </c>
       <c r="I61" s="1">
         <f t="shared" si="1"/>
-        <v>1.0300389505671865</v>
+        <v>1.2794926086999077</v>
       </c>
       <c r="J61">
         <v>140</v>
@@ -3658,7 +3616,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B62">
         <v>1434</v>
@@ -3670,21 +3628,21 @@
         <v>176.90299999999999</v>
       </c>
       <c r="E62">
-        <v>167.191</v>
+        <v>153.80099999999999</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="0"/>
-        <v>1.0580892512156754</v>
+        <v>1.1502070857796765</v>
       </c>
       <c r="G62">
         <v>48</v>
       </c>
       <c r="H62">
-        <v>161.33699999999999</v>
+        <v>128.16800000000001</v>
       </c>
       <c r="I62" s="1">
         <f t="shared" si="1"/>
-        <v>1.0964812783180549</v>
+        <v>1.3802431184070905</v>
       </c>
       <c r="J62">
         <v>326</v>
@@ -3692,7 +3650,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B63">
         <v>600</v>
@@ -3704,21 +3662,21 @@
         <v>94.919200000000004</v>
       </c>
       <c r="E63">
-        <v>94.285600000000002</v>
+        <v>83.528499999999994</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="0"/>
-        <v>1.0067200081454644</v>
+        <v>1.1363690237463862</v>
       </c>
       <c r="G63">
         <v>14</v>
       </c>
       <c r="H63">
-        <v>89.724900000000005</v>
+        <v>69.995900000000006</v>
       </c>
       <c r="I63" s="1">
         <f t="shared" si="1"/>
-        <v>1.0578913991545267</v>
+        <v>1.35606799826847</v>
       </c>
       <c r="J63">
         <v>273</v>
@@ -3726,7 +3684,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B64">
         <v>363</v>
@@ -3738,21 +3696,21 @@
         <v>53.0627</v>
       </c>
       <c r="E64">
-        <v>51.063299999999998</v>
+        <v>44.9146</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>1.0391553229031418</v>
+        <v>1.181413170772978</v>
       </c>
       <c r="G64">
         <v>29</v>
       </c>
       <c r="H64">
-        <v>47.382300000000001</v>
+        <v>36.580500000000001</v>
       </c>
       <c r="I64" s="1">
         <f t="shared" si="1"/>
-        <v>1.1198844294177361</v>
+        <v>1.4505733929279261</v>
       </c>
       <c r="J64">
         <v>347</v>
@@ -3760,7 +3718,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B65">
         <v>4000</v>
@@ -3772,21 +3730,21 @@
         <v>245.66200000000001</v>
       </c>
       <c r="E65">
-        <v>196.447</v>
+        <v>194.87100000000001</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="0"/>
-        <v>1.2505255870540146</v>
+        <v>1.2606390894489174</v>
       </c>
       <c r="G65">
         <v>3</v>
       </c>
       <c r="H65">
-        <v>226.26400000000001</v>
+        <v>190.97499999999999</v>
       </c>
       <c r="I65" s="1">
         <f t="shared" si="1"/>
-        <v>1.0857317116288936</v>
+        <v>1.2863568529912293</v>
       </c>
       <c r="J65">
         <v>22</v>
@@ -3794,7 +3752,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B66">
         <v>1000</v>
@@ -3806,21 +3764,21 @@
         <v>82.586699999999993</v>
       </c>
       <c r="E66">
-        <v>71.239800000000002</v>
+        <v>67.937600000000003</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="0"/>
-        <v>1.1592775386792213</v>
+        <v>1.2156258095664254</v>
       </c>
       <c r="G66">
         <v>2</v>
       </c>
       <c r="H66">
-        <v>73.787499999999994</v>
+        <v>60.420499999999997</v>
       </c>
       <c r="I66" s="1">
         <f t="shared" si="1"/>
-        <v>1.1192505505675081</v>
+        <v>1.3668655505995482</v>
       </c>
       <c r="J66">
         <v>6</v>
@@ -3828,7 +3786,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B67">
         <v>2903</v>
@@ -3840,21 +3798,21 @@
         <v>356.37799999999999</v>
       </c>
       <c r="E67">
-        <v>342.12700000000001</v>
+        <v>309.56400000000002</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F71" si="2">D67/E67</f>
-        <v>1.0416541225919029</v>
+        <v>1.1512255947073948</v>
       </c>
       <c r="G67">
         <v>4</v>
       </c>
       <c r="H67">
-        <v>334.08699999999999</v>
+        <v>265.78899999999999</v>
       </c>
       <c r="I67" s="1">
         <f t="shared" ref="I67:I71" si="3">D67/H67</f>
-        <v>1.0667221412386594</v>
+        <v>1.340830508410807</v>
       </c>
       <c r="J67">
         <v>49</v>
@@ -3862,7 +3820,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B68">
         <v>1856</v>
@@ -3874,21 +3832,21 @@
         <v>212.614</v>
       </c>
       <c r="E68">
-        <v>206.51599999999999</v>
+        <v>186.274</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="2"/>
-        <v>1.0295279784617173</v>
+        <v>1.1414045975283722</v>
       </c>
       <c r="G68">
         <v>4</v>
       </c>
       <c r="H68">
-        <v>196.024</v>
+        <v>158.96199999999999</v>
       </c>
       <c r="I68" s="1">
         <f t="shared" si="3"/>
-        <v>1.0846324939803289</v>
+        <v>1.3375146261370643</v>
       </c>
       <c r="J68">
         <v>10</v>
@@ -3896,7 +3854,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B69">
         <v>1856</v>
@@ -3908,21 +3866,21 @@
         <v>216.16399999999999</v>
       </c>
       <c r="E69">
-        <v>209.851</v>
+        <v>189.24100000000001</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="2"/>
-        <v>1.0300832495437238</v>
+        <v>1.1422683245174141</v>
       </c>
       <c r="G69">
         <v>6</v>
       </c>
       <c r="H69">
-        <v>201.67099999999999</v>
+        <v>163.72999999999999</v>
       </c>
       <c r="I69" s="1">
         <f t="shared" si="3"/>
-        <v>1.071864571505075</v>
+        <v>1.3202467476943749</v>
       </c>
       <c r="J69">
         <v>74</v>
@@ -3930,7 +3888,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B70">
         <v>989</v>
@@ -3942,21 +3900,21 @@
         <v>79.242699999999999</v>
       </c>
       <c r="E70">
-        <v>68.745599999999996</v>
+        <v>64.630600000000001</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="2"/>
-        <v>1.1526948633803473</v>
+        <v>1.2260864048918005</v>
       </c>
       <c r="G70">
         <v>11</v>
       </c>
       <c r="H70">
-        <v>64.959000000000003</v>
+        <v>54.251800000000003</v>
       </c>
       <c r="I70" s="1">
         <f t="shared" si="3"/>
-        <v>1.2198879293092566</v>
+        <v>1.4606464670296653</v>
       </c>
       <c r="J70">
         <v>799</v>
@@ -3964,7 +3922,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B71">
         <v>2021</v>
@@ -3976,21 +3934,21 @@
         <v>167.25899999999999</v>
       </c>
       <c r="E71">
-        <v>152.96100000000001</v>
+        <v>143.565</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="2"/>
-        <v>1.0934748073038223</v>
+        <v>1.1650402256817469</v>
       </c>
       <c r="G71">
         <v>11</v>
       </c>
       <c r="H71">
-        <v>143.661</v>
+        <v>119.6</v>
       </c>
       <c r="I71" s="1">
         <f t="shared" si="3"/>
-        <v>1.1642616994173782</v>
+        <v>1.3984866220735785</v>
       </c>
       <c r="J71">
         <v>1657</v>

--- a/results/srlpi-ARM.xlsx
+++ b/results/srlpi-ARM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="440" windowWidth="22660" windowHeight="17560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="25220" yWindow="6520" windowWidth="22660" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GPCE matrices" sheetId="1" r:id="rId1"/>
@@ -333,10 +333,10 @@
     <t>NumRowLengths</t>
   </si>
   <si>
-    <t>CSRbyNZ-1e81f3</t>
-  </si>
-  <si>
     <t>stencil-1e81f3</t>
+  </si>
+  <si>
+    <t>CSRbyNZ-71f0de</t>
   </si>
 </sst>
 </file>
@@ -723,7 +723,7 @@
         <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>96</v>
@@ -732,7 +732,7 @@
         <v>100</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>97</v>
@@ -755,11 +755,11 @@
         <v>46026.5</v>
       </c>
       <c r="E2">
-        <v>45765</v>
+        <v>45762.2</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" ref="F2:F24" si="0">D2/E2</f>
-        <v>1.0057139735605811</v>
+        <v>1.0057755090445828</v>
       </c>
       <c r="G2">
         <v>311</v>
@@ -789,11 +789,11 @@
         <v>27425.5</v>
       </c>
       <c r="E3">
-        <v>33181.800000000003</v>
+        <v>32806.400000000001</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" si="0"/>
-        <v>0.82652237069718937</v>
+        <v>0.83598017460007801</v>
       </c>
       <c r="G3">
         <v>162</v>
@@ -823,11 +823,11 @@
         <v>34805.9</v>
       </c>
       <c r="E4">
-        <v>39829.199999999997</v>
+        <v>39503.1</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.87387896317274771</v>
+        <v>0.88109287625528132</v>
       </c>
       <c r="G4">
         <v>326</v>
@@ -857,11 +857,11 @@
         <v>40743.699999999997</v>
       </c>
       <c r="E5">
-        <v>43773.7</v>
+        <v>43674.2</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.93078035441372331</v>
+        <v>0.93290088885428923</v>
       </c>
       <c r="G5">
         <v>279</v>
@@ -891,11 +891,11 @@
         <v>87978.2</v>
       </c>
       <c r="E6">
-        <v>94690</v>
+        <v>93737.4</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.92911817509768713</v>
+        <v>0.93856027583440549</v>
       </c>
       <c r="G6">
         <v>312</v>
@@ -925,11 +925,11 @@
         <v>216464</v>
       </c>
       <c r="E7">
-        <v>237733</v>
+        <v>234662</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.91053408655929136</v>
+        <v>0.92245016236118327</v>
       </c>
       <c r="G7">
         <v>370</v>
@@ -959,11 +959,11 @@
         <v>22222.5</v>
       </c>
       <c r="E8">
-        <v>23887.7</v>
+        <v>23595.4</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.93029048422409855</v>
+        <v>0.9418149300287344</v>
       </c>
       <c r="G8">
         <v>25</v>
@@ -993,11 +993,11 @@
         <v>24999.4</v>
       </c>
       <c r="E9">
-        <v>26438.2</v>
+        <v>26264.400000000001</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.9455787459055458</v>
+        <v>0.95183594523385262</v>
       </c>
       <c r="G9">
         <v>22</v>
@@ -1027,11 +1027,11 @@
         <v>29468.9</v>
       </c>
       <c r="E10">
-        <v>31065.7</v>
+        <v>30892.6</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.94859925898981834</v>
+        <v>0.95391452969319523</v>
       </c>
       <c r="G10">
         <v>70</v>
@@ -1061,11 +1061,11 @@
         <v>59540.800000000003</v>
       </c>
       <c r="E11">
-        <v>56600.4</v>
+        <v>56036.9</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>1.0519501628963752</v>
+        <v>1.0625284410807878</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1095,11 +1095,11 @@
         <v>48752.6</v>
       </c>
       <c r="E12">
-        <v>47079.5</v>
+        <v>46687.4</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>1.035537760596438</v>
+        <v>1.0442346328988121</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1129,11 +1129,11 @@
         <v>42246.3</v>
       </c>
       <c r="E13">
-        <v>44227</v>
+        <v>44015.3</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.95521514007280628</v>
+        <v>0.95980942990278384</v>
       </c>
       <c r="G13">
         <v>71</v>
@@ -1163,11 +1163,11 @@
         <v>71419.600000000006</v>
       </c>
       <c r="E14">
-        <v>79455</v>
+        <v>80062.5</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.89886854194197985</v>
+        <v>0.89204808743169406</v>
       </c>
       <c r="G14">
         <v>27</v>
@@ -1197,11 +1197,11 @@
         <v>143862</v>
       </c>
       <c r="E15">
-        <v>170867</v>
+        <v>171609</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.84195309802360896</v>
+        <v>0.83831267590860614</v>
       </c>
       <c r="G15">
         <v>22</v>
@@ -1231,11 +1231,11 @@
         <v>79212.600000000006</v>
       </c>
       <c r="E16">
-        <v>96361.9</v>
+        <v>97190.1</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.82203235926232265</v>
+        <v>0.81502745650019914</v>
       </c>
       <c r="G16">
         <v>23</v>
@@ -1265,11 +1265,11 @@
         <v>79186.399999999994</v>
       </c>
       <c r="E17">
-        <v>76081.399999999994</v>
+        <v>76615.7</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>1.0408115518379</v>
+        <v>1.033553175132512</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1299,11 +1299,11 @@
         <v>84754.8</v>
       </c>
       <c r="E18">
-        <v>136923</v>
+        <v>136559</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.61899607808768431</v>
+        <v>0.62064602113372247</v>
       </c>
       <c r="G18">
         <v>60</v>
@@ -1333,11 +1333,11 @@
         <v>100704</v>
       </c>
       <c r="E19">
-        <v>111023</v>
+        <v>110779</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.90705529484881509</v>
+        <v>0.90905315989492597</v>
       </c>
       <c r="G19">
         <v>28</v>
@@ -1367,11 +1367,11 @@
         <v>170626</v>
       </c>
       <c r="E20">
-        <v>163806</v>
+        <v>162576</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>1.0416346165586121</v>
+        <v>1.0495153036118492</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -1401,11 +1401,11 @@
         <v>123100</v>
       </c>
       <c r="E21">
-        <v>116582</v>
+        <v>116919</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>1.0559091454941587</v>
+        <v>1.0528656591315355</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -1435,11 +1435,11 @@
         <v>93398.1</v>
       </c>
       <c r="E22">
-        <v>111744</v>
+        <v>111296</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.8358220575601375</v>
+        <v>0.83918649367452569</v>
       </c>
       <c r="G22">
         <v>29</v>
@@ -1469,11 +1469,11 @@
         <v>116283</v>
       </c>
       <c r="E23">
-        <v>166204</v>
+        <v>165427</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.6996402011985271</v>
+        <v>0.70292636631263339</v>
       </c>
       <c r="G23">
         <v>147</v>
@@ -1503,11 +1503,11 @@
         <v>196744</v>
       </c>
       <c r="E24">
-        <v>201405</v>
+        <v>198853</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.97685757553188846</v>
+        <v>0.98939417559704912</v>
       </c>
       <c r="G24">
         <v>9</v>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1556,7 +1556,7 @@
         <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>96</v>
@@ -1565,7 +1565,7 @@
         <v>100</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>97</v>
@@ -1588,11 +1588,11 @@
         <v>262.42099999999999</v>
       </c>
       <c r="E2">
-        <v>235.709</v>
+        <v>231.46</v>
       </c>
       <c r="F2" s="1">
         <f>D2/E2</f>
-        <v>1.1133261776173162</v>
+        <v>1.1337639332930096</v>
       </c>
       <c r="G2">
         <v>48</v>
@@ -1622,11 +1622,11 @@
         <v>446.416</v>
       </c>
       <c r="E3">
-        <v>404.44900000000001</v>
+        <v>423.01900000000001</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F66" si="0">D3/E3</f>
-        <v>1.1037633916760827</v>
+        <v>1.0553095723832735</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -1656,11 +1656,11 @@
         <v>272.60500000000002</v>
       </c>
       <c r="E4">
-        <v>244.167</v>
+        <v>244.57</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>1.1164694655706955</v>
+        <v>1.1146297583513924</v>
       </c>
       <c r="G4">
         <v>31</v>
@@ -1690,11 +1690,11 @@
         <v>484.63200000000001</v>
       </c>
       <c r="E5">
-        <v>380.06700000000001</v>
+        <v>366.11599999999999</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>1.2751225441829992</v>
+        <v>1.3237116105278108</v>
       </c>
       <c r="G5">
         <v>35</v>
@@ -1724,11 +1724,11 @@
         <v>260.88200000000001</v>
       </c>
       <c r="E6">
-        <v>228.107</v>
+        <v>223.59899999999999</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>1.1436825700219635</v>
+        <v>1.1667404594832715</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -1758,11 +1758,11 @@
         <v>95.5535</v>
       </c>
       <c r="E7">
-        <v>76.119900000000001</v>
+        <v>75.023499999999999</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>1.2553024898876641</v>
+        <v>1.273647590421668</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -1792,11 +1792,11 @@
         <v>108.357</v>
       </c>
       <c r="E8">
-        <v>86.8232</v>
+        <v>85.415000000000006</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>1.2480189626735712</v>
+        <v>1.2685945091611543</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1826,11 +1826,11 @@
         <v>68.049599999999998</v>
       </c>
       <c r="E9">
-        <v>58.013199999999998</v>
+        <v>57.622100000000003</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>1.1730020064399136</v>
+        <v>1.1809635539142098</v>
       </c>
       <c r="G9">
         <v>17</v>
@@ -1860,11 +1860,11 @@
         <v>505.75200000000001</v>
       </c>
       <c r="E10">
-        <v>595.93600000000004</v>
+        <v>520.11599999999999</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.84866831337593296</v>
+        <v>0.97238308377361982</v>
       </c>
       <c r="G10">
         <v>35</v>
@@ -1894,11 +1894,11 @@
         <v>76.725899999999996</v>
       </c>
       <c r="E11">
-        <v>64.263800000000003</v>
+        <v>63.741799999999998</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>1.1939209944012024</v>
+        <v>1.2036983580633116</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -1928,11 +1928,11 @@
         <v>287.47899999999998</v>
       </c>
       <c r="E12">
-        <v>264.57900000000001</v>
+        <v>260.68200000000002</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>1.0865525986567339</v>
+        <v>1.1027957434728901</v>
       </c>
       <c r="G12">
         <v>26</v>
@@ -1962,11 +1962,11 @@
         <v>59.801400000000001</v>
       </c>
       <c r="E13">
-        <v>51.197899999999997</v>
+        <v>51.012799999999999</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>1.1680440018047615</v>
+        <v>1.1722822507292288</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -1996,11 +1996,11 @@
         <v>182.61</v>
       </c>
       <c r="E14">
-        <v>155.54400000000001</v>
+        <v>154.691</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>1.1740086406418762</v>
+        <v>1.1804823810047127</v>
       </c>
       <c r="G14">
         <v>12</v>
@@ -2030,11 +2030,11 @@
         <v>93.410300000000007</v>
       </c>
       <c r="E15">
-        <v>78.713999999999999</v>
+        <v>78.396600000000007</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>1.1867050334120997</v>
+        <v>1.1915095807726355</v>
       </c>
       <c r="G15">
         <v>30</v>
@@ -2064,11 +2064,11 @@
         <v>187.89699999999999</v>
       </c>
       <c r="E16">
-        <v>158.63800000000001</v>
+        <v>158.05199999999999</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>1.1844387851586631</v>
+        <v>1.1888302583959709</v>
       </c>
       <c r="G16">
         <v>30</v>
@@ -2098,11 +2098,11 @@
         <v>426.18299999999999</v>
       </c>
       <c r="E17">
-        <v>355.18799999999999</v>
+        <v>360.495</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>1.1998800635156592</v>
+        <v>1.1822161195023508</v>
       </c>
       <c r="G17">
         <v>48</v>
@@ -2132,11 +2132,11 @@
         <v>127.92700000000001</v>
       </c>
       <c r="E18">
-        <v>110.998</v>
+        <v>110.435</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>1.1525162615542623</v>
+        <v>1.1583918141893421</v>
       </c>
       <c r="G18">
         <v>13</v>
@@ -2166,11 +2166,11 @@
         <v>71.954800000000006</v>
       </c>
       <c r="E19">
-        <v>60.886200000000002</v>
+        <v>60.49</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>1.1817916046657535</v>
+        <v>1.1895321540750539</v>
       </c>
       <c r="G19">
         <v>20</v>
@@ -2200,11 +2200,11 @@
         <v>487.334</v>
       </c>
       <c r="E20">
-        <v>496.32499999999999</v>
+        <v>521.30999999999995</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.98188485367450762</v>
+        <v>0.93482572749419746</v>
       </c>
       <c r="G20">
         <v>30</v>
@@ -2234,11 +2234,11 @@
         <v>90.608199999999997</v>
       </c>
       <c r="E21">
-        <v>78.007400000000004</v>
+        <v>76.860299999999995</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>1.1615333929857936</v>
+        <v>1.1788686747254435</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2268,11 +2268,11 @@
         <v>70.848699999999994</v>
       </c>
       <c r="E22">
-        <v>60.493099999999998</v>
+        <v>59.482500000000002</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>1.1711864658944573</v>
+        <v>1.1910847728323455</v>
       </c>
       <c r="G22">
         <v>8</v>
@@ -2302,11 +2302,11 @@
         <v>310.84100000000001</v>
       </c>
       <c r="E23">
-        <v>288.548</v>
+        <v>287.75799999999998</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>1.0772592428296159</v>
+        <v>1.0802167098742694</v>
       </c>
       <c r="G23">
         <v>39</v>
@@ -2336,11 +2336,11 @@
         <v>1978.06</v>
       </c>
       <c r="E24">
-        <v>1863.94</v>
+        <v>1844.26</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>1.0612251467321909</v>
+        <v>1.0725494236170605</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2370,11 +2370,11 @@
         <v>200.803</v>
       </c>
       <c r="E25">
-        <v>174.506</v>
+        <v>171.297</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>1.1506939589469702</v>
+        <v>1.1722505356194213</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -2404,11 +2404,11 @@
         <v>117.55500000000001</v>
       </c>
       <c r="E26">
-        <v>100.812</v>
+        <v>99.603499999999997</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>1.166081418878705</v>
+        <v>1.180229610405257</v>
       </c>
       <c r="G26">
         <v>9</v>
@@ -2438,11 +2438,11 @@
         <v>278.48700000000002</v>
       </c>
       <c r="E27">
-        <v>249.69800000000001</v>
+        <v>248.893</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>1.1152952766942468</v>
+        <v>1.118902500271201</v>
       </c>
       <c r="G27">
         <v>14</v>
@@ -2472,11 +2472,11 @@
         <v>37.204599999999999</v>
       </c>
       <c r="E28">
-        <v>28.7759</v>
+        <v>28.1036</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>1.2929083017386076</v>
+        <v>1.3238375154784441</v>
       </c>
       <c r="G28">
         <v>12</v>
@@ -2506,11 +2506,11 @@
         <v>83.347700000000003</v>
       </c>
       <c r="E29">
-        <v>75.012799999999999</v>
+        <v>75.463200000000001</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>1.1111130367084019</v>
+        <v>1.1044813896044694</v>
       </c>
       <c r="G29">
         <v>19</v>
@@ -2540,11 +2540,11 @@
         <v>113.194</v>
       </c>
       <c r="E30">
-        <v>94.689099999999996</v>
+        <v>94.818200000000004</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>1.1954279848472529</v>
+        <v>1.1938003463470093</v>
       </c>
       <c r="G30">
         <v>25</v>
@@ -2574,11 +2574,11 @@
         <v>320.86</v>
       </c>
       <c r="E31">
-        <v>141.315</v>
+        <v>141.95500000000001</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>2.2705303754024699</v>
+        <v>2.2602937550632243</v>
       </c>
       <c r="G31">
         <v>57</v>
@@ -2608,11 +2608,11 @@
         <v>379.47800000000001</v>
       </c>
       <c r="E32">
-        <v>369.911</v>
+        <v>359.22800000000001</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>1.0258629778514292</v>
+        <v>1.0563708842295143</v>
       </c>
       <c r="G32">
         <v>22</v>
@@ -2642,11 +2642,11 @@
         <v>119.764</v>
       </c>
       <c r="E33">
-        <v>102.613</v>
+        <v>101.134</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>1.16714256478224</v>
+        <v>1.1842110467300808</v>
       </c>
       <c r="G33">
         <v>8</v>
@@ -2676,11 +2676,11 @@
         <v>100.608</v>
       </c>
       <c r="E34">
-        <v>87.296999999999997</v>
+        <v>87.821600000000004</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>1.1524794666483384</v>
+        <v>1.1455951610993196</v>
       </c>
       <c r="G34">
         <v>19</v>
@@ -2710,11 +2710,11 @@
         <v>116.212</v>
       </c>
       <c r="E35">
-        <v>92.045900000000003</v>
+        <v>92.072500000000005</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>1.2625440133672439</v>
+        <v>1.2621792609085232</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -2744,11 +2744,11 @@
         <v>164.00800000000001</v>
       </c>
       <c r="E36">
-        <v>140.678</v>
+        <v>139.36600000000001</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>1.1658397190747667</v>
+        <v>1.1768150050944994</v>
       </c>
       <c r="G36">
         <v>39</v>
@@ -2778,11 +2778,11 @@
         <v>84.011399999999995</v>
       </c>
       <c r="E37">
-        <v>71.458399999999997</v>
+        <v>69.9405</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>1.1756686407756121</v>
+        <v>1.2011838634267697</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -2812,11 +2812,11 @@
         <v>112.96599999999999</v>
       </c>
       <c r="E38">
-        <v>97.056600000000003</v>
+        <v>95.511399999999995</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>1.1639187855333897</v>
+        <v>1.1827488655804439</v>
       </c>
       <c r="G38">
         <v>6</v>
@@ -2846,11 +2846,11 @@
         <v>68.322299999999998</v>
       </c>
       <c r="E39">
-        <v>59.298400000000001</v>
+        <v>58.9955</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>1.1521777990637183</v>
+        <v>1.1580934139044503</v>
       </c>
       <c r="G39">
         <v>24</v>
@@ -2880,11 +2880,11 @@
         <v>115.136</v>
       </c>
       <c r="E40">
-        <v>98.962800000000001</v>
+        <v>97.951800000000006</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>1.1634270655236107</v>
+        <v>1.1754352650997735</v>
       </c>
       <c r="G40">
         <v>13</v>
@@ -2914,11 +2914,11 @@
         <v>487.03399999999999</v>
       </c>
       <c r="E41">
-        <v>449.83800000000002</v>
+        <v>454.71199999999999</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>1.0826875452940836</v>
+        <v>1.0710823554249722</v>
       </c>
       <c r="G41">
         <v>6</v>
@@ -2948,11 +2948,11 @@
         <v>296.57</v>
       </c>
       <c r="E42">
-        <v>259.29399999999998</v>
+        <v>258.83699999999999</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>1.1437595933573472</v>
+        <v>1.1457790037745763</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -2982,11 +2982,11 @@
         <v>260.19900000000001</v>
       </c>
       <c r="E43">
-        <v>222.44499999999999</v>
+        <v>220.74799999999999</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>1.1697228528400279</v>
+        <v>1.1787150959465091</v>
       </c>
       <c r="G43">
         <v>7</v>
@@ -3016,11 +3016,11 @@
         <v>143.821</v>
       </c>
       <c r="E44">
-        <v>124.212</v>
+        <v>123.393</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>1.157867194795994</v>
+        <v>1.1655523408945403</v>
       </c>
       <c r="G44">
         <v>34</v>
@@ -3050,11 +3050,11 @@
         <v>1086.1300000000001</v>
       </c>
       <c r="E45">
-        <v>2824.69</v>
+        <v>2383.9499999999998</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>0.38451299080607076</v>
+        <v>0.45560099834308615</v>
       </c>
       <c r="G45">
         <v>209</v>
@@ -3084,11 +3084,11 @@
         <v>741.48</v>
       </c>
       <c r="E46">
-        <v>2197.0700000000002</v>
+        <v>1824.05</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>0.337485833405399</v>
+        <v>0.40650201474740277</v>
       </c>
       <c r="G46">
         <v>181</v>
@@ -3118,11 +3118,11 @@
         <v>353.25200000000001</v>
       </c>
       <c r="E47">
-        <v>335.78899999999999</v>
+        <v>370.08699999999999</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>1.0520058727355572</v>
+        <v>0.95451069613361184</v>
       </c>
       <c r="G47">
         <v>55</v>
@@ -3152,11 +3152,11 @@
         <v>131.51900000000001</v>
       </c>
       <c r="E48">
-        <v>99.735799999999998</v>
+        <v>98.803600000000003</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>1.3186739365403397</v>
+        <v>1.3311154654283852</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -3186,11 +3186,11 @@
         <v>144.58600000000001</v>
       </c>
       <c r="E49">
-        <v>125.956</v>
+        <v>125.583</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>1.147908793546953</v>
+        <v>1.1513182516741918</v>
       </c>
       <c r="G49">
         <v>10</v>
@@ -3220,11 +3220,11 @@
         <v>426.88299999999998</v>
       </c>
       <c r="E50">
-        <v>370.43799999999999</v>
+        <v>378.815</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>1.152373676566659</v>
+        <v>1.1268904346448794</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -3254,11 +3254,11 @@
         <v>931.48400000000004</v>
       </c>
       <c r="E51">
-        <v>829.19200000000001</v>
+        <v>811.01199999999994</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>1.1233634670860309</v>
+        <v>1.1485452742992706</v>
       </c>
       <c r="G51">
         <v>47</v>
@@ -3288,11 +3288,11 @@
         <v>264.90199999999999</v>
       </c>
       <c r="E52">
-        <v>229.64099999999999</v>
+        <v>228.351</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>1.1535483646213003</v>
+        <v>1.1600649876724867</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -3322,11 +3322,11 @@
         <v>1930.02</v>
       </c>
       <c r="E53">
-        <v>1614.05</v>
+        <v>1683.81</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>1.1957622130665098</v>
+        <v>1.146221960910079</v>
       </c>
       <c r="G53">
         <v>37</v>
@@ -3356,11 +3356,11 @@
         <v>85.232699999999994</v>
       </c>
       <c r="E54">
-        <v>71.766800000000003</v>
+        <v>71.705299999999994</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="0"/>
-        <v>1.1876341149389409</v>
+        <v>1.1886527216258771</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -3390,11 +3390,11 @@
         <v>448.142</v>
       </c>
       <c r="E55">
-        <v>381.28899999999999</v>
+        <v>385.46600000000001</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="0"/>
-        <v>1.1753341953216589</v>
+        <v>1.1625979982670327</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -3424,11 +3424,11 @@
         <v>297.17500000000001</v>
       </c>
       <c r="E56">
-        <v>266.69</v>
+        <v>261.86500000000001</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>1.1143087479845515</v>
+        <v>1.1348404712351785</v>
       </c>
       <c r="G56">
         <v>15</v>
@@ -3458,11 +3458,11 @@
         <v>170.05</v>
       </c>
       <c r="E57">
-        <v>148.82599999999999</v>
+        <v>148.03899999999999</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>1.1426094902772366</v>
+        <v>1.1486837927843341</v>
       </c>
       <c r="G57">
         <v>11</v>
@@ -3492,11 +3492,11 @@
         <v>136.655</v>
       </c>
       <c r="E58">
-        <v>115.935</v>
+        <v>115.836</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="0"/>
-        <v>1.1787208349506189</v>
+        <v>1.1797282364722539</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -3526,11 +3526,11 @@
         <v>435.88799999999998</v>
       </c>
       <c r="E59">
-        <v>377.74799999999999</v>
+        <v>361.33</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="0"/>
-        <v>1.1539121318974555</v>
+        <v>1.2063432319486342</v>
       </c>
       <c r="G59">
         <v>4</v>
@@ -3560,11 +3560,11 @@
         <v>425.91</v>
       </c>
       <c r="E60">
-        <v>378.58</v>
+        <v>381.08300000000003</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="0"/>
-        <v>1.1250198108722067</v>
+        <v>1.1176305424277651</v>
       </c>
       <c r="G60">
         <v>5</v>
@@ -3594,11 +3594,11 @@
         <v>392.17599999999999</v>
       </c>
       <c r="E61">
-        <v>353.983</v>
+        <v>359.29399999999998</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="0"/>
-        <v>1.1078950119073514</v>
+        <v>1.0915183665744488</v>
       </c>
       <c r="G61">
         <v>20</v>
@@ -3628,11 +3628,11 @@
         <v>176.90299999999999</v>
       </c>
       <c r="E62">
-        <v>153.80099999999999</v>
+        <v>153.28700000000001</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="0"/>
-        <v>1.1502070857796765</v>
+        <v>1.1540639454095911</v>
       </c>
       <c r="G62">
         <v>48</v>
@@ -3662,11 +3662,11 @@
         <v>94.919200000000004</v>
       </c>
       <c r="E63">
-        <v>83.528499999999994</v>
+        <v>83.142700000000005</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="0"/>
-        <v>1.1363690237463862</v>
+        <v>1.1416420202856052</v>
       </c>
       <c r="G63">
         <v>14</v>
@@ -3696,11 +3696,11 @@
         <v>53.0627</v>
       </c>
       <c r="E64">
-        <v>44.9146</v>
+        <v>44.737000000000002</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>1.181413170772978</v>
+        <v>1.1861032255180275</v>
       </c>
       <c r="G64">
         <v>29</v>
@@ -3730,11 +3730,11 @@
         <v>245.66200000000001</v>
       </c>
       <c r="E65">
-        <v>194.87100000000001</v>
+        <v>191.93799999999999</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="0"/>
-        <v>1.2606390894489174</v>
+        <v>1.2799028853067138</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -3764,11 +3764,11 @@
         <v>82.586699999999993</v>
       </c>
       <c r="E66">
-        <v>67.937600000000003</v>
+        <v>66.7209</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="0"/>
-        <v>1.2156258095664254</v>
+        <v>1.2377935549430537</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -3798,11 +3798,11 @@
         <v>356.37799999999999</v>
       </c>
       <c r="E67">
-        <v>309.56400000000002</v>
+        <v>307.26900000000001</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F71" si="2">D67/E67</f>
-        <v>1.1512255947073948</v>
+        <v>1.1598241280441566</v>
       </c>
       <c r="G67">
         <v>4</v>
@@ -3832,11 +3832,11 @@
         <v>212.614</v>
       </c>
       <c r="E68">
-        <v>186.274</v>
+        <v>184.62</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="2"/>
-        <v>1.1414045975283722</v>
+        <v>1.151630375907269</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -3866,11 +3866,11 @@
         <v>216.16399999999999</v>
       </c>
       <c r="E69">
-        <v>189.24100000000001</v>
+        <v>186.761</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="2"/>
-        <v>1.1422683245174141</v>
+        <v>1.1574365097638157</v>
       </c>
       <c r="G69">
         <v>6</v>
@@ -3900,11 +3900,11 @@
         <v>79.242699999999999</v>
       </c>
       <c r="E70">
-        <v>64.630600000000001</v>
+        <v>64.041799999999995</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="2"/>
-        <v>1.2260864048918005</v>
+        <v>1.2373590373787122</v>
       </c>
       <c r="G70">
         <v>11</v>
@@ -3934,11 +3934,11 @@
         <v>167.25899999999999</v>
       </c>
       <c r="E71">
-        <v>143.565</v>
+        <v>142.92400000000001</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="2"/>
-        <v>1.1650402256817469</v>
+        <v>1.1702653158321903</v>
       </c>
       <c r="G71">
         <v>11</v>

--- a/results/srlpi-ARM.xlsx
+++ b/results/srlpi-ARM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25220" yWindow="6520" windowWidth="22660" windowHeight="17560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6100" yWindow="6780" windowWidth="22660" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GPCE matrices" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
   <si>
     <t>email-EuAll</t>
   </si>
@@ -337,6 +337,12 @@
   </si>
   <si>
     <t>CSRbyNZ-71f0de</t>
+  </si>
+  <si>
+    <t>CSRbyNZ-4b7631</t>
+  </si>
+  <si>
+    <t>stencil-4b7631</t>
   </si>
 </sst>
 </file>
@@ -403,7 +409,67 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -700,7 +766,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -723,7 +789,7 @@
         <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>96</v>
@@ -755,11 +821,11 @@
         <v>46026.5</v>
       </c>
       <c r="E2">
-        <v>45762.2</v>
+        <v>45093</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" ref="F2:F24" si="0">D2/E2</f>
-        <v>1.0057755090445828</v>
+        <v>1.020701661011687</v>
       </c>
       <c r="G2">
         <v>311</v>
@@ -789,11 +855,11 @@
         <v>27425.5</v>
       </c>
       <c r="E3">
-        <v>32806.400000000001</v>
+        <v>32492.9</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" si="0"/>
-        <v>0.83598017460007801</v>
+        <v>0.84404593003394579</v>
       </c>
       <c r="G3">
         <v>162</v>
@@ -823,11 +889,11 @@
         <v>34805.9</v>
       </c>
       <c r="E4">
-        <v>39503.1</v>
+        <v>39220.300000000003</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.88109287625528132</v>
+        <v>0.88744604197316179</v>
       </c>
       <c r="G4">
         <v>326</v>
@@ -857,11 +923,11 @@
         <v>40743.699999999997</v>
       </c>
       <c r="E5">
-        <v>43674.2</v>
+        <v>43263.8</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.93290088885428923</v>
+        <v>0.94175037791409899</v>
       </c>
       <c r="G5">
         <v>279</v>
@@ -891,11 +957,11 @@
         <v>87978.2</v>
       </c>
       <c r="E6">
-        <v>93737.4</v>
+        <v>93216.9</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.93856027583440549</v>
+        <v>0.94380096313007622</v>
       </c>
       <c r="G6">
         <v>312</v>
@@ -925,11 +991,11 @@
         <v>216464</v>
       </c>
       <c r="E7">
-        <v>234662</v>
+        <v>237339</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.92245016236118327</v>
+        <v>0.91204563935973437</v>
       </c>
       <c r="G7">
         <v>370</v>
@@ -959,11 +1025,11 @@
         <v>22222.5</v>
       </c>
       <c r="E8">
-        <v>23595.4</v>
+        <v>23716.3</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.9418149300287344</v>
+        <v>0.93701378376896904</v>
       </c>
       <c r="G8">
         <v>25</v>
@@ -993,11 +1059,11 @@
         <v>24999.4</v>
       </c>
       <c r="E9">
-        <v>26264.400000000001</v>
+        <v>26229.1</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.95183594523385262</v>
+        <v>0.95311695788265716</v>
       </c>
       <c r="G9">
         <v>22</v>
@@ -1027,11 +1093,11 @@
         <v>29468.9</v>
       </c>
       <c r="E10">
-        <v>30892.6</v>
+        <v>30817</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.95391452969319523</v>
+        <v>0.95625466463315711</v>
       </c>
       <c r="G10">
         <v>70</v>
@@ -1061,11 +1127,11 @@
         <v>59540.800000000003</v>
       </c>
       <c r="E11">
-        <v>56036.9</v>
+        <v>56162.9</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>1.0625284410807878</v>
+        <v>1.060144686260859</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1095,11 +1161,11 @@
         <v>48752.6</v>
       </c>
       <c r="E12">
-        <v>46687.4</v>
+        <v>47300.6</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>1.0442346328988121</v>
+        <v>1.0306972850238687</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1129,11 +1195,11 @@
         <v>42246.3</v>
       </c>
       <c r="E13">
-        <v>44015.3</v>
+        <v>43805.3</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.95980942990278384</v>
+        <v>0.96441069916197353</v>
       </c>
       <c r="G13">
         <v>71</v>
@@ -1163,11 +1229,11 @@
         <v>71419.600000000006</v>
       </c>
       <c r="E14">
-        <v>80062.5</v>
+        <v>80133.3</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.89204808743169406</v>
+        <v>0.89125993812809412</v>
       </c>
       <c r="G14">
         <v>27</v>
@@ -1197,11 +1263,11 @@
         <v>143862</v>
       </c>
       <c r="E15">
-        <v>171609</v>
+        <v>170468</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.83831267590860614</v>
+        <v>0.84392378628246945</v>
       </c>
       <c r="G15">
         <v>22</v>
@@ -1231,11 +1297,11 @@
         <v>79212.600000000006</v>
       </c>
       <c r="E16">
-        <v>97190.1</v>
+        <v>97154.3</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.81502745650019914</v>
+        <v>0.81532778271265405</v>
       </c>
       <c r="G16">
         <v>23</v>
@@ -1265,11 +1331,11 @@
         <v>79186.399999999994</v>
       </c>
       <c r="E17">
-        <v>76615.7</v>
+        <v>76988</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>1.033553175132512</v>
+        <v>1.0285550994960253</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1299,11 +1365,11 @@
         <v>84754.8</v>
       </c>
       <c r="E18">
-        <v>136559</v>
+        <v>136844</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.62064602113372247</v>
+        <v>0.61935342433720153</v>
       </c>
       <c r="G18">
         <v>60</v>
@@ -1333,11 +1399,11 @@
         <v>100704</v>
       </c>
       <c r="E19">
-        <v>110779</v>
+        <v>110296</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.90905315989492597</v>
+        <v>0.91303401755276714</v>
       </c>
       <c r="G19">
         <v>28</v>
@@ -1367,11 +1433,11 @@
         <v>170626</v>
       </c>
       <c r="E20">
-        <v>162576</v>
+        <v>163554</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>1.0495153036118492</v>
+        <v>1.0432395416804237</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -1401,11 +1467,11 @@
         <v>123100</v>
       </c>
       <c r="E21">
-        <v>116919</v>
+        <v>115988</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>1.0528656591315355</v>
+        <v>1.0613166879332345</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -1435,11 +1501,11 @@
         <v>93398.1</v>
       </c>
       <c r="E22">
-        <v>111296</v>
+        <v>110883</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.83918649367452569</v>
+        <v>0.84231216687860178</v>
       </c>
       <c r="G22">
         <v>29</v>
@@ -1469,11 +1535,11 @@
         <v>116283</v>
       </c>
       <c r="E23">
-        <v>165427</v>
+        <v>165656</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.70292636631263339</v>
+        <v>0.70195465301588833</v>
       </c>
       <c r="G23">
         <v>147</v>
@@ -1503,11 +1569,11 @@
         <v>196744</v>
       </c>
       <c r="E24">
-        <v>198853</v>
+        <v>198902</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.98939417559704912</v>
+        <v>0.98915043589305285</v>
       </c>
       <c r="G24">
         <v>9</v>
@@ -1530,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="O2" sqref="O2:O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1542,7 +1608,7 @@
     <col min="3" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1639,17 @@
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1607,8 +1682,22 @@
       <c r="J2">
         <v>2128</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>209.858</v>
+      </c>
+      <c r="L2" s="1">
+        <f>D2/K2</f>
+        <v>1.2504693649991898</v>
+      </c>
+      <c r="N2">
+        <v>231.87</v>
+      </c>
+      <c r="O2" s="1">
+        <f>E2/N2</f>
+        <v>0.99823176780092293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1641,8 +1730,22 @@
       <c r="J3">
         <v>3941</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>900.02599999999995</v>
+      </c>
+      <c r="L3" s="1">
+        <f>D3/K3</f>
+        <v>0.49600344878925723</v>
+      </c>
+      <c r="N3">
+        <v>416.44</v>
+      </c>
+      <c r="O3" s="1">
+        <f>E3/N3</f>
+        <v>1.0157981942176544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1675,8 +1778,22 @@
       <c r="J4">
         <v>1812</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>325.65899999999999</v>
+      </c>
+      <c r="L4" s="1">
+        <f>D4/K4</f>
+        <v>0.83708725998667322</v>
+      </c>
+      <c r="N4">
+        <v>246.54400000000001</v>
+      </c>
+      <c r="O4" s="1">
+        <f>E4/N4</f>
+        <v>0.99199331559478221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1709,8 +1826,22 @@
       <c r="J5">
         <v>5470</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>1060.48</v>
+      </c>
+      <c r="L5" s="1">
+        <f>D5/K5</f>
+        <v>0.45699305974652987</v>
+      </c>
+      <c r="N5">
+        <v>363.19299999999998</v>
+      </c>
+      <c r="O5" s="1">
+        <f>E5/N5</f>
+        <v>1.0080480626003254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1743,8 +1874,22 @@
       <c r="J6">
         <v>3083</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>225.077</v>
+      </c>
+      <c r="L6" s="1">
+        <f>D6/K6</f>
+        <v>1.1590788930010618</v>
+      </c>
+      <c r="N6">
+        <v>224.393</v>
+      </c>
+      <c r="O6" s="1">
+        <f>E6/N6</f>
+        <v>0.99646156520034046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1777,8 +1922,22 @@
       <c r="J7">
         <v>565</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>66.472999999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <f>D7/K7</f>
+        <v>1.437478374678441</v>
+      </c>
+      <c r="N7">
+        <v>74.936199999999999</v>
+      </c>
+      <c r="O7" s="1">
+        <f>E7/N7</f>
+        <v>1.0011649910190268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1811,8 +1970,22 @@
       <c r="J8">
         <v>637</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>76.375399999999999</v>
+      </c>
+      <c r="L8" s="1">
+        <f>D8/K8</f>
+        <v>1.418742160433857</v>
+      </c>
+      <c r="N8">
+        <v>85.340299999999999</v>
+      </c>
+      <c r="O8" s="1">
+        <f>E8/N8</f>
+        <v>1.0008753191633966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1845,8 +2018,22 @@
       <c r="J9">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>48.409500000000001</v>
+      </c>
+      <c r="L9" s="1">
+        <f>D9/K9</f>
+        <v>1.4057075574009232</v>
+      </c>
+      <c r="N9">
+        <v>57.669899999999998</v>
+      </c>
+      <c r="O9" s="1">
+        <f>E9/N9</f>
+        <v>0.99917114473928348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1879,8 +2066,22 @@
       <c r="J10">
         <v>1664</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>951.61900000000003</v>
+      </c>
+      <c r="L10" s="1">
+        <f>D10/K10</f>
+        <v>0.53146479841196947</v>
+      </c>
+      <c r="N10">
+        <v>603.63800000000003</v>
+      </c>
+      <c r="O10" s="1">
+        <f>E10/N10</f>
+        <v>0.86163561604802874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1913,8 +2114,22 @@
       <c r="J11">
         <v>240</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>53.899000000000001</v>
+      </c>
+      <c r="L11" s="1">
+        <f>D11/K11</f>
+        <v>1.4235124955936103</v>
+      </c>
+      <c r="N11">
+        <v>63.706800000000001</v>
+      </c>
+      <c r="O11" s="1">
+        <f>E11/N11</f>
+        <v>1.0005493919016495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1947,8 +2162,22 @@
       <c r="J12">
         <v>1297</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>223.577</v>
+      </c>
+      <c r="L12" s="1">
+        <f>D12/K12</f>
+        <v>1.2858165195883298</v>
+      </c>
+      <c r="N12">
+        <v>260.572</v>
+      </c>
+      <c r="O12" s="1">
+        <f>E12/N12</f>
+        <v>1.0004221481970434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1981,8 +2210,22 @@
       <c r="J13">
         <v>328</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>41.668199999999999</v>
+      </c>
+      <c r="L13" s="1">
+        <f>D13/K13</f>
+        <v>1.4351807853470993</v>
+      </c>
+      <c r="N13">
+        <v>50.942799999999998</v>
+      </c>
+      <c r="O13" s="1">
+        <f>E13/N13</f>
+        <v>1.0013740901560182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2015,8 +2258,22 @@
       <c r="J14">
         <v>240</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>136.72</v>
+      </c>
+      <c r="L14" s="1">
+        <f>D14/K14</f>
+        <v>1.335649502633119</v>
+      </c>
+      <c r="N14">
+        <v>155.10900000000001</v>
+      </c>
+      <c r="O14" s="1">
+        <f>E14/N14</f>
+        <v>0.99730512091496948</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -2049,8 +2306,22 @@
       <c r="J15">
         <v>808</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>65.062799999999996</v>
+      </c>
+      <c r="L15" s="1">
+        <f>D15/K15</f>
+        <v>1.4356944367595617</v>
+      </c>
+      <c r="N15">
+        <v>78.149600000000007</v>
+      </c>
+      <c r="O15" s="1">
+        <f>E15/N15</f>
+        <v>1.003160604788764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2083,8 +2354,22 @@
       <c r="J16">
         <v>860</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>140.084</v>
+      </c>
+      <c r="L16" s="1">
+        <f>D16/K16</f>
+        <v>1.3413166385882755</v>
+      </c>
+      <c r="N16">
+        <v>157.227</v>
+      </c>
+      <c r="O16" s="1">
+        <f>E16/N16</f>
+        <v>1.0052471903680664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2117,8 +2402,22 @@
       <c r="J17">
         <v>3524</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>648.06899999999996</v>
+      </c>
+      <c r="L17" s="1">
+        <f>D17/K17</f>
+        <v>0.65761979048527242</v>
+      </c>
+      <c r="N17">
+        <v>347.21199999999999</v>
+      </c>
+      <c r="O17" s="1">
+        <f>E17/N17</f>
+        <v>1.0382561662615348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -2151,8 +2450,22 @@
       <c r="J18">
         <v>952</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>89.675700000000006</v>
+      </c>
+      <c r="L18" s="1">
+        <f>D18/K18</f>
+        <v>1.4265514515080451</v>
+      </c>
+      <c r="N18">
+        <v>109.892</v>
+      </c>
+      <c r="O18" s="1">
+        <f>E18/N18</f>
+        <v>1.0049412150111019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -2185,8 +2498,22 @@
       <c r="J19">
         <v>232</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>50.402900000000002</v>
+      </c>
+      <c r="L19" s="1">
+        <f>D19/K19</f>
+        <v>1.4275924599576613</v>
+      </c>
+      <c r="N19">
+        <v>60.027200000000001</v>
+      </c>
+      <c r="O19" s="1">
+        <f>E19/N19</f>
+        <v>1.0077098382066796</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -2219,8 +2546,22 @@
       <c r="J20">
         <v>395</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>510.80500000000001</v>
+      </c>
+      <c r="L20" s="1">
+        <f>D20/K20</f>
+        <v>0.95405095878074808</v>
+      </c>
+      <c r="N20">
+        <v>480.55399999999997</v>
+      </c>
+      <c r="O20" s="1">
+        <f>E20/N20</f>
+        <v>1.0848104479413343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2253,8 +2594,22 @@
       <c r="J21">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>66.117599999999996</v>
+      </c>
+      <c r="L21" s="1">
+        <f>D21/K21</f>
+        <v>1.3704096942417754</v>
+      </c>
+      <c r="N21">
+        <v>77.048599999999993</v>
+      </c>
+      <c r="O21" s="1">
+        <f>E21/N21</f>
+        <v>0.99755608797564133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2287,8 +2642,22 @@
       <c r="J22">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>51.446899999999999</v>
+      </c>
+      <c r="L22" s="1">
+        <f>D22/K22</f>
+        <v>1.3771228198394849</v>
+      </c>
+      <c r="N22">
+        <v>59.622300000000003</v>
+      </c>
+      <c r="O22" s="1">
+        <f>E22/N22</f>
+        <v>0.99765523973412629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -2321,8 +2690,22 @@
       <c r="J23">
         <v>1015</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>266.233</v>
+      </c>
+      <c r="L23" s="1">
+        <f>D23/K23</f>
+        <v>1.1675524822242171</v>
+      </c>
+      <c r="N23">
+        <v>286.63900000000001</v>
+      </c>
+      <c r="O23" s="1">
+        <f>E23/N23</f>
+        <v>1.0039038651404728</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2355,8 +2738,22 @@
       <c r="J24">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>1043.5999999999999</v>
+      </c>
+      <c r="L24" s="1">
+        <f>D24/K24</f>
+        <v>1.8954197010348794</v>
+      </c>
+      <c r="N24">
+        <v>1849.25</v>
+      </c>
+      <c r="O24" s="1">
+        <f>E24/N24</f>
+        <v>0.99730160876030827</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -2389,8 +2786,22 @@
       <c r="J25">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>146.66</v>
+      </c>
+      <c r="L25" s="1">
+        <f>D25/K25</f>
+        <v>1.3691735987999454</v>
+      </c>
+      <c r="N25">
+        <v>170.76599999999999</v>
+      </c>
+      <c r="O25" s="1">
+        <f>E25/N25</f>
+        <v>1.003109518288184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2423,8 +2834,22 @@
       <c r="J26">
         <v>355</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>85.430400000000006</v>
+      </c>
+      <c r="L26" s="1">
+        <f>D26/K26</f>
+        <v>1.3760324193729632</v>
+      </c>
+      <c r="N26">
+        <v>99.241100000000003</v>
+      </c>
+      <c r="O26" s="1">
+        <f>E26/N26</f>
+        <v>1.0036517128488096</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2457,8 +2882,22 @@
       <c r="J27">
         <v>963</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>212.512</v>
+      </c>
+      <c r="L27" s="1">
+        <f>D27/K27</f>
+        <v>1.3104530567685591</v>
+      </c>
+      <c r="N27">
+        <v>248.27699999999999</v>
+      </c>
+      <c r="O27" s="1">
+        <f>E27/N27</f>
+        <v>1.002481099739404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2491,8 +2930,22 @@
       <c r="J28">
         <v>187</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <v>26.026299999999999</v>
+      </c>
+      <c r="L28" s="1">
+        <f>D28/K28</f>
+        <v>1.4295001594540906</v>
+      </c>
+      <c r="N28">
+        <v>28.1645</v>
+      </c>
+      <c r="O28" s="1">
+        <f>E28/N28</f>
+        <v>0.99783770349198453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2525,8 +2978,22 @@
       <c r="J29">
         <v>151</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>61.848599999999998</v>
+      </c>
+      <c r="L29" s="1">
+        <f>D29/K29</f>
+        <v>1.3476085149865964</v>
+      </c>
+      <c r="N29">
+        <v>75.424499999999995</v>
+      </c>
+      <c r="O29" s="1">
+        <f>E29/N29</f>
+        <v>1.0005130958773343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -2559,8 +3026,22 @@
       <c r="J30">
         <v>1066</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <v>78.309899999999999</v>
+      </c>
+      <c r="L30" s="1">
+        <f>D30/K30</f>
+        <v>1.4454621957121641</v>
+      </c>
+      <c r="N30">
+        <v>93.876800000000003</v>
+      </c>
+      <c r="O30" s="1">
+        <f>E30/N30</f>
+        <v>1.010028036746033</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -2593,8 +3074,22 @@
       <c r="J31">
         <v>710</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>130.869</v>
+      </c>
+      <c r="L31" s="1">
+        <f>D31/K31</f>
+        <v>2.4517647418410777</v>
+      </c>
+      <c r="N31">
+        <v>140.029</v>
+      </c>
+      <c r="O31" s="1">
+        <f>E31/N31</f>
+        <v>1.013754293753437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -2627,8 +3122,22 @@
       <c r="J32">
         <v>436</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>474.178</v>
+      </c>
+      <c r="L32" s="1">
+        <f>D32/K32</f>
+        <v>0.80028596856032974</v>
+      </c>
+      <c r="N32">
+        <v>364.065</v>
+      </c>
+      <c r="O32" s="1">
+        <f>E32/N32</f>
+        <v>0.98671391097743533</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -2661,8 +3170,22 @@
       <c r="J33">
         <v>1138</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>87.902900000000002</v>
+      </c>
+      <c r="L33" s="1">
+        <f>D33/K33</f>
+        <v>1.3624578938806342</v>
+      </c>
+      <c r="N33">
+        <v>101.10899999999999</v>
+      </c>
+      <c r="O33" s="1">
+        <f>E33/N33</f>
+        <v>1.0002472579097805</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -2695,8 +3218,22 @@
       <c r="J34">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <v>74.308800000000005</v>
+      </c>
+      <c r="L34" s="1">
+        <f>D34/K34</f>
+        <v>1.3539177055745752</v>
+      </c>
+      <c r="N34">
+        <v>87.426199999999994</v>
+      </c>
+      <c r="O34" s="1">
+        <f>E34/N34</f>
+        <v>1.0045226716933826</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -2729,8 +3266,22 @@
       <c r="J35">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <v>83.962900000000005</v>
+      </c>
+      <c r="L35" s="1">
+        <f>D35/K35</f>
+        <v>1.3840874957868297</v>
+      </c>
+      <c r="N35">
+        <v>92.071299999999994</v>
+      </c>
+      <c r="O35" s="1">
+        <f>E35/N35</f>
+        <v>1.0000130333773936</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -2763,8 +3314,22 @@
       <c r="J36">
         <v>1455</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>116.22199999999999</v>
+      </c>
+      <c r="L36" s="1">
+        <f>D36/K36</f>
+        <v>1.4111613980141455</v>
+      </c>
+      <c r="N36">
+        <v>139.32</v>
+      </c>
+      <c r="O36" s="1">
+        <f>E36/N36</f>
+        <v>1.0003301751363769</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -2797,8 +3362,22 @@
       <c r="J37">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>60.330300000000001</v>
+      </c>
+      <c r="L37" s="1">
+        <f>D37/K37</f>
+        <v>1.3925241545293161</v>
+      </c>
+      <c r="N37">
+        <v>70.623599999999996</v>
+      </c>
+      <c r="O37" s="1">
+        <f>E37/N37</f>
+        <v>0.99032759587446695</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -2831,8 +3410,22 @@
       <c r="J38">
         <v>905</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <v>79.621499999999997</v>
+      </c>
+      <c r="L38" s="1">
+        <f>D38/K38</f>
+        <v>1.4187876390170997</v>
+      </c>
+      <c r="N38">
+        <v>95.056299999999993</v>
+      </c>
+      <c r="O38" s="1">
+        <f>E38/N38</f>
+        <v>1.0047876889801097</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -2865,8 +3458,22 @@
       <c r="J39">
         <v>409</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <v>47.173200000000001</v>
+      </c>
+      <c r="L39" s="1">
+        <f>D39/K39</f>
+        <v>1.4483287120653252</v>
+      </c>
+      <c r="N39">
+        <v>58.728700000000003</v>
+      </c>
+      <c r="O39" s="1">
+        <f>E39/N39</f>
+        <v>1.0045429236472116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -2899,8 +3506,22 @@
       <c r="J40">
         <v>847</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>78.252499999999998</v>
+      </c>
+      <c r="L40" s="1">
+        <f>D40/K40</f>
+        <v>1.471339573815533</v>
+      </c>
+      <c r="N40">
+        <v>97.980900000000005</v>
+      </c>
+      <c r="O40" s="1">
+        <f>E40/N40</f>
+        <v>0.99970300334044693</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -2933,8 +3554,22 @@
       <c r="J41">
         <v>61</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <v>390.93</v>
+      </c>
+      <c r="L41" s="1">
+        <f>D41/K41</f>
+        <v>1.2458342925843502</v>
+      </c>
+      <c r="N41">
+        <v>522.62400000000002</v>
+      </c>
+      <c r="O41" s="1">
+        <f>E41/N41</f>
+        <v>0.87005571883419053</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -2967,8 +3602,22 @@
       <c r="J42">
         <v>380</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <v>234.46600000000001</v>
+      </c>
+      <c r="L42" s="1">
+        <f>D42/K42</f>
+        <v>1.2648742248343043</v>
+      </c>
+      <c r="N42">
+        <v>256.16399999999999</v>
+      </c>
+      <c r="O42" s="1">
+        <f>E42/N42</f>
+        <v>1.0104347215065348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -3001,8 +3650,22 @@
       <c r="J43">
         <v>74</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43">
+        <v>198.673</v>
+      </c>
+      <c r="L43" s="1">
+        <f>D43/K43</f>
+        <v>1.309684758371797</v>
+      </c>
+      <c r="N43">
+        <v>219.917</v>
+      </c>
+      <c r="O43" s="1">
+        <f>E43/N43</f>
+        <v>1.003778698327096</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -3035,8 +3698,22 @@
       <c r="J44">
         <v>597</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44">
+        <v>103.26600000000001</v>
+      </c>
+      <c r="L44" s="1">
+        <f>D44/K44</f>
+        <v>1.3927236457304437</v>
+      </c>
+      <c r="N44">
+        <v>123.44199999999999</v>
+      </c>
+      <c r="O44" s="1">
+        <f>E44/N44</f>
+        <v>0.99960305244568304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -3069,8 +3746,22 @@
       <c r="J45">
         <v>445</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45">
+        <v>1672.65</v>
+      </c>
+      <c r="L45" s="1">
+        <f>D45/K45</f>
+        <v>0.64934684482707083</v>
+      </c>
+      <c r="N45">
+        <v>2364.88</v>
+      </c>
+      <c r="O45" s="1">
+        <f>E45/N45</f>
+        <v>1.0080638341057473</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -3103,8 +3794,22 @@
       <c r="J46">
         <v>436</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <v>1265.22</v>
+      </c>
+      <c r="L46" s="1">
+        <f>D46/K46</f>
+        <v>0.58604827618912125</v>
+      </c>
+      <c r="N46">
+        <v>1831.84</v>
+      </c>
+      <c r="O46" s="1">
+        <f>E46/N46</f>
+        <v>0.99574744519171987</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -3137,8 +3842,22 @@
       <c r="J47">
         <v>346</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <v>304.75599999999997</v>
+      </c>
+      <c r="L47" s="1">
+        <f>D47/K47</f>
+        <v>1.1591305831550487</v>
+      </c>
+      <c r="N47">
+        <v>383.41300000000001</v>
+      </c>
+      <c r="O47" s="1">
+        <f>E47/N47</f>
+        <v>0.96524374499560517</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -3171,8 +3890,22 @@
       <c r="J48">
         <v>551</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48">
+        <v>108.973</v>
+      </c>
+      <c r="L48" s="1">
+        <f>D48/K48</f>
+        <v>1.2068952859882724</v>
+      </c>
+      <c r="N48">
+        <v>98.622699999999995</v>
+      </c>
+      <c r="O48" s="1">
+        <f>E48/N48</f>
+        <v>1.0018342633085486</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -3205,8 +3938,22 @@
       <c r="J49">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49">
+        <v>105.742</v>
+      </c>
+      <c r="L49" s="1">
+        <f>D49/K49</f>
+        <v>1.3673469387755102</v>
+      </c>
+      <c r="N49">
+        <v>126.59399999999999</v>
+      </c>
+      <c r="O49" s="1">
+        <f>E49/N49</f>
+        <v>0.99201383951846067</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -3239,8 +3986,22 @@
       <c r="J50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <v>330.166</v>
+      </c>
+      <c r="L50" s="1">
+        <f>D50/K50</f>
+        <v>1.2929344632699915</v>
+      </c>
+      <c r="N50">
+        <v>370.435</v>
+      </c>
+      <c r="O50" s="1">
+        <f>E50/N50</f>
+        <v>1.0226220524518472</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -3273,8 +4034,22 @@
       <c r="J51">
         <v>9503</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51">
+        <v>2544.31</v>
+      </c>
+      <c r="L51" s="1">
+        <f>D51/K51</f>
+        <v>0.36610475924710434</v>
+      </c>
+      <c r="N51">
+        <v>813.01300000000003</v>
+      </c>
+      <c r="O51" s="1">
+        <f>E51/N51</f>
+        <v>0.99753878474267932</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>76</v>
       </c>
@@ -3307,8 +4082,22 @@
       <c r="J52">
         <v>27</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52">
+        <v>198.28800000000001</v>
+      </c>
+      <c r="L52" s="1">
+        <f>D52/K52</f>
+        <v>1.335945695150488</v>
+      </c>
+      <c r="N52">
+        <v>228.15299999999999</v>
+      </c>
+      <c r="O52" s="1">
+        <f>E52/N52</f>
+        <v>1.0008678386871968</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -3341,8 +4130,22 @@
       <c r="J53">
         <v>4903</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K53">
+        <v>2967.27</v>
+      </c>
+      <c r="L53" s="1">
+        <f>D53/K53</f>
+        <v>0.65043625959215035</v>
+      </c>
+      <c r="N53">
+        <v>1670.33</v>
+      </c>
+      <c r="O53" s="1">
+        <f>E53/N53</f>
+        <v>1.0080702615650801</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>78</v>
       </c>
@@ -3375,8 +4178,22 @@
       <c r="J54">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K54">
+        <v>61.112299999999998</v>
+      </c>
+      <c r="L54" s="1">
+        <f>D54/K54</f>
+        <v>1.3946897760352661</v>
+      </c>
+      <c r="N54">
+        <v>71.433300000000003</v>
+      </c>
+      <c r="O54" s="1">
+        <f>E54/N54</f>
+        <v>1.003807747927087</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -3409,8 +4226,22 @@
       <c r="J55">
         <v>683</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K55">
+        <v>414.45</v>
+      </c>
+      <c r="L55" s="1">
+        <f>D55/K55</f>
+        <v>1.081293280250935</v>
+      </c>
+      <c r="N55">
+        <v>375.541</v>
+      </c>
+      <c r="O55" s="1">
+        <f>E55/N55</f>
+        <v>1.0264285390942667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -3443,8 +4274,22 @@
       <c r="J56">
         <v>407</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K56">
+        <v>218.09700000000001</v>
+      </c>
+      <c r="L56" s="1">
+        <f>D56/K56</f>
+        <v>1.3625817870030308</v>
+      </c>
+      <c r="N56">
+        <v>263.666</v>
+      </c>
+      <c r="O56" s="1">
+        <f>E56/N56</f>
+        <v>0.99316938854459813</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -3477,8 +4322,22 @@
       <c r="J57">
         <v>467</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K57">
+        <v>127.18600000000001</v>
+      </c>
+      <c r="L57" s="1">
+        <f>D57/K57</f>
+        <v>1.3370182252763669</v>
+      </c>
+      <c r="N57">
+        <v>148.226</v>
+      </c>
+      <c r="O57" s="1">
+        <f>E57/N57</f>
+        <v>0.99873841296398735</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -3511,8 +4370,22 @@
       <c r="J58">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K58">
+        <v>101.066</v>
+      </c>
+      <c r="L58" s="1">
+        <f>D58/K58</f>
+        <v>1.352136227811529</v>
+      </c>
+      <c r="N58">
+        <v>115.34399999999999</v>
+      </c>
+      <c r="O58" s="1">
+        <f>E58/N58</f>
+        <v>1.0042655014565127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -3545,8 +4418,22 @@
       <c r="J59">
         <v>397</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K59">
+        <v>314.92599999999999</v>
+      </c>
+      <c r="L59" s="1">
+        <f>D59/K59</f>
+        <v>1.3840965814191271</v>
+      </c>
+      <c r="N59">
+        <v>357.226</v>
+      </c>
+      <c r="O59" s="1">
+        <f>E59/N59</f>
+        <v>1.0114885254712702</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>84</v>
       </c>
@@ -3579,8 +4466,22 @@
       <c r="J60">
         <v>34</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K60">
+        <v>331.702</v>
+      </c>
+      <c r="L60" s="1">
+        <f>D60/K60</f>
+        <v>1.2840139643414874</v>
+      </c>
+      <c r="N60">
+        <v>375.55500000000001</v>
+      </c>
+      <c r="O60" s="1">
+        <f>E60/N60</f>
+        <v>1.0147195484016989</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -3613,8 +4514,22 @@
       <c r="J61">
         <v>140</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K61">
+        <v>305.56</v>
+      </c>
+      <c r="L61" s="1">
+        <f>D61/K61</f>
+        <v>1.2834664223065846</v>
+      </c>
+      <c r="N61">
+        <v>354.63099999999997</v>
+      </c>
+      <c r="O61" s="1">
+        <f>E61/N61</f>
+        <v>1.013148878693628</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -3647,8 +4562,22 @@
       <c r="J62">
         <v>326</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K62">
+        <v>129.19200000000001</v>
+      </c>
+      <c r="L62" s="1">
+        <f>D62/K62</f>
+        <v>1.369303052820608</v>
+      </c>
+      <c r="N62">
+        <v>152.017</v>
+      </c>
+      <c r="O62" s="1">
+        <f>E62/N62</f>
+        <v>1.0083543287921746</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -3681,8 +4610,22 @@
       <c r="J63">
         <v>273</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K63">
+        <v>69.610399999999998</v>
+      </c>
+      <c r="L63" s="1">
+        <f>D63/K63</f>
+        <v>1.3635778561824097</v>
+      </c>
+      <c r="N63">
+        <v>82.674099999999996</v>
+      </c>
+      <c r="O63" s="1">
+        <f>E63/N63</f>
+        <v>1.005668038720712</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -3715,8 +4658,22 @@
       <c r="J64">
         <v>347</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K64">
+        <v>36.9238</v>
+      </c>
+      <c r="L64" s="1">
+        <f>D64/K64</f>
+        <v>1.437086648719796</v>
+      </c>
+      <c r="N64">
+        <v>44.590800000000002</v>
+      </c>
+      <c r="O64" s="1">
+        <f>E64/N64</f>
+        <v>1.0032787032302628</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>89</v>
       </c>
@@ -3749,8 +4706,22 @@
       <c r="J65">
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K65">
+        <v>190.68700000000001</v>
+      </c>
+      <c r="L65" s="1">
+        <f>D65/K65</f>
+        <v>1.2882996743354291</v>
+      </c>
+      <c r="N65">
+        <v>191.11500000000001</v>
+      </c>
+      <c r="O65" s="1">
+        <f>E65/N65</f>
+        <v>1.0043063077204823</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>90</v>
       </c>
@@ -3783,8 +4754,22 @@
       <c r="J66">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K66">
+        <v>60.375</v>
+      </c>
+      <c r="L66" s="1">
+        <f>D66/K66</f>
+        <v>1.367895652173913</v>
+      </c>
+      <c r="N66">
+        <v>66.722700000000003</v>
+      </c>
+      <c r="O66" s="1">
+        <f>E66/N66</f>
+        <v>0.9999730226744421</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>91</v>
       </c>
@@ -3817,8 +4802,22 @@
       <c r="J67">
         <v>49</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K67">
+        <v>268.613</v>
+      </c>
+      <c r="L67" s="1">
+        <f>D67/K67</f>
+        <v>1.326734000215924</v>
+      </c>
+      <c r="N67">
+        <v>308.85700000000003</v>
+      </c>
+      <c r="O67" s="1">
+        <f>E67/N67</f>
+        <v>0.99485846200668915</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>92</v>
       </c>
@@ -3851,8 +4850,22 @@
       <c r="J68">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K68">
+        <v>160.16300000000001</v>
+      </c>
+      <c r="L68" s="1">
+        <f>D68/K68</f>
+        <v>1.3274851245293857</v>
+      </c>
+      <c r="N68">
+        <v>185.36199999999999</v>
+      </c>
+      <c r="O68" s="1">
+        <f>E68/N68</f>
+        <v>0.99599702204335305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>93</v>
       </c>
@@ -3885,8 +4898,22 @@
       <c r="J69">
         <v>74</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K69">
+        <v>163.78700000000001</v>
+      </c>
+      <c r="L69" s="1">
+        <f>D69/K69</f>
+        <v>1.3197872847051353</v>
+      </c>
+      <c r="N69">
+        <v>186.01900000000001</v>
+      </c>
+      <c r="O69" s="1">
+        <f>E69/N69</f>
+        <v>1.0039888398496928</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -3919,8 +4946,22 @@
       <c r="J70">
         <v>799</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K70">
+        <v>54.655799999999999</v>
+      </c>
+      <c r="L70" s="1">
+        <f>D70/K70</f>
+        <v>1.4498497872137999</v>
+      </c>
+      <c r="N70">
+        <v>63.326000000000001</v>
+      </c>
+      <c r="O70" s="1">
+        <f>E70/N70</f>
+        <v>1.011303414079525</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>95</v>
       </c>
@@ -3953,16 +4994,43 @@
       <c r="J71">
         <v>1657</v>
       </c>
+      <c r="K71">
+        <v>120.328</v>
+      </c>
+      <c r="L71" s="1">
+        <f>D71/K71</f>
+        <v>1.3900255967023467</v>
+      </c>
+      <c r="N71">
+        <v>142.86799999999999</v>
+      </c>
+      <c r="O71" s="1">
+        <f>E71/N71</f>
+        <v>1.0003919702102642</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I71">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F71">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
       <formula>1.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L71">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+      <formula>1.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O71">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>1.03</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0.97</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/srlpi-ARM.xlsx
+++ b/results/srlpi-ARM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="6780" windowWidth="22660" windowHeight="17560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5600" yWindow="440" windowWidth="31500" windowHeight="28360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GPCE matrices" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
   <si>
     <t>email-EuAll</t>
   </si>
@@ -336,13 +336,13 @@
     <t>stencil-1e81f3</t>
   </si>
   <si>
-    <t>CSRbyNZ-71f0de</t>
-  </si>
-  <si>
-    <t>CSRbyNZ-4b7631</t>
-  </si>
-  <si>
     <t>stencil-4b7631</t>
+  </si>
+  <si>
+    <t>stencil-f8dad7</t>
+  </si>
+  <si>
+    <t>CSRbyNZ-f8dad7</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -427,6 +427,256 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -765,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -789,22 +1039,22 @@
         <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -821,24 +1071,24 @@
         <v>46026.5</v>
       </c>
       <c r="E2">
-        <v>45093</v>
-      </c>
-      <c r="F2" s="1">
-        <f t="shared" ref="F2:F24" si="0">D2/E2</f>
-        <v>1.020701661011687</v>
-      </c>
-      <c r="G2">
         <v>311</v>
       </c>
+      <c r="F2">
+        <v>45383.3</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G24" si="0">D2/F2</f>
+        <v>1.0141726141554273</v>
+      </c>
       <c r="H2">
-        <v>67986.899999999994</v>
-      </c>
-      <c r="I2" s="1">
-        <f t="shared" ref="I2:I24" si="1">D2/H2</f>
-        <v>0.6769907143876247</v>
-      </c>
-      <c r="J2">
         <v>161683</v>
+      </c>
+      <c r="I2">
+        <v>68262.100000000006</v>
+      </c>
+      <c r="J2" s="1">
+        <f>D2/I2</f>
+        <v>0.67426141299491216</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -855,24 +1105,24 @@
         <v>27425.5</v>
       </c>
       <c r="E3">
-        <v>32492.9</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" si="0"/>
-        <v>0.84404593003394579</v>
-      </c>
-      <c r="G3">
         <v>162</v>
       </c>
+      <c r="F3">
+        <v>32652.3</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.83992551826364459</v>
+      </c>
       <c r="H3">
-        <v>37407.1</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" si="1"/>
-        <v>0.73316295569557655</v>
-      </c>
-      <c r="J3">
         <v>31814</v>
+      </c>
+      <c r="I3">
+        <v>36899</v>
+      </c>
+      <c r="J3" s="1">
+        <f>D3/I3</f>
+        <v>0.74325862489498362</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -889,24 +1139,24 @@
         <v>34805.9</v>
       </c>
       <c r="E4">
-        <v>39220.300000000003</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.88744604197316179</v>
-      </c>
-      <c r="G4">
         <v>326</v>
       </c>
+      <c r="F4">
+        <v>39298.699999999997</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.88567560759007302</v>
+      </c>
       <c r="H4">
-        <v>42170.8</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="1"/>
-        <v>0.82535545922771203</v>
-      </c>
-      <c r="J4">
         <v>49442</v>
+      </c>
+      <c r="I4">
+        <v>41470.6</v>
+      </c>
+      <c r="J4" s="1">
+        <f>D4/I4</f>
+        <v>0.83929096757703059</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -923,24 +1173,24 @@
         <v>40743.699999999997</v>
       </c>
       <c r="E5">
-        <v>43263.8</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.94175037791409899</v>
-      </c>
-      <c r="G5">
         <v>279</v>
       </c>
+      <c r="F5">
+        <v>43499.5</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.93664754767296166</v>
+      </c>
       <c r="H5">
-        <v>47138.8</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.86433468819740844</v>
-      </c>
-      <c r="J5">
         <v>40649</v>
+      </c>
+      <c r="I5">
+        <v>46258.3</v>
+      </c>
+      <c r="J5" s="1">
+        <f>D5/I5</f>
+        <v>0.88078679934195581</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -957,24 +1207,24 @@
         <v>87978.2</v>
       </c>
       <c r="E6">
-        <v>93216.9</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.94380096313007622</v>
-      </c>
-      <c r="G6">
         <v>312</v>
       </c>
+      <c r="F6">
+        <v>94172.9</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.93421992951263055</v>
+      </c>
       <c r="H6">
-        <v>102270</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.86025422900166226</v>
-      </c>
-      <c r="J6">
         <v>126894</v>
+      </c>
+      <c r="I6">
+        <v>100949</v>
+      </c>
+      <c r="J6" s="1">
+        <f>D6/I6</f>
+        <v>0.8715113572199823</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -991,24 +1241,24 @@
         <v>216464</v>
       </c>
       <c r="E7">
-        <v>237339</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.91204563935973437</v>
-      </c>
-      <c r="G7">
         <v>370</v>
       </c>
+      <c r="F7">
+        <v>235090</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92077076864179674</v>
+      </c>
       <c r="H7">
-        <v>313305</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.6909050286462074</v>
-      </c>
-      <c r="J7">
         <v>504865</v>
+      </c>
+      <c r="I7">
+        <v>308145</v>
+      </c>
+      <c r="J7" s="1">
+        <f>D7/I7</f>
+        <v>0.70247448441480476</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1025,24 +1275,24 @@
         <v>22222.5</v>
       </c>
       <c r="E8">
-        <v>23716.3</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.93701378376896904</v>
-      </c>
-      <c r="G8">
         <v>25</v>
       </c>
+      <c r="F8">
+        <v>23553.200000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94350236910483498</v>
+      </c>
       <c r="H8">
-        <v>16200.3</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="1"/>
-        <v>1.37173385678043</v>
-      </c>
-      <c r="J8">
         <v>601</v>
+      </c>
+      <c r="I8">
+        <v>16165.3</v>
+      </c>
+      <c r="J8" s="3">
+        <f>D8/I8</f>
+        <v>1.374703840943255</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1059,24 +1309,24 @@
         <v>24999.4</v>
       </c>
       <c r="E9">
-        <v>26229.1</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.95311695788265716</v>
-      </c>
-      <c r="G9">
         <v>22</v>
       </c>
+      <c r="F9">
+        <v>26268.799999999999</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.95167651358265326</v>
+      </c>
       <c r="H9">
-        <v>17050.7</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="1"/>
-        <v>1.4661802741236429</v>
-      </c>
-      <c r="J9">
         <v>4682</v>
+      </c>
+      <c r="I9">
+        <v>16933.7</v>
+      </c>
+      <c r="J9" s="3">
+        <f>D9/I9</f>
+        <v>1.4763105523305597</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1093,24 +1343,24 @@
         <v>29468.9</v>
       </c>
       <c r="E10">
-        <v>30817</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.95625466463315711</v>
-      </c>
-      <c r="G10">
         <v>70</v>
       </c>
+      <c r="F10">
+        <v>30912.400000000001</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.95330352868104706</v>
+      </c>
       <c r="H10">
-        <v>31629.200000000001</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="1"/>
-        <v>0.9316991893566704</v>
-      </c>
-      <c r="J10">
         <v>8391</v>
+      </c>
+      <c r="I10">
+        <v>31552.2</v>
+      </c>
+      <c r="J10" s="1">
+        <f>D10/I10</f>
+        <v>0.93397290838673697</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1127,24 +1377,24 @@
         <v>59540.800000000003</v>
       </c>
       <c r="E11">
-        <v>56162.9</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.060144686260859</v>
-      </c>
-      <c r="G11">
         <v>1</v>
       </c>
+      <c r="F11">
+        <v>56163.8</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0601276979121783</v>
+      </c>
       <c r="H11">
-        <v>85033.1</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="1"/>
-        <v>0.70020733102756449</v>
-      </c>
-      <c r="J11">
         <v>200200</v>
+      </c>
+      <c r="I11">
+        <v>82365.5</v>
+      </c>
+      <c r="J11" s="1">
+        <f>D11/I11</f>
+        <v>0.72288518858017015</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1161,24 +1411,24 @@
         <v>48752.6</v>
       </c>
       <c r="E12">
-        <v>47300.6</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0306972850238687</v>
-      </c>
-      <c r="G12">
         <v>3</v>
       </c>
+      <c r="F12">
+        <v>46913.2</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0392085809537615</v>
+      </c>
       <c r="H12">
-        <v>26668.799999999999</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="1"/>
-        <v>1.828076253899688</v>
-      </c>
-      <c r="J12">
         <v>3148</v>
+      </c>
+      <c r="I12">
+        <v>26464.799999999999</v>
+      </c>
+      <c r="J12" s="3">
+        <f>D12/I12</f>
+        <v>1.8421677095613795</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1195,24 +1445,24 @@
         <v>42246.3</v>
       </c>
       <c r="E13">
-        <v>43805.3</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.96441069916197353</v>
-      </c>
-      <c r="G13">
         <v>71</v>
       </c>
+      <c r="F13">
+        <v>43688.2</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96699566473326903</v>
+      </c>
       <c r="H13">
-        <v>31648.7</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="1"/>
-        <v>1.334851036535466</v>
-      </c>
-      <c r="J13">
         <v>7432</v>
+      </c>
+      <c r="I13">
+        <v>31612.2</v>
+      </c>
+      <c r="J13" s="3">
+        <f>D13/I13</f>
+        <v>1.3363922789302864</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1229,24 +1479,24 @@
         <v>71419.600000000006</v>
       </c>
       <c r="E14">
-        <v>80133.3</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.89125993812809412</v>
-      </c>
-      <c r="G14">
         <v>27</v>
       </c>
+      <c r="F14">
+        <v>79418.2</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89928505052997942</v>
+      </c>
       <c r="H14">
-        <v>60912.4</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1724968971834964</v>
-      </c>
-      <c r="J14">
         <v>46535</v>
+      </c>
+      <c r="I14">
+        <v>60002.7</v>
+      </c>
+      <c r="J14" s="1">
+        <f>D14/I14</f>
+        <v>1.1902731043769699</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1263,24 +1513,24 @@
         <v>143862</v>
       </c>
       <c r="E15">
-        <v>170468</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.84392378628246945</v>
-      </c>
-      <c r="G15">
         <v>22</v>
       </c>
+      <c r="F15">
+        <v>170122</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84564018763005377</v>
+      </c>
       <c r="H15">
-        <v>190718</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="1"/>
-        <v>0.75431789343428512</v>
-      </c>
-      <c r="J15">
         <v>172130</v>
+      </c>
+      <c r="I15">
+        <v>188935</v>
+      </c>
+      <c r="J15" s="1">
+        <f>D15/I15</f>
+        <v>0.76143647286103688</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1297,24 +1547,24 @@
         <v>79212.600000000006</v>
       </c>
       <c r="E16">
-        <v>97154.3</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.81532778271265405</v>
-      </c>
-      <c r="G16">
         <v>23</v>
       </c>
+      <c r="F16">
+        <v>96967.5</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.81689844535540268</v>
+      </c>
       <c r="H16">
-        <v>63968.5</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="1"/>
-        <v>1.2383063539085644</v>
-      </c>
-      <c r="J16">
         <v>935</v>
+      </c>
+      <c r="I16">
+        <v>64824.4</v>
+      </c>
+      <c r="J16" s="3">
+        <f>D16/I16</f>
+        <v>1.2219565472260445</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1331,24 +1581,24 @@
         <v>79186.399999999994</v>
       </c>
       <c r="E17">
-        <v>76988</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0285550994960253</v>
-      </c>
-      <c r="G17">
         <v>1</v>
       </c>
+      <c r="F17">
+        <v>76470.8</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0355115939678936</v>
+      </c>
       <c r="H17">
-        <v>72793.600000000006</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0878209073325127</v>
-      </c>
-      <c r="J17">
         <v>648</v>
+      </c>
+      <c r="I17">
+        <v>71332.7</v>
+      </c>
+      <c r="J17" s="1">
+        <f>D17/I17</f>
+        <v>1.1100995756504379</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1365,24 +1615,24 @@
         <v>84754.8</v>
       </c>
       <c r="E18">
-        <v>136844</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.61935342433720153</v>
-      </c>
-      <c r="G18">
         <v>60</v>
       </c>
+      <c r="F18">
+        <v>135471</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62563057776203024</v>
+      </c>
       <c r="H18">
-        <v>105784</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="1"/>
-        <v>0.8012062315662104</v>
-      </c>
-      <c r="J18">
         <v>105098</v>
+      </c>
+      <c r="I18">
+        <v>103698</v>
+      </c>
+      <c r="J18" s="1">
+        <f>D18/I18</f>
+        <v>0.81732338135740323</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1399,24 +1649,24 @@
         <v>100704</v>
       </c>
       <c r="E19">
-        <v>110296</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.91303401755276714</v>
-      </c>
-      <c r="G19">
         <v>28</v>
       </c>
+      <c r="F19">
+        <v>109706</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91794432392029601</v>
+      </c>
       <c r="H19">
-        <v>138510</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="1"/>
-        <v>0.72705219839722768</v>
-      </c>
-      <c r="J19">
         <v>130228</v>
+      </c>
+      <c r="I19">
+        <v>135759</v>
+      </c>
+      <c r="J19" s="1">
+        <f>D19/I19</f>
+        <v>0.74178507502265045</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1433,24 +1683,24 @@
         <v>170626</v>
       </c>
       <c r="E20">
-        <v>163554</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0432395416804237</v>
-      </c>
-      <c r="G20">
         <v>3</v>
       </c>
+      <c r="F20">
+        <v>163814</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0415837474208554</v>
+      </c>
       <c r="H20">
-        <v>271460</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="1"/>
-        <v>0.62854932586753109</v>
-      </c>
-      <c r="J20">
         <v>786432</v>
+      </c>
+      <c r="I20">
+        <v>276036</v>
+      </c>
+      <c r="J20" s="1">
+        <f>D20/I20</f>
+        <v>0.61812951933805738</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1467,24 +1717,24 @@
         <v>123100</v>
       </c>
       <c r="E21">
-        <v>115988</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0613166879332345</v>
-      </c>
-      <c r="G21">
         <v>3</v>
       </c>
+      <c r="F21">
+        <v>116222</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0591798454681558</v>
+      </c>
       <c r="H21">
-        <v>81182.600000000006</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" si="1"/>
-        <v>1.5163347810984127</v>
-      </c>
-      <c r="J21">
         <v>2298</v>
+      </c>
+      <c r="I21">
+        <v>81847.100000000006</v>
+      </c>
+      <c r="J21" s="3">
+        <f>D21/I21</f>
+        <v>1.5040239666402351</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1501,24 +1751,24 @@
         <v>93398.1</v>
       </c>
       <c r="E22">
-        <v>110883</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.84231216687860178</v>
-      </c>
-      <c r="G22">
         <v>29</v>
       </c>
+      <c r="F22">
+        <v>112532</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.82996925319020376</v>
+      </c>
       <c r="H22">
-        <v>80849.899999999994</v>
-      </c>
-      <c r="I22" s="3">
-        <f t="shared" si="1"/>
-        <v>1.1552036551684048</v>
-      </c>
-      <c r="J22">
         <v>1131</v>
+      </c>
+      <c r="I22">
+        <v>79933.7</v>
+      </c>
+      <c r="J22" s="3">
+        <f>D22/I22</f>
+        <v>1.1684445984609746</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1535,24 +1785,24 @@
         <v>116283</v>
       </c>
       <c r="E23">
-        <v>165656</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="0"/>
-        <v>0.70195465301588833</v>
-      </c>
-      <c r="G23">
         <v>147</v>
       </c>
+      <c r="F23">
+        <v>166010</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.70045780374676225</v>
+      </c>
       <c r="H23">
-        <v>131734</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="1"/>
-        <v>0.88271061381268312</v>
-      </c>
-      <c r="J23">
         <v>84195</v>
+      </c>
+      <c r="I23">
+        <v>130830</v>
+      </c>
+      <c r="J23" s="1">
+        <f>D23/I23</f>
+        <v>0.88880990598486587</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1569,37 +1819,53 @@
         <v>196744</v>
       </c>
       <c r="E24">
-        <v>198902</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.98915043589305285</v>
-      </c>
-      <c r="G24">
         <v>9</v>
       </c>
+      <c r="F24">
+        <v>199196</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98769051587381274</v>
+      </c>
       <c r="H24">
-        <v>267727</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="1"/>
-        <v>0.73486798118979413</v>
-      </c>
-      <c r="J24">
         <v>204290</v>
       </c>
+      <c r="I24">
+        <v>267738</v>
+      </c>
+      <c r="J24" s="1">
+        <f>D24/I24</f>
+        <v>0.73483778918196152</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:G24">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="lessThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThan">
+      <formula>1.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J24">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
+      <formula>1.05</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1608,7 +1874,7 @@
     <col min="3" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1622,34 +1888,37 @@
         <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="N1" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1663,24 +1932,24 @@
         <v>262.42099999999999</v>
       </c>
       <c r="E2">
-        <v>231.46</v>
-      </c>
-      <c r="F2" s="1">
-        <f>D2/E2</f>
-        <v>1.1337639332930096</v>
-      </c>
-      <c r="G2">
         <v>48</v>
       </c>
+      <c r="F2">
+        <v>232.11799999999999</v>
+      </c>
+      <c r="G2" s="1">
+        <f>D2/F2</f>
+        <v>1.1305499788900473</v>
+      </c>
       <c r="H2">
+        <v>2128</v>
+      </c>
+      <c r="I2">
         <v>271.34899999999999</v>
       </c>
-      <c r="I2" s="1">
-        <f>D2/H2</f>
+      <c r="J2" s="1">
+        <f>D2/I2</f>
         <v>0.96709772285875384</v>
-      </c>
-      <c r="J2">
-        <v>2128</v>
       </c>
       <c r="K2">
         <v>209.858</v>
@@ -1689,15 +1958,15 @@
         <f>D2/K2</f>
         <v>1.2504693649991898</v>
       </c>
-      <c r="N2">
-        <v>231.87</v>
-      </c>
-      <c r="O2" s="1">
-        <f>E2/N2</f>
-        <v>0.99823176780092293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <v>202.87799999999999</v>
+      </c>
+      <c r="N2" s="1">
+        <f>D2/M2</f>
+        <v>1.2934916550833506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1711,24 +1980,24 @@
         <v>446.416</v>
       </c>
       <c r="E3">
-        <v>423.01900000000001</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F66" si="0">D3/E3</f>
-        <v>1.0553095723832735</v>
-      </c>
-      <c r="G3">
         <v>6</v>
       </c>
+      <c r="F3">
+        <v>425.80500000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G66" si="0">D3/F3</f>
+        <v>1.0484047862284378</v>
+      </c>
       <c r="H3">
+        <v>3941</v>
+      </c>
+      <c r="I3">
         <v>852.16399999999999</v>
       </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I66" si="1">D3/H3</f>
+      <c r="J3" s="1">
+        <f>D3/I3</f>
         <v>0.52386160410437432</v>
-      </c>
-      <c r="J3">
-        <v>3941</v>
       </c>
       <c r="K3">
         <v>900.02599999999995</v>
@@ -1737,15 +2006,15 @@
         <f>D3/K3</f>
         <v>0.49600344878925723</v>
       </c>
-      <c r="N3">
-        <v>416.44</v>
-      </c>
-      <c r="O3" s="1">
-        <f>E3/N3</f>
-        <v>1.0157981942176544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>894.21600000000001</v>
+      </c>
+      <c r="N3" s="1">
+        <f>D3/M3</f>
+        <v>0.49922613775642571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1759,24 +2028,24 @@
         <v>272.60500000000002</v>
       </c>
       <c r="E4">
-        <v>244.57</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1146297583513924</v>
-      </c>
-      <c r="G4">
         <v>31</v>
       </c>
+      <c r="F4">
+        <v>244.63300000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.114342709282885</v>
+      </c>
       <c r="H4">
+        <v>1812</v>
+      </c>
+      <c r="I4">
         <v>234.018</v>
       </c>
-      <c r="I4" s="1">
-        <f t="shared" si="1"/>
+      <c r="J4" s="1">
+        <f>D4/I4</f>
         <v>1.1648890256305071</v>
-      </c>
-      <c r="J4">
-        <v>1812</v>
       </c>
       <c r="K4">
         <v>325.65899999999999</v>
@@ -1785,15 +2054,15 @@
         <f>D4/K4</f>
         <v>0.83708725998667322</v>
       </c>
-      <c r="N4">
-        <v>246.54400000000001</v>
-      </c>
-      <c r="O4" s="1">
-        <f>E4/N4</f>
-        <v>0.99199331559478221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <v>336.99</v>
+      </c>
+      <c r="N4" s="1">
+        <f>D4/M4</f>
+        <v>0.8089409181281344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1807,24 +2076,24 @@
         <v>484.63200000000001</v>
       </c>
       <c r="E5">
-        <v>366.11599999999999</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3237116105278108</v>
-      </c>
-      <c r="G5">
         <v>35</v>
       </c>
+      <c r="F5">
+        <v>369.91899999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3101030225535861</v>
+      </c>
       <c r="H5">
+        <v>5470</v>
+      </c>
+      <c r="I5">
         <v>941.149</v>
       </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
+      <c r="J5" s="1">
+        <f>D5/I5</f>
         <v>0.51493652970996096</v>
-      </c>
-      <c r="J5">
-        <v>5470</v>
       </c>
       <c r="K5">
         <v>1060.48</v>
@@ -1833,15 +2102,15 @@
         <f>D5/K5</f>
         <v>0.45699305974652987</v>
       </c>
-      <c r="N5">
-        <v>363.19299999999998</v>
-      </c>
-      <c r="O5" s="1">
-        <f>E5/N5</f>
-        <v>1.0080480626003254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>855.79399999999998</v>
+      </c>
+      <c r="N5" s="1">
+        <f>D5/M5</f>
+        <v>0.56629515981649792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1855,24 +2124,24 @@
         <v>260.88200000000001</v>
       </c>
       <c r="E6">
-        <v>223.59899999999999</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1667404594832715</v>
-      </c>
-      <c r="G6">
         <v>17</v>
       </c>
+      <c r="F6">
+        <v>225.536</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1567199914869466</v>
+      </c>
       <c r="H6">
+        <v>3083</v>
+      </c>
+      <c r="I6">
         <v>229.34700000000001</v>
       </c>
-      <c r="I6" s="1">
-        <f t="shared" si="1"/>
+      <c r="J6" s="1">
+        <f>D6/I6</f>
         <v>1.1374990734563784</v>
-      </c>
-      <c r="J6">
-        <v>3083</v>
       </c>
       <c r="K6">
         <v>225.077</v>
@@ -1881,15 +2150,15 @@
         <f>D6/K6</f>
         <v>1.1590788930010618</v>
       </c>
-      <c r="N6">
-        <v>224.393</v>
-      </c>
-      <c r="O6" s="1">
-        <f>E6/N6</f>
-        <v>0.99646156520034046</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <v>190.203</v>
+      </c>
+      <c r="N6" s="1">
+        <f>D6/M6</f>
+        <v>1.3715977140213351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1903,24 +2172,24 @@
         <v>95.5535</v>
       </c>
       <c r="E7">
-        <v>75.023499999999999</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>1.273647590421668</v>
-      </c>
-      <c r="G7">
         <v>10</v>
       </c>
+      <c r="F7">
+        <v>75.054599999999994</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2731198354264763</v>
+      </c>
       <c r="H7">
+        <v>565</v>
+      </c>
+      <c r="I7">
         <v>66.131299999999996</v>
       </c>
-      <c r="I7" s="1">
-        <f t="shared" si="1"/>
+      <c r="J7" s="1">
+        <f>D7/I7</f>
         <v>1.4449058161566459</v>
-      </c>
-      <c r="J7">
-        <v>565</v>
       </c>
       <c r="K7">
         <v>66.472999999999999</v>
@@ -1929,15 +2198,15 @@
         <f>D7/K7</f>
         <v>1.437478374678441</v>
       </c>
-      <c r="N7">
-        <v>74.936199999999999</v>
-      </c>
-      <c r="O7" s="1">
-        <f>E7/N7</f>
-        <v>1.0011649910190268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <v>66.491500000000002</v>
+      </c>
+      <c r="N7" s="1">
+        <f>D7/M7</f>
+        <v>1.4370784235578984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1951,24 +2220,24 @@
         <v>108.357</v>
       </c>
       <c r="E8">
-        <v>85.415000000000006</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2685945091611543</v>
-      </c>
-      <c r="G8">
         <v>10</v>
       </c>
+      <c r="F8">
+        <v>85.399799999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2688203016868893</v>
+      </c>
       <c r="H8">
+        <v>637</v>
+      </c>
+      <c r="I8">
         <v>76.060599999999994</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="1"/>
+      <c r="J8" s="1">
+        <f>D8/I8</f>
         <v>1.4246140577381721</v>
-      </c>
-      <c r="J8">
-        <v>637</v>
       </c>
       <c r="K8">
         <v>76.375399999999999</v>
@@ -1977,15 +2246,15 @@
         <f>D8/K8</f>
         <v>1.418742160433857</v>
       </c>
-      <c r="N8">
-        <v>85.340299999999999</v>
-      </c>
-      <c r="O8" s="1">
-        <f>E8/N8</f>
-        <v>1.0008753191633966</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>76.501300000000001</v>
+      </c>
+      <c r="N8" s="1">
+        <f>D8/M8</f>
+        <v>1.4164073028824347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1999,24 +2268,24 @@
         <v>68.049599999999998</v>
       </c>
       <c r="E9">
-        <v>57.622100000000003</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1809635539142098</v>
-      </c>
-      <c r="G9">
         <v>17</v>
       </c>
+      <c r="F9">
+        <v>57.686999999999998</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.17963492641323</v>
+      </c>
       <c r="H9">
+        <v>75</v>
+      </c>
+      <c r="I9">
         <v>48.541499999999999</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="1"/>
+      <c r="J9" s="1">
+        <f>D9/I9</f>
         <v>1.4018849850128241</v>
-      </c>
-      <c r="J9">
-        <v>75</v>
       </c>
       <c r="K9">
         <v>48.409500000000001</v>
@@ -2025,15 +2294,15 @@
         <f>D9/K9</f>
         <v>1.4057075574009232</v>
       </c>
-      <c r="N9">
-        <v>57.669899999999998</v>
-      </c>
-      <c r="O9" s="1">
-        <f>E9/N9</f>
-        <v>0.99917114473928348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>48.4694</v>
+      </c>
+      <c r="N9" s="1">
+        <f>D9/M9</f>
+        <v>1.4039703400495982</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2047,24 +2316,24 @@
         <v>505.75200000000001</v>
       </c>
       <c r="E10">
-        <v>520.11599999999999</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.97238308377361982</v>
-      </c>
-      <c r="G10">
         <v>35</v>
       </c>
+      <c r="F10">
+        <v>553.274</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91410765732711097</v>
+      </c>
       <c r="H10">
+        <v>1664</v>
+      </c>
+      <c r="I10">
         <v>941.70299999999997</v>
       </c>
-      <c r="I10" s="1">
-        <f t="shared" si="1"/>
+      <c r="J10" s="1">
+        <f>D10/I10</f>
         <v>0.53706104791000986</v>
-      </c>
-      <c r="J10">
-        <v>1664</v>
       </c>
       <c r="K10">
         <v>951.61900000000003</v>
@@ -2073,15 +2342,15 @@
         <f>D10/K10</f>
         <v>0.53146479841196947</v>
       </c>
-      <c r="N10">
-        <v>603.63800000000003</v>
-      </c>
-      <c r="O10" s="1">
-        <f>E10/N10</f>
-        <v>0.86163561604802874</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>932.53399999999999</v>
+      </c>
+      <c r="N10" s="1">
+        <f>D10/M10</f>
+        <v>0.54234161971574224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2095,24 +2364,24 @@
         <v>76.725899999999996</v>
       </c>
       <c r="E11">
-        <v>63.741799999999998</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2036983580633116</v>
-      </c>
-      <c r="G11">
         <v>9</v>
       </c>
+      <c r="F11">
+        <v>63.917999999999999</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2003801745987046</v>
+      </c>
       <c r="H11">
+        <v>240</v>
+      </c>
+      <c r="I11">
         <v>53.8596</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" si="1"/>
+      <c r="J11" s="1">
+        <f>D11/I11</f>
         <v>1.4245538399839581</v>
-      </c>
-      <c r="J11">
-        <v>240</v>
       </c>
       <c r="K11">
         <v>53.899000000000001</v>
@@ -2121,15 +2390,15 @@
         <f>D11/K11</f>
         <v>1.4235124955936103</v>
       </c>
-      <c r="N11">
-        <v>63.706800000000001</v>
-      </c>
-      <c r="O11" s="1">
-        <f>E11/N11</f>
-        <v>1.0005493919016495</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>53.895400000000002</v>
+      </c>
+      <c r="N11" s="1">
+        <f>D11/M11</f>
+        <v>1.4236075806098478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -2143,24 +2412,24 @@
         <v>287.47899999999998</v>
       </c>
       <c r="E12">
-        <v>260.68200000000002</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1027957434728901</v>
-      </c>
-      <c r="G12">
         <v>26</v>
       </c>
+      <c r="F12">
+        <v>262.58199999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0948160955434874</v>
+      </c>
       <c r="H12">
+        <v>1297</v>
+      </c>
+      <c r="I12">
         <v>215.124</v>
       </c>
-      <c r="I12" s="1">
-        <f t="shared" si="1"/>
+      <c r="J12" s="1">
+        <f>D12/I12</f>
         <v>1.3363409010617131</v>
-      </c>
-      <c r="J12">
-        <v>1297</v>
       </c>
       <c r="K12">
         <v>223.577</v>
@@ -2169,15 +2438,15 @@
         <f>D12/K12</f>
         <v>1.2858165195883298</v>
       </c>
-      <c r="N12">
-        <v>260.572</v>
-      </c>
-      <c r="O12" s="1">
-        <f>E12/N12</f>
-        <v>1.0004221481970434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <v>261.803</v>
+      </c>
+      <c r="N12" s="1">
+        <f>D12/M12</f>
+        <v>1.0980737424704834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2191,24 +2460,24 @@
         <v>59.801400000000001</v>
       </c>
       <c r="E13">
-        <v>51.012799999999999</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1722822507292288</v>
-      </c>
-      <c r="G13">
         <v>12</v>
       </c>
+      <c r="F13">
+        <v>50.831899999999997</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1764541557565231</v>
+      </c>
       <c r="H13">
+        <v>328</v>
+      </c>
+      <c r="I13">
         <v>41.588799999999999</v>
       </c>
-      <c r="I13" s="1">
-        <f t="shared" si="1"/>
+      <c r="J13" s="1">
+        <f>D13/I13</f>
         <v>1.4379207863655601</v>
-      </c>
-      <c r="J13">
-        <v>328</v>
       </c>
       <c r="K13">
         <v>41.668199999999999</v>
@@ -2217,15 +2486,15 @@
         <f>D13/K13</f>
         <v>1.4351807853470993</v>
       </c>
-      <c r="N13">
-        <v>50.942799999999998</v>
-      </c>
-      <c r="O13" s="1">
-        <f>E13/N13</f>
-        <v>1.0013740901560182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <v>41.516500000000001</v>
+      </c>
+      <c r="N13" s="1">
+        <f>D13/M13</f>
+        <v>1.4404248913082751</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2239,24 +2508,24 @@
         <v>182.61</v>
       </c>
       <c r="E14">
-        <v>154.691</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1804823810047127</v>
-      </c>
-      <c r="G14">
         <v>12</v>
       </c>
+      <c r="F14">
+        <v>155.31</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1757774773034577</v>
+      </c>
       <c r="H14">
+        <v>240</v>
+      </c>
+      <c r="I14">
         <v>135.38499999999999</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="1"/>
+      <c r="J14" s="1">
+        <f>D14/I14</f>
         <v>1.3488200317612735</v>
-      </c>
-      <c r="J14">
-        <v>240</v>
       </c>
       <c r="K14">
         <v>136.72</v>
@@ -2265,15 +2534,15 @@
         <f>D14/K14</f>
         <v>1.335649502633119</v>
       </c>
-      <c r="N14">
-        <v>155.10900000000001</v>
-      </c>
-      <c r="O14" s="1">
-        <f>E14/N14</f>
-        <v>0.99730512091496948</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <v>135.56200000000001</v>
+      </c>
+      <c r="N14" s="1">
+        <f>D14/M14</f>
+        <v>1.3470589103140997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -2287,24 +2556,24 @@
         <v>93.410300000000007</v>
       </c>
       <c r="E15">
-        <v>78.396600000000007</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1915095807726355</v>
-      </c>
-      <c r="G15">
         <v>30</v>
       </c>
+      <c r="F15">
+        <v>78.183400000000006</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1947587339511967</v>
+      </c>
       <c r="H15">
+        <v>808</v>
+      </c>
+      <c r="I15">
         <v>65.089200000000005</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" si="1"/>
+      <c r="J15" s="1">
+        <f>D15/I15</f>
         <v>1.4351121230557451</v>
-      </c>
-      <c r="J15">
-        <v>808</v>
       </c>
       <c r="K15">
         <v>65.062799999999996</v>
@@ -2313,15 +2582,15 @@
         <f>D15/K15</f>
         <v>1.4356944367595617</v>
       </c>
-      <c r="N15">
-        <v>78.149600000000007</v>
-      </c>
-      <c r="O15" s="1">
-        <f>E15/N15</f>
-        <v>1.003160604788764</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>63.815199999999997</v>
+      </c>
+      <c r="N15" s="1">
+        <f>D15/M15</f>
+        <v>1.4637625518685204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2335,24 +2604,24 @@
         <v>187.89699999999999</v>
       </c>
       <c r="E16">
-        <v>158.05199999999999</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1888302583959709</v>
-      </c>
-      <c r="G16">
         <v>30</v>
       </c>
+      <c r="F16">
+        <v>157.31800000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1943769943680951</v>
+      </c>
       <c r="H16">
+        <v>860</v>
+      </c>
+      <c r="I16">
         <v>139.38900000000001</v>
       </c>
-      <c r="I16" s="1">
-        <f t="shared" si="1"/>
+      <c r="J16" s="1">
+        <f>D16/I16</f>
         <v>1.3480045053770382</v>
-      </c>
-      <c r="J16">
-        <v>860</v>
       </c>
       <c r="K16">
         <v>140.084</v>
@@ -2361,15 +2630,15 @@
         <f>D16/K16</f>
         <v>1.3413166385882755</v>
       </c>
-      <c r="N16">
-        <v>157.227</v>
-      </c>
-      <c r="O16" s="1">
-        <f>E16/N16</f>
-        <v>1.0052471903680664</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <v>137.386</v>
+      </c>
+      <c r="N16" s="1">
+        <f>D16/M16</f>
+        <v>1.3676575488040994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2383,24 +2652,24 @@
         <v>426.18299999999999</v>
       </c>
       <c r="E17">
-        <v>360.495</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1822161195023508</v>
-      </c>
-      <c r="G17">
         <v>48</v>
       </c>
+      <c r="F17">
+        <v>347.738</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2255865047823362</v>
+      </c>
       <c r="H17">
+        <v>3524</v>
+      </c>
+      <c r="I17">
         <v>526.90099999999995</v>
       </c>
-      <c r="I17" s="1">
-        <f t="shared" si="1"/>
+      <c r="J17" s="1">
+        <f>D17/I17</f>
         <v>0.80884834152905394</v>
-      </c>
-      <c r="J17">
-        <v>3524</v>
       </c>
       <c r="K17">
         <v>648.06899999999996</v>
@@ -2409,15 +2678,15 @@
         <f>D17/K17</f>
         <v>0.65761979048527242</v>
       </c>
-      <c r="N17">
-        <v>347.21199999999999</v>
-      </c>
-      <c r="O17" s="1">
-        <f>E17/N17</f>
-        <v>1.0382561662615348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <v>533.899</v>
+      </c>
+      <c r="N17" s="1">
+        <f>D17/M17</f>
+        <v>0.79824648482203564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -2431,24 +2700,24 @@
         <v>127.92700000000001</v>
       </c>
       <c r="E18">
-        <v>110.435</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1583918141893421</v>
-      </c>
-      <c r="G18">
         <v>13</v>
       </c>
+      <c r="F18">
+        <v>109.956</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1634381025137328</v>
+      </c>
       <c r="H18">
+        <v>952</v>
+      </c>
+      <c r="I18">
         <v>89.990700000000004</v>
       </c>
-      <c r="I18" s="1">
-        <f t="shared" si="1"/>
+      <c r="J18" s="1">
+        <f>D18/I18</f>
         <v>1.4215580054383397</v>
-      </c>
-      <c r="J18">
-        <v>952</v>
       </c>
       <c r="K18">
         <v>89.675700000000006</v>
@@ -2457,15 +2726,15 @@
         <f>D18/K18</f>
         <v>1.4265514515080451</v>
       </c>
-      <c r="N18">
-        <v>109.892</v>
-      </c>
-      <c r="O18" s="1">
-        <f>E18/N18</f>
-        <v>1.0049412150111019</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>89.261499999999998</v>
+      </c>
+      <c r="N18" s="1">
+        <f>D18/M18</f>
+        <v>1.4331710759958101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -2479,24 +2748,24 @@
         <v>71.954800000000006</v>
       </c>
       <c r="E19">
-        <v>60.49</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1895321540750539</v>
-      </c>
-      <c r="G19">
         <v>20</v>
       </c>
+      <c r="F19">
+        <v>60.107100000000003</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1971098256279209</v>
+      </c>
       <c r="H19">
+        <v>232</v>
+      </c>
+      <c r="I19">
         <v>50.156500000000001</v>
       </c>
-      <c r="I19" s="1">
-        <f t="shared" si="1"/>
+      <c r="J19" s="1">
+        <f>D19/I19</f>
         <v>1.4346056842084276</v>
-      </c>
-      <c r="J19">
-        <v>232</v>
       </c>
       <c r="K19">
         <v>50.402900000000002</v>
@@ -2505,15 +2774,15 @@
         <f>D19/K19</f>
         <v>1.4275924599576613</v>
       </c>
-      <c r="N19">
-        <v>60.027200000000001</v>
-      </c>
-      <c r="O19" s="1">
-        <f>E19/N19</f>
-        <v>1.0077098382066796</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <v>50.359499999999997</v>
+      </c>
+      <c r="N19" s="1">
+        <f>D19/M19</f>
+        <v>1.4288227643245071</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -2527,24 +2796,24 @@
         <v>487.334</v>
       </c>
       <c r="E20">
-        <v>521.30999999999995</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.93482572749419746</v>
-      </c>
-      <c r="G20">
         <v>30</v>
       </c>
+      <c r="F20">
+        <v>513.12300000000005</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9497410952149874</v>
+      </c>
       <c r="H20">
+        <v>395</v>
+      </c>
+      <c r="I20">
         <v>393.11599999999999</v>
       </c>
-      <c r="I20" s="1">
-        <f t="shared" si="1"/>
+      <c r="J20" s="1">
+        <f>D20/I20</f>
         <v>1.2396697158090741</v>
-      </c>
-      <c r="J20">
-        <v>395</v>
       </c>
       <c r="K20">
         <v>510.80500000000001</v>
@@ -2553,15 +2822,15 @@
         <f>D20/K20</f>
         <v>0.95405095878074808</v>
       </c>
-      <c r="N20">
-        <v>480.55399999999997</v>
-      </c>
-      <c r="O20" s="1">
-        <f>E20/N20</f>
-        <v>1.0848104479413343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>448.22399999999999</v>
+      </c>
+      <c r="N20" s="1">
+        <f>D20/M20</f>
+        <v>1.0872554794031557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2575,24 +2844,24 @@
         <v>90.608199999999997</v>
       </c>
       <c r="E21">
-        <v>76.860299999999995</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1788686747254435</v>
-      </c>
-      <c r="G21">
         <v>3</v>
       </c>
+      <c r="F21">
+        <v>76.774600000000007</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1801845923000573</v>
+      </c>
       <c r="H21">
+        <v>9</v>
+      </c>
+      <c r="I21">
         <v>65.658600000000007</v>
       </c>
-      <c r="I21" s="1">
-        <f t="shared" si="1"/>
+      <c r="J21" s="1">
+        <f>D21/I21</f>
         <v>1.3799898261613861</v>
-      </c>
-      <c r="J21">
-        <v>9</v>
       </c>
       <c r="K21">
         <v>66.117599999999996</v>
@@ -2601,15 +2870,15 @@
         <f>D21/K21</f>
         <v>1.3704096942417754</v>
       </c>
-      <c r="N21">
-        <v>77.048599999999993</v>
-      </c>
-      <c r="O21" s="1">
-        <f>E21/N21</f>
-        <v>0.99755608797564133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>65.905500000000004</v>
+      </c>
+      <c r="N21" s="1">
+        <f>D21/M21</f>
+        <v>1.3748200074348877</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2623,24 +2892,24 @@
         <v>70.848699999999994</v>
       </c>
       <c r="E22">
-        <v>59.482500000000002</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1910847728323455</v>
-      </c>
-      <c r="G22">
         <v>8</v>
       </c>
+      <c r="F22">
+        <v>59.753</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1856927685639214</v>
+      </c>
       <c r="H22">
+        <v>38</v>
+      </c>
+      <c r="I22">
         <v>51.431800000000003</v>
       </c>
-      <c r="I22" s="1">
-        <f t="shared" si="1"/>
+      <c r="J22" s="1">
+        <f>D22/I22</f>
         <v>1.3775271330188714</v>
-      </c>
-      <c r="J22">
-        <v>38</v>
       </c>
       <c r="K22">
         <v>51.446899999999999</v>
@@ -2649,15 +2918,15 @@
         <f>D22/K22</f>
         <v>1.3771228198394849</v>
       </c>
-      <c r="N22">
-        <v>59.622300000000003</v>
-      </c>
-      <c r="O22" s="1">
-        <f>E22/N22</f>
-        <v>0.99765523973412629</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <v>51.871400000000001</v>
+      </c>
+      <c r="N22" s="1">
+        <f>D22/M22</f>
+        <v>1.3658528591863723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -2671,24 +2940,24 @@
         <v>310.84100000000001</v>
       </c>
       <c r="E23">
-        <v>287.75799999999998</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0802167098742694</v>
-      </c>
-      <c r="G23">
         <v>39</v>
       </c>
+      <c r="F23">
+        <v>288.36599999999999</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0779391467787465</v>
+      </c>
       <c r="H23">
+        <v>1015</v>
+      </c>
+      <c r="I23">
         <v>357.66399999999999</v>
       </c>
-      <c r="I23" s="1">
-        <f t="shared" si="1"/>
+      <c r="J23" s="1">
+        <f>D23/I23</f>
         <v>0.86908662879126786</v>
-      </c>
-      <c r="J23">
-        <v>1015</v>
       </c>
       <c r="K23">
         <v>266.233</v>
@@ -2697,15 +2966,15 @@
         <f>D23/K23</f>
         <v>1.1675524822242171</v>
       </c>
-      <c r="N23">
-        <v>286.63900000000001</v>
-      </c>
-      <c r="O23" s="1">
-        <f>E23/N23</f>
-        <v>1.0039038651404728</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>322.267</v>
+      </c>
+      <c r="N23" s="1">
+        <f>D23/M23</f>
+        <v>0.96454492703255379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2719,24 +2988,24 @@
         <v>1978.06</v>
       </c>
       <c r="E24">
-        <v>1844.26</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0725494236170605</v>
-      </c>
-      <c r="G24">
         <v>3</v>
       </c>
+      <c r="F24">
+        <v>1873.95</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.055556444942501</v>
+      </c>
       <c r="H24">
+        <v>12</v>
+      </c>
+      <c r="I24">
         <v>1016.84</v>
       </c>
-      <c r="I24" s="1">
-        <f t="shared" si="1"/>
+      <c r="J24" s="1">
+        <f>D24/I24</f>
         <v>1.9453011289878446</v>
-      </c>
-      <c r="J24">
-        <v>12</v>
       </c>
       <c r="K24">
         <v>1043.5999999999999</v>
@@ -2745,15 +3014,15 @@
         <f>D24/K24</f>
         <v>1.8954197010348794</v>
       </c>
-      <c r="N24">
-        <v>1849.25</v>
-      </c>
-      <c r="O24" s="1">
-        <f>E24/N24</f>
-        <v>0.99730160876030827</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>1042.74</v>
+      </c>
+      <c r="N24" s="1">
+        <f>D24/M24</f>
+        <v>1.8969829487695877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -2767,24 +3036,24 @@
         <v>200.803</v>
       </c>
       <c r="E25">
-        <v>171.297</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1722505356194213</v>
-      </c>
-      <c r="G25">
         <v>5</v>
       </c>
+      <c r="F25">
+        <v>170.98400000000001</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1743964347541289</v>
+      </c>
       <c r="H25">
+        <v>18</v>
+      </c>
+      <c r="I25">
         <v>147.78800000000001</v>
       </c>
-      <c r="I25" s="1">
-        <f t="shared" si="1"/>
+      <c r="J25" s="1">
+        <f>D25/I25</f>
         <v>1.3587233063577555</v>
-      </c>
-      <c r="J25">
-        <v>18</v>
       </c>
       <c r="K25">
         <v>146.66</v>
@@ -2793,15 +3062,15 @@
         <f>D25/K25</f>
         <v>1.3691735987999454</v>
       </c>
-      <c r="N25">
-        <v>170.76599999999999</v>
-      </c>
-      <c r="O25" s="1">
-        <f>E25/N25</f>
-        <v>1.003109518288184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>146.702</v>
+      </c>
+      <c r="N25" s="1">
+        <f>D25/M25</f>
+        <v>1.3687816117026352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2815,24 +3084,24 @@
         <v>117.55500000000001</v>
       </c>
       <c r="E26">
-        <v>99.603499999999997</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="0"/>
-        <v>1.180229610405257</v>
-      </c>
-      <c r="G26">
         <v>9</v>
       </c>
+      <c r="F26">
+        <v>99.6434</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1797570135101774</v>
+      </c>
       <c r="H26">
+        <v>355</v>
+      </c>
+      <c r="I26">
         <v>85.16</v>
       </c>
-      <c r="I26" s="1">
-        <f t="shared" si="1"/>
+      <c r="J26" s="1">
+        <f>D26/I26</f>
         <v>1.3804015969938941</v>
-      </c>
-      <c r="J26">
-        <v>355</v>
       </c>
       <c r="K26">
         <v>85.430400000000006</v>
@@ -2841,15 +3110,15 @@
         <f>D26/K26</f>
         <v>1.3760324193729632</v>
       </c>
-      <c r="N26">
-        <v>99.241100000000003</v>
-      </c>
-      <c r="O26" s="1">
-        <f>E26/N26</f>
-        <v>1.0036517128488096</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>85.268199999999993</v>
+      </c>
+      <c r="N26" s="1">
+        <f>D26/M26</f>
+        <v>1.3786499539101331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2863,24 +3132,24 @@
         <v>278.48700000000002</v>
       </c>
       <c r="E27">
-        <v>248.893</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" si="0"/>
-        <v>1.118902500271201</v>
-      </c>
-      <c r="G27">
         <v>14</v>
       </c>
+      <c r="F27">
+        <v>248.49</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1207171314741036</v>
+      </c>
       <c r="H27">
+        <v>963</v>
+      </c>
+      <c r="I27">
         <v>214.96600000000001</v>
       </c>
-      <c r="I27" s="1">
-        <f t="shared" si="1"/>
+      <c r="J27" s="1">
+        <f>D27/I27</f>
         <v>1.2954932407915671</v>
-      </c>
-      <c r="J27">
-        <v>963</v>
       </c>
       <c r="K27">
         <v>212.512</v>
@@ -2889,15 +3158,15 @@
         <f>D27/K27</f>
         <v>1.3104530567685591</v>
       </c>
-      <c r="N27">
-        <v>248.27699999999999</v>
-      </c>
-      <c r="O27" s="1">
-        <f>E27/N27</f>
-        <v>1.002481099739404</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>213.49</v>
+      </c>
+      <c r="N27" s="1">
+        <f>D27/M27</f>
+        <v>1.3044498571361658</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2911,24 +3180,24 @@
         <v>37.204599999999999</v>
       </c>
       <c r="E28">
-        <v>28.1036</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3238375154784441</v>
-      </c>
-      <c r="G28">
         <v>12</v>
       </c>
+      <c r="F28">
+        <v>28.100899999999999</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3239647128739649</v>
+      </c>
       <c r="H28">
+        <v>187</v>
+      </c>
+      <c r="I28">
         <v>26.124199999999998</v>
       </c>
-      <c r="I28" s="1">
-        <f t="shared" si="1"/>
+      <c r="J28" s="1">
+        <f>D28/I28</f>
         <v>1.4241431316557063</v>
-      </c>
-      <c r="J28">
-        <v>187</v>
       </c>
       <c r="K28">
         <v>26.026299999999999</v>
@@ -2937,15 +3206,15 @@
         <f>D28/K28</f>
         <v>1.4295001594540906</v>
       </c>
-      <c r="N28">
-        <v>28.1645</v>
-      </c>
-      <c r="O28" s="1">
-        <f>E28/N28</f>
-        <v>0.99783770349198453</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>25.866099999999999</v>
+      </c>
+      <c r="N28" s="1">
+        <f>D28/M28</f>
+        <v>1.438353675273814</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2959,24 +3228,24 @@
         <v>83.347700000000003</v>
       </c>
       <c r="E29">
-        <v>75.463200000000001</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1044813896044694</v>
-      </c>
-      <c r="G29">
         <v>19</v>
       </c>
+      <c r="F29">
+        <v>75.457499999999996</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1045648212569992</v>
+      </c>
       <c r="H29">
+        <v>151</v>
+      </c>
+      <c r="I29">
         <v>61.524299999999997</v>
       </c>
-      <c r="I29" s="1">
-        <f t="shared" si="1"/>
+      <c r="J29" s="1">
+        <f>D29/I29</f>
         <v>1.3547118780709413</v>
-      </c>
-      <c r="J29">
-        <v>151</v>
       </c>
       <c r="K29">
         <v>61.848599999999998</v>
@@ -2985,15 +3254,15 @@
         <f>D29/K29</f>
         <v>1.3476085149865964</v>
       </c>
-      <c r="N29">
-        <v>75.424499999999995</v>
-      </c>
-      <c r="O29" s="1">
-        <f>E29/N29</f>
-        <v>1.0005130958773343</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>60.940300000000001</v>
+      </c>
+      <c r="N29" s="1">
+        <f>D29/M29</f>
+        <v>1.3676942844062141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -3007,24 +3276,24 @@
         <v>113.194</v>
       </c>
       <c r="E30">
-        <v>94.818200000000004</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1938003463470093</v>
-      </c>
-      <c r="G30">
         <v>25</v>
       </c>
+      <c r="F30">
+        <v>95.148799999999994</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1896524181072174</v>
+      </c>
       <c r="H30">
+        <v>1066</v>
+      </c>
+      <c r="I30">
         <v>78.037599999999998</v>
       </c>
-      <c r="I30" s="1">
-        <f t="shared" si="1"/>
+      <c r="J30" s="1">
+        <f>D30/I30</f>
         <v>1.4505059099716036</v>
-      </c>
-      <c r="J30">
-        <v>1066</v>
       </c>
       <c r="K30">
         <v>78.309899999999999</v>
@@ -3033,15 +3302,15 @@
         <f>D30/K30</f>
         <v>1.4454621957121641</v>
       </c>
-      <c r="N30">
-        <v>93.876800000000003</v>
-      </c>
-      <c r="O30" s="1">
-        <f>E30/N30</f>
-        <v>1.010028036746033</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>76.536799999999999</v>
+      </c>
+      <c r="N30" s="1">
+        <f>D30/M30</f>
+        <v>1.4789486887353536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -3055,24 +3324,24 @@
         <v>320.86</v>
       </c>
       <c r="E31">
-        <v>141.95500000000001</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="0"/>
-        <v>2.2602937550632243</v>
-      </c>
-      <c r="G31">
         <v>57</v>
       </c>
+      <c r="F31">
+        <v>143.10300000000001</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2421612405050908</v>
+      </c>
       <c r="H31">
+        <v>710</v>
+      </c>
+      <c r="I31">
         <v>130.13800000000001</v>
       </c>
-      <c r="I31" s="1">
-        <f t="shared" si="1"/>
+      <c r="J31" s="1">
+        <f>D31/I31</f>
         <v>2.4655365842413439</v>
-      </c>
-      <c r="J31">
-        <v>710</v>
       </c>
       <c r="K31">
         <v>130.869</v>
@@ -3081,15 +3350,15 @@
         <f>D31/K31</f>
         <v>2.4517647418410777</v>
       </c>
-      <c r="N31">
-        <v>140.029</v>
-      </c>
-      <c r="O31" s="1">
-        <f>E31/N31</f>
-        <v>1.013754293753437</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>130.87299999999999</v>
+      </c>
+      <c r="N31" s="1">
+        <f>D31/M31</f>
+        <v>2.4516898061479453</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -3103,24 +3372,24 @@
         <v>379.47800000000001</v>
       </c>
       <c r="E32">
-        <v>359.22800000000001</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0563708842295143</v>
-      </c>
-      <c r="G32">
         <v>22</v>
       </c>
+      <c r="F32">
+        <v>349.512</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0857366842912404</v>
+      </c>
       <c r="H32">
+        <v>436</v>
+      </c>
+      <c r="I32">
         <v>492.97399999999999</v>
       </c>
-      <c r="I32" s="1">
-        <f t="shared" si="1"/>
+      <c r="J32" s="1">
+        <f>D32/I32</f>
         <v>0.76977284806095259</v>
-      </c>
-      <c r="J32">
-        <v>436</v>
       </c>
       <c r="K32">
         <v>474.178</v>
@@ -3129,15 +3398,15 @@
         <f>D32/K32</f>
         <v>0.80028596856032974</v>
       </c>
-      <c r="N32">
-        <v>364.065</v>
-      </c>
-      <c r="O32" s="1">
-        <f>E32/N32</f>
-        <v>0.98671391097743533</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>521.74599999999998</v>
+      </c>
+      <c r="N32" s="1">
+        <f>D32/M32</f>
+        <v>0.72732325691045074</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -3151,24 +3420,24 @@
         <v>119.764</v>
       </c>
       <c r="E33">
-        <v>101.134</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1842110467300808</v>
-      </c>
-      <c r="G33">
         <v>8</v>
       </c>
+      <c r="F33">
+        <v>100.79</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1882528028574262</v>
+      </c>
       <c r="H33">
+        <v>1138</v>
+      </c>
+      <c r="I33">
         <v>88.157700000000006</v>
       </c>
-      <c r="I33" s="1">
-        <f t="shared" si="1"/>
+      <c r="J33" s="1">
+        <f>D33/I33</f>
         <v>1.3585200158352588</v>
-      </c>
-      <c r="J33">
-        <v>1138</v>
       </c>
       <c r="K33">
         <v>87.902900000000002</v>
@@ -3177,15 +3446,15 @@
         <f>D33/K33</f>
         <v>1.3624578938806342</v>
       </c>
-      <c r="N33">
-        <v>101.10899999999999</v>
-      </c>
-      <c r="O33" s="1">
-        <f>E33/N33</f>
-        <v>1.0002472579097805</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>86.108800000000002</v>
+      </c>
+      <c r="N33" s="1">
+        <f>D33/M33</f>
+        <v>1.390845070422535</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -3199,24 +3468,24 @@
         <v>100.608</v>
       </c>
       <c r="E34">
-        <v>87.821600000000004</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1455951610993196</v>
-      </c>
-      <c r="G34">
         <v>19</v>
       </c>
+      <c r="F34">
+        <v>87.168999999999997</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1541717812525096</v>
+      </c>
       <c r="H34">
+        <v>99</v>
+      </c>
+      <c r="I34">
         <v>74.2303</v>
       </c>
-      <c r="I34" s="1">
-        <f t="shared" si="1"/>
+      <c r="J34" s="1">
+        <f>D34/I34</f>
         <v>1.3553495001367366</v>
-      </c>
-      <c r="J34">
-        <v>99</v>
       </c>
       <c r="K34">
         <v>74.308800000000005</v>
@@ -3225,15 +3494,15 @@
         <f>D34/K34</f>
         <v>1.3539177055745752</v>
       </c>
-      <c r="N34">
-        <v>87.426199999999994</v>
-      </c>
-      <c r="O34" s="1">
-        <f>E34/N34</f>
-        <v>1.0045226716933826</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>74.222099999999998</v>
+      </c>
+      <c r="N34" s="1">
+        <f>D34/M34</f>
+        <v>1.3554992380975479</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -3247,24 +3516,24 @@
         <v>116.212</v>
       </c>
       <c r="E35">
-        <v>92.072500000000005</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2621792609085232</v>
-      </c>
-      <c r="G35">
         <v>4</v>
       </c>
+      <c r="F35">
+        <v>92.047899999999998</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>1.262516581040958</v>
+      </c>
       <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35">
         <v>83.339200000000005</v>
       </c>
-      <c r="I35" s="1">
-        <f t="shared" si="1"/>
+      <c r="J35" s="1">
+        <f>D35/I35</f>
         <v>1.3944458310134966</v>
-      </c>
-      <c r="J35">
-        <v>8</v>
       </c>
       <c r="K35">
         <v>83.962900000000005</v>
@@ -3273,15 +3542,15 @@
         <f>D35/K35</f>
         <v>1.3840874957868297</v>
       </c>
-      <c r="N35">
-        <v>92.071299999999994</v>
-      </c>
-      <c r="O35" s="1">
-        <f>E35/N35</f>
-        <v>1.0000130333773936</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <v>83.3523</v>
+      </c>
+      <c r="N35" s="1">
+        <f>D35/M35</f>
+        <v>1.3942266740089957</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -3295,24 +3564,24 @@
         <v>164.00800000000001</v>
       </c>
       <c r="E36">
-        <v>139.36600000000001</v>
-      </c>
-      <c r="F36" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1768150050944994</v>
-      </c>
-      <c r="G36">
         <v>39</v>
       </c>
+      <c r="F36">
+        <v>139.845</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1727841538846582</v>
+      </c>
       <c r="H36">
+        <v>1455</v>
+      </c>
+      <c r="I36">
         <v>116.029</v>
       </c>
-      <c r="I36" s="1">
-        <f t="shared" si="1"/>
+      <c r="J36" s="1">
+        <f>D36/I36</f>
         <v>1.4135086917925692</v>
-      </c>
-      <c r="J36">
-        <v>1455</v>
       </c>
       <c r="K36">
         <v>116.22199999999999</v>
@@ -3321,15 +3590,15 @@
         <f>D36/K36</f>
         <v>1.4111613980141455</v>
       </c>
-      <c r="N36">
-        <v>139.32</v>
-      </c>
-      <c r="O36" s="1">
-        <f>E36/N36</f>
-        <v>1.0003301751363769</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>115.358</v>
+      </c>
+      <c r="N36" s="1">
+        <f>D36/M36</f>
+        <v>1.4217306125279565</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -3343,24 +3612,24 @@
         <v>84.011399999999995</v>
       </c>
       <c r="E37">
-        <v>69.9405</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2011838634267697</v>
-      </c>
-      <c r="G37">
         <v>5</v>
       </c>
+      <c r="F37">
+        <v>70.896699999999996</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="0"/>
+        <v>1.184983222068164</v>
+      </c>
       <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
         <v>60.3566</v>
       </c>
-      <c r="I37" s="1">
-        <f t="shared" si="1"/>
+      <c r="J37" s="1">
+        <f>D37/I37</f>
         <v>1.3919173710911481</v>
-      </c>
-      <c r="J37">
-        <v>5</v>
       </c>
       <c r="K37">
         <v>60.330300000000001</v>
@@ -3369,15 +3638,15 @@
         <f>D37/K37</f>
         <v>1.3925241545293161</v>
       </c>
-      <c r="N37">
-        <v>70.623599999999996</v>
-      </c>
-      <c r="O37" s="1">
-        <f>E37/N37</f>
-        <v>0.99032759587446695</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <v>60.5244</v>
+      </c>
+      <c r="N37" s="1">
+        <f>D37/M37</f>
+        <v>1.3880583698475324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -3391,24 +3660,24 @@
         <v>112.96599999999999</v>
       </c>
       <c r="E38">
-        <v>95.511399999999995</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1827488655804439</v>
-      </c>
-      <c r="G38">
         <v>6</v>
       </c>
+      <c r="F38">
+        <v>95.824100000000001</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1788892355889593</v>
+      </c>
       <c r="H38">
+        <v>905</v>
+      </c>
+      <c r="I38">
         <v>79.145899999999997</v>
       </c>
-      <c r="I38" s="1">
-        <f t="shared" si="1"/>
+      <c r="J38" s="1">
+        <f>D38/I38</f>
         <v>1.4273133541977538</v>
-      </c>
-      <c r="J38">
-        <v>905</v>
       </c>
       <c r="K38">
         <v>79.621499999999997</v>
@@ -3417,15 +3686,15 @@
         <f>D38/K38</f>
         <v>1.4187876390170997</v>
       </c>
-      <c r="N38">
-        <v>95.056299999999993</v>
-      </c>
-      <c r="O38" s="1">
-        <f>E38/N38</f>
-        <v>1.0047876889801097</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <v>79.201300000000003</v>
+      </c>
+      <c r="N38" s="1">
+        <f>D38/M38</f>
+        <v>1.4263149721027304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -3439,24 +3708,24 @@
         <v>68.322299999999998</v>
       </c>
       <c r="E39">
-        <v>58.9955</v>
-      </c>
-      <c r="F39" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1580934139044503</v>
-      </c>
-      <c r="G39">
         <v>24</v>
       </c>
+      <c r="F39">
+        <v>58.928600000000003</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1594081651354351</v>
+      </c>
       <c r="H39">
+        <v>409</v>
+      </c>
+      <c r="I39">
         <v>46.7301</v>
       </c>
-      <c r="I39" s="1">
-        <f t="shared" si="1"/>
+      <c r="J39" s="1">
+        <f>D39/I39</f>
         <v>1.4620619258251106</v>
-      </c>
-      <c r="J39">
-        <v>409</v>
       </c>
       <c r="K39">
         <v>47.173200000000001</v>
@@ -3465,15 +3734,15 @@
         <f>D39/K39</f>
         <v>1.4483287120653252</v>
       </c>
-      <c r="N39">
-        <v>58.728700000000003</v>
-      </c>
-      <c r="O39" s="1">
-        <f>E39/N39</f>
-        <v>1.0045429236472116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <v>46.844799999999999</v>
+      </c>
+      <c r="N39" s="1">
+        <f>D39/M39</f>
+        <v>1.4584820513696291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -3487,24 +3756,24 @@
         <v>115.136</v>
       </c>
       <c r="E40">
-        <v>97.951800000000006</v>
-      </c>
-      <c r="F40" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1754352650997735</v>
-      </c>
-      <c r="G40">
         <v>13</v>
       </c>
+      <c r="F40">
+        <v>98.334900000000005</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1708559219564976</v>
+      </c>
       <c r="H40">
+        <v>847</v>
+      </c>
+      <c r="I40">
         <v>76.220799999999997</v>
       </c>
-      <c r="I40" s="1">
-        <f t="shared" si="1"/>
+      <c r="J40" s="1">
+        <f>D40/I40</f>
         <v>1.5105587975985557</v>
-      </c>
-      <c r="J40">
-        <v>847</v>
       </c>
       <c r="K40">
         <v>78.252499999999998</v>
@@ -3513,15 +3782,15 @@
         <f>D40/K40</f>
         <v>1.471339573815533</v>
       </c>
-      <c r="N40">
-        <v>97.980900000000005</v>
-      </c>
-      <c r="O40" s="1">
-        <f>E40/N40</f>
-        <v>0.99970300334044693</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <v>78.9559</v>
+      </c>
+      <c r="N40" s="1">
+        <f>D40/M40</f>
+        <v>1.4582317470891979</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -3535,24 +3804,24 @@
         <v>487.03399999999999</v>
       </c>
       <c r="E41">
-        <v>454.71199999999999</v>
-      </c>
-      <c r="F41" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0710823554249722</v>
-      </c>
-      <c r="G41">
         <v>6</v>
       </c>
+      <c r="F41">
+        <v>449.697</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0830270159685298</v>
+      </c>
       <c r="H41">
+        <v>61</v>
+      </c>
+      <c r="I41">
         <v>393.012</v>
       </c>
-      <c r="I41" s="1">
-        <f t="shared" si="1"/>
+      <c r="J41" s="1">
+        <f>D41/I41</f>
         <v>1.2392344254119467</v>
-      </c>
-      <c r="J41">
-        <v>61</v>
       </c>
       <c r="K41">
         <v>390.93</v>
@@ -3561,15 +3830,15 @@
         <f>D41/K41</f>
         <v>1.2458342925843502</v>
       </c>
-      <c r="N41">
-        <v>522.62400000000002</v>
-      </c>
-      <c r="O41" s="1">
-        <f>E41/N41</f>
-        <v>0.87005571883419053</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <v>397.15600000000001</v>
+      </c>
+      <c r="N41" s="1">
+        <f>D41/M41</f>
+        <v>1.2263040215935299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -3583,24 +3852,24 @@
         <v>296.57</v>
       </c>
       <c r="E42">
-        <v>258.83699999999999</v>
-      </c>
-      <c r="F42" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1457790037745763</v>
-      </c>
-      <c r="G42">
         <v>7</v>
       </c>
+      <c r="F42">
+        <v>254.94800000000001</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1632568209987919</v>
+      </c>
       <c r="H42">
+        <v>380</v>
+      </c>
+      <c r="I42">
         <v>234.321</v>
       </c>
-      <c r="I42" s="1">
-        <f t="shared" si="1"/>
+      <c r="J42" s="1">
+        <f>D42/I42</f>
         <v>1.2656569406924689</v>
-      </c>
-      <c r="J42">
-        <v>380</v>
       </c>
       <c r="K42">
         <v>234.46600000000001</v>
@@ -3609,15 +3878,15 @@
         <f>D42/K42</f>
         <v>1.2648742248343043</v>
       </c>
-      <c r="N42">
-        <v>256.16399999999999</v>
-      </c>
-      <c r="O42" s="1">
-        <f>E42/N42</f>
-        <v>1.0104347215065348</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>236.465</v>
+      </c>
+      <c r="N42" s="1">
+        <f>D42/M42</f>
+        <v>1.2541813799082315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -3631,24 +3900,24 @@
         <v>260.19900000000001</v>
       </c>
       <c r="E43">
-        <v>220.74799999999999</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1787150959465091</v>
-      </c>
-      <c r="G43">
         <v>7</v>
       </c>
+      <c r="F43">
+        <v>220.67500000000001</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1791050186926475</v>
+      </c>
       <c r="H43">
+        <v>74</v>
+      </c>
+      <c r="I43">
         <v>198.57499999999999</v>
       </c>
-      <c r="I43" s="1">
-        <f t="shared" si="1"/>
+      <c r="J43" s="1">
+        <f>D43/I43</f>
         <v>1.3103311091527132</v>
-      </c>
-      <c r="J43">
-        <v>74</v>
       </c>
       <c r="K43">
         <v>198.673</v>
@@ -3657,15 +3926,15 @@
         <f>D43/K43</f>
         <v>1.309684758371797</v>
       </c>
-      <c r="N43">
-        <v>219.917</v>
-      </c>
-      <c r="O43" s="1">
-        <f>E43/N43</f>
-        <v>1.003778698327096</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <v>200.023</v>
+      </c>
+      <c r="N43" s="1">
+        <f>D43/M43</f>
+        <v>1.3008454027786804</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -3679,24 +3948,24 @@
         <v>143.821</v>
       </c>
       <c r="E44">
-        <v>123.393</v>
-      </c>
-      <c r="F44" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1655523408945403</v>
-      </c>
-      <c r="G44">
         <v>34</v>
       </c>
+      <c r="F44">
+        <v>123.209</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1672929737275686</v>
+      </c>
       <c r="H44">
+        <v>597</v>
+      </c>
+      <c r="I44">
         <v>103.078</v>
       </c>
-      <c r="I44" s="1">
-        <f t="shared" si="1"/>
+      <c r="J44" s="1">
+        <f>D44/I44</f>
         <v>1.3952637808261703</v>
-      </c>
-      <c r="J44">
-        <v>597</v>
       </c>
       <c r="K44">
         <v>103.26600000000001</v>
@@ -3705,15 +3974,15 @@
         <f>D44/K44</f>
         <v>1.3927236457304437</v>
       </c>
-      <c r="N44">
-        <v>123.44199999999999</v>
-      </c>
-      <c r="O44" s="1">
-        <f>E44/N44</f>
-        <v>0.99960305244568304</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <v>103.383</v>
+      </c>
+      <c r="N44" s="1">
+        <f>D44/M44</f>
+        <v>1.3911474807270054</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -3727,24 +3996,24 @@
         <v>1086.1300000000001</v>
       </c>
       <c r="E45">
-        <v>2383.9499999999998</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" si="0"/>
-        <v>0.45560099834308615</v>
-      </c>
-      <c r="G45">
         <v>209</v>
       </c>
+      <c r="F45">
+        <v>2390.8000000000002</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45429563326083322</v>
+      </c>
       <c r="H45">
+        <v>445</v>
+      </c>
+      <c r="I45">
         <v>1681.96</v>
       </c>
-      <c r="I45" s="1">
-        <f t="shared" si="1"/>
+      <c r="J45" s="1">
+        <f>D45/I45</f>
         <v>0.64575257437751199</v>
-      </c>
-      <c r="J45">
-        <v>445</v>
       </c>
       <c r="K45">
         <v>1672.65</v>
@@ -3753,15 +4022,15 @@
         <f>D45/K45</f>
         <v>0.64934684482707083</v>
       </c>
-      <c r="N45">
-        <v>2364.88</v>
-      </c>
-      <c r="O45" s="1">
-        <f>E45/N45</f>
-        <v>1.0080638341057473</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <v>1661.61</v>
+      </c>
+      <c r="N45" s="1">
+        <f>D45/M45</f>
+        <v>0.65366120810539186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -3775,24 +4044,24 @@
         <v>741.48</v>
       </c>
       <c r="E46">
-        <v>1824.05</v>
-      </c>
-      <c r="F46" s="1">
-        <f t="shared" si="0"/>
-        <v>0.40650201474740277</v>
-      </c>
-      <c r="G46">
         <v>181</v>
       </c>
+      <c r="F46">
+        <v>1804.46</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41091517683960854</v>
+      </c>
       <c r="H46">
+        <v>436</v>
+      </c>
+      <c r="I46">
         <v>1205.71</v>
       </c>
-      <c r="I46" s="1">
-        <f t="shared" si="1"/>
+      <c r="J46" s="1">
+        <f>D46/I46</f>
         <v>0.61497374990669396</v>
-      </c>
-      <c r="J46">
-        <v>436</v>
       </c>
       <c r="K46">
         <v>1265.22</v>
@@ -3801,15 +4070,15 @@
         <f>D46/K46</f>
         <v>0.58604827618912125</v>
       </c>
-      <c r="N46">
-        <v>1831.84</v>
-      </c>
-      <c r="O46" s="1">
-        <f>E46/N46</f>
-        <v>0.99574744519171987</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <v>1195.9000000000001</v>
+      </c>
+      <c r="N46" s="1">
+        <f>D46/M46</f>
+        <v>0.62001839618697208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -3823,24 +4092,24 @@
         <v>353.25200000000001</v>
       </c>
       <c r="E47">
-        <v>370.08699999999999</v>
-      </c>
-      <c r="F47" s="1">
-        <f t="shared" si="0"/>
-        <v>0.95451069613361184</v>
-      </c>
-      <c r="G47">
         <v>55</v>
       </c>
+      <c r="F47">
+        <v>372.358</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94868916472856768</v>
+      </c>
       <c r="H47">
+        <v>346</v>
+      </c>
+      <c r="I47">
         <v>266.09199999999998</v>
       </c>
-      <c r="I47" s="1">
-        <f t="shared" si="1"/>
+      <c r="J47" s="1">
+        <f>D47/I47</f>
         <v>1.3275558829277094</v>
-      </c>
-      <c r="J47">
-        <v>346</v>
       </c>
       <c r="K47">
         <v>304.75599999999997</v>
@@ -3849,15 +4118,15 @@
         <f>D47/K47</f>
         <v>1.1591305831550487</v>
       </c>
-      <c r="N47">
-        <v>383.41300000000001</v>
-      </c>
-      <c r="O47" s="1">
-        <f>E47/N47</f>
-        <v>0.96524374499560517</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <v>331.00400000000002</v>
+      </c>
+      <c r="N47" s="1">
+        <f>D47/M47</f>
+        <v>1.0672136892605526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -3871,24 +4140,24 @@
         <v>131.51900000000001</v>
       </c>
       <c r="E48">
-        <v>98.803600000000003</v>
-      </c>
-      <c r="F48" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3311154654283852</v>
-      </c>
-      <c r="G48">
         <v>3</v>
       </c>
+      <c r="F48">
+        <v>98.973100000000002</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3288358149840716</v>
+      </c>
       <c r="H48">
+        <v>551</v>
+      </c>
+      <c r="I48">
         <v>107.43899999999999</v>
       </c>
-      <c r="I48" s="1">
-        <f t="shared" si="1"/>
+      <c r="J48" s="1">
+        <f>D48/I48</f>
         <v>1.2241271791435142</v>
-      </c>
-      <c r="J48">
-        <v>551</v>
       </c>
       <c r="K48">
         <v>108.973</v>
@@ -3897,15 +4166,15 @@
         <f>D48/K48</f>
         <v>1.2068952859882724</v>
       </c>
-      <c r="N48">
-        <v>98.622699999999995</v>
-      </c>
-      <c r="O48" s="1">
-        <f>E48/N48</f>
-        <v>1.0018342633085486</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <v>107.958</v>
+      </c>
+      <c r="N48" s="1">
+        <f>D48/M48</f>
+        <v>1.2182422794049539</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -3919,24 +4188,24 @@
         <v>144.58600000000001</v>
       </c>
       <c r="E49">
-        <v>125.583</v>
-      </c>
-      <c r="F49" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1513182516741918</v>
-      </c>
-      <c r="G49">
         <v>10</v>
       </c>
+      <c r="F49">
+        <v>126.256</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="0"/>
+        <v>1.145181219110379</v>
+      </c>
       <c r="H49">
+        <v>24</v>
+      </c>
+      <c r="I49">
         <v>105.745</v>
       </c>
-      <c r="I49" s="1">
-        <f t="shared" si="1"/>
+      <c r="J49" s="1">
+        <f>D49/I49</f>
         <v>1.367308146957303</v>
-      </c>
-      <c r="J49">
-        <v>24</v>
       </c>
       <c r="K49">
         <v>105.742</v>
@@ -3945,15 +4214,15 @@
         <f>D49/K49</f>
         <v>1.3673469387755102</v>
       </c>
-      <c r="N49">
-        <v>126.59399999999999</v>
-      </c>
-      <c r="O49" s="1">
-        <f>E49/N49</f>
-        <v>0.99201383951846067</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <v>105.74</v>
+      </c>
+      <c r="N49" s="1">
+        <f>D49/M49</f>
+        <v>1.3673728012105166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -3967,24 +4236,24 @@
         <v>426.88299999999998</v>
       </c>
       <c r="E50">
-        <v>378.815</v>
-      </c>
-      <c r="F50" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1268904346448794</v>
-      </c>
-      <c r="G50">
         <v>3</v>
       </c>
+      <c r="F50">
+        <v>366.28</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1654553893196462</v>
+      </c>
       <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
         <v>330.89699999999999</v>
       </c>
-      <c r="I50" s="1">
-        <f t="shared" si="1"/>
+      <c r="J50" s="1">
+        <f>D50/I50</f>
         <v>1.2900781814280577</v>
-      </c>
-      <c r="J50">
-        <v>4</v>
       </c>
       <c r="K50">
         <v>330.166</v>
@@ -3993,15 +4262,15 @@
         <f>D50/K50</f>
         <v>1.2929344632699915</v>
       </c>
-      <c r="N50">
-        <v>370.435</v>
-      </c>
-      <c r="O50" s="1">
-        <f>E50/N50</f>
-        <v>1.0226220524518472</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <v>330.06700000000001</v>
+      </c>
+      <c r="N50" s="1">
+        <f>D50/M50</f>
+        <v>1.2933222648734952</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -4015,24 +4284,24 @@
         <v>931.48400000000004</v>
       </c>
       <c r="E51">
-        <v>811.01199999999994</v>
-      </c>
-      <c r="F51" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1485452742992706</v>
-      </c>
-      <c r="G51">
         <v>47</v>
       </c>
+      <c r="F51">
+        <v>733.23699999999997</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2703723352749521</v>
+      </c>
       <c r="H51">
+        <v>9503</v>
+      </c>
+      <c r="I51">
         <v>2522.9699999999998</v>
       </c>
-      <c r="I51" s="1">
-        <f t="shared" si="1"/>
+      <c r="J51" s="1">
+        <f>D51/I51</f>
         <v>0.36920137774131284</v>
-      </c>
-      <c r="J51">
-        <v>9503</v>
       </c>
       <c r="K51">
         <v>2544.31</v>
@@ -4041,15 +4310,15 @@
         <f>D51/K51</f>
         <v>0.36610475924710434</v>
       </c>
-      <c r="N51">
-        <v>813.01300000000003</v>
-      </c>
-      <c r="O51" s="1">
-        <f>E51/N51</f>
-        <v>0.99753878474267932</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M51">
+        <v>2415.48</v>
+      </c>
+      <c r="N51" s="1">
+        <f>D51/M51</f>
+        <v>0.38563101329756405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>76</v>
       </c>
@@ -4063,24 +4332,24 @@
         <v>264.90199999999999</v>
       </c>
       <c r="E52">
-        <v>228.351</v>
-      </c>
-      <c r="F52" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1600649876724867</v>
-      </c>
-      <c r="G52">
         <v>4</v>
       </c>
+      <c r="F52">
+        <v>227.982</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1619426095042591</v>
+      </c>
       <c r="H52">
+        <v>27</v>
+      </c>
+      <c r="I52">
         <v>197.59899999999999</v>
       </c>
-      <c r="I52" s="1">
-        <f t="shared" si="1"/>
+      <c r="J52" s="1">
+        <f>D52/I52</f>
         <v>1.3406039504248504</v>
-      </c>
-      <c r="J52">
-        <v>27</v>
       </c>
       <c r="K52">
         <v>198.28800000000001</v>
@@ -4089,15 +4358,15 @@
         <f>D52/K52</f>
         <v>1.335945695150488</v>
       </c>
-      <c r="N52">
-        <v>228.15299999999999</v>
-      </c>
-      <c r="O52" s="1">
-        <f>E52/N52</f>
-        <v>1.0008678386871968</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M52">
+        <v>198.006</v>
+      </c>
+      <c r="N52" s="1">
+        <f>D52/M52</f>
+        <v>1.3378483480298575</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -4111,24 +4380,24 @@
         <v>1930.02</v>
       </c>
       <c r="E53">
-        <v>1683.81</v>
-      </c>
-      <c r="F53" s="1">
-        <f t="shared" si="0"/>
-        <v>1.146221960910079</v>
-      </c>
-      <c r="G53">
         <v>37</v>
       </c>
+      <c r="F53">
+        <v>1704.22</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="0"/>
+        <v>1.132494630974874</v>
+      </c>
       <c r="H53">
+        <v>4903</v>
+      </c>
+      <c r="I53">
         <v>2955.09</v>
       </c>
-      <c r="I53" s="1">
-        <f t="shared" si="1"/>
+      <c r="J53" s="1">
+        <f>D53/I53</f>
         <v>0.65311716394424535</v>
-      </c>
-      <c r="J53">
-        <v>4903</v>
       </c>
       <c r="K53">
         <v>2967.27</v>
@@ -4137,15 +4406,15 @@
         <f>D53/K53</f>
         <v>0.65043625959215035</v>
       </c>
-      <c r="N53">
-        <v>1670.33</v>
-      </c>
-      <c r="O53" s="1">
-        <f>E53/N53</f>
-        <v>1.0080702615650801</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M53">
+        <v>2911.9</v>
+      </c>
+      <c r="N53" s="1">
+        <f>D53/M53</f>
+        <v>0.6628043545451423</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>78</v>
       </c>
@@ -4159,24 +4428,24 @@
         <v>85.232699999999994</v>
       </c>
       <c r="E54">
-        <v>71.705299999999994</v>
-      </c>
-      <c r="F54" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1886527216258771</v>
-      </c>
-      <c r="G54">
         <v>3</v>
       </c>
+      <c r="F54">
+        <v>71.572100000000006</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1908648761179284</v>
+      </c>
       <c r="H54">
+        <v>9</v>
+      </c>
+      <c r="I54">
         <v>61.318300000000001</v>
       </c>
-      <c r="I54" s="1">
-        <f t="shared" si="1"/>
+      <c r="J54" s="1">
+        <f>D54/I54</f>
         <v>1.3900042890947726</v>
-      </c>
-      <c r="J54">
-        <v>9</v>
       </c>
       <c r="K54">
         <v>61.112299999999998</v>
@@ -4185,15 +4454,15 @@
         <f>D54/K54</f>
         <v>1.3946897760352661</v>
       </c>
-      <c r="N54">
-        <v>71.433300000000003</v>
-      </c>
-      <c r="O54" s="1">
-        <f>E54/N54</f>
-        <v>1.003807747927087</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M54">
+        <v>61.288499999999999</v>
+      </c>
+      <c r="N54" s="1">
+        <f>D54/M54</f>
+        <v>1.3906801439095424</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -4207,24 +4476,24 @@
         <v>448.142</v>
       </c>
       <c r="E55">
-        <v>385.46600000000001</v>
-      </c>
-      <c r="F55" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1625979982670327</v>
-      </c>
-      <c r="G55">
         <v>5</v>
       </c>
+      <c r="F55">
+        <v>373.50400000000002</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1998318625771076</v>
+      </c>
       <c r="H55">
+        <v>683</v>
+      </c>
+      <c r="I55">
         <v>397.27699999999999</v>
       </c>
-      <c r="I55" s="1">
-        <f t="shared" si="1"/>
+      <c r="J55" s="1">
+        <f>D55/I55</f>
         <v>1.1280340920818472</v>
-      </c>
-      <c r="J55">
-        <v>683</v>
       </c>
       <c r="K55">
         <v>414.45</v>
@@ -4233,15 +4502,15 @@
         <f>D55/K55</f>
         <v>1.081293280250935</v>
       </c>
-      <c r="N55">
-        <v>375.541</v>
-      </c>
-      <c r="O55" s="1">
-        <f>E55/N55</f>
-        <v>1.0264285390942667</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M55">
+        <v>390.541</v>
+      </c>
+      <c r="N55" s="1">
+        <f>D55/M55</f>
+        <v>1.1474902763090176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -4255,24 +4524,24 @@
         <v>297.17500000000001</v>
       </c>
       <c r="E56">
-        <v>261.86500000000001</v>
-      </c>
-      <c r="F56" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1348404712351785</v>
-      </c>
-      <c r="G56">
         <v>15</v>
       </c>
+      <c r="F56">
+        <v>262.97899999999998</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1300331965670263</v>
+      </c>
       <c r="H56">
+        <v>407</v>
+      </c>
+      <c r="I56">
         <v>217.208</v>
       </c>
-      <c r="I56" s="1">
-        <f t="shared" si="1"/>
+      <c r="J56" s="1">
+        <f>D56/I56</f>
         <v>1.368158631357961</v>
-      </c>
-      <c r="J56">
-        <v>407</v>
       </c>
       <c r="K56">
         <v>218.09700000000001</v>
@@ -4281,15 +4550,15 @@
         <f>D56/K56</f>
         <v>1.3625817870030308</v>
       </c>
-      <c r="N56">
-        <v>263.666</v>
-      </c>
-      <c r="O56" s="1">
-        <f>E56/N56</f>
-        <v>0.99316938854459813</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M56">
+        <v>218.68600000000001</v>
+      </c>
+      <c r="N56" s="1">
+        <f>D56/M56</f>
+        <v>1.3589118644997851</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -4303,24 +4572,24 @@
         <v>170.05</v>
       </c>
       <c r="E57">
-        <v>148.03899999999999</v>
-      </c>
-      <c r="F57" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1486837927843341</v>
-      </c>
-      <c r="G57">
         <v>11</v>
       </c>
+      <c r="F57">
+        <v>148.5</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1451178451178452</v>
+      </c>
       <c r="H57">
+        <v>467</v>
+      </c>
+      <c r="I57">
         <v>126.816</v>
       </c>
-      <c r="I57" s="1">
-        <f t="shared" si="1"/>
+      <c r="J57" s="1">
+        <f>D57/I57</f>
         <v>1.3409191269240475</v>
-      </c>
-      <c r="J57">
-        <v>467</v>
       </c>
       <c r="K57">
         <v>127.18600000000001</v>
@@ -4329,15 +4598,15 @@
         <f>D57/K57</f>
         <v>1.3370182252763669</v>
       </c>
-      <c r="N57">
-        <v>148.226</v>
-      </c>
-      <c r="O57" s="1">
-        <f>E57/N57</f>
-        <v>0.99873841296398735</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M57">
+        <v>128.36099999999999</v>
+      </c>
+      <c r="N57" s="1">
+        <f>D57/M57</f>
+        <v>1.3247793332865903</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -4351,24 +4620,24 @@
         <v>136.655</v>
       </c>
       <c r="E58">
-        <v>115.836</v>
-      </c>
-      <c r="F58" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1797282364722539</v>
-      </c>
-      <c r="G58">
         <v>3</v>
       </c>
+      <c r="F58">
+        <v>115.73399999999999</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="0"/>
+        <v>1.180767967926452</v>
+      </c>
       <c r="H58">
+        <v>18</v>
+      </c>
+      <c r="I58">
         <v>101.102</v>
       </c>
-      <c r="I58" s="1">
-        <f t="shared" si="1"/>
+      <c r="J58" s="1">
+        <f>D58/I58</f>
         <v>1.3516547644952621</v>
-      </c>
-      <c r="J58">
-        <v>18</v>
       </c>
       <c r="K58">
         <v>101.066</v>
@@ -4377,15 +4646,15 @@
         <f>D58/K58</f>
         <v>1.352136227811529</v>
       </c>
-      <c r="N58">
-        <v>115.34399999999999</v>
-      </c>
-      <c r="O58" s="1">
-        <f>E58/N58</f>
-        <v>1.0042655014565127</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M58">
+        <v>101.374</v>
+      </c>
+      <c r="N58" s="1">
+        <f>D58/M58</f>
+        <v>1.3480280939885967</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -4399,24 +4668,24 @@
         <v>435.88799999999998</v>
       </c>
       <c r="E59">
-        <v>361.33</v>
-      </c>
-      <c r="F59" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2063432319486342</v>
-      </c>
-      <c r="G59">
         <v>4</v>
       </c>
+      <c r="F59">
+        <v>373.56400000000002</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="0"/>
+        <v>1.166836204773479</v>
+      </c>
       <c r="H59">
+        <v>397</v>
+      </c>
+      <c r="I59">
         <v>316.80799999999999</v>
       </c>
-      <c r="I59" s="1">
-        <f t="shared" si="1"/>
+      <c r="J59" s="1">
+        <f>D59/I59</f>
         <v>1.3758743466074088</v>
-      </c>
-      <c r="J59">
-        <v>397</v>
       </c>
       <c r="K59">
         <v>314.92599999999999</v>
@@ -4425,15 +4694,15 @@
         <f>D59/K59</f>
         <v>1.3840965814191271</v>
       </c>
-      <c r="N59">
-        <v>357.226</v>
-      </c>
-      <c r="O59" s="1">
-        <f>E59/N59</f>
-        <v>1.0114885254712702</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M59">
+        <v>316.98399999999998</v>
+      </c>
+      <c r="N59" s="1">
+        <f>D59/M59</f>
+        <v>1.3751104156676677</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>84</v>
       </c>
@@ -4447,24 +4716,24 @@
         <v>425.91</v>
       </c>
       <c r="E60">
-        <v>381.08300000000003</v>
-      </c>
-      <c r="F60" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1176305424277651</v>
-      </c>
-      <c r="G60">
         <v>5</v>
       </c>
+      <c r="F60">
+        <v>372.48200000000003</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1434378037059509</v>
+      </c>
       <c r="H60">
+        <v>34</v>
+      </c>
+      <c r="I60">
         <v>334.89699999999999</v>
       </c>
-      <c r="I60" s="1">
-        <f t="shared" si="1"/>
+      <c r="J60" s="1">
+        <f>D60/I60</f>
         <v>1.2717641543519351</v>
-      </c>
-      <c r="J60">
-        <v>34</v>
       </c>
       <c r="K60">
         <v>331.702</v>
@@ -4473,15 +4742,15 @@
         <f>D60/K60</f>
         <v>1.2840139643414874</v>
       </c>
-      <c r="N60">
-        <v>375.55500000000001</v>
-      </c>
-      <c r="O60" s="1">
-        <f>E60/N60</f>
-        <v>1.0147195484016989</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M60">
+        <v>334.87400000000002</v>
+      </c>
+      <c r="N60" s="1">
+        <f>D60/M60</f>
+        <v>1.2718515023561101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -4495,24 +4764,24 @@
         <v>392.17599999999999</v>
       </c>
       <c r="E61">
-        <v>359.29399999999998</v>
-      </c>
-      <c r="F61" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0915183665744488</v>
-      </c>
-      <c r="G61">
         <v>20</v>
       </c>
+      <c r="F61">
+        <v>355.733</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1024448111364422</v>
+      </c>
       <c r="H61">
+        <v>140</v>
+      </c>
+      <c r="I61">
         <v>306.50900000000001</v>
       </c>
-      <c r="I61" s="1">
-        <f t="shared" si="1"/>
+      <c r="J61" s="1">
+        <f>D61/I61</f>
         <v>1.2794926086999077</v>
-      </c>
-      <c r="J61">
-        <v>140</v>
       </c>
       <c r="K61">
         <v>305.56</v>
@@ -4521,15 +4790,15 @@
         <f>D61/K61</f>
         <v>1.2834664223065846</v>
       </c>
-      <c r="N61">
-        <v>354.63099999999997</v>
-      </c>
-      <c r="O61" s="1">
-        <f>E61/N61</f>
-        <v>1.013148878693628</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M61">
+        <v>307.58999999999997</v>
+      </c>
+      <c r="N61" s="1">
+        <f>D61/M61</f>
+        <v>1.2749959361487695</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -4543,24 +4812,24 @@
         <v>176.90299999999999</v>
       </c>
       <c r="E62">
-        <v>153.28700000000001</v>
-      </c>
-      <c r="F62" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1540639454095911</v>
-      </c>
-      <c r="G62">
         <v>48</v>
       </c>
+      <c r="F62">
+        <v>152.084</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1631927092922332</v>
+      </c>
       <c r="H62">
+        <v>326</v>
+      </c>
+      <c r="I62">
         <v>128.16800000000001</v>
       </c>
-      <c r="I62" s="1">
-        <f t="shared" si="1"/>
+      <c r="J62" s="1">
+        <f>D62/I62</f>
         <v>1.3802431184070905</v>
-      </c>
-      <c r="J62">
-        <v>326</v>
       </c>
       <c r="K62">
         <v>129.19200000000001</v>
@@ -4569,15 +4838,15 @@
         <f>D62/K62</f>
         <v>1.369303052820608</v>
       </c>
-      <c r="N62">
-        <v>152.017</v>
-      </c>
-      <c r="O62" s="1">
-        <f>E62/N62</f>
-        <v>1.0083543287921746</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M62">
+        <v>129.33600000000001</v>
+      </c>
+      <c r="N62" s="1">
+        <f>D62/M62</f>
+        <v>1.3677784994123829</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -4591,24 +4860,24 @@
         <v>94.919200000000004</v>
       </c>
       <c r="E63">
-        <v>83.142700000000005</v>
-      </c>
-      <c r="F63" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1416420202856052</v>
-      </c>
-      <c r="G63">
         <v>14</v>
       </c>
+      <c r="F63">
+        <v>82.633600000000001</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1486755992719668</v>
+      </c>
       <c r="H63">
+        <v>273</v>
+      </c>
+      <c r="I63">
         <v>69.995900000000006</v>
       </c>
-      <c r="I63" s="1">
-        <f t="shared" si="1"/>
+      <c r="J63" s="1">
+        <f>D63/I63</f>
         <v>1.35606799826847</v>
-      </c>
-      <c r="J63">
-        <v>273</v>
       </c>
       <c r="K63">
         <v>69.610399999999998</v>
@@ -4617,15 +4886,15 @@
         <f>D63/K63</f>
         <v>1.3635778561824097</v>
       </c>
-      <c r="N63">
-        <v>82.674099999999996</v>
-      </c>
-      <c r="O63" s="1">
-        <f>E63/N63</f>
-        <v>1.005668038720712</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M63">
+        <v>70.165499999999994</v>
+      </c>
+      <c r="N63" s="1">
+        <f>D63/M63</f>
+        <v>1.3527901889105045</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -4639,24 +4908,24 @@
         <v>53.0627</v>
       </c>
       <c r="E64">
-        <v>44.737000000000002</v>
-      </c>
-      <c r="F64" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1861032255180275</v>
-      </c>
-      <c r="G64">
         <v>29</v>
       </c>
+      <c r="F64">
+        <v>44.600099999999998</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1897439691839256</v>
+      </c>
       <c r="H64">
+        <v>347</v>
+      </c>
+      <c r="I64">
         <v>36.580500000000001</v>
       </c>
-      <c r="I64" s="1">
-        <f t="shared" si="1"/>
+      <c r="J64" s="1">
+        <f>D64/I64</f>
         <v>1.4505733929279261</v>
-      </c>
-      <c r="J64">
-        <v>347</v>
       </c>
       <c r="K64">
         <v>36.9238</v>
@@ -4665,15 +4934,15 @@
         <f>D64/K64</f>
         <v>1.437086648719796</v>
       </c>
-      <c r="N64">
-        <v>44.590800000000002</v>
-      </c>
-      <c r="O64" s="1">
-        <f>E64/N64</f>
-        <v>1.0032787032302628</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M64">
+        <v>36.420699999999997</v>
+      </c>
+      <c r="N64" s="1">
+        <f>D64/M64</f>
+        <v>1.4569379501217716</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>89</v>
       </c>
@@ -4687,24 +4956,24 @@
         <v>245.66200000000001</v>
       </c>
       <c r="E65">
-        <v>191.93799999999999</v>
-      </c>
-      <c r="F65" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2799028853067138</v>
-      </c>
-      <c r="G65">
         <v>3</v>
       </c>
+      <c r="F65">
+        <v>191.47</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2830312842742988</v>
+      </c>
       <c r="H65">
+        <v>22</v>
+      </c>
+      <c r="I65">
         <v>190.97499999999999</v>
       </c>
-      <c r="I65" s="1">
-        <f t="shared" si="1"/>
+      <c r="J65" s="1">
+        <f>D65/I65</f>
         <v>1.2863568529912293</v>
-      </c>
-      <c r="J65">
-        <v>22</v>
       </c>
       <c r="K65">
         <v>190.68700000000001</v>
@@ -4713,15 +4982,15 @@
         <f>D65/K65</f>
         <v>1.2882996743354291</v>
       </c>
-      <c r="N65">
-        <v>191.11500000000001</v>
-      </c>
-      <c r="O65" s="1">
-        <f>E65/N65</f>
-        <v>1.0043063077204823</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M65">
+        <v>191.43</v>
+      </c>
+      <c r="N65" s="1">
+        <f>D65/M65</f>
+        <v>1.2832993783628481</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>90</v>
       </c>
@@ -4735,24 +5004,24 @@
         <v>82.586699999999993</v>
       </c>
       <c r="E66">
-        <v>66.7209</v>
-      </c>
-      <c r="F66" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2377935549430537</v>
-      </c>
-      <c r="G66">
         <v>2</v>
       </c>
+      <c r="F66">
+        <v>66.720600000000005</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" si="0"/>
+        <v>1.237799120511506</v>
+      </c>
       <c r="H66">
+        <v>6</v>
+      </c>
+      <c r="I66">
         <v>60.420499999999997</v>
       </c>
-      <c r="I66" s="1">
-        <f t="shared" si="1"/>
+      <c r="J66" s="1">
+        <f>D66/I66</f>
         <v>1.3668655505995482</v>
-      </c>
-      <c r="J66">
-        <v>6</v>
       </c>
       <c r="K66">
         <v>60.375</v>
@@ -4761,15 +5030,15 @@
         <f>D66/K66</f>
         <v>1.367895652173913</v>
       </c>
-      <c r="N66">
-        <v>66.722700000000003</v>
-      </c>
-      <c r="O66" s="1">
-        <f>E66/N66</f>
-        <v>0.9999730226744421</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M66">
+        <v>60.381799999999998</v>
+      </c>
+      <c r="N66" s="1">
+        <f>D66/M66</f>
+        <v>1.3677416042582367</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>91</v>
       </c>
@@ -4783,24 +5052,24 @@
         <v>356.37799999999999</v>
       </c>
       <c r="E67">
-        <v>307.26900000000001</v>
-      </c>
-      <c r="F67" s="1">
-        <f t="shared" ref="F67:F71" si="2">D67/E67</f>
-        <v>1.1598241280441566</v>
-      </c>
-      <c r="G67">
         <v>4</v>
       </c>
+      <c r="F67">
+        <v>310.608</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" ref="G67:G71" si="1">D67/F67</f>
+        <v>1.1473561530932879</v>
+      </c>
       <c r="H67">
+        <v>49</v>
+      </c>
+      <c r="I67">
         <v>265.78899999999999</v>
       </c>
-      <c r="I67" s="1">
-        <f t="shared" ref="I67:I71" si="3">D67/H67</f>
+      <c r="J67" s="1">
+        <f>D67/I67</f>
         <v>1.340830508410807</v>
-      </c>
-      <c r="J67">
-        <v>49</v>
       </c>
       <c r="K67">
         <v>268.613</v>
@@ -4809,15 +5078,15 @@
         <f>D67/K67</f>
         <v>1.326734000215924</v>
       </c>
-      <c r="N67">
-        <v>308.85700000000003</v>
-      </c>
-      <c r="O67" s="1">
-        <f>E67/N67</f>
-        <v>0.99485846200668915</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M67">
+        <v>267.31</v>
+      </c>
+      <c r="N67" s="1">
+        <f>D67/M67</f>
+        <v>1.3332011522202685</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>92</v>
       </c>
@@ -4831,24 +5100,24 @@
         <v>212.614</v>
       </c>
       <c r="E68">
-        <v>184.62</v>
-      </c>
-      <c r="F68" s="1">
-        <f t="shared" si="2"/>
-        <v>1.151630375907269</v>
-      </c>
-      <c r="G68">
         <v>4</v>
       </c>
+      <c r="F68">
+        <v>185.452</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1464637749929902</v>
+      </c>
       <c r="H68">
+        <v>10</v>
+      </c>
+      <c r="I68">
         <v>158.96199999999999</v>
       </c>
-      <c r="I68" s="1">
-        <f t="shared" si="3"/>
+      <c r="J68" s="1">
+        <f>D68/I68</f>
         <v>1.3375146261370643</v>
-      </c>
-      <c r="J68">
-        <v>10</v>
       </c>
       <c r="K68">
         <v>160.16300000000001</v>
@@ -4857,15 +5126,15 @@
         <f>D68/K68</f>
         <v>1.3274851245293857</v>
       </c>
-      <c r="N68">
-        <v>185.36199999999999</v>
-      </c>
-      <c r="O68" s="1">
-        <f>E68/N68</f>
-        <v>0.99599702204335305</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M68">
+        <v>160.17500000000001</v>
+      </c>
+      <c r="N68" s="1">
+        <f>D68/M68</f>
+        <v>1.3273856719213359</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>93</v>
       </c>
@@ -4879,24 +5148,24 @@
         <v>216.16399999999999</v>
       </c>
       <c r="E69">
-        <v>186.761</v>
-      </c>
-      <c r="F69" s="1">
-        <f t="shared" si="2"/>
-        <v>1.1574365097638157</v>
-      </c>
-      <c r="G69">
         <v>6</v>
       </c>
+      <c r="F69">
+        <v>185.98</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1622970211850736</v>
+      </c>
       <c r="H69">
+        <v>74</v>
+      </c>
+      <c r="I69">
         <v>163.72999999999999</v>
       </c>
-      <c r="I69" s="1">
-        <f t="shared" si="3"/>
+      <c r="J69" s="1">
+        <f>D69/I69</f>
         <v>1.3202467476943749</v>
-      </c>
-      <c r="J69">
-        <v>74</v>
       </c>
       <c r="K69">
         <v>163.78700000000001</v>
@@ -4905,15 +5174,15 @@
         <f>D69/K69</f>
         <v>1.3197872847051353</v>
       </c>
-      <c r="N69">
-        <v>186.01900000000001</v>
-      </c>
-      <c r="O69" s="1">
-        <f>E69/N69</f>
-        <v>1.0039888398496928</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M69">
+        <v>163.88800000000001</v>
+      </c>
+      <c r="N69" s="1">
+        <f>D69/M69</f>
+        <v>1.3189739334179438</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -4927,24 +5196,24 @@
         <v>79.242699999999999</v>
       </c>
       <c r="E70">
-        <v>64.041799999999995</v>
-      </c>
-      <c r="F70" s="1">
-        <f t="shared" si="2"/>
-        <v>1.2373590373787122</v>
-      </c>
-      <c r="G70">
         <v>11</v>
       </c>
+      <c r="F70">
+        <v>63.889400000000002</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2403105992543364</v>
+      </c>
       <c r="H70">
+        <v>799</v>
+      </c>
+      <c r="I70">
         <v>54.251800000000003</v>
       </c>
-      <c r="I70" s="1">
-        <f t="shared" si="3"/>
+      <c r="J70" s="1">
+        <f>D70/I70</f>
         <v>1.4606464670296653</v>
-      </c>
-      <c r="J70">
-        <v>799</v>
       </c>
       <c r="K70">
         <v>54.655799999999999</v>
@@ -4953,15 +5222,15 @@
         <f>D70/K70</f>
         <v>1.4498497872137999</v>
       </c>
-      <c r="N70">
-        <v>63.326000000000001</v>
-      </c>
-      <c r="O70" s="1">
-        <f>E70/N70</f>
-        <v>1.011303414079525</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M70">
+        <v>53.570500000000003</v>
+      </c>
+      <c r="N70" s="1">
+        <f>D70/M70</f>
+        <v>1.479222706526913</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>95</v>
       </c>
@@ -4975,24 +5244,24 @@
         <v>167.25899999999999</v>
       </c>
       <c r="E71">
-        <v>142.92400000000001</v>
-      </c>
-      <c r="F71" s="1">
-        <f t="shared" si="2"/>
-        <v>1.1702653158321903</v>
-      </c>
-      <c r="G71">
         <v>11</v>
       </c>
+      <c r="F71">
+        <v>143.40299999999999</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1663563523775653</v>
+      </c>
       <c r="H71">
+        <v>1657</v>
+      </c>
+      <c r="I71">
         <v>119.6</v>
       </c>
-      <c r="I71" s="1">
-        <f t="shared" si="3"/>
+      <c r="J71" s="1">
+        <f>D71/I71</f>
         <v>1.3984866220735785</v>
-      </c>
-      <c r="J71">
-        <v>1657</v>
       </c>
       <c r="K71">
         <v>120.328</v>
@@ -5001,36 +5270,53 @@
         <f>D71/K71</f>
         <v>1.3900255967023467</v>
       </c>
-      <c r="N71">
-        <v>142.86799999999999</v>
-      </c>
-      <c r="O71" s="1">
-        <f>E71/N71</f>
-        <v>1.0003919702102642</v>
+      <c r="M71">
+        <v>118.999</v>
+      </c>
+      <c r="N71" s="1">
+        <f>D71/M71</f>
+        <v>1.4055496264674492</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I71">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="J2:J71">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="greaterThan">
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F71">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="G2:G71">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="lessThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="19" operator="greaterThan">
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L71">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="greaterThan">
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O71">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
-      <formula>1.03</formula>
+  <conditionalFormatting sqref="N2">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>0.95</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>1.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N71">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>0.97</formula>
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/srlpi-ARM.xlsx
+++ b/results/srlpi-ARM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="440" windowWidth="31500" windowHeight="28360" tabRatio="500"/>
+    <workbookView xWindow="5600" yWindow="440" windowWidth="31500" windowHeight="28360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GPCE matrices" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="110">
   <si>
     <t>email-EuAll</t>
   </si>
@@ -343,6 +343,21 @@
   </si>
   <si>
     <t>CSRbyNZ-f8dad7</t>
+  </si>
+  <si>
+    <t>genOSKI44-3d82ca</t>
+  </si>
+  <si>
+    <t>genOSKI44 speedup</t>
+  </si>
+  <si>
+    <t>genOSKI55-3d82ca</t>
+  </si>
+  <si>
+    <t>genOSKI55 speedup</t>
+  </si>
+  <si>
+    <t>genOSKI44/genOSKI55</t>
   </si>
 </sst>
 </file>
@@ -409,7 +424,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="38">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -602,6 +617,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -662,6 +687,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -682,11 +717,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -702,11 +737,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -722,6 +757,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -732,11 +777,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1013,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1025,7 +1090,7 @@
     <col min="3" max="3" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1056,8 +1121,23 @@
       <c r="J1" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1087,11 +1167,29 @@
         <v>68262.100000000006</v>
       </c>
       <c r="J2" s="1">
-        <f>D2/I2</f>
+        <f>$D2/I2</f>
         <v>0.67426141299491216</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>74893.600000000006</v>
+      </c>
+      <c r="L2" s="1">
+        <f>$D2/K2</f>
+        <v>0.6145585203542091</v>
+      </c>
+      <c r="M2">
+        <v>76622</v>
+      </c>
+      <c r="N2" s="1">
+        <f>$D2/M2</f>
+        <v>0.60069562266711907</v>
+      </c>
+      <c r="O2" s="1">
+        <f>K2/M2</f>
+        <v>0.97744250998407778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1121,11 +1219,29 @@
         <v>36899</v>
       </c>
       <c r="J3" s="1">
-        <f>D3/I3</f>
+        <f t="shared" ref="J3:J24" si="1">D3/I3</f>
         <v>0.74325862489498362</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>49895.6</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:N24" si="2">$D3/K3</f>
+        <v>0.54965768524679537</v>
+      </c>
+      <c r="M3">
+        <v>51175.1</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5359149273767907</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O24" si="3">K3/M3</f>
+        <v>0.9749976062577308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1155,11 +1271,29 @@
         <v>41470.6</v>
       </c>
       <c r="J4" s="1">
-        <f>D4/I4</f>
+        <f t="shared" si="1"/>
         <v>0.83929096757703059</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>57132</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.60921900161030595</v>
+      </c>
+      <c r="M4">
+        <v>56957.3</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6110876042228125</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="3"/>
+        <v>1.003067209997665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1189,11 +1323,29 @@
         <v>46258.3</v>
       </c>
       <c r="J5" s="1">
-        <f>D5/I5</f>
+        <f t="shared" si="1"/>
         <v>0.88078679934195581</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>63656.800000000003</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.64005259453821106</v>
+      </c>
+      <c r="M5">
+        <v>63644.4</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.64017729760984465</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="3"/>
+        <v>1.000194832538291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1223,11 +1375,29 @@
         <v>100949</v>
       </c>
       <c r="J6" s="1">
-        <f>D6/I6</f>
+        <f t="shared" si="1"/>
         <v>0.8715113572199823</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>105221</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.83612776917155318</v>
+      </c>
+      <c r="M6">
+        <v>101270</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.86874888910832426</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0390145156512294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1257,11 +1427,29 @@
         <v>308145</v>
       </c>
       <c r="J7" s="1">
-        <f>D7/I7</f>
+        <f t="shared" si="1"/>
         <v>0.70247448441480476</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>251649</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.86018223795842619</v>
+      </c>
+      <c r="M7">
+        <v>243451</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.88914812426319878</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0336741274424832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1291,11 +1479,29 @@
         <v>16165.3</v>
       </c>
       <c r="J8" s="3">
-        <f>D8/I8</f>
+        <f t="shared" si="1"/>
         <v>1.374703840943255</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>21608.799999999999</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0284004664766206</v>
+      </c>
+      <c r="M8">
+        <v>21848.1</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0171365015722191</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.98904710249403838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1325,11 +1531,29 @@
         <v>16933.7</v>
       </c>
       <c r="J9" s="3">
-        <f>D9/I9</f>
+        <f t="shared" si="1"/>
         <v>1.4763105523305597</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>35433.199999999997</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.70553605093528116</v>
+      </c>
+      <c r="M9">
+        <v>37831</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66081784779678043</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.93661811741693313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1359,11 +1583,29 @@
         <v>31552.2</v>
       </c>
       <c r="J10" s="1">
-        <f>D10/I10</f>
+        <f t="shared" si="1"/>
         <v>0.93397290838673697</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>27167.7</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0847035266143252</v>
+      </c>
+      <c r="M10">
+        <v>26171</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1260135264223761</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="3"/>
+        <v>1.038084138932406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1393,11 +1635,29 @@
         <v>82365.5</v>
       </c>
       <c r="J11" s="1">
-        <f>D11/I11</f>
+        <f t="shared" si="1"/>
         <v>0.72288518858017015</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>142512</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.41779499270236892</v>
+      </c>
+      <c r="M11">
+        <v>136678</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4356282649731486</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0426842652072754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1427,11 +1687,29 @@
         <v>26464.799999999999</v>
       </c>
       <c r="J12" s="3">
-        <f>D12/I12</f>
+        <f t="shared" si="1"/>
         <v>1.8421677095613795</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>60593.8</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.80458066666886707</v>
+      </c>
+      <c r="M12">
+        <v>53916.5</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.90422412434041521</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1238452050856418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1461,11 +1739,29 @@
         <v>31612.2</v>
       </c>
       <c r="J13" s="3">
-        <f>D13/I13</f>
+        <f t="shared" si="1"/>
         <v>1.3363922789302864</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>39185.199999999997</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.078118779539214</v>
+      </c>
+      <c r="M13">
+        <v>39381.1</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0727557127657685</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="3"/>
+        <v>0.99502553255241721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1495,11 +1791,29 @@
         <v>60002.7</v>
       </c>
       <c r="J14" s="1">
-        <f>D14/I14</f>
+        <f t="shared" si="1"/>
         <v>1.1902731043769699</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>111516</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.64044262706696797</v>
+      </c>
+      <c r="M14">
+        <v>108590</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65769960401510275</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0269453909199742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1529,11 +1843,29 @@
         <v>188935</v>
       </c>
       <c r="J15" s="1">
-        <f>D15/I15</f>
+        <f t="shared" si="1"/>
         <v>0.76143647286103688</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>254601</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.56504884112788245</v>
+      </c>
+      <c r="M15">
+        <v>257611</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.55844665018186335</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.98831571633198889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1563,11 +1895,29 @@
         <v>64824.4</v>
       </c>
       <c r="J16" s="3">
-        <f>D16/I16</f>
+        <f t="shared" si="1"/>
         <v>1.2219565472260445</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>92853.9</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.85308856170823211</v>
+      </c>
+      <c r="M16">
+        <v>80561.600000000006</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98325504955214393</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1525826200075469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1597,11 +1947,29 @@
         <v>71332.7</v>
       </c>
       <c r="J17" s="1">
-        <f>D17/I17</f>
+        <f t="shared" si="1"/>
         <v>1.1100995756504379</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>83692.399999999994</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9461599858529568</v>
+      </c>
+      <c r="M17">
+        <v>104890</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75494708742492134</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.79790637811040133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1631,11 +1999,29 @@
         <v>103698</v>
       </c>
       <c r="J18" s="1">
-        <f>D18/I18</f>
+        <f t="shared" si="1"/>
         <v>0.81732338135740323</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>172987</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.48994895570187358</v>
+      </c>
+      <c r="M18">
+        <v>149339</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.56753292843798342</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1583511339971475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1665,11 +2051,29 @@
         <v>135759</v>
       </c>
       <c r="J19" s="1">
-        <f>D19/I19</f>
+        <f t="shared" si="1"/>
         <v>0.74178507502265045</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>166153</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.60609197546839355</v>
+      </c>
+      <c r="M19">
+        <v>213676</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.47129298564181282</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.7775931784571033</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1699,11 +2103,29 @@
         <v>276036</v>
       </c>
       <c r="J20" s="1">
-        <f>D20/I20</f>
+        <f t="shared" si="1"/>
         <v>0.61812951933805738</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>192747</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.88523297379466348</v>
+      </c>
+      <c r="M20">
+        <v>207969</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.82043958474580347</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.92680639903062478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1733,11 +2155,29 @@
         <v>81847.100000000006</v>
       </c>
       <c r="J21" s="3">
-        <f>D21/I21</f>
+        <f t="shared" si="1"/>
         <v>1.5040239666402351</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>170544</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7218078619007412</v>
+      </c>
+      <c r="M21">
+        <v>173876</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.70797579884515405</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.9808369182635901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1767,11 +2207,29 @@
         <v>79933.7</v>
       </c>
       <c r="J22" s="3">
-        <f>D22/I22</f>
+        <f t="shared" si="1"/>
         <v>1.1684445984609746</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>127821</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="2"/>
+        <v>0.73069448682141436</v>
+      </c>
+      <c r="M22">
+        <v>106664</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="2"/>
+        <v>0.87562907822695568</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="3"/>
+        <v>1.198351833795845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1801,11 +2259,29 @@
         <v>130830</v>
       </c>
       <c r="J23" s="1">
-        <f>D23/I23</f>
+        <f t="shared" si="1"/>
         <v>0.88880990598486587</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>168768</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="2"/>
+        <v>0.68901094994311718</v>
+      </c>
+      <c r="M23">
+        <v>153825</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75594344222330567</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0971428571428572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1835,24 +2311,74 @@
         <v>267738</v>
       </c>
       <c r="J24" s="1">
-        <f>D24/I24</f>
+        <f t="shared" si="1"/>
         <v>0.73483778918196152</v>
+      </c>
+      <c r="K24">
+        <v>198387</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99171820734221494</v>
+      </c>
+      <c r="M24">
+        <v>316329</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.62196004792478721</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="3"/>
+        <v>0.627154007378394</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G24">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="greaterThan">
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J24">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="greaterThan">
+      <formula>1.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="lessThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="greaterThan">
+      <formula>1.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L24">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="lessThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="greaterThan">
+      <formula>1.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="greaterThan">
+      <formula>1.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N24">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1862,10 +2388,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1874,7 +2400,7 @@
     <col min="3" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1917,8 +2443,23 @@
       <c r="N1" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1948,25 +2489,43 @@
         <v>271.34899999999999</v>
       </c>
       <c r="J2" s="1">
-        <f>D2/I2</f>
+        <f t="shared" ref="J2:J33" si="0">D2/I2</f>
         <v>0.96709772285875384</v>
       </c>
       <c r="K2">
         <v>209.858</v>
       </c>
       <c r="L2" s="1">
-        <f>D2/K2</f>
+        <f t="shared" ref="L2:L33" si="1">D2/K2</f>
         <v>1.2504693649991898</v>
       </c>
       <c r="M2">
         <v>202.87799999999999</v>
       </c>
       <c r="N2" s="1">
-        <f>D2/M2</f>
+        <f>$D2/M2</f>
         <v>1.2934916550833506</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>366.19099999999997</v>
+      </c>
+      <c r="P2" s="1">
+        <f t="shared" ref="P2:P65" si="2">$D2/O2</f>
+        <v>0.71662329221635712</v>
+      </c>
+      <c r="Q2">
+        <v>336.40600000000001</v>
+      </c>
+      <c r="R2" s="1">
+        <f t="shared" ref="R2:R65" si="3">$D2/Q2</f>
+        <v>0.78007229359761709</v>
+      </c>
+      <c r="S2" s="1">
+        <f>O2/Q2</f>
+        <v>1.0885388488909233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1986,7 +2545,7 @@
         <v>425.80500000000001</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G66" si="0">D3/F3</f>
+        <f t="shared" ref="G3:G66" si="4">D3/F3</f>
         <v>1.0484047862284378</v>
       </c>
       <c r="H3">
@@ -1996,25 +2555,43 @@
         <v>852.16399999999999</v>
       </c>
       <c r="J3" s="1">
-        <f>D3/I3</f>
+        <f t="shared" si="0"/>
         <v>0.52386160410437432</v>
       </c>
       <c r="K3">
         <v>900.02599999999995</v>
       </c>
       <c r="L3" s="1">
-        <f>D3/K3</f>
+        <f t="shared" si="1"/>
         <v>0.49600344878925723</v>
       </c>
       <c r="M3">
         <v>894.21600000000001</v>
       </c>
       <c r="N3" s="1">
-        <f>D3/M3</f>
+        <f t="shared" ref="N3:N33" si="5">D3/M3</f>
         <v>0.49922613775642571</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>472.37200000000001</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="2"/>
+        <v>0.94505178122327316</v>
+      </c>
+      <c r="Q3">
+        <v>496.78199999999998</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" si="3"/>
+        <v>0.89861548928906443</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S66" si="6">O3/Q3</f>
+        <v>0.95086375915391463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2034,7 +2611,7 @@
         <v>244.63300000000001</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.114342709282885</v>
       </c>
       <c r="H4">
@@ -2044,25 +2621,43 @@
         <v>234.018</v>
       </c>
       <c r="J4" s="1">
-        <f>D4/I4</f>
+        <f t="shared" si="0"/>
         <v>1.1648890256305071</v>
       </c>
       <c r="K4">
         <v>325.65899999999999</v>
       </c>
       <c r="L4" s="1">
-        <f>D4/K4</f>
+        <f t="shared" si="1"/>
         <v>0.83708725998667322</v>
       </c>
       <c r="M4">
         <v>336.99</v>
       </c>
       <c r="N4" s="1">
-        <f>D4/M4</f>
+        <f t="shared" si="5"/>
         <v>0.8089409181281344</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>402.93400000000003</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.67655000570813084</v>
+      </c>
+      <c r="Q4">
+        <v>399.178</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.68291589215838555</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="6"/>
+        <v>1.009409336185862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2082,7 +2677,7 @@
         <v>369.91899999999998</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.3101030225535861</v>
       </c>
       <c r="H5">
@@ -2092,25 +2687,43 @@
         <v>941.149</v>
       </c>
       <c r="J5" s="1">
-        <f>D5/I5</f>
+        <f t="shared" si="0"/>
         <v>0.51493652970996096</v>
       </c>
       <c r="K5">
         <v>1060.48</v>
       </c>
       <c r="L5" s="1">
-        <f>D5/K5</f>
+        <f t="shared" si="1"/>
         <v>0.45699305974652987</v>
       </c>
       <c r="M5">
         <v>855.79399999999998</v>
       </c>
       <c r="N5" s="1">
-        <f>D5/M5</f>
+        <f t="shared" si="5"/>
         <v>0.56629515981649792</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>568.38499999999999</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.85264741328500926</v>
+      </c>
+      <c r="Q5">
+        <v>572.72199999999998</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.84619064746945294</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="6"/>
+        <v>0.99242739060137386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2130,7 +2743,7 @@
         <v>225.536</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1567199914869466</v>
       </c>
       <c r="H6">
@@ -2140,25 +2753,43 @@
         <v>229.34700000000001</v>
       </c>
       <c r="J6" s="1">
-        <f>D6/I6</f>
+        <f t="shared" si="0"/>
         <v>1.1374990734563784</v>
       </c>
       <c r="K6">
         <v>225.077</v>
       </c>
       <c r="L6" s="1">
-        <f>D6/K6</f>
+        <f t="shared" si="1"/>
         <v>1.1590788930010618</v>
       </c>
       <c r="M6">
         <v>190.203</v>
       </c>
       <c r="N6" s="1">
-        <f>D6/M6</f>
+        <f t="shared" si="5"/>
         <v>1.3715977140213351</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>292.01</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.89340091092770801</v>
+      </c>
+      <c r="Q6">
+        <v>291.63400000000001</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.89455276133784123</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0012892872573156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2178,7 +2809,7 @@
         <v>75.054599999999994</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2731198354264763</v>
       </c>
       <c r="H7">
@@ -2188,25 +2819,43 @@
         <v>66.131299999999996</v>
       </c>
       <c r="J7" s="1">
-        <f>D7/I7</f>
+        <f t="shared" si="0"/>
         <v>1.4449058161566459</v>
       </c>
       <c r="K7">
         <v>66.472999999999999</v>
       </c>
       <c r="L7" s="1">
-        <f>D7/K7</f>
+        <f t="shared" si="1"/>
         <v>1.437478374678441</v>
       </c>
       <c r="M7">
         <v>66.491500000000002</v>
       </c>
       <c r="N7" s="1">
-        <f>D7/M7</f>
+        <f t="shared" si="5"/>
         <v>1.4370784235578984</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>85.746499999999997</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1143720151842933</v>
+      </c>
+      <c r="Q7">
+        <v>84.471100000000007</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1311975338310971</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0150986550429673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2226,7 +2875,7 @@
         <v>85.399799999999999</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2688203016868893</v>
       </c>
       <c r="H8">
@@ -2236,25 +2885,43 @@
         <v>76.060599999999994</v>
       </c>
       <c r="J8" s="1">
-        <f>D8/I8</f>
+        <f t="shared" si="0"/>
         <v>1.4246140577381721</v>
       </c>
       <c r="K8">
         <v>76.375399999999999</v>
       </c>
       <c r="L8" s="1">
-        <f>D8/K8</f>
+        <f t="shared" si="1"/>
         <v>1.418742160433857</v>
       </c>
       <c r="M8">
         <v>76.501300000000001</v>
       </c>
       <c r="N8" s="1">
-        <f>D8/M8</f>
+        <f t="shared" si="5"/>
         <v>1.4164073028824347</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>99.635000000000005</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0875395192452451</v>
+      </c>
+      <c r="Q8">
+        <v>98.289500000000004</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1024270140757659</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0136891529614049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -2274,7 +2941,7 @@
         <v>57.686999999999998</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.17963492641323</v>
       </c>
       <c r="H9">
@@ -2284,25 +2951,43 @@
         <v>48.541499999999999</v>
       </c>
       <c r="J9" s="1">
-        <f>D9/I9</f>
+        <f t="shared" si="0"/>
         <v>1.4018849850128241</v>
       </c>
       <c r="K9">
         <v>48.409500000000001</v>
       </c>
       <c r="L9" s="1">
-        <f>D9/K9</f>
+        <f t="shared" si="1"/>
         <v>1.4057075574009232</v>
       </c>
       <c r="M9">
         <v>48.4694</v>
       </c>
       <c r="N9" s="1">
-        <f>D9/M9</f>
+        <f t="shared" si="5"/>
         <v>1.4039703400495982</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>62.250500000000002</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0931574846788379</v>
+      </c>
+      <c r="Q9">
+        <v>58.852800000000002</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1562678411222576</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0577321724709785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2322,7 +3007,7 @@
         <v>553.274</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.91410765732711097</v>
       </c>
       <c r="H10">
@@ -2332,25 +3017,43 @@
         <v>941.70299999999997</v>
       </c>
       <c r="J10" s="1">
-        <f>D10/I10</f>
+        <f t="shared" si="0"/>
         <v>0.53706104791000986</v>
       </c>
       <c r="K10">
         <v>951.61900000000003</v>
       </c>
       <c r="L10" s="1">
-        <f>D10/K10</f>
+        <f t="shared" si="1"/>
         <v>0.53146479841196947</v>
       </c>
       <c r="M10">
         <v>932.53399999999999</v>
       </c>
       <c r="N10" s="1">
-        <f>D10/M10</f>
+        <f t="shared" si="5"/>
         <v>0.54234161971574224</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>542.64400000000001</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.93201435932213383</v>
+      </c>
+      <c r="Q10">
+        <v>672.072</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.75252651501624823</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="6"/>
+        <v>0.80741944315490011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2370,7 +3073,7 @@
         <v>63.917999999999999</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2003801745987046</v>
       </c>
       <c r="H11">
@@ -2380,25 +3083,43 @@
         <v>53.8596</v>
       </c>
       <c r="J11" s="1">
-        <f>D11/I11</f>
+        <f t="shared" si="0"/>
         <v>1.4245538399839581</v>
       </c>
       <c r="K11">
         <v>53.899000000000001</v>
       </c>
       <c r="L11" s="1">
-        <f>D11/K11</f>
+        <f t="shared" si="1"/>
         <v>1.4235124955936103</v>
       </c>
       <c r="M11">
         <v>53.895400000000002</v>
       </c>
       <c r="N11" s="1">
-        <f>D11/M11</f>
+        <f t="shared" si="5"/>
         <v>1.4236075806098478</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>62.732799999999997</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="2"/>
+        <v>1.22305875076515</v>
+      </c>
+      <c r="Q11">
+        <v>59.226100000000002</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2954744614283229</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0592086934645366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -2418,7 +3139,7 @@
         <v>262.58199999999999</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0948160955434874</v>
       </c>
       <c r="H12">
@@ -2428,25 +3149,43 @@
         <v>215.124</v>
       </c>
       <c r="J12" s="1">
-        <f>D12/I12</f>
+        <f t="shared" si="0"/>
         <v>1.3363409010617131</v>
       </c>
       <c r="K12">
         <v>223.577</v>
       </c>
       <c r="L12" s="1">
-        <f>D12/K12</f>
+        <f t="shared" si="1"/>
         <v>1.2858165195883298</v>
       </c>
       <c r="M12">
         <v>261.803</v>
       </c>
       <c r="N12" s="1">
-        <f>D12/M12</f>
+        <f t="shared" si="5"/>
         <v>1.0980737424704834</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>283.59100000000001</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0137098850104551</v>
+      </c>
+      <c r="Q12">
+        <v>282.36799999999999</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0181004929737081</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0043312273345422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2466,7 +3205,7 @@
         <v>50.831899999999997</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1764541557565231</v>
       </c>
       <c r="H13">
@@ -2476,25 +3215,43 @@
         <v>41.588799999999999</v>
       </c>
       <c r="J13" s="1">
-        <f>D13/I13</f>
+        <f t="shared" si="0"/>
         <v>1.4379207863655601</v>
       </c>
       <c r="K13">
         <v>41.668199999999999</v>
       </c>
       <c r="L13" s="1">
-        <f>D13/K13</f>
+        <f t="shared" si="1"/>
         <v>1.4351807853470993</v>
       </c>
       <c r="M13">
         <v>41.516500000000001</v>
       </c>
       <c r="N13" s="1">
-        <f>D13/M13</f>
+        <f t="shared" si="5"/>
         <v>1.4404248913082751</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>74.029399999999995</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.80780608785158337</v>
+      </c>
+      <c r="Q13">
+        <v>68.377200000000002</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="3"/>
+        <v>0.87458100068443867</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0826620569429575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2514,7 +3271,7 @@
         <v>155.31</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1757774773034577</v>
       </c>
       <c r="H14">
@@ -2524,25 +3281,43 @@
         <v>135.38499999999999</v>
       </c>
       <c r="J14" s="1">
-        <f>D14/I14</f>
+        <f t="shared" si="0"/>
         <v>1.3488200317612735</v>
       </c>
       <c r="K14">
         <v>136.72</v>
       </c>
       <c r="L14" s="1">
-        <f>D14/K14</f>
+        <f t="shared" si="1"/>
         <v>1.335649502633119</v>
       </c>
       <c r="M14">
         <v>135.56200000000001</v>
       </c>
       <c r="N14" s="1">
-        <f>D14/M14</f>
+        <f t="shared" si="5"/>
         <v>1.3470589103140997</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <v>181.715</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0049252951049721</v>
+      </c>
+      <c r="Q14">
+        <v>172.83799999999999</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0565384926925794</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0513602332820329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -2562,7 +3337,7 @@
         <v>78.183400000000006</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1947587339511967</v>
       </c>
       <c r="H15">
@@ -2572,25 +3347,43 @@
         <v>65.089200000000005</v>
       </c>
       <c r="J15" s="1">
-        <f>D15/I15</f>
+        <f t="shared" si="0"/>
         <v>1.4351121230557451</v>
       </c>
       <c r="K15">
         <v>65.062799999999996</v>
       </c>
       <c r="L15" s="1">
-        <f>D15/K15</f>
+        <f t="shared" si="1"/>
         <v>1.4356944367595617</v>
       </c>
       <c r="M15">
         <v>63.815199999999997</v>
       </c>
       <c r="N15" s="1">
-        <f>D15/M15</f>
+        <f t="shared" si="5"/>
         <v>1.4637625518685204</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>129.15199999999999</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.72325864098116965</v>
+      </c>
+      <c r="Q15">
+        <v>130.476</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.71591940280204791</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="6"/>
+        <v>0.98985253993071509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2610,7 +3403,7 @@
         <v>157.31800000000001</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1943769943680951</v>
       </c>
       <c r="H16">
@@ -2620,25 +3413,43 @@
         <v>139.38900000000001</v>
       </c>
       <c r="J16" s="1">
-        <f>D16/I16</f>
+        <f t="shared" si="0"/>
         <v>1.3480045053770382</v>
       </c>
       <c r="K16">
         <v>140.084</v>
       </c>
       <c r="L16" s="1">
-        <f>D16/K16</f>
+        <f t="shared" si="1"/>
         <v>1.3413166385882755</v>
       </c>
       <c r="M16">
         <v>137.386</v>
       </c>
       <c r="N16" s="1">
-        <f>D16/M16</f>
+        <f t="shared" si="5"/>
         <v>1.3676575488040994</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>183.11099999999999</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0261371517822524</v>
+      </c>
+      <c r="Q16">
+        <v>188.964</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="3"/>
+        <v>0.99435342181579556</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="6"/>
+        <v>0.96902584619292564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2658,7 +3469,7 @@
         <v>347.738</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2255865047823362</v>
       </c>
       <c r="H17">
@@ -2668,25 +3479,43 @@
         <v>526.90099999999995</v>
       </c>
       <c r="J17" s="1">
-        <f>D17/I17</f>
+        <f t="shared" si="0"/>
         <v>0.80884834152905394</v>
       </c>
       <c r="K17">
         <v>648.06899999999996</v>
       </c>
       <c r="L17" s="1">
-        <f>D17/K17</f>
+        <f t="shared" si="1"/>
         <v>0.65761979048527242</v>
       </c>
       <c r="M17">
         <v>533.899</v>
       </c>
       <c r="N17" s="1">
-        <f>D17/M17</f>
+        <f t="shared" si="5"/>
         <v>0.79824648482203564</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>613.07100000000003</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.69516091937149205</v>
+      </c>
+      <c r="Q17">
+        <v>608.529</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.70034953141099276</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0074639006522286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -2706,7 +3535,7 @@
         <v>109.956</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1634381025137328</v>
       </c>
       <c r="H18">
@@ -2716,25 +3545,43 @@
         <v>89.990700000000004</v>
       </c>
       <c r="J18" s="1">
-        <f>D18/I18</f>
+        <f t="shared" si="0"/>
         <v>1.4215580054383397</v>
       </c>
       <c r="K18">
         <v>89.675700000000006</v>
       </c>
       <c r="L18" s="1">
-        <f>D18/K18</f>
+        <f t="shared" si="1"/>
         <v>1.4265514515080451</v>
       </c>
       <c r="M18">
         <v>89.261499999999998</v>
       </c>
       <c r="N18" s="1">
-        <f>D18/M18</f>
+        <f t="shared" si="5"/>
         <v>1.4331710759958101</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <v>147.71100000000001</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.86606278476213683</v>
+      </c>
+      <c r="Q18">
+        <v>143.78100000000001</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.8897350832168367</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0273332359630272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -2754,7 +3601,7 @@
         <v>60.107100000000003</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1971098256279209</v>
       </c>
       <c r="H19">
@@ -2764,25 +3611,43 @@
         <v>50.156500000000001</v>
       </c>
       <c r="J19" s="1">
-        <f>D19/I19</f>
+        <f t="shared" si="0"/>
         <v>1.4346056842084276</v>
       </c>
       <c r="K19">
         <v>50.402900000000002</v>
       </c>
       <c r="L19" s="1">
-        <f>D19/K19</f>
+        <f t="shared" si="1"/>
         <v>1.4275924599576613</v>
       </c>
       <c r="M19">
         <v>50.359499999999997</v>
       </c>
       <c r="N19" s="1">
-        <f>D19/M19</f>
+        <f t="shared" si="5"/>
         <v>1.4288227643245071</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>75.430199999999999</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.95392561599995762</v>
+      </c>
+      <c r="Q19">
+        <v>71.512799999999999</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0061807117047579</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0547790045977783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -2802,7 +3667,7 @@
         <v>513.12300000000005</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.9497410952149874</v>
       </c>
       <c r="H20">
@@ -2812,25 +3677,43 @@
         <v>393.11599999999999</v>
       </c>
       <c r="J20" s="1">
-        <f>D20/I20</f>
+        <f t="shared" si="0"/>
         <v>1.2396697158090741</v>
       </c>
       <c r="K20">
         <v>510.80500000000001</v>
       </c>
       <c r="L20" s="1">
-        <f>D20/K20</f>
+        <f t="shared" si="1"/>
         <v>0.95405095878074808</v>
       </c>
       <c r="M20">
         <v>448.22399999999999</v>
       </c>
       <c r="N20" s="1">
-        <f>D20/M20</f>
+        <f t="shared" si="5"/>
         <v>1.0872554794031557</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>519.23199999999997</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.93856696043387167</v>
+      </c>
+      <c r="Q20">
+        <v>520.41399999999999</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.93643522272652158</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="6"/>
+        <v>0.99772873135618945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2850,7 +3733,7 @@
         <v>76.774600000000007</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1801845923000573</v>
       </c>
       <c r="H21">
@@ -2860,25 +3743,43 @@
         <v>65.658600000000007</v>
       </c>
       <c r="J21" s="1">
-        <f>D21/I21</f>
+        <f t="shared" si="0"/>
         <v>1.3799898261613861</v>
       </c>
       <c r="K21">
         <v>66.117599999999996</v>
       </c>
       <c r="L21" s="1">
-        <f>D21/K21</f>
+        <f t="shared" si="1"/>
         <v>1.3704096942417754</v>
       </c>
       <c r="M21">
         <v>65.905500000000004</v>
       </c>
       <c r="N21" s="1">
-        <f>D21/M21</f>
+        <f t="shared" si="5"/>
         <v>1.3748200074348877</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>97.930999999999997</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.92522490324820539</v>
+      </c>
+      <c r="Q21">
+        <v>91.090199999999996</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.99470854164333811</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="6"/>
+        <v>1.075099187398864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2898,7 +3799,7 @@
         <v>59.753</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1856927685639214</v>
       </c>
       <c r="H22">
@@ -2908,25 +3809,43 @@
         <v>51.431800000000003</v>
       </c>
       <c r="J22" s="1">
-        <f>D22/I22</f>
+        <f t="shared" si="0"/>
         <v>1.3775271330188714</v>
       </c>
       <c r="K22">
         <v>51.446899999999999</v>
       </c>
       <c r="L22" s="1">
-        <f>D22/K22</f>
+        <f t="shared" si="1"/>
         <v>1.3771228198394849</v>
       </c>
       <c r="M22">
         <v>51.871400000000001</v>
       </c>
       <c r="N22" s="1">
-        <f>D22/M22</f>
+        <f t="shared" si="5"/>
         <v>1.3658528591863723</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>70.306100000000001</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0077176802581851</v>
+      </c>
+      <c r="Q22">
+        <v>68.88</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0285815911730545</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0207041231126597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -2946,7 +3865,7 @@
         <v>288.36599999999999</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0779391467787465</v>
       </c>
       <c r="H23">
@@ -2956,25 +3875,43 @@
         <v>357.66399999999999</v>
       </c>
       <c r="J23" s="1">
-        <f>D23/I23</f>
+        <f t="shared" si="0"/>
         <v>0.86908662879126786</v>
       </c>
       <c r="K23">
         <v>266.233</v>
       </c>
       <c r="L23" s="1">
-        <f>D23/K23</f>
+        <f t="shared" si="1"/>
         <v>1.1675524822242171</v>
       </c>
       <c r="M23">
         <v>322.267</v>
       </c>
       <c r="N23" s="1">
-        <f>D23/M23</f>
+        <f t="shared" si="5"/>
         <v>0.96454492703255379</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <v>537.14400000000001</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="2"/>
+        <v>0.57869211980400037</v>
+      </c>
+      <c r="Q23">
+        <v>696.32799999999997</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="3"/>
+        <v>0.44640025964775226</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="6"/>
+        <v>0.77139508967038528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2994,7 +3931,7 @@
         <v>1873.95</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.055556444942501</v>
       </c>
       <c r="H24">
@@ -3004,25 +3941,43 @@
         <v>1016.84</v>
       </c>
       <c r="J24" s="1">
-        <f>D24/I24</f>
+        <f t="shared" si="0"/>
         <v>1.9453011289878446</v>
       </c>
       <c r="K24">
         <v>1043.5999999999999</v>
       </c>
       <c r="L24" s="1">
-        <f>D24/K24</f>
+        <f t="shared" si="1"/>
         <v>1.8954197010348794</v>
       </c>
       <c r="M24">
         <v>1042.74</v>
       </c>
       <c r="N24" s="1">
-        <f>D24/M24</f>
+        <f t="shared" si="5"/>
         <v>1.8969829487695877</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <v>1642.17</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="2"/>
+        <v>1.204540333826583</v>
+      </c>
+      <c r="Q24">
+        <v>1614.26</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2253664217660103</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0172896559414222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -3042,7 +3997,7 @@
         <v>170.98400000000001</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1743964347541289</v>
       </c>
       <c r="H25">
@@ -3052,25 +4007,43 @@
         <v>147.78800000000001</v>
       </c>
       <c r="J25" s="1">
-        <f>D25/I25</f>
+        <f t="shared" si="0"/>
         <v>1.3587233063577555</v>
       </c>
       <c r="K25">
         <v>146.66</v>
       </c>
       <c r="L25" s="1">
-        <f>D25/K25</f>
+        <f t="shared" si="1"/>
         <v>1.3691735987999454</v>
       </c>
       <c r="M25">
         <v>146.702</v>
       </c>
       <c r="N25" s="1">
-        <f>D25/M25</f>
+        <f t="shared" si="5"/>
         <v>1.3687816117026352</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25">
+        <v>205.71799999999999</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.97610807027095348</v>
+      </c>
+      <c r="Q25">
+        <v>219.654</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.91417866280604954</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="6"/>
+        <v>0.93655476340062094</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -3090,7 +4063,7 @@
         <v>99.6434</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1797570135101774</v>
       </c>
       <c r="H26">
@@ -3100,25 +4073,43 @@
         <v>85.16</v>
       </c>
       <c r="J26" s="1">
-        <f>D26/I26</f>
+        <f t="shared" si="0"/>
         <v>1.3804015969938941</v>
       </c>
       <c r="K26">
         <v>85.430400000000006</v>
       </c>
       <c r="L26" s="1">
-        <f>D26/K26</f>
+        <f t="shared" si="1"/>
         <v>1.3760324193729632</v>
       </c>
       <c r="M26">
         <v>85.268199999999993</v>
       </c>
       <c r="N26" s="1">
-        <f>D26/M26</f>
+        <f t="shared" si="5"/>
         <v>1.3786499539101331</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <v>113.95099999999999</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0316276294196629</v>
+      </c>
+      <c r="Q26">
+        <v>108.48</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0836559734513274</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0504332595870205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -3138,7 +4129,7 @@
         <v>248.49</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1207171314741036</v>
       </c>
       <c r="H27">
@@ -3148,25 +4139,43 @@
         <v>214.96600000000001</v>
       </c>
       <c r="J27" s="1">
-        <f>D27/I27</f>
+        <f t="shared" si="0"/>
         <v>1.2954932407915671</v>
       </c>
       <c r="K27">
         <v>212.512</v>
       </c>
       <c r="L27" s="1">
-        <f>D27/K27</f>
+        <f t="shared" si="1"/>
         <v>1.3104530567685591</v>
       </c>
       <c r="M27">
         <v>213.49</v>
       </c>
       <c r="N27" s="1">
-        <f>D27/M27</f>
+        <f t="shared" si="5"/>
         <v>1.3044498571361658</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27">
+        <v>300.10599999999999</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.92796212005091538</v>
+      </c>
+      <c r="Q27">
+        <v>292.536</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="3"/>
+        <v>0.95197514152104368</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0258771569994805</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -3186,7 +4195,7 @@
         <v>28.100899999999999</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.3239647128739649</v>
       </c>
       <c r="H28">
@@ -3196,25 +4205,43 @@
         <v>26.124199999999998</v>
       </c>
       <c r="J28" s="1">
-        <f>D28/I28</f>
+        <f t="shared" si="0"/>
         <v>1.4241431316557063</v>
       </c>
       <c r="K28">
         <v>26.026299999999999</v>
       </c>
       <c r="L28" s="1">
-        <f>D28/K28</f>
+        <f t="shared" si="1"/>
         <v>1.4295001594540906</v>
       </c>
       <c r="M28">
         <v>25.866099999999999</v>
       </c>
       <c r="N28" s="1">
-        <f>D28/M28</f>
+        <f t="shared" si="5"/>
         <v>1.438353675273814</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <v>37.252099999999999</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99872490409936621</v>
+      </c>
+      <c r="Q28">
+        <v>35.541600000000003</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0467902401692664</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0481267022306253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -3234,7 +4261,7 @@
         <v>75.457499999999996</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1045648212569992</v>
       </c>
       <c r="H29">
@@ -3244,25 +4271,43 @@
         <v>61.524299999999997</v>
       </c>
       <c r="J29" s="1">
-        <f>D29/I29</f>
+        <f t="shared" si="0"/>
         <v>1.3547118780709413</v>
       </c>
       <c r="K29">
         <v>61.848599999999998</v>
       </c>
       <c r="L29" s="1">
-        <f>D29/K29</f>
+        <f t="shared" si="1"/>
         <v>1.3476085149865964</v>
       </c>
       <c r="M29">
         <v>60.940300000000001</v>
       </c>
       <c r="N29" s="1">
-        <f>D29/M29</f>
+        <f t="shared" si="5"/>
         <v>1.3676942844062141</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <v>85.040400000000005</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9800953429193654</v>
+      </c>
+      <c r="Q29">
+        <v>80.791300000000007</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="3"/>
+        <v>1.031642020861157</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0525935342047967</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -3282,7 +4327,7 @@
         <v>95.148799999999994</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1896524181072174</v>
       </c>
       <c r="H30">
@@ -3292,25 +4337,43 @@
         <v>78.037599999999998</v>
       </c>
       <c r="J30" s="1">
-        <f>D30/I30</f>
+        <f t="shared" si="0"/>
         <v>1.4505059099716036</v>
       </c>
       <c r="K30">
         <v>78.309899999999999</v>
       </c>
       <c r="L30" s="1">
-        <f>D30/K30</f>
+        <f t="shared" si="1"/>
         <v>1.4454621957121641</v>
       </c>
       <c r="M30">
         <v>76.536799999999999</v>
       </c>
       <c r="N30" s="1">
-        <f>D30/M30</f>
+        <f t="shared" si="5"/>
         <v>1.4789486887353536</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <v>157.006</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="2"/>
+        <v>0.72095333936282691</v>
+      </c>
+      <c r="Q30">
+        <v>154.102</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="3"/>
+        <v>0.7345394608765623</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0188446613282112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -3330,7 +4393,7 @@
         <v>143.10300000000001</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.2421612405050908</v>
       </c>
       <c r="H31">
@@ -3340,25 +4403,43 @@
         <v>130.13800000000001</v>
       </c>
       <c r="J31" s="1">
-        <f>D31/I31</f>
+        <f t="shared" si="0"/>
         <v>2.4655365842413439</v>
       </c>
       <c r="K31">
         <v>130.869</v>
       </c>
       <c r="L31" s="1">
-        <f>D31/K31</f>
+        <f t="shared" si="1"/>
         <v>2.4517647418410777</v>
       </c>
       <c r="M31">
         <v>130.87299999999999</v>
       </c>
       <c r="N31" s="1">
-        <f>D31/M31</f>
+        <f t="shared" si="5"/>
         <v>2.4516898061479453</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <v>185.90700000000001</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="2"/>
+        <v>1.725916721801761</v>
+      </c>
+      <c r="Q31">
+        <v>179.71</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7854320850258749</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0344833342607533</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -3378,7 +4459,7 @@
         <v>349.512</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0857366842912404</v>
       </c>
       <c r="H32">
@@ -3388,25 +4469,43 @@
         <v>492.97399999999999</v>
       </c>
       <c r="J32" s="1">
-        <f>D32/I32</f>
+        <f t="shared" si="0"/>
         <v>0.76977284806095259</v>
       </c>
       <c r="K32">
         <v>474.178</v>
       </c>
       <c r="L32" s="1">
-        <f>D32/K32</f>
+        <f t="shared" si="1"/>
         <v>0.80028596856032974</v>
       </c>
       <c r="M32">
         <v>521.74599999999998</v>
       </c>
       <c r="N32" s="1">
-        <f>D32/M32</f>
+        <f t="shared" si="5"/>
         <v>0.72732325691045074</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <v>360.827</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="2"/>
+        <v>1.05168959085656</v>
+      </c>
+      <c r="Q32">
+        <v>343.13499999999999</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1059145817243943</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0515598816792224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -3426,7 +4525,7 @@
         <v>100.79</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1882528028574262</v>
       </c>
       <c r="H33">
@@ -3436,25 +4535,43 @@
         <v>88.157700000000006</v>
       </c>
       <c r="J33" s="1">
-        <f>D33/I33</f>
+        <f t="shared" si="0"/>
         <v>1.3585200158352588</v>
       </c>
       <c r="K33">
         <v>87.902900000000002</v>
       </c>
       <c r="L33" s="1">
-        <f>D33/K33</f>
+        <f t="shared" si="1"/>
         <v>1.3624578938806342</v>
       </c>
       <c r="M33">
         <v>86.108800000000002</v>
       </c>
       <c r="N33" s="1">
-        <f>D33/M33</f>
+        <f t="shared" si="5"/>
         <v>1.390845070422535</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <v>138.74799999999999</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.8631764061463949</v>
+      </c>
+      <c r="Q33">
+        <v>129.262</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="3"/>
+        <v>0.92652132877411764</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0733858365180795</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -3474,7 +4591,7 @@
         <v>87.168999999999997</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1541717812525096</v>
       </c>
       <c r="H34">
@@ -3484,25 +4601,43 @@
         <v>74.2303</v>
       </c>
       <c r="J34" s="1">
-        <f>D34/I34</f>
+        <f t="shared" ref="J34:J65" si="7">D34/I34</f>
         <v>1.3553495001367366</v>
       </c>
       <c r="K34">
         <v>74.308800000000005</v>
       </c>
       <c r="L34" s="1">
-        <f>D34/K34</f>
+        <f t="shared" ref="L34:L65" si="8">D34/K34</f>
         <v>1.3539177055745752</v>
       </c>
       <c r="M34">
         <v>74.222099999999998</v>
       </c>
       <c r="N34" s="1">
-        <f>D34/M34</f>
+        <f t="shared" ref="N34:N65" si="9">D34/M34</f>
         <v>1.3554992380975479</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <v>115.206</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.87328784959116712</v>
+      </c>
+      <c r="Q34">
+        <v>110.282</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="3"/>
+        <v>0.91227942909994386</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0446491721223772</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -3522,7 +4657,7 @@
         <v>92.047899999999998</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.262516581040958</v>
       </c>
       <c r="H35">
@@ -3532,25 +4667,43 @@
         <v>83.339200000000005</v>
       </c>
       <c r="J35" s="1">
-        <f>D35/I35</f>
+        <f t="shared" si="7"/>
         <v>1.3944458310134966</v>
       </c>
       <c r="K35">
         <v>83.962900000000005</v>
       </c>
       <c r="L35" s="1">
-        <f>D35/K35</f>
+        <f t="shared" si="8"/>
         <v>1.3840874957868297</v>
       </c>
       <c r="M35">
         <v>83.3523</v>
       </c>
       <c r="N35" s="1">
-        <f>D35/M35</f>
+        <f t="shared" si="9"/>
         <v>1.3942266740089957</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <v>107.38500000000001</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0821995623224845</v>
+      </c>
+      <c r="Q35">
+        <v>96.316299999999998</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2065662821350074</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1149203198212556</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -3570,7 +4723,7 @@
         <v>139.845</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1727841538846582</v>
       </c>
       <c r="H36">
@@ -3580,25 +4733,43 @@
         <v>116.029</v>
       </c>
       <c r="J36" s="1">
-        <f>D36/I36</f>
+        <f t="shared" si="7"/>
         <v>1.4135086917925692</v>
       </c>
       <c r="K36">
         <v>116.22199999999999</v>
       </c>
       <c r="L36" s="1">
-        <f>D36/K36</f>
+        <f t="shared" si="8"/>
         <v>1.4111613980141455</v>
       </c>
       <c r="M36">
         <v>115.358</v>
       </c>
       <c r="N36" s="1">
-        <f>D36/M36</f>
+        <f t="shared" si="9"/>
         <v>1.4217306125279565</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <v>221.589</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="2"/>
+        <v>0.74014504330088593</v>
+      </c>
+      <c r="Q36">
+        <v>216.494</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="3"/>
+        <v>0.75756372001071626</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="6"/>
+        <v>1.023534139514259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -3618,7 +4789,7 @@
         <v>70.896699999999996</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.184983222068164</v>
       </c>
       <c r="H37">
@@ -3628,25 +4799,43 @@
         <v>60.3566</v>
       </c>
       <c r="J37" s="1">
-        <f>D37/I37</f>
+        <f t="shared" si="7"/>
         <v>1.3919173710911481</v>
       </c>
       <c r="K37">
         <v>60.330300000000001</v>
       </c>
       <c r="L37" s="1">
-        <f>D37/K37</f>
+        <f t="shared" si="8"/>
         <v>1.3925241545293161</v>
       </c>
       <c r="M37">
         <v>60.5244</v>
       </c>
       <c r="N37" s="1">
-        <f>D37/M37</f>
+        <f t="shared" si="9"/>
         <v>1.3880583698475324</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37">
+        <v>74.447100000000006</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1284710888671283</v>
+      </c>
+      <c r="Q37">
+        <v>71.819699999999997</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1697542596251447</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0365832772902144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -3666,7 +4855,7 @@
         <v>95.824100000000001</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1788892355889593</v>
       </c>
       <c r="H38">
@@ -3676,25 +4865,43 @@
         <v>79.145899999999997</v>
       </c>
       <c r="J38" s="1">
-        <f>D38/I38</f>
+        <f t="shared" si="7"/>
         <v>1.4273133541977538</v>
       </c>
       <c r="K38">
         <v>79.621499999999997</v>
       </c>
       <c r="L38" s="1">
-        <f>D38/K38</f>
+        <f t="shared" si="8"/>
         <v>1.4187876390170997</v>
       </c>
       <c r="M38">
         <v>79.201300000000003</v>
       </c>
       <c r="N38" s="1">
-        <f>D38/M38</f>
+        <f t="shared" si="9"/>
         <v>1.4263149721027304</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38">
+        <v>135.17500000000001</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="2"/>
+        <v>0.83570186794895496</v>
+      </c>
+      <c r="Q38">
+        <v>132.57499999999999</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="3"/>
+        <v>0.85209126909296629</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0196115406373751</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -3714,7 +4921,7 @@
         <v>58.928600000000003</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1594081651354351</v>
       </c>
       <c r="H39">
@@ -3724,25 +4931,43 @@
         <v>46.7301</v>
       </c>
       <c r="J39" s="1">
-        <f>D39/I39</f>
+        <f t="shared" si="7"/>
         <v>1.4620619258251106</v>
       </c>
       <c r="K39">
         <v>47.173200000000001</v>
       </c>
       <c r="L39" s="1">
-        <f>D39/K39</f>
+        <f t="shared" si="8"/>
         <v>1.4483287120653252</v>
       </c>
       <c r="M39">
         <v>46.844799999999999</v>
       </c>
       <c r="N39" s="1">
-        <f>D39/M39</f>
+        <f t="shared" si="9"/>
         <v>1.4584820513696291</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39">
+        <v>83.317300000000003</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="2"/>
+        <v>0.82002537288174238</v>
+      </c>
+      <c r="Q39">
+        <v>78.711600000000004</v>
+      </c>
+      <c r="R39" s="1">
+        <f t="shared" si="3"/>
+        <v>0.86800801914838466</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0585136117166973</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -3762,7 +4987,7 @@
         <v>98.334900000000005</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1708559219564976</v>
       </c>
       <c r="H40">
@@ -3772,25 +4997,43 @@
         <v>76.220799999999997</v>
       </c>
       <c r="J40" s="1">
-        <f>D40/I40</f>
+        <f t="shared" si="7"/>
         <v>1.5105587975985557</v>
       </c>
       <c r="K40">
         <v>78.252499999999998</v>
       </c>
       <c r="L40" s="1">
-        <f>D40/K40</f>
+        <f t="shared" si="8"/>
         <v>1.471339573815533</v>
       </c>
       <c r="M40">
         <v>78.9559</v>
       </c>
       <c r="N40" s="1">
-        <f>D40/M40</f>
+        <f t="shared" si="9"/>
         <v>1.4582317470891979</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40">
+        <v>174.54</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65965394751919326</v>
+      </c>
+      <c r="Q40">
+        <v>174.27699999999999</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="3"/>
+        <v>0.66064942591391862</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0015090918480352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -3810,7 +5053,7 @@
         <v>449.697</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0830270159685298</v>
       </c>
       <c r="H41">
@@ -3820,25 +5063,43 @@
         <v>393.012</v>
       </c>
       <c r="J41" s="1">
-        <f>D41/I41</f>
+        <f t="shared" si="7"/>
         <v>1.2392344254119467</v>
       </c>
       <c r="K41">
         <v>390.93</v>
       </c>
       <c r="L41" s="1">
-        <f>D41/K41</f>
+        <f t="shared" si="8"/>
         <v>1.2458342925843502</v>
       </c>
       <c r="M41">
         <v>397.15600000000001</v>
       </c>
       <c r="N41" s="1">
-        <f>D41/M41</f>
+        <f t="shared" si="9"/>
         <v>1.2263040215935299</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41">
+        <v>659.98099999999999</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="2"/>
+        <v>0.737951547089992</v>
+      </c>
+      <c r="Q41">
+        <v>579.20299999999997</v>
+      </c>
+      <c r="R41" s="1">
+        <f t="shared" si="3"/>
+        <v>0.84086926345340063</v>
+      </c>
+      <c r="S41" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1394640566433532</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -3858,7 +5119,7 @@
         <v>254.94800000000001</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1632568209987919</v>
       </c>
       <c r="H42">
@@ -3868,25 +5129,43 @@
         <v>234.321</v>
       </c>
       <c r="J42" s="1">
-        <f>D42/I42</f>
+        <f t="shared" si="7"/>
         <v>1.2656569406924689</v>
       </c>
       <c r="K42">
         <v>234.46600000000001</v>
       </c>
       <c r="L42" s="1">
-        <f>D42/K42</f>
+        <f t="shared" si="8"/>
         <v>1.2648742248343043</v>
       </c>
       <c r="M42">
         <v>236.465</v>
       </c>
       <c r="N42" s="1">
-        <f>D42/M42</f>
+        <f t="shared" si="9"/>
         <v>1.2541813799082315</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <v>305.99799999999999</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96918934110680466</v>
+      </c>
+      <c r="Q42">
+        <v>290.87200000000001</v>
+      </c>
+      <c r="R42" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0195893726450123</v>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" si="6"/>
+        <v>1.052002255287549</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -3906,7 +5185,7 @@
         <v>220.67500000000001</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1791050186926475</v>
       </c>
       <c r="H43">
@@ -3916,25 +5195,43 @@
         <v>198.57499999999999</v>
       </c>
       <c r="J43" s="1">
-        <f>D43/I43</f>
+        <f t="shared" si="7"/>
         <v>1.3103311091527132</v>
       </c>
       <c r="K43">
         <v>198.673</v>
       </c>
       <c r="L43" s="1">
-        <f>D43/K43</f>
+        <f t="shared" si="8"/>
         <v>1.309684758371797</v>
       </c>
       <c r="M43">
         <v>200.023</v>
       </c>
       <c r="N43" s="1">
-        <f>D43/M43</f>
+        <f t="shared" si="9"/>
         <v>1.3008454027786804</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43">
+        <v>220.625</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="2"/>
+        <v>1.17937223796034</v>
+      </c>
+      <c r="Q43">
+        <v>218.428</v>
+      </c>
+      <c r="R43" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1912346402475873</v>
+      </c>
+      <c r="S43" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0100582342923068</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -3954,7 +5251,7 @@
         <v>123.209</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1672929737275686</v>
       </c>
       <c r="H44">
@@ -3964,25 +5261,43 @@
         <v>103.078</v>
       </c>
       <c r="J44" s="1">
-        <f>D44/I44</f>
+        <f t="shared" si="7"/>
         <v>1.3952637808261703</v>
       </c>
       <c r="K44">
         <v>103.26600000000001</v>
       </c>
       <c r="L44" s="1">
-        <f>D44/K44</f>
+        <f t="shared" si="8"/>
         <v>1.3927236457304437</v>
       </c>
       <c r="M44">
         <v>103.383</v>
       </c>
       <c r="N44" s="1">
-        <f>D44/M44</f>
+        <f t="shared" si="9"/>
         <v>1.3911474807270054</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44">
+        <v>147.55000000000001</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="2"/>
+        <v>0.97472721111487626</v>
+      </c>
+      <c r="Q44">
+        <v>143.74700000000001</v>
+      </c>
+      <c r="R44" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0005147933522089</v>
+      </c>
+      <c r="S44" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0264562043033942</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -4002,7 +5317,7 @@
         <v>2390.8000000000002</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.45429563326083322</v>
       </c>
       <c r="H45">
@@ -4012,25 +5327,43 @@
         <v>1681.96</v>
       </c>
       <c r="J45" s="1">
-        <f>D45/I45</f>
+        <f t="shared" si="7"/>
         <v>0.64575257437751199</v>
       </c>
       <c r="K45">
         <v>1672.65</v>
       </c>
       <c r="L45" s="1">
-        <f>D45/K45</f>
+        <f t="shared" si="8"/>
         <v>0.64934684482707083</v>
       </c>
       <c r="M45">
         <v>1661.61</v>
       </c>
       <c r="N45" s="1">
-        <f>D45/M45</f>
+        <f t="shared" si="9"/>
         <v>0.65366120810539186</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45">
+        <v>1902.51</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="2"/>
+        <v>0.57089318847207116</v>
+      </c>
+      <c r="Q45">
+        <v>2538.6999999999998</v>
+      </c>
+      <c r="R45" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4278292039232679</v>
+      </c>
+      <c r="S45" s="1">
+        <f t="shared" si="6"/>
+        <v>0.74940323787765395</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -4050,7 +5383,7 @@
         <v>1804.46</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.41091517683960854</v>
       </c>
       <c r="H46">
@@ -4060,25 +5393,43 @@
         <v>1205.71</v>
       </c>
       <c r="J46" s="1">
-        <f>D46/I46</f>
+        <f t="shared" si="7"/>
         <v>0.61497374990669396</v>
       </c>
       <c r="K46">
         <v>1265.22</v>
       </c>
       <c r="L46" s="1">
-        <f>D46/K46</f>
+        <f t="shared" si="8"/>
         <v>0.58604827618912125</v>
       </c>
       <c r="M46">
         <v>1195.9000000000001</v>
       </c>
       <c r="N46" s="1">
-        <f>D46/M46</f>
+        <f t="shared" si="9"/>
         <v>0.62001839618697208</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46">
+        <v>1269.32</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="2"/>
+        <v>0.58415529574890501</v>
+      </c>
+      <c r="Q46">
+        <v>1740.56</v>
+      </c>
+      <c r="R46" s="1">
+        <f t="shared" si="3"/>
+        <v>0.42600082731994304</v>
+      </c>
+      <c r="S46" s="1">
+        <f t="shared" si="6"/>
+        <v>0.72925954865100884</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -4098,7 +5449,7 @@
         <v>372.358</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.94868916472856768</v>
       </c>
       <c r="H47">
@@ -4108,25 +5459,43 @@
         <v>266.09199999999998</v>
       </c>
       <c r="J47" s="1">
-        <f>D47/I47</f>
+        <f t="shared" si="7"/>
         <v>1.3275558829277094</v>
       </c>
       <c r="K47">
         <v>304.75599999999997</v>
       </c>
       <c r="L47" s="1">
-        <f>D47/K47</f>
+        <f t="shared" si="8"/>
         <v>1.1591305831550487</v>
       </c>
       <c r="M47">
         <v>331.00400000000002</v>
       </c>
       <c r="N47" s="1">
-        <f>D47/M47</f>
+        <f t="shared" si="9"/>
         <v>1.0672136892605526</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47">
+        <v>477.87400000000002</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" si="2"/>
+        <v>0.73921577654360771</v>
+      </c>
+      <c r="Q47">
+        <v>423.24099999999999</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" si="3"/>
+        <v>0.83463558587187925</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1290824849199392</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -4146,7 +5515,7 @@
         <v>98.973100000000002</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.3288358149840716</v>
       </c>
       <c r="H48">
@@ -4156,25 +5525,43 @@
         <v>107.43899999999999</v>
       </c>
       <c r="J48" s="1">
-        <f>D48/I48</f>
+        <f t="shared" si="7"/>
         <v>1.2241271791435142</v>
       </c>
       <c r="K48">
         <v>108.973</v>
       </c>
       <c r="L48" s="1">
-        <f>D48/K48</f>
+        <f t="shared" si="8"/>
         <v>1.2068952859882724</v>
       </c>
       <c r="M48">
         <v>107.958</v>
       </c>
       <c r="N48" s="1">
-        <f>D48/M48</f>
+        <f t="shared" si="9"/>
         <v>1.2182422794049539</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48">
+        <v>121.96599999999999</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0783251069970321</v>
+      </c>
+      <c r="Q48">
+        <v>120.298</v>
+      </c>
+      <c r="R48" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0932766962044258</v>
+      </c>
+      <c r="S48" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0138655671748491</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -4194,7 +5581,7 @@
         <v>126.256</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.145181219110379</v>
       </c>
       <c r="H49">
@@ -4204,25 +5591,43 @@
         <v>105.745</v>
       </c>
       <c r="J49" s="1">
-        <f>D49/I49</f>
+        <f t="shared" si="7"/>
         <v>1.367308146957303</v>
       </c>
       <c r="K49">
         <v>105.742</v>
       </c>
       <c r="L49" s="1">
-        <f>D49/K49</f>
+        <f t="shared" si="8"/>
         <v>1.3673469387755102</v>
       </c>
       <c r="M49">
         <v>105.74</v>
       </c>
       <c r="N49" s="1">
-        <f>D49/M49</f>
+        <f t="shared" si="9"/>
         <v>1.3673728012105166</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49">
+        <v>126.65</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1416186340307937</v>
+      </c>
+      <c r="Q49">
+        <v>123.52800000000001</v>
+      </c>
+      <c r="R49" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1704714720549187</v>
+      </c>
+      <c r="S49" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0252736221747296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -4242,7 +5647,7 @@
         <v>366.28</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1654553893196462</v>
       </c>
       <c r="H50">
@@ -4252,25 +5657,43 @@
         <v>330.89699999999999</v>
       </c>
       <c r="J50" s="1">
-        <f>D50/I50</f>
+        <f t="shared" si="7"/>
         <v>1.2900781814280577</v>
       </c>
       <c r="K50">
         <v>330.166</v>
       </c>
       <c r="L50" s="1">
-        <f>D50/K50</f>
+        <f t="shared" si="8"/>
         <v>1.2929344632699915</v>
       </c>
       <c r="M50">
         <v>330.06700000000001</v>
       </c>
       <c r="N50" s="1">
-        <f>D50/M50</f>
+        <f t="shared" si="9"/>
         <v>1.2933222648734952</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50">
+        <v>347.62700000000001</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2279914966328851</v>
+      </c>
+      <c r="Q50">
+        <v>379.68599999999998</v>
+      </c>
+      <c r="R50" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1243053470499307</v>
+      </c>
+      <c r="S50" s="1">
+        <f t="shared" si="6"/>
+        <v>0.91556444008996918</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -4290,7 +5713,7 @@
         <v>733.23699999999997</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2703723352749521</v>
       </c>
       <c r="H51">
@@ -4300,25 +5723,43 @@
         <v>2522.9699999999998</v>
       </c>
       <c r="J51" s="1">
-        <f>D51/I51</f>
+        <f t="shared" si="7"/>
         <v>0.36920137774131284</v>
       </c>
       <c r="K51">
         <v>2544.31</v>
       </c>
       <c r="L51" s="1">
-        <f>D51/K51</f>
+        <f t="shared" si="8"/>
         <v>0.36610475924710434</v>
       </c>
       <c r="M51">
         <v>2415.48</v>
       </c>
       <c r="N51" s="1">
-        <f>D51/M51</f>
+        <f t="shared" si="9"/>
         <v>0.38563101329756405</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51">
+        <v>1112.6600000000001</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="2"/>
+        <v>0.83716858698973629</v>
+      </c>
+      <c r="Q51">
+        <v>1211.69</v>
+      </c>
+      <c r="R51" s="1">
+        <f t="shared" si="3"/>
+        <v>0.76874778202345484</v>
+      </c>
+      <c r="S51" s="1">
+        <f t="shared" si="6"/>
+        <v>0.91827117497049582</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>76</v>
       </c>
@@ -4338,7 +5779,7 @@
         <v>227.982</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1619426095042591</v>
       </c>
       <c r="H52">
@@ -4348,25 +5789,43 @@
         <v>197.59899999999999</v>
       </c>
       <c r="J52" s="1">
-        <f>D52/I52</f>
+        <f t="shared" si="7"/>
         <v>1.3406039504248504</v>
       </c>
       <c r="K52">
         <v>198.28800000000001</v>
       </c>
       <c r="L52" s="1">
-        <f>D52/K52</f>
+        <f t="shared" si="8"/>
         <v>1.335945695150488</v>
       </c>
       <c r="M52">
         <v>198.006</v>
       </c>
       <c r="N52" s="1">
-        <f>D52/M52</f>
+        <f t="shared" si="9"/>
         <v>1.3378483480298575</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O52">
+        <v>331.93799999999999</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" si="2"/>
+        <v>0.79804662316456687</v>
+      </c>
+      <c r="Q52">
+        <v>311.25200000000001</v>
+      </c>
+      <c r="R52" s="1">
+        <f t="shared" si="3"/>
+        <v>0.85108529423104107</v>
+      </c>
+      <c r="S52" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0664606171205324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -4386,7 +5845,7 @@
         <v>1704.22</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.132494630974874</v>
       </c>
       <c r="H53">
@@ -4396,25 +5855,43 @@
         <v>2955.09</v>
       </c>
       <c r="J53" s="1">
-        <f>D53/I53</f>
+        <f t="shared" si="7"/>
         <v>0.65311716394424535</v>
       </c>
       <c r="K53">
         <v>2967.27</v>
       </c>
       <c r="L53" s="1">
-        <f>D53/K53</f>
+        <f t="shared" si="8"/>
         <v>0.65043625959215035</v>
       </c>
       <c r="M53">
         <v>2911.9</v>
       </c>
       <c r="N53" s="1">
-        <f>D53/M53</f>
+        <f t="shared" si="9"/>
         <v>0.6628043545451423</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53">
+        <v>2877.63</v>
+      </c>
+      <c r="P53" s="1">
+        <f t="shared" si="2"/>
+        <v>0.67069776169973205</v>
+      </c>
+      <c r="Q53">
+        <v>3031.75</v>
+      </c>
+      <c r="R53" s="1">
+        <f t="shared" si="3"/>
+        <v>0.63660262224787667</v>
+      </c>
+      <c r="S53" s="1">
+        <f t="shared" si="6"/>
+        <v>0.949164673868228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>78</v>
       </c>
@@ -4434,7 +5911,7 @@
         <v>71.572100000000006</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1908648761179284</v>
       </c>
       <c r="H54">
@@ -4444,25 +5921,43 @@
         <v>61.318300000000001</v>
       </c>
       <c r="J54" s="1">
-        <f>D54/I54</f>
+        <f t="shared" si="7"/>
         <v>1.3900042890947726</v>
       </c>
       <c r="K54">
         <v>61.112299999999998</v>
       </c>
       <c r="L54" s="1">
-        <f>D54/K54</f>
+        <f t="shared" si="8"/>
         <v>1.3946897760352661</v>
       </c>
       <c r="M54">
         <v>61.288499999999999</v>
       </c>
       <c r="N54" s="1">
-        <f>D54/M54</f>
+        <f t="shared" si="9"/>
         <v>1.3906801439095424</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O54">
+        <v>90.059799999999996</v>
+      </c>
+      <c r="P54" s="1">
+        <f t="shared" si="2"/>
+        <v>0.94640116900104154</v>
+      </c>
+      <c r="Q54">
+        <v>77.946899999999999</v>
+      </c>
+      <c r="R54" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0934713247095138</v>
+      </c>
+      <c r="S54" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1553993808605603</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -4482,7 +5977,7 @@
         <v>373.50400000000002</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1998318625771076</v>
       </c>
       <c r="H55">
@@ -4492,25 +5987,43 @@
         <v>397.27699999999999</v>
       </c>
       <c r="J55" s="1">
-        <f>D55/I55</f>
+        <f t="shared" si="7"/>
         <v>1.1280340920818472</v>
       </c>
       <c r="K55">
         <v>414.45</v>
       </c>
       <c r="L55" s="1">
-        <f>D55/K55</f>
+        <f t="shared" si="8"/>
         <v>1.081293280250935</v>
       </c>
       <c r="M55">
         <v>390.541</v>
       </c>
       <c r="N55" s="1">
-        <f>D55/M55</f>
+        <f t="shared" si="9"/>
         <v>1.1474902763090176</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55">
+        <v>377.34399999999999</v>
+      </c>
+      <c r="P55" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1876219046811398</v>
+      </c>
+      <c r="Q55">
+        <v>357.35399999999998</v>
+      </c>
+      <c r="R55" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2540562019733934</v>
+      </c>
+      <c r="S55" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0559389289052312</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -4530,7 +6043,7 @@
         <v>262.97899999999998</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1300331965670263</v>
       </c>
       <c r="H56">
@@ -4540,25 +6053,43 @@
         <v>217.208</v>
       </c>
       <c r="J56" s="1">
-        <f>D56/I56</f>
+        <f t="shared" si="7"/>
         <v>1.368158631357961</v>
       </c>
       <c r="K56">
         <v>218.09700000000001</v>
       </c>
       <c r="L56" s="1">
-        <f>D56/K56</f>
+        <f t="shared" si="8"/>
         <v>1.3625817870030308</v>
       </c>
       <c r="M56">
         <v>218.68600000000001</v>
       </c>
       <c r="N56" s="1">
-        <f>D56/M56</f>
+        <f t="shared" si="9"/>
         <v>1.3589118644997851</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O56">
+        <v>333.154</v>
+      </c>
+      <c r="P56" s="1">
+        <f t="shared" si="2"/>
+        <v>0.89200489863546595</v>
+      </c>
+      <c r="Q56">
+        <v>321.59399999999999</v>
+      </c>
+      <c r="R56" s="1">
+        <f t="shared" si="3"/>
+        <v>0.92406885700603869</v>
+      </c>
+      <c r="S56" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0359459442651293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -4578,7 +6109,7 @@
         <v>148.5</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1451178451178452</v>
       </c>
       <c r="H57">
@@ -4588,25 +6119,43 @@
         <v>126.816</v>
       </c>
       <c r="J57" s="1">
-        <f>D57/I57</f>
+        <f t="shared" si="7"/>
         <v>1.3409191269240475</v>
       </c>
       <c r="K57">
         <v>127.18600000000001</v>
       </c>
       <c r="L57" s="1">
-        <f>D57/K57</f>
+        <f t="shared" si="8"/>
         <v>1.3370182252763669</v>
       </c>
       <c r="M57">
         <v>128.36099999999999</v>
       </c>
       <c r="N57" s="1">
-        <f>D57/M57</f>
+        <f t="shared" si="9"/>
         <v>1.3247793332865903</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57">
+        <v>177.69</v>
+      </c>
+      <c r="P57" s="1">
+        <f t="shared" si="2"/>
+        <v>0.95700377061173958</v>
+      </c>
+      <c r="Q57">
+        <v>193.327</v>
+      </c>
+      <c r="R57" s="1">
+        <f t="shared" si="3"/>
+        <v>0.8795977799272735</v>
+      </c>
+      <c r="S57" s="1">
+        <f t="shared" si="6"/>
+        <v>0.91911631587931331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -4626,7 +6175,7 @@
         <v>115.73399999999999</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.180767967926452</v>
       </c>
       <c r="H58">
@@ -4636,25 +6185,43 @@
         <v>101.102</v>
       </c>
       <c r="J58" s="1">
-        <f>D58/I58</f>
+        <f t="shared" si="7"/>
         <v>1.3516547644952621</v>
       </c>
       <c r="K58">
         <v>101.066</v>
       </c>
       <c r="L58" s="1">
-        <f>D58/K58</f>
+        <f t="shared" si="8"/>
         <v>1.352136227811529</v>
       </c>
       <c r="M58">
         <v>101.374</v>
       </c>
       <c r="N58" s="1">
-        <f>D58/M58</f>
+        <f t="shared" si="9"/>
         <v>1.3480280939885967</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58">
+        <v>145.48099999999999</v>
+      </c>
+      <c r="P58" s="1">
+        <f t="shared" si="2"/>
+        <v>0.93933228394085833</v>
+      </c>
+      <c r="Q58">
+        <v>130.39099999999999</v>
+      </c>
+      <c r="R58" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0480401254687823</v>
+      </c>
+      <c r="S58" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1157288463160802</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -4674,7 +6241,7 @@
         <v>373.56400000000002</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.166836204773479</v>
       </c>
       <c r="H59">
@@ -4684,25 +6251,43 @@
         <v>316.80799999999999</v>
       </c>
       <c r="J59" s="1">
-        <f>D59/I59</f>
+        <f t="shared" si="7"/>
         <v>1.3758743466074088</v>
       </c>
       <c r="K59">
         <v>314.92599999999999</v>
       </c>
       <c r="L59" s="1">
-        <f>D59/K59</f>
+        <f t="shared" si="8"/>
         <v>1.3840965814191271</v>
       </c>
       <c r="M59">
         <v>316.98399999999998</v>
       </c>
       <c r="N59" s="1">
-        <f>D59/M59</f>
+        <f t="shared" si="9"/>
         <v>1.3751104156676677</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59">
+        <v>564.98699999999997</v>
+      </c>
+      <c r="P59" s="1">
+        <f t="shared" si="2"/>
+        <v>0.77150093718970525</v>
+      </c>
+      <c r="Q59">
+        <v>502.42899999999997</v>
+      </c>
+      <c r="R59" s="1">
+        <f t="shared" si="3"/>
+        <v>0.86756138678300809</v>
+      </c>
+      <c r="S59" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1245111249549689</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>84</v>
       </c>
@@ -4722,7 +6307,7 @@
         <v>372.48200000000003</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1434378037059509</v>
       </c>
       <c r="H60">
@@ -4732,25 +6317,43 @@
         <v>334.89699999999999</v>
       </c>
       <c r="J60" s="1">
-        <f>D60/I60</f>
+        <f t="shared" si="7"/>
         <v>1.2717641543519351</v>
       </c>
       <c r="K60">
         <v>331.702</v>
       </c>
       <c r="L60" s="1">
-        <f>D60/K60</f>
+        <f t="shared" si="8"/>
         <v>1.2840139643414874</v>
       </c>
       <c r="M60">
         <v>334.87400000000002</v>
       </c>
       <c r="N60" s="1">
-        <f>D60/M60</f>
+        <f t="shared" si="9"/>
         <v>1.2718515023561101</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60">
+        <v>557.80600000000004</v>
+      </c>
+      <c r="P60" s="1">
+        <f t="shared" si="2"/>
+        <v>0.76354503178524435</v>
+      </c>
+      <c r="Q60">
+        <v>523.91300000000001</v>
+      </c>
+      <c r="R60" s="1">
+        <f t="shared" si="3"/>
+        <v>0.81294031642658227</v>
+      </c>
+      <c r="S60" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0646920385636547</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -4770,7 +6373,7 @@
         <v>355.733</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1024448111364422</v>
       </c>
       <c r="H61">
@@ -4780,25 +6383,43 @@
         <v>306.50900000000001</v>
       </c>
       <c r="J61" s="1">
-        <f>D61/I61</f>
+        <f t="shared" si="7"/>
         <v>1.2794926086999077</v>
       </c>
       <c r="K61">
         <v>305.56</v>
       </c>
       <c r="L61" s="1">
-        <f>D61/K61</f>
+        <f t="shared" si="8"/>
         <v>1.2834664223065846</v>
       </c>
       <c r="M61">
         <v>307.58999999999997</v>
       </c>
       <c r="N61" s="1">
-        <f>D61/M61</f>
+        <f t="shared" si="9"/>
         <v>1.2749959361487695</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O61">
+        <v>405.02199999999999</v>
+      </c>
+      <c r="P61" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96828320436914539</v>
+      </c>
+      <c r="Q61">
+        <v>389.024</v>
+      </c>
+      <c r="R61" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0081023278769432</v>
+      </c>
+      <c r="S61" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0411234268322778</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -4818,7 +6439,7 @@
         <v>152.084</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1631927092922332</v>
       </c>
       <c r="H62">
@@ -4828,25 +6449,43 @@
         <v>128.16800000000001</v>
       </c>
       <c r="J62" s="1">
-        <f>D62/I62</f>
+        <f t="shared" si="7"/>
         <v>1.3802431184070905</v>
       </c>
       <c r="K62">
         <v>129.19200000000001</v>
       </c>
       <c r="L62" s="1">
-        <f>D62/K62</f>
+        <f t="shared" si="8"/>
         <v>1.369303052820608</v>
       </c>
       <c r="M62">
         <v>129.33600000000001</v>
       </c>
       <c r="N62" s="1">
-        <f>D62/M62</f>
+        <f t="shared" si="9"/>
         <v>1.3677784994123829</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O62">
+        <v>154.83600000000001</v>
+      </c>
+      <c r="P62" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1425185357410419</v>
+      </c>
+      <c r="Q62">
+        <v>146.28700000000001</v>
+      </c>
+      <c r="R62" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2092872230615159</v>
+      </c>
+      <c r="S62" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0584399160554254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -4866,7 +6505,7 @@
         <v>82.633600000000001</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1486755992719668</v>
       </c>
       <c r="H63">
@@ -4876,25 +6515,43 @@
         <v>69.995900000000006</v>
       </c>
       <c r="J63" s="1">
-        <f>D63/I63</f>
+        <f t="shared" si="7"/>
         <v>1.35606799826847</v>
       </c>
       <c r="K63">
         <v>69.610399999999998</v>
       </c>
       <c r="L63" s="1">
-        <f>D63/K63</f>
+        <f t="shared" si="8"/>
         <v>1.3635778561824097</v>
       </c>
       <c r="M63">
         <v>70.165499999999994</v>
       </c>
       <c r="N63" s="1">
-        <f>D63/M63</f>
+        <f t="shared" si="9"/>
         <v>1.3527901889105045</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O63">
+        <v>89.927400000000006</v>
+      </c>
+      <c r="P63" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0555092218834303</v>
+      </c>
+      <c r="Q63">
+        <v>103.86799999999999</v>
+      </c>
+      <c r="R63" s="1">
+        <f t="shared" si="3"/>
+        <v>0.91384449493588027</v>
+      </c>
+      <c r="S63" s="1">
+        <f t="shared" si="6"/>
+        <v>0.86578541995609826</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -4914,7 +6571,7 @@
         <v>44.600099999999998</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1897439691839256</v>
       </c>
       <c r="H64">
@@ -4924,25 +6581,43 @@
         <v>36.580500000000001</v>
       </c>
       <c r="J64" s="1">
-        <f>D64/I64</f>
+        <f t="shared" si="7"/>
         <v>1.4505733929279261</v>
       </c>
       <c r="K64">
         <v>36.9238</v>
       </c>
       <c r="L64" s="1">
-        <f>D64/K64</f>
+        <f t="shared" si="8"/>
         <v>1.437086648719796</v>
       </c>
       <c r="M64">
         <v>36.420699999999997</v>
       </c>
       <c r="N64" s="1">
-        <f>D64/M64</f>
+        <f t="shared" si="9"/>
         <v>1.4569379501217716</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O64">
+        <v>63.157600000000002</v>
+      </c>
+      <c r="P64" s="1">
+        <f t="shared" si="2"/>
+        <v>0.84016333742890792</v>
+      </c>
+      <c r="Q64">
+        <v>60.9407</v>
+      </c>
+      <c r="R64" s="1">
+        <f t="shared" si="3"/>
+        <v>0.87072678850095253</v>
+      </c>
+      <c r="S64" s="1">
+        <f t="shared" si="6"/>
+        <v>1.036377987125189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>89</v>
       </c>
@@ -4962,7 +6637,7 @@
         <v>191.47</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2830312842742988</v>
       </c>
       <c r="H65">
@@ -4972,25 +6647,43 @@
         <v>190.97499999999999</v>
       </c>
       <c r="J65" s="1">
-        <f>D65/I65</f>
+        <f t="shared" si="7"/>
         <v>1.2863568529912293</v>
       </c>
       <c r="K65">
         <v>190.68700000000001</v>
       </c>
       <c r="L65" s="1">
-        <f>D65/K65</f>
+        <f t="shared" si="8"/>
         <v>1.2882996743354291</v>
       </c>
       <c r="M65">
         <v>191.43</v>
       </c>
       <c r="N65" s="1">
-        <f>D65/M65</f>
+        <f t="shared" si="9"/>
         <v>1.2832993783628481</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O65">
+        <v>184.27</v>
+      </c>
+      <c r="P65" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3331632929939763</v>
+      </c>
+      <c r="Q65">
+        <v>175.73400000000001</v>
+      </c>
+      <c r="R65" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3979195830061342</v>
+      </c>
+      <c r="S65" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0485734120887251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>90</v>
       </c>
@@ -5010,7 +6703,7 @@
         <v>66.720600000000005</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.237799120511506</v>
       </c>
       <c r="H66">
@@ -5020,25 +6713,43 @@
         <v>60.420499999999997</v>
       </c>
       <c r="J66" s="1">
-        <f>D66/I66</f>
+        <f t="shared" ref="J66:J97" si="10">D66/I66</f>
         <v>1.3668655505995482</v>
       </c>
       <c r="K66">
         <v>60.375</v>
       </c>
       <c r="L66" s="1">
-        <f>D66/K66</f>
+        <f t="shared" ref="L66:L97" si="11">D66/K66</f>
         <v>1.367895652173913</v>
       </c>
       <c r="M66">
         <v>60.381799999999998</v>
       </c>
       <c r="N66" s="1">
-        <f>D66/M66</f>
+        <f t="shared" ref="N66:N97" si="12">D66/M66</f>
         <v>1.3677416042582367</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O66">
+        <v>66.576300000000003</v>
+      </c>
+      <c r="P66" s="1">
+        <f t="shared" ref="P66:P71" si="13">$D66/O66</f>
+        <v>1.240481973314828</v>
+      </c>
+      <c r="Q66">
+        <v>63.994700000000002</v>
+      </c>
+      <c r="R66" s="1">
+        <f t="shared" ref="R66:R71" si="14">$D66/Q66</f>
+        <v>1.2905240590236378</v>
+      </c>
+      <c r="S66" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0403408407258727</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>91</v>
       </c>
@@ -5058,7 +6769,7 @@
         <v>310.608</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" ref="G67:G71" si="1">D67/F67</f>
+        <f t="shared" ref="G67:G71" si="15">D67/F67</f>
         <v>1.1473561530932879</v>
       </c>
       <c r="H67">
@@ -5068,25 +6779,43 @@
         <v>265.78899999999999</v>
       </c>
       <c r="J67" s="1">
-        <f>D67/I67</f>
+        <f t="shared" si="10"/>
         <v>1.340830508410807</v>
       </c>
       <c r="K67">
         <v>268.613</v>
       </c>
       <c r="L67" s="1">
-        <f>D67/K67</f>
+        <f t="shared" si="11"/>
         <v>1.326734000215924</v>
       </c>
       <c r="M67">
         <v>267.31</v>
       </c>
       <c r="N67" s="1">
-        <f>D67/M67</f>
+        <f t="shared" si="12"/>
         <v>1.3332011522202685</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O67">
+        <v>393.334</v>
+      </c>
+      <c r="P67" s="1">
+        <f t="shared" si="13"/>
+        <v>0.90604422704368293</v>
+      </c>
+      <c r="Q67">
+        <v>422.44200000000001</v>
+      </c>
+      <c r="R67" s="1">
+        <f t="shared" si="14"/>
+        <v>0.84361403458936368</v>
+      </c>
+      <c r="S67" s="1">
+        <f t="shared" ref="S67:S71" si="16">O67/Q67</f>
+        <v>0.9310958664147978</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>92</v>
       </c>
@@ -5106,7 +6835,7 @@
         <v>185.452</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>1.1464637749929902</v>
       </c>
       <c r="H68">
@@ -5116,25 +6845,43 @@
         <v>158.96199999999999</v>
       </c>
       <c r="J68" s="1">
-        <f>D68/I68</f>
+        <f t="shared" si="10"/>
         <v>1.3375146261370643</v>
       </c>
       <c r="K68">
         <v>160.16300000000001</v>
       </c>
       <c r="L68" s="1">
-        <f>D68/K68</f>
+        <f t="shared" si="11"/>
         <v>1.3274851245293857</v>
       </c>
       <c r="M68">
         <v>160.17500000000001</v>
       </c>
       <c r="N68" s="1">
-        <f>D68/M68</f>
+        <f t="shared" si="12"/>
         <v>1.3273856719213359</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O68">
+        <v>224.852</v>
+      </c>
+      <c r="P68" s="1">
+        <f t="shared" si="13"/>
+        <v>0.94557308807571205</v>
+      </c>
+      <c r="Q68">
+        <v>251.428</v>
+      </c>
+      <c r="R68" s="1">
+        <f t="shared" si="14"/>
+        <v>0.84562578551314893</v>
+      </c>
+      <c r="S68" s="1">
+        <f t="shared" si="16"/>
+        <v>0.89429975977218135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>93</v>
       </c>
@@ -5154,7 +6901,7 @@
         <v>185.98</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>1.1622970211850736</v>
       </c>
       <c r="H69">
@@ -5164,25 +6911,43 @@
         <v>163.72999999999999</v>
       </c>
       <c r="J69" s="1">
-        <f>D69/I69</f>
+        <f t="shared" si="10"/>
         <v>1.3202467476943749</v>
       </c>
       <c r="K69">
         <v>163.78700000000001</v>
       </c>
       <c r="L69" s="1">
-        <f>D69/K69</f>
+        <f t="shared" si="11"/>
         <v>1.3197872847051353</v>
       </c>
       <c r="M69">
         <v>163.88800000000001</v>
       </c>
       <c r="N69" s="1">
-        <f>D69/M69</f>
+        <f t="shared" si="12"/>
         <v>1.3189739334179438</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O69">
+        <v>231.535</v>
+      </c>
+      <c r="P69" s="1">
+        <f t="shared" si="13"/>
+        <v>0.93361262876023055</v>
+      </c>
+      <c r="Q69">
+        <v>251.06299999999999</v>
+      </c>
+      <c r="R69" s="1">
+        <f t="shared" si="14"/>
+        <v>0.86099504905143331</v>
+      </c>
+      <c r="S69" s="1">
+        <f t="shared" si="16"/>
+        <v>0.92221872597714516</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -5202,7 +6967,7 @@
         <v>63.889400000000002</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>1.2403105992543364</v>
       </c>
       <c r="H70">
@@ -5212,25 +6977,43 @@
         <v>54.251800000000003</v>
       </c>
       <c r="J70" s="1">
-        <f>D70/I70</f>
+        <f t="shared" si="10"/>
         <v>1.4606464670296653</v>
       </c>
       <c r="K70">
         <v>54.655799999999999</v>
       </c>
       <c r="L70" s="1">
-        <f>D70/K70</f>
+        <f t="shared" si="11"/>
         <v>1.4498497872137999</v>
       </c>
       <c r="M70">
         <v>53.570500000000003</v>
       </c>
       <c r="N70" s="1">
-        <f>D70/M70</f>
+        <f t="shared" si="12"/>
         <v>1.479222706526913</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O70">
+        <v>80.158900000000003</v>
+      </c>
+      <c r="P70" s="1">
+        <f t="shared" si="13"/>
+        <v>0.9885702024354126</v>
+      </c>
+      <c r="Q70">
+        <v>78.061999999999998</v>
+      </c>
+      <c r="R70" s="1">
+        <f t="shared" si="14"/>
+        <v>1.0151251569265456</v>
+      </c>
+      <c r="S70" s="1">
+        <f t="shared" si="16"/>
+        <v>1.0268619815018831</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>95</v>
       </c>
@@ -5250,7 +7033,7 @@
         <v>143.40299999999999</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>1.1663563523775653</v>
       </c>
       <c r="H71">
@@ -5260,50 +7043,84 @@
         <v>119.6</v>
       </c>
       <c r="J71" s="1">
-        <f>D71/I71</f>
+        <f t="shared" si="10"/>
         <v>1.3984866220735785</v>
       </c>
       <c r="K71">
         <v>120.328</v>
       </c>
       <c r="L71" s="1">
-        <f>D71/K71</f>
+        <f t="shared" si="11"/>
         <v>1.3900255967023467</v>
       </c>
       <c r="M71">
         <v>118.999</v>
       </c>
       <c r="N71" s="1">
-        <f>D71/M71</f>
+        <f t="shared" si="12"/>
         <v>1.4055496264674492</v>
+      </c>
+      <c r="O71">
+        <v>183.13399999999999</v>
+      </c>
+      <c r="P71" s="1">
+        <f t="shared" si="13"/>
+        <v>0.91331484049930656</v>
+      </c>
+      <c r="Q71">
+        <v>173.16300000000001</v>
+      </c>
+      <c r="R71" s="1">
+        <f t="shared" si="14"/>
+        <v>0.96590495660158338</v>
+      </c>
+      <c r="S71" s="1">
+        <f t="shared" si="16"/>
+        <v>1.0575815849806249</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J71">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="24" operator="greaterThan">
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G71">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="23" operator="greaterThan">
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L71">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="22" operator="greaterThan">
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+      <formula>1.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N71">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>1.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P71">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
@@ -5311,7 +7128,7 @@
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N71">
+  <conditionalFormatting sqref="R2:R71">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>

--- a/results/srlpi-ARM.xlsx
+++ b/results/srlpi-ARM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="440" windowWidth="31500" windowHeight="28360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5600" yWindow="440" windowWidth="38640" windowHeight="28360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GPCE matrices" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="111">
   <si>
     <t>email-EuAll</t>
   </si>
@@ -345,19 +345,22 @@
     <t>CSRbyNZ-f8dad7</t>
   </si>
   <si>
-    <t>genOSKI44-3d82ca</t>
-  </si>
-  <si>
     <t>genOSKI44 speedup</t>
   </si>
   <si>
-    <t>genOSKI55-3d82ca</t>
-  </si>
-  <si>
     <t>genOSKI55 speedup</t>
   </si>
   <si>
-    <t>genOSKI44/genOSKI55</t>
+    <t>genOSKI33 speedup</t>
+  </si>
+  <si>
+    <t>genOSKI55-13be3f</t>
+  </si>
+  <si>
+    <t>genOSKI44-13be3f</t>
+  </si>
+  <si>
+    <t>genOSKI33-13be3f</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,367 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="74">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1078,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1090,7 +1453,7 @@
     <col min="3" max="3" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1122,22 +1485,25 @@
         <v>97</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1171,25 +1537,28 @@
         <v>0.67426141299491216</v>
       </c>
       <c r="K2">
-        <v>74893.600000000006</v>
+        <v>68388.899999999994</v>
       </c>
       <c r="L2" s="1">
         <f>$D2/K2</f>
-        <v>0.6145585203542091</v>
+        <v>0.67301126352375906</v>
       </c>
       <c r="M2">
-        <v>76622</v>
+        <v>75140.100000000006</v>
       </c>
       <c r="N2" s="1">
         <f>$D2/M2</f>
-        <v>0.60069562266711907</v>
-      </c>
-      <c r="O2" s="1">
-        <f>K2/M2</f>
-        <v>0.97744250998407778</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.61254243739361536</v>
+      </c>
+      <c r="O2">
+        <v>77622.399999999994</v>
+      </c>
+      <c r="P2" s="1">
+        <f>$D2/O2</f>
+        <v>0.59295383806736202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1223,25 +1592,28 @@
         <v>0.74325862489498362</v>
       </c>
       <c r="K3">
-        <v>49895.6</v>
+        <v>46022.1</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:N24" si="2">$D3/K3</f>
-        <v>0.54965768524679537</v>
+        <f>$D3/K3</f>
+        <v>0.59592022093733232</v>
       </c>
       <c r="M3">
-        <v>51175.1</v>
+        <v>50618.1</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5359149273767907</v>
-      </c>
-      <c r="O3" s="1">
-        <f t="shared" ref="O3:O24" si="3">K3/M3</f>
-        <v>0.9749976062577308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="N3:N24" si="2">$D3/M3</f>
+        <v>0.54181211858999057</v>
+      </c>
+      <c r="O3">
+        <v>51611.9</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P24" si="3">$D3/O3</f>
+        <v>0.53137939118691613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1275,25 +1647,28 @@
         <v>0.83929096757703059</v>
       </c>
       <c r="K4">
-        <v>57132</v>
+        <v>54192.6</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="2"/>
-        <v>0.60921900161030595</v>
+        <f>$D4/K4</f>
+        <v>0.64226296579237763</v>
       </c>
       <c r="M4">
-        <v>56957.3</v>
+        <v>57310</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="2"/>
-        <v>0.6110876042228125</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" si="3"/>
-        <v>1.003067209997665</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.60732681905426633</v>
+      </c>
+      <c r="O4">
+        <v>57400.800000000003</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.60636611336427371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1327,25 +1702,28 @@
         <v>0.88078679934195581</v>
       </c>
       <c r="K5">
-        <v>63656.800000000003</v>
+        <v>61647.7</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="2"/>
-        <v>0.64005259453821106</v>
+        <f>$D5/K5</f>
+        <v>0.66091192372140406</v>
       </c>
       <c r="M5">
-        <v>63644.4</v>
+        <v>64155.8</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="2"/>
-        <v>0.64017729760984465</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="3"/>
-        <v>1.000194832538291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.63507430349243554</v>
+      </c>
+      <c r="O5">
+        <v>64014.8</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.63647312808912937</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1379,25 +1757,28 @@
         <v>0.8715113572199823</v>
       </c>
       <c r="K6">
-        <v>105221</v>
+        <v>105891</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.83612776917155318</v>
+        <f>$D6/K6</f>
+        <v>0.83083737050363105</v>
       </c>
       <c r="M6">
-        <v>101270</v>
+        <v>105934</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="2"/>
-        <v>0.86874888910832426</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="3"/>
-        <v>1.0390145156512294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.83050012271791873</v>
+      </c>
+      <c r="O6">
+        <v>101874</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.86359817028878805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1431,25 +1812,28 @@
         <v>0.70247448441480476</v>
       </c>
       <c r="K7">
-        <v>251649</v>
+        <v>252026</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="2"/>
-        <v>0.86018223795842619</v>
+        <f>$D7/K7</f>
+        <v>0.85889551078063375</v>
       </c>
       <c r="M7">
-        <v>243451</v>
+        <v>250291</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="2"/>
-        <v>0.88914812426319878</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="3"/>
-        <v>1.0336741274424832</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.86484931539687804</v>
+      </c>
+      <c r="O7">
+        <v>243271</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.88980601880207666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1483,25 +1867,28 @@
         <v>1.374703840943255</v>
       </c>
       <c r="K8">
-        <v>21608.799999999999</v>
+        <v>23339.5</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0284004664766206</v>
+        <f>$D8/K8</f>
+        <v>0.95214121982047606</v>
       </c>
       <c r="M8">
-        <v>21848.1</v>
+        <v>21696.2</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="2"/>
-        <v>1.0171365015722191</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="3"/>
-        <v>0.98904710249403838</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.0242577041140846</v>
+      </c>
+      <c r="O8">
+        <v>22159.9</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0028249224951375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1535,25 +1922,28 @@
         <v>1.4763105523305597</v>
       </c>
       <c r="K9">
-        <v>35433.199999999997</v>
+        <v>42938</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="2"/>
-        <v>0.70553605093528116</v>
+        <f>$D9/K9</f>
+        <v>0.58222087661279054</v>
       </c>
       <c r="M9">
-        <v>37831</v>
+        <v>35903.199999999997</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="2"/>
-        <v>0.66081784779678043</v>
-      </c>
-      <c r="O9" s="1">
-        <f t="shared" si="3"/>
-        <v>0.93661811741693313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.69630005124891381</v>
+      </c>
+      <c r="O9">
+        <v>37734.199999999997</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.66251305182036468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1587,25 +1977,28 @@
         <v>0.93397290838673697</v>
       </c>
       <c r="K10">
-        <v>27167.7</v>
+        <v>29747.5</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0847035266143252</v>
+        <f>$D10/K10</f>
+        <v>0.99063450710143719</v>
       </c>
       <c r="M10">
-        <v>26171</v>
+        <v>26802.799999999999</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="2"/>
-        <v>1.1260135264223761</v>
-      </c>
-      <c r="O10" s="1">
-        <f t="shared" si="3"/>
-        <v>1.038084138932406</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.0994709507961855</v>
+      </c>
+      <c r="O10">
+        <v>26161.5</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1264224146168988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1639,25 +2032,28 @@
         <v>0.72288518858017015</v>
       </c>
       <c r="K11">
-        <v>142512</v>
+        <v>130892</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="2"/>
-        <v>0.41779499270236892</v>
+        <f>$D11/K11</f>
+        <v>0.45488494331204354</v>
       </c>
       <c r="M11">
-        <v>136678</v>
+        <v>143608</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="2"/>
-        <v>0.4356282649731486</v>
-      </c>
-      <c r="O11" s="1">
-        <f t="shared" si="3"/>
-        <v>1.0426842652072754</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.41460642861121944</v>
+      </c>
+      <c r="O11">
+        <v>136819</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.43517932450902291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1691,25 +2087,28 @@
         <v>1.8421677095613795</v>
       </c>
       <c r="K12">
-        <v>60593.8</v>
+        <v>62398.5</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="2"/>
-        <v>0.80458066666886707</v>
+        <f>$D12/K12</f>
+        <v>0.78131044816782458</v>
       </c>
       <c r="M12">
-        <v>53916.5</v>
+        <v>60651.199999999997</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="2"/>
-        <v>0.90422412434041521</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" si="3"/>
-        <v>1.1238452050856418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.80381921544833412</v>
+      </c>
+      <c r="O12">
+        <v>54230.1</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.89899520745858852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1743,25 +2142,28 @@
         <v>1.3363922789302864</v>
       </c>
       <c r="K13">
-        <v>39185.199999999997</v>
+        <v>35991.199999999997</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="2"/>
-        <v>1.078118779539214</v>
+        <f>$D13/K13</f>
+        <v>1.1737952610638158</v>
       </c>
       <c r="M13">
-        <v>39381.1</v>
+        <v>39177.800000000003</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="2"/>
-        <v>1.0727557127657685</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" si="3"/>
-        <v>0.99502553255241721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.0783224172873414</v>
+      </c>
+      <c r="O13">
+        <v>39437.199999999997</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="3"/>
+        <v>1.071229701905815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1795,25 +2197,28 @@
         <v>1.1902731043769699</v>
       </c>
       <c r="K14">
-        <v>111516</v>
+        <v>112426</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="2"/>
-        <v>0.64044262706696797</v>
+        <f>$D14/K14</f>
+        <v>0.63525874797644677</v>
       </c>
       <c r="M14">
-        <v>108590</v>
+        <v>111658</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="2"/>
-        <v>0.65769960401510275</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" si="3"/>
-        <v>1.0269453909199742</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.6396281502444966</v>
+      </c>
+      <c r="O14">
+        <v>109609</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.65158518004908361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1847,25 +2252,28 @@
         <v>0.76143647286103688</v>
       </c>
       <c r="K15">
-        <v>254601</v>
+        <v>211213</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="2"/>
-        <v>0.56504884112788245</v>
+        <f>$D15/K15</f>
+        <v>0.68112284755199726</v>
       </c>
       <c r="M15">
-        <v>257611</v>
+        <v>256305</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="2"/>
-        <v>0.55844665018186335</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="3"/>
-        <v>0.98831571633198889</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.56129221045239075</v>
+      </c>
+      <c r="O15">
+        <v>258896</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.55567486558309132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1899,25 +2307,28 @@
         <v>1.2219565472260445</v>
       </c>
       <c r="K16">
-        <v>92853.9</v>
+        <v>92331.3</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="2"/>
-        <v>0.85308856170823211</v>
+        <f>$D16/K16</f>
+        <v>0.85791708770481956</v>
       </c>
       <c r="M16">
-        <v>80561.600000000006</v>
+        <v>93967.4</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="2"/>
-        <v>0.98325504955214393</v>
-      </c>
-      <c r="O16" s="1">
-        <f t="shared" si="3"/>
-        <v>1.1525826200075469</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.84297958653745886</v>
+      </c>
+      <c r="O16">
+        <v>80680</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="3"/>
+        <v>0.98181209717402085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1951,25 +2362,28 @@
         <v>1.1100995756504379</v>
       </c>
       <c r="K17">
-        <v>83692.399999999994</v>
+        <v>47395.4</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="2"/>
-        <v>0.9461599858529568</v>
+        <f>$D17/K17</f>
+        <v>1.6707612975098847</v>
       </c>
       <c r="M17">
-        <v>104890</v>
+        <v>84072</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="2"/>
-        <v>0.75494708742492134</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" si="3"/>
-        <v>0.79790637811040133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.94188790560471969</v>
+      </c>
+      <c r="O17">
+        <v>105739</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.74888546326331806</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2003,25 +2417,28 @@
         <v>0.81732338135740323</v>
       </c>
       <c r="K18">
-        <v>172987</v>
+        <v>116989</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="2"/>
-        <v>0.48994895570187358</v>
+        <f>$D18/K18</f>
+        <v>0.72446811238663467</v>
       </c>
       <c r="M18">
-        <v>149339</v>
+        <v>173284</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" si="2"/>
-        <v>0.56753292843798342</v>
-      </c>
-      <c r="O18" s="1">
-        <f t="shared" si="3"/>
-        <v>1.1583511339971475</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.4891092080053554</v>
+      </c>
+      <c r="O18">
+        <v>148861</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.5693553046130283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2055,25 +2472,28 @@
         <v>0.74178507502265045</v>
       </c>
       <c r="K19">
-        <v>166153</v>
+        <v>201137</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="2"/>
-        <v>0.60609197546839355</v>
+        <f>$D19/K19</f>
+        <v>0.50067367018499831</v>
       </c>
       <c r="M19">
-        <v>213676</v>
+        <v>165370</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="2"/>
-        <v>0.47129298564181282</v>
-      </c>
-      <c r="O19" s="1">
-        <f t="shared" si="3"/>
-        <v>0.7775931784571033</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.60896172219870592</v>
+      </c>
+      <c r="O19">
+        <v>211644</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.47581788285989679</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2107,25 +2527,28 @@
         <v>0.61812951933805738</v>
       </c>
       <c r="K20">
-        <v>192747</v>
+        <v>224453</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="2"/>
-        <v>0.88523297379466348</v>
+        <f>$D20/K20</f>
+        <v>0.7601858741028189</v>
       </c>
       <c r="M20">
-        <v>207969</v>
+        <v>192681</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="2"/>
-        <v>0.82043958474580347</v>
-      </c>
-      <c r="O20" s="1">
-        <f t="shared" si="3"/>
-        <v>0.92680639903062478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.88553619713412324</v>
+      </c>
+      <c r="O20">
+        <v>206995</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.82430010386724317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2159,25 +2582,28 @@
         <v>1.5040239666402351</v>
       </c>
       <c r="K21">
-        <v>170544</v>
+        <v>151205</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="2"/>
-        <v>0.7218078619007412</v>
+        <f>$D21/K21</f>
+        <v>0.81412651698025862</v>
       </c>
       <c r="M21">
-        <v>173876</v>
+        <v>171519</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="2"/>
-        <v>0.70797579884515405</v>
-      </c>
-      <c r="O21" s="1">
-        <f t="shared" si="3"/>
-        <v>0.9808369182635901</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.71770474408083074</v>
+      </c>
+      <c r="O21">
+        <v>174743</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.70446312584767345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2211,25 +2637,28 @@
         <v>1.1684445984609746</v>
       </c>
       <c r="K22">
-        <v>127821</v>
+        <v>113364</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="2"/>
-        <v>0.73069448682141436</v>
+        <f>$D22/K22</f>
+        <v>0.82387795067217107</v>
       </c>
       <c r="M22">
-        <v>106664</v>
+        <v>127592</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="2"/>
-        <v>0.87562907822695568</v>
-      </c>
-      <c r="O22" s="1">
-        <f t="shared" si="3"/>
-        <v>1.198351833795845</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.73200592513637219</v>
+      </c>
+      <c r="O22">
+        <v>105690</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="3"/>
+        <v>0.88369855237013917</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2263,25 +2692,28 @@
         <v>0.88880990598486587</v>
       </c>
       <c r="K23">
-        <v>168768</v>
+        <v>87046.2</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="2"/>
-        <v>0.68901094994311718</v>
+        <f>$D23/K23</f>
+        <v>1.3358768102455938</v>
       </c>
       <c r="M23">
-        <v>153825</v>
+        <v>169297</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" si="2"/>
-        <v>0.75594344222330567</v>
-      </c>
-      <c r="O23" s="1">
-        <f t="shared" si="3"/>
-        <v>1.0971428571428572</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.68685800693455878</v>
+      </c>
+      <c r="O23">
+        <v>154510</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="3"/>
+        <v>0.75259206523849587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2315,70 +2747,89 @@
         <v>0.73483778918196152</v>
       </c>
       <c r="K24">
-        <v>198387</v>
+        <v>315869</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="2"/>
-        <v>0.99171820734221494</v>
+        <f>$D24/K24</f>
+        <v>0.62286580829394467</v>
       </c>
       <c r="M24">
-        <v>316329</v>
+        <v>199435</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="2"/>
-        <v>0.62196004792478721</v>
-      </c>
-      <c r="O24" s="1">
-        <f t="shared" si="3"/>
-        <v>0.627154007378394</v>
+        <v>0.98650688194148473</v>
+      </c>
+      <c r="O24">
+        <v>314507</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="3"/>
+        <v>0.62556318301341463</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G24">
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="26" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="28" operator="greaterThan">
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J24">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="25" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="27" operator="greaterThan">
+      <formula>1.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2">
+    <cfRule type="cellIs" dxfId="37" priority="11" operator="lessThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="12" operator="greaterThan">
+      <formula>1.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N24">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="lessThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="greaterThan">
+      <formula>1.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="lessThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="greaterThan">
+      <formula>1.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P24">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="lessThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="greaterThan">
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="greaterThan">
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L24">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="greaterThan">
-      <formula>1.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
-      <formula>0.95</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="greaterThan">
-      <formula>1.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N24">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
-      <formula>0.95</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2388,10 +2839,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2400,7 +2851,7 @@
     <col min="3" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -2444,22 +2895,25 @@
         <v>97</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2507,25 +2961,28 @@
         <v>1.2934916550833506</v>
       </c>
       <c r="O2">
-        <v>366.19099999999997</v>
+        <v>360.37</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P65" si="2">$D2/O2</f>
-        <v>0.71662329221635712</v>
+        <v>0.72819879568221546</v>
       </c>
       <c r="Q2">
-        <v>336.40600000000001</v>
+        <v>363.17899999999997</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R65" si="3">$D2/Q2</f>
-        <v>0.78007229359761709</v>
-      </c>
-      <c r="S2" s="1">
-        <f>O2/Q2</f>
-        <v>1.0885388488909233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.72256655808843573</v>
+      </c>
+      <c r="S2">
+        <v>332.15100000000001</v>
+      </c>
+      <c r="T2" s="1">
+        <f t="shared" ref="T2:T65" si="4">$D2/S2</f>
+        <v>0.79006536183844089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2545,7 +3002,7 @@
         <v>425.80500000000001</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G66" si="4">D3/F3</f>
+        <f t="shared" ref="G3:G66" si="5">D3/F3</f>
         <v>1.0484047862284378</v>
       </c>
       <c r="H3">
@@ -2569,29 +3026,32 @@
         <v>894.21600000000001</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N33" si="5">D3/M3</f>
+        <f t="shared" ref="N3:N33" si="6">D3/M3</f>
         <v>0.49922613775642571</v>
       </c>
       <c r="O3">
-        <v>472.37200000000001</v>
+        <v>581.60299999999995</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="2"/>
-        <v>0.94505178122327316</v>
+        <v>0.76756137777831279</v>
       </c>
       <c r="Q3">
-        <v>496.78199999999998</v>
+        <v>461.90600000000001</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="3"/>
-        <v>0.89861548928906443</v>
-      </c>
-      <c r="S3" s="1">
-        <f t="shared" ref="S3:S66" si="6">O3/Q3</f>
-        <v>0.95086375915391463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.96646503834113429</v>
+      </c>
+      <c r="S3">
+        <v>492.928</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" si="4"/>
+        <v>0.90564139184627368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2611,7 +3071,7 @@
         <v>244.63300000000001</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.114342709282885</v>
       </c>
       <c r="H4">
@@ -2635,29 +3095,32 @@
         <v>336.99</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8089409181281344</v>
       </c>
       <c r="O4">
-        <v>402.93400000000003</v>
+        <v>413.77100000000002</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="2"/>
-        <v>0.67655000570813084</v>
+        <v>0.65883060920170822</v>
       </c>
       <c r="Q4">
-        <v>399.178</v>
+        <v>403.75299999999999</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="3"/>
-        <v>0.68291589215838555</v>
-      </c>
-      <c r="S4" s="1">
-        <f t="shared" si="6"/>
-        <v>1.009409336185862</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.6751776457388553</v>
+      </c>
+      <c r="S4">
+        <v>393.84899999999999</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="4"/>
+        <v>0.69215613090296035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2677,7 +3140,7 @@
         <v>369.91899999999998</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3101030225535861</v>
       </c>
       <c r="H5">
@@ -2701,29 +3164,32 @@
         <v>855.79399999999998</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.56629515981649792</v>
       </c>
       <c r="O5">
-        <v>568.38499999999999</v>
+        <v>575.43899999999996</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="2"/>
-        <v>0.85264741328500926</v>
+        <v>0.8421952630947851</v>
       </c>
       <c r="Q5">
-        <v>572.72199999999998</v>
+        <v>549.14300000000003</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="3"/>
-        <v>0.84619064746945294</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" si="6"/>
-        <v>0.99242739060137386</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.88252422410920284</v>
+      </c>
+      <c r="S5">
+        <v>552.25900000000001</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="4"/>
+        <v>0.87754477518700469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2743,7 +3209,7 @@
         <v>225.536</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1567199914869466</v>
       </c>
       <c r="H6">
@@ -2767,29 +3233,32 @@
         <v>190.203</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3715977140213351</v>
       </c>
       <c r="O6">
-        <v>292.01</v>
+        <v>306.39699999999999</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="2"/>
-        <v>0.89340091092770801</v>
+        <v>0.85145089540693941</v>
       </c>
       <c r="Q6">
-        <v>291.63400000000001</v>
+        <v>293.416</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="3"/>
-        <v>0.89455276133784123</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0012892872573156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.88911988439621559</v>
+      </c>
+      <c r="S6">
+        <v>285.40300000000002</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.91408289331226367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2809,7 +3278,7 @@
         <v>75.054599999999994</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2731198354264763</v>
       </c>
       <c r="H7">
@@ -2833,29 +3302,32 @@
         <v>66.491500000000002</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4370784235578984</v>
       </c>
       <c r="O7">
-        <v>85.746499999999997</v>
+        <v>90.076999999999998</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="2"/>
-        <v>1.1143720151842933</v>
+        <v>1.0607979839470676</v>
       </c>
       <c r="Q7">
-        <v>84.471100000000007</v>
+        <v>83.875600000000006</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="3"/>
-        <v>1.1311975338310971</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0150986550429673</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.1392288102857087</v>
+      </c>
+      <c r="S7">
+        <v>83.121399999999994</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1495655751707743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2875,7 +3347,7 @@
         <v>85.399799999999999</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2688203016868893</v>
       </c>
       <c r="H8">
@@ -2899,29 +3371,32 @@
         <v>76.501300000000001</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4164073028824347</v>
       </c>
       <c r="O8">
-        <v>99.635000000000005</v>
+        <v>101.962</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="2"/>
-        <v>1.0875395192452451</v>
+        <v>1.062719444498931</v>
       </c>
       <c r="Q8">
-        <v>98.289500000000004</v>
+        <v>97.900199999999998</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="3"/>
-        <v>1.1024270140757659</v>
-      </c>
-      <c r="S8" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0136891529614049</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.1068108134610553</v>
+      </c>
+      <c r="S8">
+        <v>95.850800000000007</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1304756976467591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -2941,7 +3416,7 @@
         <v>57.686999999999998</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.17963492641323</v>
       </c>
       <c r="H9">
@@ -2965,29 +3440,32 @@
         <v>48.4694</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4039703400495982</v>
       </c>
       <c r="O9">
-        <v>62.250500000000002</v>
+        <v>61.493600000000001</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="2"/>
-        <v>1.0931574846788379</v>
+        <v>1.1066127206733709</v>
       </c>
       <c r="Q9">
-        <v>58.852800000000002</v>
+        <v>60.606999999999999</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="3"/>
-        <v>1.1562678411222576</v>
-      </c>
-      <c r="S9" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0577321724709785</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.1228009965845529</v>
+      </c>
+      <c r="S9">
+        <v>57.479199999999999</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1838995671477683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -3007,7 +3485,7 @@
         <v>553.274</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.91410765732711097</v>
       </c>
       <c r="H10">
@@ -3031,29 +3509,32 @@
         <v>932.53399999999999</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.54234161971574224</v>
       </c>
       <c r="O10">
-        <v>542.64400000000001</v>
+        <v>503.5</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="2"/>
-        <v>0.93201435932213383</v>
+        <v>1.0044726911618669</v>
       </c>
       <c r="Q10">
-        <v>672.072</v>
+        <v>511.04700000000003</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="3"/>
-        <v>0.75252651501624823</v>
-      </c>
-      <c r="S10" s="1">
-        <f t="shared" si="6"/>
-        <v>0.80741944315490011</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.98963891775120483</v>
+      </c>
+      <c r="S10">
+        <v>711.18499999999995</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="4"/>
+        <v>0.71113985812411684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -3073,7 +3554,7 @@
         <v>63.917999999999999</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2003801745987046</v>
       </c>
       <c r="H11">
@@ -3097,29 +3578,32 @@
         <v>53.895400000000002</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4236075806098478</v>
       </c>
       <c r="O11">
-        <v>62.732799999999997</v>
+        <v>65.664000000000001</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="2"/>
-        <v>1.22305875076515</v>
+        <v>1.1684621710526315</v>
       </c>
       <c r="Q11">
-        <v>59.226100000000002</v>
+        <v>60.511499999999998</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="3"/>
-        <v>1.2954744614283229</v>
-      </c>
-      <c r="S11" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0592086934645366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.2679556778463597</v>
+      </c>
+      <c r="S11">
+        <v>58.731000000000002</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3063952597435766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -3139,7 +3623,7 @@
         <v>262.58199999999999</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0948160955434874</v>
       </c>
       <c r="H12">
@@ -3163,29 +3647,32 @@
         <v>261.803</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0980737424704834</v>
       </c>
       <c r="O12">
-        <v>283.59100000000001</v>
+        <v>322.89</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="2"/>
-        <v>1.0137098850104551</v>
+        <v>0.89033107250147103</v>
       </c>
       <c r="Q12">
-        <v>282.36799999999999</v>
+        <v>281.21199999999999</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="3"/>
-        <v>1.0181004929737081</v>
-      </c>
-      <c r="S12" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0043312273345422</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.0222856777093439</v>
+      </c>
+      <c r="S12">
+        <v>284.702</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0097540586297251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -3205,7 +3692,7 @@
         <v>50.831899999999997</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1764541557565231</v>
       </c>
       <c r="H13">
@@ -3229,29 +3716,32 @@
         <v>41.516500000000001</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4404248913082751</v>
       </c>
       <c r="O13">
-        <v>74.029399999999995</v>
+        <v>81.177499999999995</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="2"/>
-        <v>0.80780608785158337</v>
+        <v>0.73667457115580059</v>
       </c>
       <c r="Q13">
-        <v>68.377200000000002</v>
+        <v>72.509</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" si="3"/>
-        <v>0.87458100068443867</v>
-      </c>
-      <c r="S13" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0826620569429575</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.82474451447406527</v>
+      </c>
+      <c r="S13">
+        <v>67.372200000000007</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="4"/>
+        <v>0.88762724090945522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -3271,7 +3761,7 @@
         <v>155.31</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1757774773034577</v>
       </c>
       <c r="H14">
@@ -3295,29 +3785,32 @@
         <v>135.56200000000001</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3470589103140997</v>
       </c>
       <c r="O14">
-        <v>181.715</v>
+        <v>193.63200000000001</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="2"/>
-        <v>1.0049252951049721</v>
+        <v>0.94307759048091233</v>
       </c>
       <c r="Q14">
-        <v>172.83799999999999</v>
+        <v>179.61</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="3"/>
-        <v>1.0565384926925794</v>
-      </c>
-      <c r="S14" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0513602332820329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.0167028561884082</v>
+      </c>
+      <c r="S14">
+        <v>170.46100000000001</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0712714345216794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -3337,7 +3830,7 @@
         <v>78.183400000000006</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1947587339511967</v>
       </c>
       <c r="H15">
@@ -3361,29 +3854,32 @@
         <v>63.815199999999997</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4637625518685204</v>
       </c>
       <c r="O15">
-        <v>129.15199999999999</v>
+        <v>130.90799999999999</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="2"/>
-        <v>0.72325864098116965</v>
+        <v>0.71355684908485362</v>
       </c>
       <c r="Q15">
-        <v>130.476</v>
+        <v>123.462</v>
       </c>
       <c r="R15" s="1">
         <f t="shared" si="3"/>
-        <v>0.71591940280204791</v>
-      </c>
-      <c r="S15" s="1">
-        <f t="shared" si="6"/>
-        <v>0.98985253993071509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.75659150183862245</v>
+      </c>
+      <c r="S15">
+        <v>125.447</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.74461964016676374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -3403,7 +3899,7 @@
         <v>157.31800000000001</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1943769943680951</v>
       </c>
       <c r="H16">
@@ -3427,29 +3923,32 @@
         <v>137.386</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3676575488040994</v>
       </c>
       <c r="O16">
-        <v>183.11099999999999</v>
+        <v>202.018</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" si="2"/>
-        <v>1.0261371517822524</v>
+        <v>0.93010028809314016</v>
       </c>
       <c r="Q16">
-        <v>188.964</v>
+        <v>180.49100000000001</v>
       </c>
       <c r="R16" s="1">
         <f t="shared" si="3"/>
-        <v>0.99435342181579556</v>
-      </c>
-      <c r="S16" s="1">
-        <f t="shared" si="6"/>
-        <v>0.96902584619292564</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.041032516856796</v>
+      </c>
+      <c r="S16">
+        <v>186.024</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0100685932997893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -3469,7 +3968,7 @@
         <v>347.738</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2255865047823362</v>
       </c>
       <c r="H17">
@@ -3493,29 +3992,32 @@
         <v>533.899</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.79824648482203564</v>
       </c>
       <c r="O17">
-        <v>613.07100000000003</v>
+        <v>584.74</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="2"/>
-        <v>0.69516091937149205</v>
+        <v>0.72884187844170056</v>
       </c>
       <c r="Q17">
-        <v>608.529</v>
+        <v>604.99900000000002</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" si="3"/>
-        <v>0.70034953141099276</v>
-      </c>
-      <c r="S17" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0074639006522286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.70443587510062</v>
+      </c>
+      <c r="S17">
+        <v>602.48800000000006</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.70737176508079824</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -3535,7 +4037,7 @@
         <v>109.956</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1634381025137328</v>
       </c>
       <c r="H18">
@@ -3559,29 +4061,32 @@
         <v>89.261499999999998</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4331710759958101</v>
       </c>
       <c r="O18">
-        <v>147.71100000000001</v>
+        <v>154.667</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" si="2"/>
-        <v>0.86606278476213683</v>
+        <v>0.82711244156801389</v>
       </c>
       <c r="Q18">
-        <v>143.78100000000001</v>
+        <v>146.489</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" si="3"/>
-        <v>0.8897350832168367</v>
-      </c>
-      <c r="S18" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0273332359630272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.87328741407204635</v>
+      </c>
+      <c r="S18">
+        <v>140.10400000000001</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="4"/>
+        <v>0.91308599326214812</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -3601,7 +4106,7 @@
         <v>60.107100000000003</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1971098256279209</v>
       </c>
       <c r="H19">
@@ -3625,29 +4130,32 @@
         <v>50.359499999999997</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4288227643245071</v>
       </c>
       <c r="O19">
-        <v>75.430199999999999</v>
+        <v>80.447500000000005</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="2"/>
-        <v>0.95392561599995762</v>
+        <v>0.89443177227384318</v>
       </c>
       <c r="Q19">
-        <v>71.512799999999999</v>
+        <v>73.366500000000002</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" si="3"/>
-        <v>1.0061807117047579</v>
-      </c>
-      <c r="S19" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0547790045977783</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.98075824797421174</v>
+      </c>
+      <c r="S19">
+        <v>69.129599999999996</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0408681664583623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -3667,7 +4175,7 @@
         <v>513.12300000000005</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.9497410952149874</v>
       </c>
       <c r="H20">
@@ -3691,29 +4199,32 @@
         <v>448.22399999999999</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0872554794031557</v>
       </c>
       <c r="O20">
-        <v>519.23199999999997</v>
+        <v>567.86800000000005</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="2"/>
-        <v>0.93856696043387167</v>
+        <v>0.85818183098889167</v>
       </c>
       <c r="Q20">
-        <v>520.41399999999999</v>
+        <v>519.96799999999996</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" si="3"/>
-        <v>0.93643522272652158</v>
-      </c>
-      <c r="S20" s="1">
-        <f t="shared" si="6"/>
-        <v>0.99772873135618945</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.93723844544279655</v>
+      </c>
+      <c r="S20">
+        <v>527.61500000000001</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="4"/>
+        <v>0.92365455872179525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -3733,7 +4244,7 @@
         <v>76.774600000000007</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1801845923000573</v>
       </c>
       <c r="H21">
@@ -3757,29 +4268,32 @@
         <v>65.905500000000004</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3748200074348877</v>
       </c>
       <c r="O21">
-        <v>97.930999999999997</v>
+        <v>105.592</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="2"/>
-        <v>0.92522490324820539</v>
+        <v>0.85809720433366166</v>
       </c>
       <c r="Q21">
-        <v>91.090199999999996</v>
+        <v>96.3994</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" si="3"/>
-        <v>0.99470854164333811</v>
-      </c>
-      <c r="S21" s="1">
-        <f t="shared" si="6"/>
-        <v>1.075099187398864</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.93992493729214077</v>
+      </c>
+      <c r="S21">
+        <v>89.625799999999998</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0109611294961942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -3799,7 +4313,7 @@
         <v>59.753</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1856927685639214</v>
       </c>
       <c r="H22">
@@ -3823,29 +4337,32 @@
         <v>51.871400000000001</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3658528591863723</v>
       </c>
       <c r="O22">
-        <v>70.306100000000001</v>
+        <v>84.551299999999998</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="2"/>
-        <v>1.0077176802581851</v>
+        <v>0.83793744152958016</v>
       </c>
       <c r="Q22">
-        <v>68.88</v>
+        <v>69.407600000000002</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" si="3"/>
-        <v>1.0285815911730545</v>
-      </c>
-      <c r="S22" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0207041231126597</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.0207628559408479</v>
+      </c>
+      <c r="S22">
+        <v>68.035399999999996</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0413505322229311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -3865,7 +4382,7 @@
         <v>288.36599999999999</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0779391467787465</v>
       </c>
       <c r="H23">
@@ -3889,29 +4406,32 @@
         <v>322.267</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.96454492703255379</v>
       </c>
       <c r="O23">
-        <v>537.14400000000001</v>
+        <v>481.64299999999997</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" si="2"/>
-        <v>0.57869211980400037</v>
+        <v>0.64537634721152393</v>
       </c>
       <c r="Q23">
-        <v>696.32799999999997</v>
+        <v>484.23099999999999</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" si="3"/>
-        <v>0.44640025964775226</v>
-      </c>
-      <c r="S23" s="1">
-        <f t="shared" si="6"/>
-        <v>0.77139508967038528</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.6419270967781906</v>
+      </c>
+      <c r="S23">
+        <v>681.57799999999997</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="4"/>
+        <v>0.45606078834704172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -3931,7 +4451,7 @@
         <v>1873.95</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.055556444942501</v>
       </c>
       <c r="H24">
@@ -3955,29 +4475,32 @@
         <v>1042.74</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8969829487695877</v>
       </c>
       <c r="O24">
-        <v>1642.17</v>
+        <v>2338.04</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" si="2"/>
-        <v>1.204540333826583</v>
+        <v>0.84603342971035567</v>
       </c>
       <c r="Q24">
-        <v>1614.26</v>
+        <v>1651.54</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" si="3"/>
-        <v>1.2253664217660103</v>
-      </c>
-      <c r="S24" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0172896559414222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.1977063831333179</v>
+      </c>
+      <c r="S24">
+        <v>1704.77</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1603090152923854</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -3997,7 +4520,7 @@
         <v>170.98400000000001</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1743964347541289</v>
       </c>
       <c r="H25">
@@ -4021,29 +4544,32 @@
         <v>146.702</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3687816117026352</v>
       </c>
       <c r="O25">
-        <v>205.71799999999999</v>
+        <v>246.209</v>
       </c>
       <c r="P25" s="1">
         <f t="shared" si="2"/>
-        <v>0.97610807027095348</v>
+        <v>0.81557944673021698</v>
       </c>
       <c r="Q25">
-        <v>219.654</v>
+        <v>203.66900000000001</v>
       </c>
       <c r="R25" s="1">
         <f t="shared" si="3"/>
-        <v>0.91417866280604954</v>
-      </c>
-      <c r="S25" s="1">
-        <f t="shared" si="6"/>
-        <v>0.93655476340062094</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.98592814812268925</v>
+      </c>
+      <c r="S25">
+        <v>213.482</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="4"/>
+        <v>0.94060857589867064</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -4063,7 +4589,7 @@
         <v>99.6434</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1797570135101774</v>
       </c>
       <c r="H26">
@@ -4087,29 +4613,32 @@
         <v>85.268199999999993</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3786499539101331</v>
       </c>
       <c r="O26">
-        <v>113.95099999999999</v>
+        <v>122.074</v>
       </c>
       <c r="P26" s="1">
         <f t="shared" si="2"/>
-        <v>1.0316276294196629</v>
+        <v>0.96298147025574654</v>
       </c>
       <c r="Q26">
-        <v>108.48</v>
+        <v>112.11</v>
       </c>
       <c r="R26" s="1">
         <f t="shared" si="3"/>
-        <v>1.0836559734513274</v>
-      </c>
-      <c r="S26" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0504332595870205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.0485683703505486</v>
+      </c>
+      <c r="S26">
+        <v>105.032</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1192303298042503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -4129,7 +4658,7 @@
         <v>248.49</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1207171314741036</v>
       </c>
       <c r="H27">
@@ -4153,29 +4682,32 @@
         <v>213.49</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3044498571361658</v>
       </c>
       <c r="O27">
-        <v>300.10599999999999</v>
+        <v>322.49700000000001</v>
       </c>
       <c r="P27" s="1">
         <f t="shared" si="2"/>
-        <v>0.92796212005091538</v>
+        <v>0.86353361426617925</v>
       </c>
       <c r="Q27">
-        <v>292.536</v>
+        <v>296.42</v>
       </c>
       <c r="R27" s="1">
         <f t="shared" si="3"/>
-        <v>0.95197514152104368</v>
-      </c>
-      <c r="S27" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0258771569994805</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.93950138317252552</v>
+      </c>
+      <c r="S27">
+        <v>284.7</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="4"/>
+        <v>0.97817702845100118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -4195,7 +4727,7 @@
         <v>28.100899999999999</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3239647128739649</v>
       </c>
       <c r="H28">
@@ -4219,29 +4751,32 @@
         <v>25.866099999999999</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.438353675273814</v>
       </c>
       <c r="O28">
-        <v>37.252099999999999</v>
+        <v>38.871699999999997</v>
       </c>
       <c r="P28" s="1">
         <f t="shared" si="2"/>
-        <v>0.99872490409936621</v>
+        <v>0.95711275812480545</v>
       </c>
       <c r="Q28">
-        <v>35.541600000000003</v>
+        <v>37.578299999999999</v>
       </c>
       <c r="R28" s="1">
         <f t="shared" si="3"/>
-        <v>1.0467902401692664</v>
-      </c>
-      <c r="S28" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0481267022306253</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.9900554309268913</v>
+      </c>
+      <c r="S28">
+        <v>35.105899999999998</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0597819739701875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -4261,7 +4796,7 @@
         <v>75.457499999999996</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1045648212569992</v>
       </c>
       <c r="H29">
@@ -4285,29 +4820,32 @@
         <v>60.940300000000001</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3676942844062141</v>
       </c>
       <c r="O29">
-        <v>85.040400000000005</v>
+        <v>92.631100000000004</v>
       </c>
       <c r="P29" s="1">
         <f t="shared" si="2"/>
-        <v>0.9800953429193654</v>
+        <v>0.89978095909473166</v>
       </c>
       <c r="Q29">
-        <v>80.791300000000007</v>
+        <v>84.933400000000006</v>
       </c>
       <c r="R29" s="1">
         <f t="shared" si="3"/>
-        <v>1.031642020861157</v>
-      </c>
-      <c r="S29" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0525935342047967</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.98133007744891876</v>
+      </c>
+      <c r="S29">
+        <v>78.449399999999997</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0624389734019637</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -4327,7 +4865,7 @@
         <v>95.148799999999994</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1896524181072174</v>
       </c>
       <c r="H30">
@@ -4351,29 +4889,32 @@
         <v>76.536799999999999</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4789486887353536</v>
       </c>
       <c r="O30">
-        <v>157.006</v>
+        <v>158.14699999999999</v>
       </c>
       <c r="P30" s="1">
         <f t="shared" si="2"/>
-        <v>0.72095333936282691</v>
+        <v>0.71575180054000398</v>
       </c>
       <c r="Q30">
-        <v>154.102</v>
+        <v>151.80799999999999</v>
       </c>
       <c r="R30" s="1">
         <f t="shared" si="3"/>
-        <v>0.7345394608765623</v>
-      </c>
-      <c r="S30" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0188446613282112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.74563922849915687</v>
+      </c>
+      <c r="S30">
+        <v>149.726</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="4"/>
+        <v>0.75600764062353898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -4393,7 +4934,7 @@
         <v>143.10300000000001</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2421612405050908</v>
       </c>
       <c r="H31">
@@ -4417,29 +4958,32 @@
         <v>130.87299999999999</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4516898061479453</v>
       </c>
       <c r="O31">
-        <v>185.90700000000001</v>
+        <v>192.946</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="2"/>
-        <v>1.725916721801761</v>
+        <v>1.6629523286308088</v>
       </c>
       <c r="Q31">
-        <v>179.71</v>
+        <v>182.06100000000001</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" si="3"/>
-        <v>1.7854320850258749</v>
-      </c>
-      <c r="S31" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0344833342607533</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.7623763463893969</v>
+      </c>
+      <c r="S31">
+        <v>176.40100000000001</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="4"/>
+        <v>1.81892392900267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -4459,7 +5003,7 @@
         <v>349.512</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0857366842912404</v>
       </c>
       <c r="H32">
@@ -4483,29 +5027,32 @@
         <v>521.74599999999998</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.72732325691045074</v>
       </c>
       <c r="O32">
-        <v>360.827</v>
+        <v>384.07799999999997</v>
       </c>
       <c r="P32" s="1">
         <f t="shared" si="2"/>
-        <v>1.05168959085656</v>
+        <v>0.98802326610740532</v>
       </c>
       <c r="Q32">
-        <v>343.13499999999999</v>
+        <v>354.392</v>
       </c>
       <c r="R32" s="1">
         <f t="shared" si="3"/>
-        <v>1.1059145817243943</v>
-      </c>
-      <c r="S32" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0515598816792224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.0707860222578389</v>
+      </c>
+      <c r="S32">
+        <v>339.86799999999999</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1165452469782386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -4525,7 +5072,7 @@
         <v>100.79</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1882528028574262</v>
       </c>
       <c r="H33">
@@ -4549,29 +5096,32 @@
         <v>86.108800000000002</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.390845070422535</v>
       </c>
       <c r="O33">
-        <v>138.74799999999999</v>
+        <v>140.24100000000001</v>
       </c>
       <c r="P33" s="1">
         <f t="shared" si="2"/>
-        <v>0.8631764061463949</v>
+        <v>0.85398706512360856</v>
       </c>
       <c r="Q33">
-        <v>129.262</v>
+        <v>136.364</v>
       </c>
       <c r="R33" s="1">
         <f t="shared" si="3"/>
-        <v>0.92652132877411764</v>
-      </c>
-      <c r="S33" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0733858365180795</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.87826699128802321</v>
+      </c>
+      <c r="S33">
+        <v>126.791</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="4"/>
+        <v>0.94457808519532138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -4591,7 +5141,7 @@
         <v>87.168999999999997</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1541717812525096</v>
       </c>
       <c r="H34">
@@ -4619,25 +5169,28 @@
         <v>1.3554992380975479</v>
       </c>
       <c r="O34">
-        <v>115.206</v>
+        <v>138.86500000000001</v>
       </c>
       <c r="P34" s="1">
         <f t="shared" si="2"/>
-        <v>0.87328784959116712</v>
+        <v>0.72450221438087348</v>
       </c>
       <c r="Q34">
-        <v>110.282</v>
+        <v>114.172</v>
       </c>
       <c r="R34" s="1">
         <f t="shared" si="3"/>
-        <v>0.91227942909994386</v>
-      </c>
-      <c r="S34" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0446491721223772</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.88119679080685287</v>
+      </c>
+      <c r="S34">
+        <v>109.008</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" si="4"/>
+        <v>0.92294143549097318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -4657,7 +5210,7 @@
         <v>92.047899999999998</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.262516581040958</v>
       </c>
       <c r="H35">
@@ -4685,25 +5238,28 @@
         <v>1.3942266740089957</v>
       </c>
       <c r="O35">
-        <v>107.38500000000001</v>
+        <v>115.435</v>
       </c>
       <c r="P35" s="1">
         <f t="shared" si="2"/>
-        <v>1.0821995623224845</v>
+        <v>1.0067310607701303</v>
       </c>
       <c r="Q35">
-        <v>96.316299999999998</v>
+        <v>104.548</v>
       </c>
       <c r="R35" s="1">
         <f t="shared" si="3"/>
-        <v>1.2065662821350074</v>
-      </c>
-      <c r="S35" s="1">
-        <f t="shared" si="6"/>
-        <v>1.1149203198212556</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.1115659792631136</v>
+      </c>
+      <c r="S35">
+        <v>94.495400000000004</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2298164778391329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -4723,7 +5279,7 @@
         <v>139.845</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1727841538846582</v>
       </c>
       <c r="H36">
@@ -4751,25 +5307,28 @@
         <v>1.4217306125279565</v>
       </c>
       <c r="O36">
-        <v>221.589</v>
+        <v>221.482</v>
       </c>
       <c r="P36" s="1">
         <f t="shared" si="2"/>
-        <v>0.74014504330088593</v>
+        <v>0.74050261420792662</v>
       </c>
       <c r="Q36">
-        <v>216.494</v>
+        <v>211.86699999999999</v>
       </c>
       <c r="R36" s="1">
         <f t="shared" si="3"/>
-        <v>0.75756372001071626</v>
-      </c>
-      <c r="S36" s="1">
-        <f t="shared" si="6"/>
-        <v>1.023534139514259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.77410828491459271</v>
+      </c>
+      <c r="S36">
+        <v>210.14</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="4"/>
+        <v>0.78047016274864389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -4789,7 +5348,7 @@
         <v>70.896699999999996</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.184983222068164</v>
       </c>
       <c r="H37">
@@ -4817,25 +5376,28 @@
         <v>1.3880583698475324</v>
       </c>
       <c r="O37">
-        <v>74.447100000000006</v>
+        <v>83.903700000000001</v>
       </c>
       <c r="P37" s="1">
         <f t="shared" si="2"/>
-        <v>1.1284710888671283</v>
+        <v>1.0012836144293993</v>
       </c>
       <c r="Q37">
-        <v>71.819699999999997</v>
+        <v>73.164699999999996</v>
       </c>
       <c r="R37" s="1">
         <f t="shared" si="3"/>
-        <v>1.1697542596251447</v>
-      </c>
-      <c r="S37" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0365832772902144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.1482504541124341</v>
+      </c>
+      <c r="S37">
+        <v>70.165899999999993</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1973251964273244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -4855,7 +5417,7 @@
         <v>95.824100000000001</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1788892355889593</v>
       </c>
       <c r="H38">
@@ -4883,25 +5445,28 @@
         <v>1.4263149721027304</v>
       </c>
       <c r="O38">
-        <v>135.17500000000001</v>
+        <v>142.84399999999999</v>
       </c>
       <c r="P38" s="1">
         <f t="shared" si="2"/>
-        <v>0.83570186794895496</v>
+        <v>0.79083475679762538</v>
       </c>
       <c r="Q38">
-        <v>132.57499999999999</v>
+        <v>130.28399999999999</v>
       </c>
       <c r="R38" s="1">
         <f t="shared" si="3"/>
-        <v>0.85209126909296629</v>
-      </c>
-      <c r="S38" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0196115406373751</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.86707500537287774</v>
+      </c>
+      <c r="S38">
+        <v>128.75899999999999</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" si="4"/>
+        <v>0.87734449630705436</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -4921,7 +5486,7 @@
         <v>58.928600000000003</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1594081651354351</v>
       </c>
       <c r="H39">
@@ -4949,25 +5514,28 @@
         <v>1.4584820513696291</v>
       </c>
       <c r="O39">
-        <v>83.317300000000003</v>
+        <v>87.613500000000002</v>
       </c>
       <c r="P39" s="1">
         <f t="shared" si="2"/>
-        <v>0.82002537288174238</v>
+        <v>0.77981475457549343</v>
       </c>
       <c r="Q39">
-        <v>78.711600000000004</v>
+        <v>80.7911</v>
       </c>
       <c r="R39" s="1">
         <f t="shared" si="3"/>
-        <v>0.86800801914838466</v>
-      </c>
-      <c r="S39" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0585136117166973</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.84566616867451982</v>
+      </c>
+      <c r="S39">
+        <v>76.347399999999993</v>
+      </c>
+      <c r="T39" s="1">
+        <f t="shared" si="4"/>
+        <v>0.89488705574780547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -4987,7 +5555,7 @@
         <v>98.334900000000005</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1708559219564976</v>
       </c>
       <c r="H40">
@@ -5015,25 +5583,28 @@
         <v>1.4582317470891979</v>
       </c>
       <c r="O40">
-        <v>174.54</v>
+        <v>179.18799999999999</v>
       </c>
       <c r="P40" s="1">
         <f t="shared" si="2"/>
-        <v>0.65965394751919326</v>
+        <v>0.6425430274348729</v>
       </c>
       <c r="Q40">
-        <v>174.27699999999999</v>
+        <v>169.899</v>
       </c>
       <c r="R40" s="1">
         <f t="shared" si="3"/>
-        <v>0.66064942591391862</v>
-      </c>
-      <c r="S40" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0015090918480352</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.67767320584582602</v>
+      </c>
+      <c r="S40">
+        <v>167.54</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" si="4"/>
+        <v>0.68721499343440373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -5053,7 +5624,7 @@
         <v>449.697</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0830270159685298</v>
       </c>
       <c r="H41">
@@ -5081,25 +5652,28 @@
         <v>1.2263040215935299</v>
       </c>
       <c r="O41">
-        <v>659.98099999999999</v>
+        <v>824.80899999999997</v>
       </c>
       <c r="P41" s="1">
         <f t="shared" si="2"/>
-        <v>0.737951547089992</v>
+        <v>0.59048094771031845</v>
       </c>
       <c r="Q41">
-        <v>579.20299999999997</v>
+        <v>669.43299999999999</v>
       </c>
       <c r="R41" s="1">
         <f t="shared" si="3"/>
-        <v>0.84086926345340063</v>
-      </c>
-      <c r="S41" s="1">
-        <f t="shared" si="6"/>
-        <v>1.1394640566433532</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.72753210552811109</v>
+      </c>
+      <c r="S41">
+        <v>571.45699999999999</v>
+      </c>
+      <c r="T41" s="1">
+        <f t="shared" si="4"/>
+        <v>0.85226709971178938</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -5119,7 +5693,7 @@
         <v>254.94800000000001</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1632568209987919</v>
       </c>
       <c r="H42">
@@ -5147,25 +5721,28 @@
         <v>1.2541813799082315</v>
       </c>
       <c r="O42">
-        <v>305.99799999999999</v>
+        <v>332.935</v>
       </c>
       <c r="P42" s="1">
         <f t="shared" si="2"/>
-        <v>0.96918934110680466</v>
+        <v>0.89077447549822031</v>
       </c>
       <c r="Q42">
-        <v>290.87200000000001</v>
+        <v>302.17700000000002</v>
       </c>
       <c r="R42" s="1">
         <f t="shared" si="3"/>
-        <v>1.0195893726450123</v>
-      </c>
-      <c r="S42" s="1">
-        <f t="shared" si="6"/>
-        <v>1.052002255287549</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.98144464998990644</v>
+      </c>
+      <c r="S42">
+        <v>286.57499999999999</v>
+      </c>
+      <c r="T42" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0348774317368927</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -5185,7 +5762,7 @@
         <v>220.67500000000001</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1791050186926475</v>
       </c>
       <c r="H43">
@@ -5213,25 +5790,28 @@
         <v>1.3008454027786804</v>
       </c>
       <c r="O43">
-        <v>220.625</v>
+        <v>248.88800000000001</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" si="2"/>
-        <v>1.17937223796034</v>
+        <v>1.0454461444505159</v>
       </c>
       <c r="Q43">
-        <v>218.428</v>
+        <v>217.327</v>
       </c>
       <c r="R43" s="1">
         <f t="shared" si="3"/>
-        <v>1.1912346402475873</v>
-      </c>
-      <c r="S43" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0100582342923068</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.1972695523335803</v>
+      </c>
+      <c r="S43">
+        <v>216.47</v>
+      </c>
+      <c r="T43" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2020095163302076</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -5251,7 +5831,7 @@
         <v>123.209</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1672929737275686</v>
       </c>
       <c r="H44">
@@ -5279,25 +5859,28 @@
         <v>1.3911474807270054</v>
       </c>
       <c r="O44">
-        <v>147.55000000000001</v>
+        <v>156.584</v>
       </c>
       <c r="P44" s="1">
         <f t="shared" si="2"/>
-        <v>0.97472721111487626</v>
+        <v>0.91849103356664785</v>
       </c>
       <c r="Q44">
-        <v>143.74700000000001</v>
+        <v>145.416</v>
       </c>
       <c r="R44" s="1">
         <f t="shared" si="3"/>
-        <v>1.0005147933522089</v>
-      </c>
-      <c r="S44" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0264562043033942</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.98903146833910982</v>
+      </c>
+      <c r="S44">
+        <v>140.126</v>
+      </c>
+      <c r="T44" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0263691249304197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -5317,7 +5900,7 @@
         <v>2390.8000000000002</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.45429563326083322</v>
       </c>
       <c r="H45">
@@ -5345,25 +5928,28 @@
         <v>0.65366120810539186</v>
       </c>
       <c r="O45">
-        <v>1902.51</v>
+        <v>1180.18</v>
       </c>
       <c r="P45" s="1">
         <f t="shared" si="2"/>
-        <v>0.57089318847207116</v>
+        <v>0.92030876645935367</v>
       </c>
       <c r="Q45">
-        <v>2538.6999999999998</v>
+        <v>1838.39</v>
       </c>
       <c r="R45" s="1">
         <f t="shared" si="3"/>
-        <v>0.4278292039232679</v>
-      </c>
-      <c r="S45" s="1">
-        <f t="shared" si="6"/>
-        <v>0.74940323787765395</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.59080499785138085</v>
+      </c>
+      <c r="S45">
+        <v>2361.0500000000002</v>
+      </c>
+      <c r="T45" s="1">
+        <f t="shared" si="4"/>
+        <v>0.46001990639757734</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -5383,7 +5969,7 @@
         <v>1804.46</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.41091517683960854</v>
       </c>
       <c r="H46">
@@ -5411,25 +5997,28 @@
         <v>0.62001839618697208</v>
       </c>
       <c r="O46">
-        <v>1269.32</v>
+        <v>879.202</v>
       </c>
       <c r="P46" s="1">
         <f t="shared" si="2"/>
-        <v>0.58415529574890501</v>
+        <v>0.84335567935468758</v>
       </c>
       <c r="Q46">
-        <v>1740.56</v>
+        <v>1215.53</v>
       </c>
       <c r="R46" s="1">
         <f t="shared" si="3"/>
-        <v>0.42600082731994304</v>
-      </c>
-      <c r="S46" s="1">
-        <f t="shared" si="6"/>
-        <v>0.72925954865100884</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.6100055119988812</v>
+      </c>
+      <c r="S46">
+        <v>1648.62</v>
+      </c>
+      <c r="T46" s="1">
+        <f t="shared" si="4"/>
+        <v>0.44975797940095358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -5449,7 +6038,7 @@
         <v>372.358</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94868916472856768</v>
       </c>
       <c r="H47">
@@ -5477,25 +6066,28 @@
         <v>1.0672136892605526</v>
       </c>
       <c r="O47">
-        <v>477.87400000000002</v>
+        <v>472.18</v>
       </c>
       <c r="P47" s="1">
         <f t="shared" si="2"/>
-        <v>0.73921577654360771</v>
+        <v>0.74812995044262787</v>
       </c>
       <c r="Q47">
-        <v>423.24099999999999</v>
+        <v>430.64</v>
       </c>
       <c r="R47" s="1">
         <f t="shared" si="3"/>
-        <v>0.83463558587187925</v>
-      </c>
-      <c r="S47" s="1">
-        <f t="shared" si="6"/>
-        <v>1.1290824849199392</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.82029537432658373</v>
+      </c>
+      <c r="S47">
+        <v>416.26400000000001</v>
+      </c>
+      <c r="T47" s="1">
+        <f t="shared" si="4"/>
+        <v>0.84862491111410066</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -5515,7 +6107,7 @@
         <v>98.973100000000002</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3288358149840716</v>
       </c>
       <c r="H48">
@@ -5543,25 +6135,28 @@
         <v>1.2182422794049539</v>
       </c>
       <c r="O48">
-        <v>121.96599999999999</v>
+        <v>123.69799999999999</v>
       </c>
       <c r="P48" s="1">
         <f t="shared" si="2"/>
-        <v>1.0783251069970321</v>
+        <v>1.0632265679315753</v>
       </c>
       <c r="Q48">
-        <v>120.298</v>
+        <v>119.246</v>
       </c>
       <c r="R48" s="1">
         <f t="shared" si="3"/>
-        <v>1.0932766962044258</v>
-      </c>
-      <c r="S48" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0138655671748491</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.1029216912936284</v>
+      </c>
+      <c r="S48">
+        <v>117.21</v>
+      </c>
+      <c r="T48" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1220800273014249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -5581,7 +6176,7 @@
         <v>126.256</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.145181219110379</v>
       </c>
       <c r="H49">
@@ -5609,25 +6204,28 @@
         <v>1.3673728012105166</v>
       </c>
       <c r="O49">
-        <v>126.65</v>
+        <v>142.97200000000001</v>
       </c>
       <c r="P49" s="1">
         <f t="shared" si="2"/>
-        <v>1.1416186340307937</v>
+        <v>1.0112889237053408</v>
       </c>
       <c r="Q49">
-        <v>123.52800000000001</v>
+        <v>124.538</v>
       </c>
       <c r="R49" s="1">
         <f t="shared" si="3"/>
-        <v>1.1704714720549187</v>
-      </c>
-      <c r="S49" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0252736221747296</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.1609789783038109</v>
+      </c>
+      <c r="S49">
+        <v>122.346</v>
+      </c>
+      <c r="T49" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1817795432625506</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -5647,7 +6245,7 @@
         <v>366.28</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1654553893196462</v>
       </c>
       <c r="H50">
@@ -5675,25 +6273,28 @@
         <v>1.2933222648734952</v>
       </c>
       <c r="O50">
-        <v>347.62700000000001</v>
+        <v>429.05799999999999</v>
       </c>
       <c r="P50" s="1">
         <f t="shared" si="2"/>
-        <v>1.2279914966328851</v>
+        <v>0.99493075528250252</v>
       </c>
       <c r="Q50">
-        <v>379.68599999999998</v>
+        <v>343.423</v>
       </c>
       <c r="R50" s="1">
         <f t="shared" si="3"/>
-        <v>1.1243053470499307</v>
-      </c>
-      <c r="S50" s="1">
-        <f t="shared" si="6"/>
-        <v>0.91556444008996918</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.2430239092897097</v>
+      </c>
+      <c r="S50">
+        <v>376.19200000000001</v>
+      </c>
+      <c r="T50" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1347476820347056</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -5713,7 +6314,7 @@
         <v>733.23699999999997</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2703723352749521</v>
       </c>
       <c r="H51">
@@ -5741,25 +6342,28 @@
         <v>0.38563101329756405</v>
       </c>
       <c r="O51">
-        <v>1112.6600000000001</v>
+        <v>1142.5999999999999</v>
       </c>
       <c r="P51" s="1">
         <f t="shared" si="2"/>
-        <v>0.83716858698973629</v>
+        <v>0.81523192718361637</v>
       </c>
       <c r="Q51">
-        <v>1211.69</v>
+        <v>1121.27</v>
       </c>
       <c r="R51" s="1">
         <f t="shared" si="3"/>
-        <v>0.76874778202345484</v>
-      </c>
-      <c r="S51" s="1">
-        <f t="shared" si="6"/>
-        <v>0.91827117497049582</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.83074014287370579</v>
+      </c>
+      <c r="S51">
+        <v>1234.92</v>
+      </c>
+      <c r="T51" s="1">
+        <f t="shared" si="4"/>
+        <v>0.75428691737116571</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>76</v>
       </c>
@@ -5779,7 +6383,7 @@
         <v>227.982</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1619426095042591</v>
       </c>
       <c r="H52">
@@ -5807,25 +6411,28 @@
         <v>1.3378483480298575</v>
       </c>
       <c r="O52">
-        <v>331.93799999999999</v>
+        <v>309.94</v>
       </c>
       <c r="P52" s="1">
         <f t="shared" si="2"/>
-        <v>0.79804662316456687</v>
+        <v>0.85468800412983159</v>
       </c>
       <c r="Q52">
-        <v>311.25200000000001</v>
+        <v>327.81700000000001</v>
       </c>
       <c r="R52" s="1">
         <f t="shared" si="3"/>
-        <v>0.85108529423104107</v>
-      </c>
-      <c r="S52" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0664606171205324</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.80807889767766772</v>
+      </c>
+      <c r="S52">
+        <v>310.14400000000001</v>
+      </c>
+      <c r="T52" s="1">
+        <f t="shared" si="4"/>
+        <v>0.85412582542302928</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -5845,7 +6452,7 @@
         <v>1704.22</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.132494630974874</v>
       </c>
       <c r="H53">
@@ -5873,25 +6480,28 @@
         <v>0.6628043545451423</v>
       </c>
       <c r="O53">
-        <v>2877.63</v>
+        <v>2788.88</v>
       </c>
       <c r="P53" s="1">
         <f t="shared" si="2"/>
-        <v>0.67069776169973205</v>
+        <v>0.69204124953386303</v>
       </c>
       <c r="Q53">
-        <v>3031.75</v>
+        <v>2896.04</v>
       </c>
       <c r="R53" s="1">
         <f t="shared" si="3"/>
-        <v>0.63660262224787667</v>
-      </c>
-      <c r="S53" s="1">
-        <f t="shared" si="6"/>
-        <v>0.949164673868228</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.66643416527396027</v>
+      </c>
+      <c r="S53">
+        <v>3001.41</v>
+      </c>
+      <c r="T53" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64303777224704395</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>78</v>
       </c>
@@ -5911,7 +6521,7 @@
         <v>71.572100000000006</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1908648761179284</v>
       </c>
       <c r="H54">
@@ -5939,25 +6549,28 @@
         <v>1.3906801439095424</v>
       </c>
       <c r="O54">
-        <v>90.059799999999996</v>
+        <v>87.742599999999996</v>
       </c>
       <c r="P54" s="1">
         <f t="shared" si="2"/>
-        <v>0.94640116900104154</v>
+        <v>0.9713947387016113</v>
       </c>
       <c r="Q54">
-        <v>77.946899999999999</v>
+        <v>88.966999999999999</v>
       </c>
       <c r="R54" s="1">
         <f t="shared" si="3"/>
-        <v>1.0934713247095138</v>
-      </c>
-      <c r="S54" s="1">
-        <f t="shared" si="6"/>
-        <v>1.1553993808605603</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.95802600964402529</v>
+      </c>
+      <c r="S54">
+        <v>76.628399999999999</v>
+      </c>
+      <c r="T54" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1122860453826517</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -5977,7 +6590,7 @@
         <v>373.50400000000002</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1998318625771076</v>
       </c>
       <c r="H55">
@@ -6005,25 +6618,28 @@
         <v>1.1474902763090176</v>
       </c>
       <c r="O55">
-        <v>377.34399999999999</v>
+        <v>391.733</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" si="2"/>
-        <v>1.1876219046811398</v>
+        <v>1.1439985908769494</v>
       </c>
       <c r="Q55">
-        <v>357.35399999999998</v>
+        <v>372.23200000000003</v>
       </c>
       <c r="R55" s="1">
         <f t="shared" si="3"/>
-        <v>1.2540562019733934</v>
-      </c>
-      <c r="S55" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0559389289052312</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.2039319564142792</v>
+      </c>
+      <c r="S55">
+        <v>352.97899999999998</v>
+      </c>
+      <c r="T55" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2695996079086858</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -6043,7 +6659,7 @@
         <v>262.97899999999998</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1300331965670263</v>
       </c>
       <c r="H56">
@@ -6071,25 +6687,28 @@
         <v>1.3589118644997851</v>
       </c>
       <c r="O56">
-        <v>333.154</v>
+        <v>358.24099999999999</v>
       </c>
       <c r="P56" s="1">
         <f t="shared" si="2"/>
-        <v>0.89200489863546595</v>
+        <v>0.82953933246055034</v>
       </c>
       <c r="Q56">
-        <v>321.59399999999999</v>
+        <v>333.09</v>
       </c>
       <c r="R56" s="1">
         <f t="shared" si="3"/>
-        <v>0.92406885700603869</v>
-      </c>
-      <c r="S56" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0359459442651293</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.89217628869074439</v>
+      </c>
+      <c r="S56">
+        <v>318.81</v>
+      </c>
+      <c r="T56" s="1">
+        <f t="shared" si="4"/>
+        <v>0.93213826416988177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -6109,7 +6728,7 @@
         <v>148.5</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1451178451178452</v>
       </c>
       <c r="H57">
@@ -6137,25 +6756,28 @@
         <v>1.3247793332865903</v>
       </c>
       <c r="O57">
-        <v>177.69</v>
+        <v>210.56100000000001</v>
       </c>
       <c r="P57" s="1">
         <f t="shared" si="2"/>
-        <v>0.95700377061173958</v>
+        <v>0.80760444716732926</v>
       </c>
       <c r="Q57">
-        <v>193.327</v>
+        <v>175.99199999999999</v>
       </c>
       <c r="R57" s="1">
         <f t="shared" si="3"/>
-        <v>0.8795977799272735</v>
-      </c>
-      <c r="S57" s="1">
-        <f t="shared" si="6"/>
-        <v>0.91911631587931331</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.96623710168644039</v>
+      </c>
+      <c r="S57">
+        <v>189.91200000000001</v>
+      </c>
+      <c r="T57" s="1">
+        <f t="shared" si="4"/>
+        <v>0.8954147183958886</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -6175,7 +6797,7 @@
         <v>115.73399999999999</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.180767967926452</v>
       </c>
       <c r="H58">
@@ -6203,25 +6825,28 @@
         <v>1.3480280939885967</v>
       </c>
       <c r="O58">
-        <v>145.48099999999999</v>
+        <v>159.255</v>
       </c>
       <c r="P58" s="1">
         <f t="shared" si="2"/>
-        <v>0.93933228394085833</v>
+        <v>0.8580892279677248</v>
       </c>
       <c r="Q58">
-        <v>130.39099999999999</v>
+        <v>141.084</v>
       </c>
       <c r="R58" s="1">
         <f t="shared" si="3"/>
-        <v>1.0480401254687823</v>
-      </c>
-      <c r="S58" s="1">
-        <f t="shared" si="6"/>
-        <v>1.1157288463160802</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.9686073544838536</v>
+      </c>
+      <c r="S58">
+        <v>128.83099999999999</v>
+      </c>
+      <c r="T58" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0607307247479256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -6241,7 +6866,7 @@
         <v>373.56400000000002</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.166836204773479</v>
       </c>
       <c r="H59">
@@ -6269,25 +6894,28 @@
         <v>1.3751104156676677</v>
       </c>
       <c r="O59">
-        <v>564.98699999999997</v>
+        <v>569.89400000000001</v>
       </c>
       <c r="P59" s="1">
         <f t="shared" si="2"/>
-        <v>0.77150093718970525</v>
+        <v>0.7648580262294391</v>
       </c>
       <c r="Q59">
-        <v>502.42899999999997</v>
+        <v>523.35900000000004</v>
       </c>
       <c r="R59" s="1">
         <f t="shared" si="3"/>
-        <v>0.86756138678300809</v>
-      </c>
-      <c r="S59" s="1">
-        <f t="shared" si="6"/>
-        <v>1.1245111249549689</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.8328661587934858</v>
+      </c>
+      <c r="S59">
+        <v>497.83100000000002</v>
+      </c>
+      <c r="T59" s="1">
+        <f t="shared" si="4"/>
+        <v>0.87557424105770831</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>84</v>
       </c>
@@ -6307,7 +6935,7 @@
         <v>372.48200000000003</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1434378037059509</v>
       </c>
       <c r="H60">
@@ -6335,25 +6963,28 @@
         <v>1.2718515023561101</v>
       </c>
       <c r="O60">
-        <v>557.80600000000004</v>
+        <v>505.89699999999999</v>
       </c>
       <c r="P60" s="1">
         <f t="shared" si="2"/>
-        <v>0.76354503178524435</v>
+        <v>0.84189074060530111</v>
       </c>
       <c r="Q60">
-        <v>523.91300000000001</v>
+        <v>584.26</v>
       </c>
       <c r="R60" s="1">
         <f t="shared" si="3"/>
-        <v>0.81294031642658227</v>
-      </c>
-      <c r="S60" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0646920385636547</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.72897340225242191</v>
+      </c>
+      <c r="S60">
+        <v>523.86800000000005</v>
+      </c>
+      <c r="T60" s="1">
+        <f t="shared" si="4"/>
+        <v>0.81301014759443213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -6373,7 +7004,7 @@
         <v>355.733</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1024448111364422</v>
       </c>
       <c r="H61">
@@ -6401,25 +7032,28 @@
         <v>1.2749959361487695</v>
       </c>
       <c r="O61">
-        <v>405.02199999999999</v>
+        <v>360.93</v>
       </c>
       <c r="P61" s="1">
         <f t="shared" si="2"/>
-        <v>0.96828320436914539</v>
+        <v>1.0865708032028372</v>
       </c>
       <c r="Q61">
-        <v>389.024</v>
+        <v>403.03800000000001</v>
       </c>
       <c r="R61" s="1">
         <f t="shared" si="3"/>
-        <v>1.0081023278769432</v>
-      </c>
-      <c r="S61" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0411234268322778</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.97304968762250699</v>
+      </c>
+      <c r="S61">
+        <v>382.346</v>
+      </c>
+      <c r="T61" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0257096974991238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -6439,7 +7073,7 @@
         <v>152.084</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1631927092922332</v>
       </c>
       <c r="H62">
@@ -6467,25 +7101,28 @@
         <v>1.3677784994123829</v>
       </c>
       <c r="O62">
-        <v>154.83600000000001</v>
+        <v>164.952</v>
       </c>
       <c r="P62" s="1">
         <f t="shared" si="2"/>
-        <v>1.1425185357410419</v>
+        <v>1.0724513797953343</v>
       </c>
       <c r="Q62">
-        <v>146.28700000000001</v>
+        <v>153.22</v>
       </c>
       <c r="R62" s="1">
         <f t="shared" si="3"/>
-        <v>1.2092872230615159</v>
-      </c>
-      <c r="S62" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0584399160554254</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.1545685941783057</v>
+      </c>
+      <c r="S62">
+        <v>145.65600000000001</v>
+      </c>
+      <c r="T62" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2145260064810237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -6505,7 +7142,7 @@
         <v>82.633600000000001</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1486755992719668</v>
       </c>
       <c r="H63">
@@ -6533,25 +7170,28 @@
         <v>1.3527901889105045</v>
       </c>
       <c r="O63">
-        <v>89.927400000000006</v>
+        <v>119.506</v>
       </c>
       <c r="P63" s="1">
         <f t="shared" si="2"/>
-        <v>1.0555092218834303</v>
+        <v>0.79426304955399729</v>
       </c>
       <c r="Q63">
-        <v>103.86799999999999</v>
+        <v>88.796199999999999</v>
       </c>
       <c r="R63" s="1">
         <f t="shared" si="3"/>
-        <v>0.91384449493588027</v>
-      </c>
-      <c r="S63" s="1">
-        <f t="shared" si="6"/>
-        <v>0.86578541995609826</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.0689556535076952</v>
+      </c>
+      <c r="S63">
+        <v>102.578</v>
+      </c>
+      <c r="T63" s="1">
+        <f t="shared" si="4"/>
+        <v>0.9253368168613153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -6571,7 +7211,7 @@
         <v>44.600099999999998</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1897439691839256</v>
       </c>
       <c r="H64">
@@ -6599,25 +7239,28 @@
         <v>1.4569379501217716</v>
       </c>
       <c r="O64">
-        <v>63.157600000000002</v>
+        <v>65.570999999999998</v>
       </c>
       <c r="P64" s="1">
         <f t="shared" si="2"/>
-        <v>0.84016333742890792</v>
+        <v>0.80924036540543842</v>
       </c>
       <c r="Q64">
-        <v>60.9407</v>
+        <v>62.025599999999997</v>
       </c>
       <c r="R64" s="1">
         <f t="shared" si="3"/>
-        <v>0.87072678850095253</v>
-      </c>
-      <c r="S64" s="1">
-        <f t="shared" si="6"/>
-        <v>1.036377987125189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.85549676262704433</v>
+      </c>
+      <c r="S64">
+        <v>60.052599999999998</v>
+      </c>
+      <c r="T64" s="1">
+        <f t="shared" si="4"/>
+        <v>0.88360370741649819</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>89</v>
       </c>
@@ -6637,7 +7280,7 @@
         <v>191.47</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2830312842742988</v>
       </c>
       <c r="H65">
@@ -6665,25 +7308,28 @@
         <v>1.2832993783628481</v>
       </c>
       <c r="O65">
-        <v>184.27</v>
+        <v>215.15700000000001</v>
       </c>
       <c r="P65" s="1">
         <f t="shared" si="2"/>
-        <v>1.3331632929939763</v>
+        <v>1.1417801884205487</v>
       </c>
       <c r="Q65">
-        <v>175.73400000000001</v>
+        <v>182.86799999999999</v>
       </c>
       <c r="R65" s="1">
         <f t="shared" si="3"/>
-        <v>1.3979195830061342</v>
-      </c>
-      <c r="S65" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0485734120887251</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.3433842990572435</v>
+      </c>
+      <c r="S65">
+        <v>175.65600000000001</v>
+      </c>
+      <c r="T65" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3985403288245206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>90</v>
       </c>
@@ -6703,7 +7349,7 @@
         <v>66.720600000000005</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.237799120511506</v>
       </c>
       <c r="H66">
@@ -6713,43 +7359,46 @@
         <v>60.420499999999997</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" ref="J66:J97" si="10">D66/I66</f>
+        <f t="shared" ref="J66:J71" si="10">D66/I66</f>
         <v>1.3668655505995482</v>
       </c>
       <c r="K66">
         <v>60.375</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" ref="L66:L97" si="11">D66/K66</f>
+        <f t="shared" ref="L66:L71" si="11">D66/K66</f>
         <v>1.367895652173913</v>
       </c>
       <c r="M66">
         <v>60.381799999999998</v>
       </c>
       <c r="N66" s="1">
-        <f t="shared" ref="N66:N97" si="12">D66/M66</f>
+        <f t="shared" ref="N66:N71" si="12">D66/M66</f>
         <v>1.3677416042582367</v>
       </c>
       <c r="O66">
-        <v>66.576300000000003</v>
+        <v>71.876599999999996</v>
       </c>
       <c r="P66" s="1">
         <f t="shared" ref="P66:P71" si="13">$D66/O66</f>
-        <v>1.240481973314828</v>
+        <v>1.1490067699362518</v>
       </c>
       <c r="Q66">
-        <v>63.994700000000002</v>
+        <v>65.677899999999994</v>
       </c>
       <c r="R66" s="1">
         <f t="shared" ref="R66:R71" si="14">$D66/Q66</f>
-        <v>1.2905240590236378</v>
-      </c>
-      <c r="S66" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0403408407258727</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.2574503752403776</v>
+      </c>
+      <c r="S66">
+        <v>62.838099999999997</v>
+      </c>
+      <c r="T66" s="1">
+        <f t="shared" ref="T66:T71" si="15">$D66/S66</f>
+        <v>1.314277484519742</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>91</v>
       </c>
@@ -6769,7 +7418,7 @@
         <v>310.608</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" ref="G67:G71" si="15">D67/F67</f>
+        <f t="shared" ref="G67:G71" si="16">D67/F67</f>
         <v>1.1473561530932879</v>
       </c>
       <c r="H67">
@@ -6797,25 +7446,28 @@
         <v>1.3332011522202685</v>
       </c>
       <c r="O67">
-        <v>393.334</v>
+        <v>493.733</v>
       </c>
       <c r="P67" s="1">
         <f t="shared" si="13"/>
-        <v>0.90604422704368293</v>
+        <v>0.72180307980224123</v>
       </c>
       <c r="Q67">
-        <v>422.44200000000001</v>
+        <v>394.66500000000002</v>
       </c>
       <c r="R67" s="1">
         <f t="shared" si="14"/>
-        <v>0.84361403458936368</v>
-      </c>
-      <c r="S67" s="1">
-        <f t="shared" ref="S67:S71" si="16">O67/Q67</f>
-        <v>0.9310958664147978</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.90298861059379465</v>
+      </c>
+      <c r="S67">
+        <v>423.20499999999998</v>
+      </c>
+      <c r="T67" s="1">
+        <f t="shared" si="15"/>
+        <v>0.84209307545988354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>92</v>
       </c>
@@ -6835,7 +7487,7 @@
         <v>185.452</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1464637749929902</v>
       </c>
       <c r="H68">
@@ -6863,25 +7515,28 @@
         <v>1.3273856719213359</v>
       </c>
       <c r="O68">
-        <v>224.852</v>
+        <v>285.79899999999998</v>
       </c>
       <c r="P68" s="1">
         <f t="shared" si="13"/>
-        <v>0.94557308807571205</v>
+        <v>0.74392842522192182</v>
       </c>
       <c r="Q68">
-        <v>251.428</v>
+        <v>222.642</v>
       </c>
       <c r="R68" s="1">
         <f t="shared" si="14"/>
-        <v>0.84562578551314893</v>
-      </c>
-      <c r="S68" s="1">
-        <f t="shared" si="16"/>
-        <v>0.89429975977218135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.95495908229354753</v>
+      </c>
+      <c r="S68">
+        <v>250.714</v>
+      </c>
+      <c r="T68" s="1">
+        <f t="shared" si="15"/>
+        <v>0.84803401485357821</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>93</v>
       </c>
@@ -6901,7 +7556,7 @@
         <v>185.98</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1622970211850736</v>
       </c>
       <c r="H69">
@@ -6929,25 +7584,28 @@
         <v>1.3189739334179438</v>
       </c>
       <c r="O69">
-        <v>231.535</v>
+        <v>289.22800000000001</v>
       </c>
       <c r="P69" s="1">
         <f t="shared" si="13"/>
-        <v>0.93361262876023055</v>
+        <v>0.74738268770658434</v>
       </c>
       <c r="Q69">
-        <v>251.06299999999999</v>
+        <v>226.81100000000001</v>
       </c>
       <c r="R69" s="1">
         <f t="shared" si="14"/>
-        <v>0.86099504905143331</v>
-      </c>
-      <c r="S69" s="1">
-        <f t="shared" si="16"/>
-        <v>0.92221872597714516</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0.95305783229208452</v>
+      </c>
+      <c r="S69">
+        <v>254.089</v>
+      </c>
+      <c r="T69" s="1">
+        <f t="shared" si="15"/>
+        <v>0.85074127569473679</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -6967,7 +7625,7 @@
         <v>63.889400000000002</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.2403105992543364</v>
       </c>
       <c r="H70">
@@ -6995,25 +7653,28 @@
         <v>1.479222706526913</v>
       </c>
       <c r="O70">
-        <v>80.158900000000003</v>
+        <v>84.788499999999999</v>
       </c>
       <c r="P70" s="1">
         <f t="shared" si="13"/>
-        <v>0.9885702024354126</v>
+        <v>0.93459254497956679</v>
       </c>
       <c r="Q70">
-        <v>78.061999999999998</v>
+        <v>77.9452</v>
       </c>
       <c r="R70" s="1">
         <f t="shared" si="14"/>
-        <v>1.0151251569265456</v>
-      </c>
-      <c r="S70" s="1">
-        <f t="shared" si="16"/>
-        <v>1.0268619815018831</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1.016646310484802</v>
+      </c>
+      <c r="S70">
+        <v>75.133499999999998</v>
+      </c>
+      <c r="T70" s="1">
+        <f t="shared" si="15"/>
+        <v>1.0546919816060745</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>95</v>
       </c>
@@ -7033,7 +7694,7 @@
         <v>143.40299999999999</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1663563523775653</v>
       </c>
       <c r="H71">
@@ -7061,50 +7722,69 @@
         <v>1.4055496264674492</v>
       </c>
       <c r="O71">
-        <v>183.13399999999999</v>
+        <v>190.17599999999999</v>
       </c>
       <c r="P71" s="1">
         <f t="shared" si="13"/>
-        <v>0.91331484049930656</v>
+        <v>0.87949583543664811</v>
       </c>
       <c r="Q71">
-        <v>173.16300000000001</v>
+        <v>178.09100000000001</v>
       </c>
       <c r="R71" s="1">
         <f t="shared" si="14"/>
-        <v>0.96590495660158338</v>
-      </c>
-      <c r="S71" s="1">
-        <f t="shared" si="16"/>
-        <v>1.0575815849806249</v>
+        <v>0.93917716223728309</v>
+      </c>
+      <c r="S71">
+        <v>169.161</v>
+      </c>
+      <c r="T71" s="1">
+        <f t="shared" si="15"/>
+        <v>0.98875627360916518</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J71">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="38" operator="greaterThan">
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G71">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="37" operator="greaterThan">
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L71">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="36" operator="greaterThan">
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="greaterThan">
+      <formula>1.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N71">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="lessThan">
+      <formula>0.95</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="greaterThan">
+      <formula>1.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R71">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
@@ -7112,7 +7792,7 @@
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N71">
+  <conditionalFormatting sqref="T2:T71">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
@@ -7120,7 +7800,7 @@
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P71">
+  <conditionalFormatting sqref="P2">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
@@ -7128,7 +7808,7 @@
       <formula>1.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R71">
+  <conditionalFormatting sqref="P3:P71">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0.95</formula>
     </cfRule>
